--- a/Shipping & Transportation/GXO.xlsx
+++ b/Shipping & Transportation/GXO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\02_Long Short Portfolio Management\02_Data\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EAE4D5-5F64-4761-AFDB-4CAF47A513D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CAC8CA-8B88-4694-B379-EA961E3BC9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>GXO</t>
   </si>
@@ -268,13 +268,67 @@
   </si>
   <si>
     <t>SG&amp;A y/y</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Net CASH</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Net Inc</t>
+  </si>
+  <si>
+    <t>SBE</t>
+  </si>
+  <si>
+    <t>deff. Tax</t>
+  </si>
+  <si>
+    <t>Other Ass</t>
+  </si>
+  <si>
+    <t>Accrued Exp</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>Proc. PP&amp;E</t>
+  </si>
+  <si>
+    <t>Rep. Debt</t>
+  </si>
+  <si>
+    <t>Rep. Finance</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>Net Cash Chance</t>
+  </si>
+  <si>
+    <t>CC EOP</t>
+  </si>
+  <si>
+    <t>CC BOP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,13 +351,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -333,39 +415,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -646,10 +726,10 @@
   <dimension ref="B2:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -662,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>49.88</v>
+        <v>64.87</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
@@ -679,7 +759,7 @@
       </c>
       <c r="P4">
         <f>P2*P3</f>
-        <v>5885.84</v>
+        <v>7654.6600000000008</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -690,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="P5">
-        <f>Model!U27</f>
+        <f>Model!U29</f>
         <v>495</v>
       </c>
     </row>
@@ -702,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <f>Model!U38+Model!U41</f>
+        <f>Model!U40+Model!U43</f>
         <v>1806</v>
       </c>
     </row>
@@ -711,17 +791,24 @@
         <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="P7">
-        <f>P4-P5+P6</f>
-        <v>7196.84</v>
+        <f>P5-P6</f>
+        <v>-1311</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>64</v>
       </c>
+      <c r="O8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <f>P4-P5+P6</f>
+        <v>8965.66</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -766,7 +853,7 @@
       <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>0.3</v>
       </c>
     </row>
@@ -777,18 +864,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A2:W44"/>
+  <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>60</v>
@@ -826,6 +918,9 @@
       <c r="M2" t="s">
         <v>10</v>
       </c>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
       <c r="R2" t="s">
         <v>57</v>
       </c>
@@ -838,10 +933,10 @@
       <c r="U2" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -881,6 +976,12 @@
         <f>U3-K3-J3-I3</f>
         <v>2467</v>
       </c>
+      <c r="M3">
+        <v>2323</v>
+      </c>
+      <c r="N3">
+        <v>2394</v>
+      </c>
       <c r="R3">
         <v>6094</v>
       </c>
@@ -893,10 +994,10 @@
       <c r="U3">
         <v>8993</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="7">
         <v>9740</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3">
         <v>10510</v>
       </c>
     </row>
@@ -936,6 +1037,12 @@
         <f t="shared" ref="L4:L16" si="1">U4-K4-J4-I4</f>
         <v>2035</v>
       </c>
+      <c r="M4">
+        <v>1906</v>
+      </c>
+      <c r="N4">
+        <v>1957</v>
+      </c>
       <c r="R4">
         <v>5112</v>
       </c>
@@ -948,8 +1055,7 @@
       <c r="U4">
         <v>7443</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="10"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -987,6 +1093,12 @@
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
+      <c r="M5">
+        <v>258</v>
+      </c>
+      <c r="N5">
+        <v>245</v>
+      </c>
       <c r="R5">
         <v>514</v>
       </c>
@@ -999,8 +1111,7 @@
       <c r="U5">
         <v>886</v>
       </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="10"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1038,6 +1149,12 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
+      <c r="M6">
+        <v>83</v>
+      </c>
+      <c r="N6">
+        <v>84</v>
+      </c>
       <c r="R6">
         <v>302</v>
       </c>
@@ -1050,8 +1167,7 @@
       <c r="U6">
         <v>329</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="10"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1089,6 +1205,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
       <c r="R7">
         <v>1</v>
       </c>
@@ -1101,8 +1223,7 @@
       <c r="U7">
         <v>61</v>
       </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="10"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1136,10 +1257,16 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="15">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="M8" s="15">
+        <v>21</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
       <c r="R8">
         <v>15</v>
       </c>
@@ -1152,8 +1279,7 @@
       <c r="U8">
         <v>32</v>
       </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="10"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1168,37 +1294,45 @@
         <v>49</v>
       </c>
       <c r="E9" s="1">
-        <f>E3-E4-E5-E6-E7-E8</f>
+        <f t="shared" ref="E9:N9" si="2">E3-E4-E5-E6-E7-E8</f>
         <v>30</v>
       </c>
       <c r="F9" s="1">
-        <f>F3-F4-F5-F6-F7-F8</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="G9" s="1">
-        <f>G3-G4-G5-G6-G7-G8</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="H9" s="1">
-        <f>H3-H4-H5-H6-H7-H8</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="I9" s="1">
-        <f>I3-I4-I5-I6-I7-I8</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="J9" s="1">
-        <f>J3-J4-J5-J6-J7-J8</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="K9" s="1">
-        <f>K3-K4-K5-K6-K7-K8</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="L9">
         <f>U9-K9-J9-I9</f>
         <v>74</v>
       </c>
+      <c r="M9" s="1">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
       <c r="R9" s="1">
         <f>R3-R4-R5-R6-R7-R8</f>
         <v>150</v>
@@ -1215,8 +1349,7 @@
         <f>U3-U4-U5-U6-U7-U8</f>
         <v>242</v>
       </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="12"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1254,6 +1387,12 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
       <c r="R10">
         <v>1</v>
       </c>
@@ -1266,8 +1405,7 @@
       <c r="U10">
         <v>51</v>
       </c>
-      <c r="V10" s="9"/>
-      <c r="W10" s="10"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1301,10 +1439,16 @@
       <c r="K11">
         <v>-6</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="15">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
+      <c r="M11" s="15">
+        <v>-13</v>
+      </c>
+      <c r="N11" s="15">
+        <v>-14</v>
+      </c>
       <c r="R11">
         <v>-33</v>
       </c>
@@ -1317,8 +1461,7 @@
       <c r="U11">
         <v>-29</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="10"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1329,19 +1472,18 @@
         <v>436</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12:U12" si="2">S13+S8+S7+S6</f>
+        <f t="shared" ref="S12:T12" si="3">S13+S8+S7+S6</f>
         <v>393</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>591</v>
       </c>
       <c r="U12">
         <f>U13+U8+U7+U6</f>
         <v>686</v>
       </c>
-      <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1356,36 +1498,44 @@
         <v>43</v>
       </c>
       <c r="E13" s="1">
-        <f>E9+E10+E11</f>
+        <f t="shared" ref="E13:N13" si="4">E9+E10+E11</f>
         <v>26</v>
       </c>
       <c r="F13" s="1">
-        <f>F9+F10+F11</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G13" s="1">
-        <f>G9+G10+G11</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="H13" s="1">
-        <f>H9+H10+H11</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="I13" s="1">
-        <f>I9+I10+I11</f>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="J13" s="1">
-        <f>J9+J10+J11</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="K13" s="1">
-        <f>K9+K10+K11</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="L13" s="1">
-        <f>L9+L10+L11</f>
+        <f t="shared" si="4"/>
         <v>59</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="4"/>
+        <v>86</v>
       </c>
       <c r="R13" s="1">
         <f>R9+R10+R11</f>
@@ -1403,8 +1553,7 @@
         <f>U9+U10+U11</f>
         <v>264</v>
       </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="12"/>
+      <c r="V13" s="8"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1442,6 +1591,12 @@
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
+      <c r="M14">
+        <v>-3</v>
+      </c>
+      <c r="N14">
+        <v>-20</v>
+      </c>
       <c r="R14">
         <v>-37</v>
       </c>
@@ -1454,8 +1609,7 @@
       <c r="U14">
         <v>-64</v>
       </c>
-      <c r="V14" s="9"/>
-      <c r="W14" s="10"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1470,36 +1624,44 @@
         <v>23</v>
       </c>
       <c r="E15" s="1">
-        <f>E13+E14</f>
+        <f t="shared" ref="E15:N15" si="5">E13+E14</f>
         <v>17</v>
       </c>
       <c r="F15" s="1">
-        <f>F13+F14</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="G15" s="1">
-        <f>G13+G14</f>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="H15" s="1">
-        <f>H13+H14</f>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="I15" s="1">
-        <f>I13+I14</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J15" s="1">
-        <f>J13+J14</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="K15" s="1">
-        <f>K13+K14</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="L15" s="1">
-        <f>L13+L14</f>
+        <f t="shared" si="5"/>
         <v>46</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="5"/>
+        <v>66</v>
       </c>
       <c r="R15" s="1">
         <f>R13+R14</f>
@@ -1517,62 +1679,66 @@
         <f>U13+U14</f>
         <v>200</v>
       </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="12"/>
-    </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>-5</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>-3</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>-3</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>-1</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>-1</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>-1</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <v>-1</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R16" s="2">
+      <c r="M16">
+        <v>-1</v>
+      </c>
+      <c r="N16">
+        <v>-1</v>
+      </c>
+      <c r="R16">
         <v>-21</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16">
         <v>-9</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16">
         <v>-8</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16">
         <v>-3</v>
       </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="14"/>
+      <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="1">
@@ -1584,36 +1750,44 @@
         <v>18</v>
       </c>
       <c r="E17" s="1">
-        <f>E15+E16</f>
+        <f t="shared" ref="E17:N17" si="6">E15+E16</f>
         <v>14</v>
       </c>
       <c r="F17" s="1">
-        <f>F15+F16</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G17" s="1">
-        <f>G15+G16</f>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="H17" s="1">
-        <f>H15+H16</f>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="I17" s="1">
-        <f>I15+I16</f>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="J17" s="1">
-        <f>J15+J16</f>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="K17" s="1">
-        <f>K15+K16</f>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="L17" s="1">
-        <f>L15+L16</f>
+        <f t="shared" si="6"/>
         <v>46</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="6"/>
+        <v>65</v>
       </c>
       <c r="R17" s="1">
         <f>R15+R16</f>
@@ -1631,11 +1805,11 @@
         <f>U15+U16</f>
         <v>197</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="8">
         <f>V19*V18</f>
         <v>269.09999999999997</v>
       </c>
-      <c r="W17" s="12">
+      <c r="W17" s="1">
         <f>W19*W18</f>
         <v>315.90000000000003</v>
       </c>
@@ -1674,6 +1848,12 @@
       <c r="L18">
         <v>118</v>
       </c>
+      <c r="M18">
+        <v>118</v>
+      </c>
+      <c r="N18">
+        <v>118</v>
+      </c>
       <c r="R18">
         <v>114</v>
       </c>
@@ -1686,10 +1866,10 @@
       <c r="U18">
         <v>117</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="7">
         <v>117</v>
       </c>
-      <c r="W18" s="17">
+      <c r="W18">
         <v>117</v>
       </c>
     </row>
@@ -1697,1061 +1877,1635 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f>B17/B18</f>
         <v>-0.56521739130434778</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f>C17/C18</f>
         <v>0.15652173913043479</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
         <f>E17/E18</f>
         <v>0.12280701754385964</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f>F17/F18</f>
         <v>9.4827586206896547E-2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f>G17/G18</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="H19" s="3">
-        <f t="shared" ref="H19:K19" si="3">H17/H18</f>
+      <c r="H19" s="2">
+        <f t="shared" ref="H19:K19" si="7">H17/H18</f>
         <v>0.49122807017543857</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" si="3"/>
+      <c r="I19" s="2">
+        <f t="shared" si="7"/>
         <v>0.32456140350877194</v>
       </c>
-      <c r="J19" s="3">
-        <f t="shared" si="3"/>
+      <c r="J19" s="2">
+        <f t="shared" si="7"/>
         <v>0.43965517241379309</v>
       </c>
-      <c r="K19" s="3">
-        <f t="shared" si="3"/>
+      <c r="K19" s="2">
+        <f t="shared" si="7"/>
         <v>0.53389830508474578</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <f>L17/L18</f>
         <v>0.38983050847457629</v>
       </c>
-      <c r="R19" s="3">
+      <c r="M19" s="2">
+        <f>M17/M18</f>
+        <v>0.21186440677966101</v>
+      </c>
+      <c r="N19" s="2">
+        <f>N17/N18</f>
+        <v>0.55084745762711862</v>
+      </c>
+      <c r="R19" s="2">
         <f>R17/R18</f>
         <v>0.52631578947368418</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="2">
         <f>S17/S18</f>
         <v>-0.27192982456140352</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="2">
         <f>T17/T18</f>
         <v>1.3421052631578947</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="2">
         <f>U17/U18</f>
         <v>1.6837606837606838</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W19" s="12">
+      <c r="W19" s="1">
         <v>2.7</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <f>B3/B4-1</f>
         <v>0.18565400843881852</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <f>C3/C4-1</f>
         <v>0.22127987663839632</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <f>E3/E4-1</f>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20:N20" si="8">E3/E4-1</f>
         <v>0.1986842105263158</v>
       </c>
-      <c r="F20" s="6">
-        <f>F3/F4-1</f>
+      <c r="F20" s="5">
+        <f t="shared" si="8"/>
         <v>0.21106821106821116</v>
       </c>
-      <c r="G20" s="6">
-        <f>G3/G4-1</f>
+      <c r="G20" s="5">
+        <f t="shared" si="8"/>
         <v>0.19563900666262879</v>
       </c>
-      <c r="H20" s="6">
-        <f>H3/H4-1</f>
+      <c r="H20" s="5">
+        <f t="shared" si="8"/>
         <v>0.18305439330543938</v>
       </c>
-      <c r="I20" s="6">
-        <f>I3/I4-1</f>
+      <c r="I20" s="5">
+        <f t="shared" si="8"/>
         <v>0.1916475972540046</v>
       </c>
-      <c r="J20" s="6">
-        <f>J3/J4-1</f>
+      <c r="J20" s="5">
+        <f t="shared" si="8"/>
         <v>0.21464788732394369</v>
       </c>
-      <c r="K20" s="6">
-        <f>K3/K4-1</f>
+      <c r="K20" s="5">
+        <f t="shared" si="8"/>
         <v>0.21326259946949611</v>
       </c>
-      <c r="L20" s="6">
-        <f>L3/L4-1</f>
+      <c r="L20" s="5">
+        <f t="shared" si="8"/>
         <v>0.21228501228501218</v>
       </c>
-      <c r="R20" s="6">
-        <f>R3/R4-1</f>
+      <c r="M20" s="5">
+        <f t="shared" si="8"/>
+        <v>0.21878279118572919</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="8"/>
+        <v>0.22330097087378631</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" ref="R20:W20" si="9">R3/R4-1</f>
         <v>0.19209702660406891</v>
       </c>
-      <c r="S20" s="6">
-        <f>S3/S4-1</f>
+      <c r="S20" s="5">
+        <f t="shared" si="9"/>
         <v>0.19849100406268128</v>
       </c>
-      <c r="T20" s="6">
-        <f>T3/T4-1</f>
+      <c r="T20" s="5">
+        <f t="shared" si="9"/>
         <v>0.19632364019888504</v>
       </c>
-      <c r="U20" s="18">
-        <f>U3/U4-1</f>
+      <c r="U20" s="10">
+        <f t="shared" si="9"/>
         <v>0.2082493618164718</v>
       </c>
-      <c r="V20" s="6" t="e">
-        <f>V3/V4-1</f>
+      <c r="V20" s="5" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W20" s="6" t="e">
-        <f>W3/W4-1</f>
+      <c r="W20" s="5" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <f>B17/B3</f>
         <v>-4.6263345195729534E-2</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>C17/C3</f>
         <v>1.1363636363636364E-2</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7">
-        <f>E17/E3</f>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <f t="shared" ref="E21:N21" si="10">E17/E3</f>
         <v>7.6838638858397366E-3</v>
       </c>
-      <c r="F21" s="7">
-        <f>F17/F3</f>
+      <c r="F21" s="6">
+        <f t="shared" si="10"/>
         <v>5.8448459086078638E-3</v>
       </c>
-      <c r="G21" s="7">
-        <f>G17/G3</f>
+      <c r="G21" s="6">
+        <f t="shared" si="10"/>
         <v>3.64741641337386E-2</v>
       </c>
-      <c r="H21" s="7">
-        <f>H17/H3</f>
+      <c r="H21" s="6">
+        <f t="shared" si="10"/>
         <v>2.475685234305924E-2</v>
       </c>
-      <c r="I21" s="7">
-        <f>I17/I3</f>
+      <c r="I21" s="6">
+        <f t="shared" si="10"/>
         <v>1.7762842054728757E-2</v>
       </c>
-      <c r="J21" s="7">
-        <f>J17/J3</f>
+      <c r="J21" s="6">
+        <f t="shared" si="10"/>
         <v>2.3654916512059369E-2</v>
       </c>
-      <c r="K21" s="7">
-        <f>K17/K3</f>
+      <c r="K21" s="6">
+        <f t="shared" si="10"/>
         <v>2.7547004809794492E-2</v>
       </c>
-      <c r="L21" s="7">
-        <f>L17/L3</f>
+      <c r="L21" s="6">
+        <f t="shared" si="10"/>
         <v>1.8646128901499796E-2</v>
       </c>
-      <c r="R21" s="7">
-        <f>R17/R3</f>
+      <c r="M21" s="6">
+        <f t="shared" si="10"/>
+        <v>1.0761945759793371E-2</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="10"/>
+        <v>2.7151211361737676E-2</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" ref="R21:W21" si="11">R17/R3</f>
         <v>9.8457499179520833E-3</v>
       </c>
-      <c r="S21" s="7">
-        <f>S17/S3</f>
+      <c r="S21" s="6">
+        <f t="shared" si="11"/>
         <v>-5.0040355125100886E-3</v>
       </c>
-      <c r="T21" s="7">
-        <f>T17/T3</f>
+      <c r="T21" s="6">
+        <f t="shared" si="11"/>
         <v>1.9269521410579346E-2</v>
       </c>
-      <c r="U21" s="19">
-        <f>U17/U3</f>
+      <c r="U21" s="11">
+        <f t="shared" si="11"/>
         <v>2.1905926831980428E-2</v>
       </c>
-      <c r="V21" s="7">
-        <f>V17/V3</f>
+      <c r="V21" s="6">
+        <f t="shared" si="11"/>
         <v>2.7628336755646812E-2</v>
       </c>
-      <c r="W21" s="7">
-        <f>W17/W3</f>
+      <c r="W21" s="6">
+        <f t="shared" si="11"/>
         <v>3.0057088487155093E-2</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8">
-        <f>F3/B3-1</f>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:N22" si="12">F3/B3-1</f>
         <v>0.3395017793594306</v>
       </c>
-      <c r="G22" s="8">
-        <f>G3/C3-1</f>
+      <c r="G22" s="6">
+        <f t="shared" si="12"/>
         <v>0.2462121212121211</v>
       </c>
-      <c r="H22" s="8" t="e">
+      <c r="H22" s="6" t="e">
         <f>H3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="8">
-        <f>I3/E3-1</f>
+      <c r="I22" s="6">
+        <f t="shared" si="12"/>
         <v>0.14324917672886928</v>
       </c>
-      <c r="J22" s="8">
-        <f>J3/F3-1</f>
+      <c r="J22" s="6">
+        <f t="shared" si="12"/>
         <v>0.14558979808714123</v>
       </c>
-      <c r="K22" s="8">
-        <f>K3/G3-1</f>
+      <c r="K22" s="6">
+        <f t="shared" si="12"/>
         <v>0.1585612968591692</v>
       </c>
-      <c r="L22" s="8">
-        <f>L3/H3-1</f>
+      <c r="L22" s="6">
+        <f t="shared" si="12"/>
         <v>9.0627763041556175E-2</v>
       </c>
-      <c r="S22" s="8">
+      <c r="M22" s="6">
+        <f t="shared" si="12"/>
+        <v>0.11521843494959194</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="12"/>
+        <v>0.11038961038961048</v>
+      </c>
+      <c r="S22" s="6">
         <f>S3/R3-1</f>
         <v>1.6573679028552668E-2</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="6">
         <f>T3/S3-1</f>
         <v>0.28167877320419699</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="6">
         <f>U3/T3-1</f>
         <v>0.13261964735516374</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V22" s="9">
         <f>V3/U3-1</f>
         <v>8.306460580451458E-2</v>
       </c>
-      <c r="W22" s="16">
+      <c r="W22" s="6">
         <f>W3/V3-1</f>
         <v>7.9055441478439459E-2</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="S23" s="8">
-        <f t="shared" ref="S23:T23" si="4">(S5-R5)/ABS(S5)</f>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <f t="shared" ref="F23:L23" si="13">F5/B5-1</f>
+        <v>5.3571428571428603E-2</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="13"/>
+        <v>8.9171974522292974E-2</v>
+      </c>
+      <c r="H23" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="13"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="13"/>
+        <v>0.24293785310734473</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="13"/>
+        <v>0.32748538011695905</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="13"/>
+        <v>0.27692307692307683</v>
+      </c>
+      <c r="M23" s="6">
+        <f>M5/I5-1</f>
+        <v>0.35789473684210527</v>
+      </c>
+      <c r="N23" s="6">
+        <f>N5/J5-1</f>
+        <v>0.11363636363636354</v>
+      </c>
+      <c r="S23" s="6">
+        <f t="shared" ref="S23:T23" si="14">(S5-R5)/ABS(S5)</f>
         <v>0.15875613747954173</v>
       </c>
-      <c r="T23" s="8">
-        <f t="shared" si="4"/>
+      <c r="T23" s="6">
+        <f t="shared" si="14"/>
         <v>0.14425770308123248</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="6">
         <f>(U5-T5)/ABS(U5)</f>
         <v>0.19413092550790068</v>
       </c>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="S24" s="8">
-        <f t="shared" ref="S24:T24" si="5">(S12-R12)/ABS(R12)</f>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="S24" s="6">
+        <f t="shared" ref="S24:T24" si="15">(S12-R12)/ABS(R12)</f>
         <v>-9.862385321100918E-2</v>
       </c>
-      <c r="T24" s="8">
-        <f t="shared" si="5"/>
+      <c r="T24" s="6">
+        <f t="shared" si="15"/>
         <v>0.50381679389312972</v>
       </c>
-      <c r="U24" s="8">
+      <c r="U24" s="6">
         <f>(U12-T12)/ABS(T12)</f>
         <v>0.16074450084602368</v>
       </c>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
-      <c r="S25" s="8">
-        <f t="shared" ref="S25:T25" si="6">(S15-R15)/ABS(R15)</f>
+      <c r="F25" s="6">
+        <f t="shared" ref="F25:L25" si="16">F15/B15-1</f>
+        <v>-1.2153846153846155</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="16"/>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="H25" s="6" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="16"/>
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="16"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="16"/>
+        <v>-0.12328767123287676</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="16"/>
+        <v>-0.19298245614035092</v>
+      </c>
+      <c r="M25" s="6">
+        <f>M15/I15-1</f>
+        <v>-0.31578947368421051</v>
+      </c>
+      <c r="N25" s="6">
+        <f>N15/J15-1</f>
+        <v>0.26923076923076916</v>
+      </c>
+      <c r="S25" s="6">
+        <f t="shared" ref="S25:T25" si="17">(S15-R15)/ABS(R15)</f>
         <v>-1.271604938271605</v>
       </c>
-      <c r="T25" s="8">
-        <f t="shared" si="6"/>
+      <c r="T25" s="6">
+        <f t="shared" si="17"/>
         <v>8.3181818181818183</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U25" s="6">
         <f>(U15-T15)/ABS(T15)</f>
         <v>0.24223602484472051</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27">
-        <v>328</v>
-      </c>
-      <c r="F27">
-        <v>326</v>
-      </c>
-      <c r="G27">
-        <v>295</v>
-      </c>
-      <c r="H27">
-        <v>333</v>
-      </c>
-      <c r="I27">
-        <v>312</v>
-      </c>
-      <c r="J27">
-        <v>384</v>
-      </c>
-      <c r="K27">
-        <v>434</v>
-      </c>
-      <c r="L27">
-        <v>495</v>
-      </c>
-      <c r="S27">
-        <v>328</v>
-      </c>
-      <c r="T27">
-        <v>333</v>
-      </c>
-      <c r="U27">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28">
-        <v>1224</v>
-      </c>
-      <c r="F28">
-        <v>1297</v>
-      </c>
-      <c r="G28">
-        <v>1391</v>
-      </c>
-      <c r="H28">
-        <v>1507</v>
-      </c>
-      <c r="I28">
-        <v>1492</v>
-      </c>
-      <c r="J28">
-        <v>1560</v>
-      </c>
-      <c r="K28">
-        <v>1507</v>
-      </c>
-      <c r="L28">
-        <v>1647</v>
-      </c>
-      <c r="S28">
-        <v>1224</v>
-      </c>
-      <c r="T28">
-        <v>1507</v>
-      </c>
-      <c r="U28">
-        <v>1647</v>
+    <row r="28" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="1">
+        <f>D29+D30-D40-D43</f>
+        <v>879</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ref="E28:N28" si="18">E29+E30-E40-E43</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="18"/>
+        <v>1005</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="18"/>
+        <v>1013</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="18"/>
+        <v>879</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="18"/>
+        <v>865</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="18"/>
+        <v>59</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="18"/>
+        <v>58</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="18"/>
+        <v>336</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="18"/>
+        <v>250</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="18"/>
+        <v>364</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" ref="S28" si="19">S29+S30-S40-S43</f>
+        <v>879</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" ref="T28" si="20">T29+T30-T40-T43</f>
+        <v>879</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" ref="U28" si="21">U29+U30-U40-U43</f>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="F29">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G29">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H29">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="I29">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="J29">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="K29">
-        <v>301</v>
+        <v>434</v>
       </c>
       <c r="L29">
-        <v>286</v>
+        <v>495</v>
+      </c>
+      <c r="M29">
+        <v>426</v>
+      </c>
+      <c r="N29">
+        <v>305</v>
       </c>
       <c r="S29">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="T29">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="U29">
-        <v>286</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>770</v>
+        <v>1224</v>
       </c>
       <c r="F30">
-        <v>838</v>
+        <v>1297</v>
       </c>
       <c r="G30">
-        <v>851</v>
+        <v>1391</v>
       </c>
       <c r="H30">
-        <v>863</v>
+        <v>1507</v>
       </c>
       <c r="I30">
-        <v>833</v>
+        <v>1492</v>
       </c>
       <c r="J30">
-        <v>905</v>
+        <v>1560</v>
       </c>
       <c r="K30">
-        <v>914</v>
+        <v>1507</v>
       </c>
       <c r="L30">
-        <v>960</v>
-      </c>
-      <c r="S30">
-        <v>770</v>
-      </c>
-      <c r="T30">
-        <v>863</v>
-      </c>
-      <c r="U30">
-        <v>960</v>
+        <v>1647</v>
+      </c>
+      <c r="M30">
+        <v>1605</v>
+      </c>
+      <c r="N30">
+        <v>1719</v>
+      </c>
+      <c r="S30" s="13">
+        <v>1224</v>
+      </c>
+      <c r="T30" s="13">
+        <v>1507</v>
+      </c>
+      <c r="U30" s="13">
+        <v>1647</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>1434</v>
+        <v>284</v>
       </c>
       <c r="F31">
-        <v>1774</v>
+        <v>340</v>
       </c>
       <c r="G31">
-        <v>1790</v>
+        <v>292</v>
       </c>
       <c r="H31">
-        <v>1772</v>
+        <v>259</v>
       </c>
       <c r="I31">
-        <v>1771</v>
+        <v>226</v>
       </c>
       <c r="J31">
-        <v>1900</v>
+        <v>312</v>
       </c>
       <c r="K31">
-        <v>2058</v>
+        <v>301</v>
       </c>
       <c r="L31">
-        <v>2227</v>
+        <v>286</v>
+      </c>
+      <c r="M31">
+        <v>280</v>
+      </c>
+      <c r="N31">
+        <v>282</v>
       </c>
       <c r="S31">
-        <v>1434</v>
+        <v>284</v>
       </c>
       <c r="T31">
-        <v>1772</v>
+        <v>259</v>
       </c>
       <c r="U31">
-        <v>2227</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>2063</v>
+        <v>770</v>
       </c>
       <c r="F32">
-        <v>2058</v>
+        <v>838</v>
       </c>
       <c r="G32">
-        <v>2042</v>
+        <v>851</v>
       </c>
       <c r="H32">
-        <v>2017</v>
+        <v>863</v>
       </c>
       <c r="I32">
-        <v>1986</v>
+        <v>833</v>
       </c>
       <c r="J32">
-        <v>2769</v>
+        <v>905</v>
       </c>
       <c r="K32">
-        <v>2603</v>
+        <v>914</v>
       </c>
       <c r="L32">
-        <v>2728</v>
+        <v>960</v>
+      </c>
+      <c r="M32">
+        <v>964</v>
+      </c>
+      <c r="N32">
+        <v>965</v>
       </c>
       <c r="S32">
-        <v>2063</v>
+        <v>770</v>
       </c>
       <c r="T32">
-        <v>2017</v>
+        <v>863</v>
       </c>
       <c r="U32">
-        <v>2728</v>
+        <v>960</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>299</v>
+        <v>1434</v>
       </c>
       <c r="F33">
-        <v>295</v>
+        <v>1774</v>
       </c>
       <c r="G33">
-        <v>274</v>
+        <v>1790</v>
       </c>
       <c r="H33">
-        <v>257</v>
+        <v>1772</v>
       </c>
       <c r="I33">
-        <v>239</v>
+        <v>1771</v>
       </c>
       <c r="J33">
-        <v>557</v>
+        <v>1900</v>
       </c>
       <c r="K33">
-        <v>576</v>
+        <v>2058</v>
       </c>
       <c r="L33">
-        <v>570</v>
+        <v>2227</v>
+      </c>
+      <c r="M33">
+        <v>2168</v>
+      </c>
+      <c r="N33">
+        <v>2194</v>
       </c>
       <c r="S33">
-        <v>299</v>
+        <v>1434</v>
       </c>
       <c r="T33">
-        <v>257</v>
+        <v>1772</v>
       </c>
       <c r="U33">
-        <v>570</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>146</v>
+        <v>2063</v>
       </c>
       <c r="F34">
-        <v>170</v>
+        <v>2058</v>
       </c>
       <c r="G34">
-        <v>218</v>
+        <v>2042</v>
       </c>
       <c r="H34">
-        <v>263</v>
+        <v>2017</v>
       </c>
       <c r="I34">
-        <v>267</v>
+        <v>1986</v>
       </c>
       <c r="J34">
-        <v>319</v>
+        <v>2769</v>
       </c>
       <c r="K34">
-        <v>413</v>
+        <v>2603</v>
       </c>
       <c r="L34">
-        <v>306</v>
+        <v>2728</v>
+      </c>
+      <c r="M34">
+        <v>2765</v>
+      </c>
+      <c r="N34">
+        <v>2802</v>
       </c>
       <c r="S34">
-        <v>146</v>
+        <v>2063</v>
       </c>
       <c r="T34">
-        <v>263</v>
+        <v>2017</v>
       </c>
       <c r="U34">
-        <v>306</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="1">
-        <f>SUM(D27:D34)</f>
-        <v>6548</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" ref="E35" si="7">SUM(E27:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" ref="F35" si="8">SUM(F27:F34)</f>
-        <v>7098</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" ref="G35" si="9">SUM(G27:G34)</f>
-        <v>7153</v>
-      </c>
-      <c r="H35" s="1">
-        <f>SUM(H27:H34)</f>
-        <v>7271</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" ref="I35:J35" si="10">SUM(I27:I34)</f>
-        <v>7126</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="10"/>
-        <v>8706</v>
-      </c>
-      <c r="K35" s="1">
-        <f>SUM(K27:K34)</f>
-        <v>8806</v>
-      </c>
-      <c r="L35" s="1">
-        <f>SUM(L27:L34)</f>
-        <v>9219</v>
-      </c>
-      <c r="S35" s="1">
-        <f>SUM(S27:S34)</f>
-        <v>6548</v>
-      </c>
-      <c r="T35" s="1">
-        <f>SUM(T27:T34)</f>
-        <v>7271</v>
-      </c>
-      <c r="U35" s="1">
-        <f>SUM(U27:U34)</f>
-        <v>9219</v>
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35">
+        <v>299</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35">
+        <v>295</v>
+      </c>
+      <c r="G35">
+        <v>274</v>
+      </c>
+      <c r="H35">
+        <v>257</v>
+      </c>
+      <c r="I35">
+        <v>239</v>
+      </c>
+      <c r="J35">
+        <v>557</v>
+      </c>
+      <c r="K35">
+        <v>576</v>
+      </c>
+      <c r="L35">
+        <v>570</v>
+      </c>
+      <c r="M35" s="13">
+        <v>555</v>
+      </c>
+      <c r="N35" s="13">
+        <v>544</v>
+      </c>
+      <c r="S35">
+        <v>299</v>
+      </c>
+      <c r="T35">
+        <v>257</v>
+      </c>
+      <c r="U35">
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>415</v>
+        <v>146</v>
       </c>
       <c r="F36">
-        <v>458</v>
+        <v>170</v>
       </c>
       <c r="G36">
-        <v>415</v>
+        <v>218</v>
       </c>
       <c r="H36">
-        <v>624</v>
+        <v>263</v>
       </c>
       <c r="I36">
-        <v>549</v>
+        <v>267</v>
       </c>
       <c r="J36">
-        <v>592</v>
+        <v>319</v>
       </c>
       <c r="K36">
-        <v>568</v>
+        <v>413</v>
       </c>
       <c r="L36">
-        <v>717</v>
+        <v>306</v>
+      </c>
+      <c r="M36">
+        <v>327</v>
+      </c>
+      <c r="N36">
+        <v>315</v>
       </c>
       <c r="S36">
-        <v>415</v>
+        <v>146</v>
       </c>
       <c r="T36">
-        <v>624</v>
+        <v>263</v>
       </c>
       <c r="U36">
-        <v>717</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37">
-        <v>784</v>
-      </c>
-      <c r="F37">
-        <v>973</v>
-      </c>
-      <c r="G37">
-        <v>784</v>
-      </c>
-      <c r="H37">
-        <v>998</v>
-      </c>
-      <c r="I37">
-        <v>940</v>
-      </c>
-      <c r="J37">
-        <v>1012</v>
-      </c>
-      <c r="K37">
-        <v>952</v>
-      </c>
-      <c r="L37">
-        <v>995</v>
-      </c>
-      <c r="S37">
-        <v>784</v>
-      </c>
-      <c r="T37">
-        <v>998</v>
-      </c>
-      <c r="U37">
-        <v>995</v>
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <f>SUM(D29:D36)</f>
+        <v>6548</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ref="E37" si="22">SUM(E29:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ref="F37" si="23">SUM(F29:F36)</f>
+        <v>7098</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ref="G37" si="24">SUM(G29:G36)</f>
+        <v>7153</v>
+      </c>
+      <c r="H37" s="1">
+        <f>SUM(H29:H36)</f>
+        <v>7271</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" ref="I37:J37" si="25">SUM(I29:I36)</f>
+        <v>7126</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="25"/>
+        <v>8706</v>
+      </c>
+      <c r="K37" s="1">
+        <f>SUM(K29:K36)</f>
+        <v>8806</v>
+      </c>
+      <c r="L37" s="1">
+        <f>SUM(L29:L36)</f>
+        <v>9219</v>
+      </c>
+      <c r="M37" s="1">
+        <f>SUM(M29:M36)</f>
+        <v>9090</v>
+      </c>
+      <c r="N37" s="1">
+        <f>SUM(N29:N36)</f>
+        <v>9126</v>
+      </c>
+      <c r="S37" s="1">
+        <f>SUM(S29:S36)</f>
+        <v>6548</v>
+      </c>
+      <c r="T37" s="1">
+        <f>SUM(T29:T36)</f>
+        <v>7271</v>
+      </c>
+      <c r="U37" s="1">
+        <f>SUM(U29:U36)</f>
+        <v>9219</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D38">
-        <v>58</v>
+        <v>415</v>
       </c>
       <c r="F38">
-        <v>36</v>
+        <v>458</v>
       </c>
       <c r="G38">
-        <v>58</v>
+        <v>415</v>
       </c>
       <c r="H38">
-        <v>34</v>
+        <v>624</v>
       </c>
       <c r="I38">
-        <v>32</v>
+        <v>549</v>
       </c>
       <c r="J38">
-        <v>84</v>
+        <v>592</v>
       </c>
       <c r="K38">
-        <v>94</v>
+        <v>568</v>
       </c>
       <c r="L38">
-        <v>67</v>
+        <v>717</v>
+      </c>
+      <c r="M38">
+        <v>652</v>
+      </c>
+      <c r="N38">
+        <v>566</v>
       </c>
       <c r="S38">
-        <v>58</v>
+        <v>415</v>
       </c>
       <c r="T38">
-        <v>34</v>
+        <v>624</v>
       </c>
       <c r="U38">
-        <v>67</v>
+        <v>717</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D39">
-        <v>332</v>
+        <v>784</v>
       </c>
       <c r="F39">
-        <v>414</v>
+        <v>973</v>
       </c>
       <c r="G39">
-        <v>332</v>
+        <v>784</v>
       </c>
       <c r="H39">
-        <v>453</v>
+        <v>998</v>
       </c>
       <c r="I39">
-        <v>455</v>
+        <v>940</v>
       </c>
       <c r="J39">
-        <v>490</v>
+        <v>1012</v>
       </c>
       <c r="K39">
-        <v>499</v>
+        <v>952</v>
       </c>
       <c r="L39">
-        <v>560</v>
+        <v>995</v>
+      </c>
+      <c r="M39" s="13">
+        <v>908</v>
+      </c>
+      <c r="N39" s="13">
+        <v>950</v>
       </c>
       <c r="S39">
-        <v>332</v>
+        <v>784</v>
       </c>
       <c r="T39">
-        <v>453</v>
+        <v>998</v>
       </c>
       <c r="U39">
-        <v>560</v>
+        <v>995</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D40">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="F40">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="G40">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="H40">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="I40">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="J40">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="K40">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="L40">
-        <v>193</v>
+        <v>67</v>
+      </c>
+      <c r="M40" s="13">
+        <v>84</v>
+      </c>
+      <c r="N40" s="13">
+        <v>35</v>
       </c>
       <c r="S40">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="T40">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="U40">
-        <v>193</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D41">
-        <v>615</v>
+        <v>332</v>
       </c>
       <c r="F41">
-        <v>582</v>
+        <v>414</v>
       </c>
       <c r="G41">
-        <v>615</v>
+        <v>332</v>
       </c>
       <c r="H41">
-        <v>927</v>
+        <v>453</v>
       </c>
       <c r="I41">
-        <v>907</v>
+        <v>455</v>
       </c>
       <c r="J41">
-        <v>1801</v>
+        <v>490</v>
       </c>
       <c r="K41">
-        <v>1789</v>
+        <v>499</v>
       </c>
       <c r="L41">
-        <v>1739</v>
+        <v>560</v>
+      </c>
+      <c r="M41" s="13">
+        <v>568</v>
+      </c>
+      <c r="N41" s="13">
+        <v>568</v>
       </c>
       <c r="S41">
-        <v>615</v>
+        <v>332</v>
       </c>
       <c r="T41">
-        <v>927</v>
+        <v>453</v>
       </c>
       <c r="U41">
-        <v>1739</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42">
-        <v>1099</v>
+        <v>149</v>
       </c>
       <c r="F42">
-        <v>1340</v>
+        <v>128</v>
       </c>
       <c r="G42">
-        <v>1382</v>
+        <v>149</v>
       </c>
       <c r="H42">
-        <v>1391</v>
+        <v>220</v>
       </c>
       <c r="I42">
-        <v>1388</v>
+        <v>146</v>
       </c>
       <c r="J42">
-        <v>1570</v>
+        <v>186</v>
       </c>
       <c r="K42">
-        <v>1669</v>
+        <v>162</v>
       </c>
       <c r="L42">
-        <v>1853</v>
+        <v>193</v>
+      </c>
+      <c r="M42" s="13">
+        <v>209</v>
+      </c>
+      <c r="N42" s="13">
+        <v>284</v>
       </c>
       <c r="S42">
-        <v>1099</v>
+        <v>149</v>
       </c>
       <c r="T42">
-        <v>1391</v>
+        <v>220</v>
       </c>
       <c r="U42">
-        <v>1853</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <v>615</v>
+      </c>
+      <c r="F43">
+        <v>582</v>
+      </c>
+      <c r="G43">
+        <v>615</v>
+      </c>
+      <c r="H43">
+        <v>927</v>
+      </c>
+      <c r="I43">
+        <v>907</v>
+      </c>
+      <c r="J43">
+        <v>1801</v>
+      </c>
+      <c r="K43">
+        <v>1789</v>
+      </c>
+      <c r="L43">
+        <v>1739</v>
+      </c>
+      <c r="M43" s="13">
+        <v>1697</v>
+      </c>
+      <c r="N43" s="13">
+        <v>1625</v>
+      </c>
+      <c r="S43">
+        <v>615</v>
+      </c>
+      <c r="T43">
+        <v>927</v>
+      </c>
+      <c r="U43">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44">
+        <v>1099</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44">
+        <v>1340</v>
+      </c>
+      <c r="G44">
+        <v>1382</v>
+      </c>
+      <c r="H44">
+        <v>1391</v>
+      </c>
+      <c r="I44">
+        <v>1388</v>
+      </c>
+      <c r="J44">
+        <v>1570</v>
+      </c>
+      <c r="K44">
+        <v>1669</v>
+      </c>
+      <c r="L44">
+        <v>1853</v>
+      </c>
+      <c r="M44" s="13">
+        <v>1800</v>
+      </c>
+      <c r="N44" s="13">
+        <v>1838</v>
+      </c>
+      <c r="S44">
+        <v>1099</v>
+      </c>
+      <c r="T44">
+        <v>1391</v>
+      </c>
+      <c r="U44">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="D43">
+      <c r="D45">
         <v>148</v>
       </c>
-      <c r="F43">
+      <c r="F45">
         <f>160+63</f>
         <v>223</v>
       </c>
-      <c r="G43">
+      <c r="G45">
         <f>94+56</f>
         <v>150</v>
       </c>
-      <c r="H43">
+      <c r="H45">
         <v>234</v>
       </c>
-      <c r="I43">
+      <c r="I45">
         <v>334</v>
       </c>
-      <c r="J43">
+      <c r="J45">
         <v>410</v>
       </c>
-      <c r="K43">
+      <c r="K45">
         <v>444</v>
       </c>
-      <c r="L43">
+      <c r="L45">
         <v>417</v>
       </c>
-      <c r="S43">
+      <c r="M45" s="13">
+        <v>453</v>
+      </c>
+      <c r="N45" s="13">
+        <v>449</v>
+      </c>
+      <c r="S45">
         <v>148</v>
       </c>
-      <c r="T43">
+      <c r="T45">
         <v>234</v>
       </c>
-      <c r="U43">
+      <c r="U45">
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="1">
-        <f>SUM(D36:D43)</f>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
+        <f>SUM(D38:D45)</f>
         <v>3600</v>
       </c>
-      <c r="E44" s="1">
-        <f t="shared" ref="E44:I44" si="11">SUM(E36:E43)</f>
+      <c r="E46" s="1">
+        <f t="shared" ref="E46:I46" si="26">SUM(E38:E45)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" si="11"/>
+      <c r="F46" s="1">
+        <f t="shared" si="26"/>
         <v>4154</v>
       </c>
-      <c r="G44" s="1">
-        <f t="shared" si="11"/>
+      <c r="G46" s="1">
+        <f t="shared" si="26"/>
         <v>3885</v>
       </c>
-      <c r="H44" s="1">
-        <f>SUM(H36:H43)</f>
+      <c r="H46" s="1">
+        <f>SUM(H38:H45)</f>
         <v>4881</v>
       </c>
-      <c r="I44" s="1">
-        <f t="shared" si="11"/>
+      <c r="I46" s="1">
+        <f t="shared" si="26"/>
         <v>4751</v>
       </c>
-      <c r="J44" s="1">
-        <f>SUM(J36:J43)</f>
+      <c r="J46" s="1">
+        <f>SUM(J38:J45)</f>
         <v>6145</v>
       </c>
-      <c r="K44" s="1">
-        <f>SUM(K36:K43)</f>
+      <c r="K46" s="1">
+        <f>SUM(K38:K45)</f>
         <v>6177</v>
       </c>
-      <c r="L44" s="1">
-        <f>SUM(L36:L43)</f>
+      <c r="L46" s="1">
+        <f>SUM(L38:L45)</f>
         <v>6541</v>
       </c>
-      <c r="S44" s="1">
-        <f>SUM(S36:S43)</f>
+      <c r="M46" s="1">
+        <f>SUM(M38:M45)</f>
+        <v>6371</v>
+      </c>
+      <c r="N46" s="1">
+        <f>SUM(N38:N45)</f>
+        <v>6315</v>
+      </c>
+      <c r="S46" s="1">
+        <f>SUM(S38:S45)</f>
         <v>3600</v>
       </c>
-      <c r="T44" s="1">
-        <f>SUM(T36:T43)</f>
+      <c r="T46" s="1">
+        <f>SUM(T38:T45)</f>
         <v>4881</v>
       </c>
-      <c r="U44" s="1">
-        <f>SUM(U36:U43)</f>
+      <c r="U46" s="1">
+        <f>SUM(U38:U45)</f>
         <v>6541</v>
       </c>
     </row>
+    <row r="49" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="1">
+        <v>333</v>
+      </c>
+      <c r="J49" s="1">
+        <f>I68</f>
+        <v>312</v>
+      </c>
+      <c r="M49" s="1">
+        <v>495</v>
+      </c>
+      <c r="N49" s="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50">
+        <v>38</v>
+      </c>
+      <c r="M50">
+        <v>26</v>
+      </c>
+      <c r="N50">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51">
+        <v>76</v>
+      </c>
+      <c r="M51">
+        <v>83</v>
+      </c>
+      <c r="N51">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="M52">
+        <v>9</v>
+      </c>
+      <c r="N52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>-7</v>
+      </c>
+      <c r="N53">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>9</v>
+      </c>
+      <c r="N54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55">
+        <v>-33</v>
+      </c>
+      <c r="M55">
+        <v>57</v>
+      </c>
+      <c r="N55">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56">
+        <v>-7</v>
+      </c>
+      <c r="M56">
+        <v>11</v>
+      </c>
+      <c r="N56">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57">
+        <v>-39</v>
+      </c>
+      <c r="M57">
+        <v>-49</v>
+      </c>
+      <c r="N57">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58">
+        <v>-2</v>
+      </c>
+      <c r="M58">
+        <v>-100</v>
+      </c>
+      <c r="N58">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59">
+        <v>-65</v>
+      </c>
+      <c r="M59">
+        <v>-91</v>
+      </c>
+      <c r="N59">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>9</v>
+      </c>
+      <c r="N60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61">
+        <v>18</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="M62" s="15">
+        <v>-21</v>
+      </c>
+      <c r="N62">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63">
+        <v>-9</v>
+      </c>
+      <c r="M63">
+        <v>-8</v>
+      </c>
+      <c r="N63">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I64">
+        <v>-11</v>
+      </c>
+      <c r="M64">
+        <v>-4</v>
+      </c>
+      <c r="N64">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66">
+        <v>-5</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="14">
+        <f>SUM(I50:I66)</f>
+        <v>-21</v>
+      </c>
+      <c r="M67" s="14">
+        <f>SUM(M50:M66)</f>
+        <v>-69</v>
+      </c>
+      <c r="N67" s="14">
+        <f>SUM(N50:N66)</f>
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I68" s="1">
+        <f>I49+I67</f>
+        <v>312</v>
+      </c>
+      <c r="M68" s="1">
+        <f>M49+M67</f>
+        <v>426</v>
+      </c>
+      <c r="N68" s="1">
+        <f>N49+N67</f>
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A5C06EBA-D952-421E-93A2-3BF49E6344BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Shipping & Transportation/GXO.xlsx
+++ b/Shipping & Transportation/GXO.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CAC8CA-8B88-4694-B379-EA961E3BC9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DEDC3F-C041-4A74-B128-1C8A18C508E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Model-graph" sheetId="3" r:id="rId3"/>
+    <sheet name="Catalysts" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="143">
   <si>
     <t>GXO</t>
   </si>
@@ -322,6 +324,150 @@
   </si>
   <si>
     <t>CC BOP</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Last Update</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>EG1</t>
+  </si>
+  <si>
+    <t>EG2</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>Shareholders</t>
+  </si>
+  <si>
+    <t>Brad Jacobs</t>
+  </si>
+  <si>
+    <t>Chairman</t>
+  </si>
+  <si>
+    <t>Malcolm Wilson</t>
+  </si>
+  <si>
+    <t>Richard Cawston</t>
+  </si>
+  <si>
+    <t>Eudardo Pelleisone</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>President Americas, Asia Pacific</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Baris Oran</t>
+  </si>
+  <si>
+    <t>Neil Shelton</t>
+  </si>
+  <si>
+    <t>Chief Strategy Office (CSO)</t>
+  </si>
+  <si>
+    <t>Chief Revenue Officer (CRO), President Europe</t>
+  </si>
+  <si>
+    <t>Sales &amp; Media, Ex. JPM, Citi, Morgan Stanley</t>
+  </si>
+  <si>
+    <t>Ex XPO CEO, Logistics since 1990</t>
+  </si>
+  <si>
+    <t>Ex XPO Logistics since 1998</t>
+  </si>
+  <si>
+    <t>Ex XPO Logistics CFO, ex PWC, EY</t>
+  </si>
+  <si>
+    <t>Ex United Rentals CEO, has Private Equity Fund, Chairman RXO, XPO, GXO</t>
+  </si>
+  <si>
+    <t>% Out</t>
+  </si>
+  <si>
+    <t>Orbis Allan Gray Ltd</t>
+  </si>
+  <si>
+    <t>13.11%</t>
+  </si>
+  <si>
+    <t>Vanguard Group Inc</t>
+  </si>
+  <si>
+    <t>9.31%</t>
+  </si>
+  <si>
+    <t>Blackrock Inc.</t>
+  </si>
+  <si>
+    <t>9.06%</t>
+  </si>
+  <si>
+    <t>Perpetual Ltd.</t>
+  </si>
+  <si>
+    <t>4.29%</t>
+  </si>
+  <si>
+    <t>State Street Corporation</t>
+  </si>
+  <si>
+    <t>2.85%</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>2.57%</t>
+  </si>
+  <si>
+    <t>ClearBridge Investments, LLC</t>
+  </si>
+  <si>
+    <t>2.47%</t>
+  </si>
+  <si>
+    <t>Neuberger Berman Group, LLC</t>
+  </si>
+  <si>
+    <t>2.10%</t>
+  </si>
+  <si>
+    <t>FMR, LLC</t>
+  </si>
+  <si>
+    <t>1.83%</t>
+  </si>
+  <si>
+    <t>Amundi</t>
+  </si>
+  <si>
+    <t>1.56%</t>
   </si>
 </sst>
 </file>
@@ -420,7 +566,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -438,9 +584,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -723,165 +882,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P20"/>
+  <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="P2">
-        <v>64.87</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="O3" t="s">
+      <c r="K2">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="19">
+        <v>45334</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="J3" t="s">
         <v>2</v>
       </c>
-      <c r="P3">
+      <c r="K3">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="O4" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="P4">
-        <f>P2*P3</f>
-        <v>7654.6600000000008</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>K2*K3</f>
+        <v>6796.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>61</v>
       </c>
-      <c r="O5" t="s">
+      <c r="J5" t="s">
         <v>4</v>
       </c>
-      <c r="P5">
-        <f>Model!U29</f>
+      <c r="K5">
+        <f>Model!W29</f>
         <v>495</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="O6" t="s">
+      <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="P6">
-        <f>Model!U40+Model!U43</f>
+      <c r="K6">
+        <f>Model!W40+Model!W43</f>
         <v>1806</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="O7" t="s">
+      <c r="J7" t="s">
         <v>78</v>
       </c>
-      <c r="P7">
-        <f>P5-P6</f>
+      <c r="K7">
+        <f>K5-K6</f>
         <v>-1311</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>64</v>
       </c>
-      <c r="O8" t="s">
+      <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="P8">
-        <f>P4-P5+P6</f>
-        <v>8965.66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f>K4-K5+K6</f>
+        <v>8107.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="6">
         <v>0.3</v>
       </c>
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1" display="https://gxo.com/leadership-team/brad-jacobs/" xr:uid="{02F6BFA3-74BB-4E0A-B289-BD4C922E06F5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:W68"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N50" sqref="N50"/>
+      <selection pane="topRight" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>60</v>
       </c>
@@ -921,959 +1266,1086 @@
       <c r="N2" t="s">
         <v>77</v>
       </c>
-      <c r="R2" t="s">
+      <c r="O2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" t="s">
         <v>57</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15">
         <v>1405</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="15">
         <v>1584</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15">
         <v>1822</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="15">
         <v>1882</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="15">
         <v>1974</v>
       </c>
-      <c r="H3">
-        <f>T3-G3-F3-E3</f>
+      <c r="H3" s="15">
+        <f>V3-G3-F3-E3</f>
         <v>2262</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="15">
         <v>2083</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="15">
         <v>2156</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="15">
         <v>2287</v>
       </c>
-      <c r="L3">
-        <f>U3-K3-J3-I3</f>
+      <c r="L3" s="15">
+        <f>W3-K3-J3-I3</f>
         <v>2467</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="15">
         <v>2323</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="15">
         <v>2394</v>
       </c>
-      <c r="R3">
+      <c r="O3" s="15">
+        <v>2471</v>
+      </c>
+      <c r="T3" s="15">
         <v>6094</v>
       </c>
-      <c r="S3">
+      <c r="U3" s="15">
         <v>6195</v>
       </c>
-      <c r="T3">
+      <c r="V3" s="15">
         <v>7940</v>
       </c>
-      <c r="U3">
+      <c r="W3" s="15">
         <v>8993</v>
       </c>
-      <c r="V3" s="7">
+      <c r="X3" s="7">
         <v>9740</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>10510</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15">
         <v>1185</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="15">
         <v>1297</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15">
         <v>1520</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="15">
         <v>1554</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="15">
         <v>1651</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H16" si="0">T4-G4-F4-E4</f>
+      <c r="H4" s="15">
+        <f t="shared" ref="H4:H16" si="0">V4-G4-F4-E4</f>
         <v>1912</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="15">
         <v>1748</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="15">
         <v>1775</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="15">
         <v>1885</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L16" si="1">U4-K4-J4-I4</f>
+      <c r="L4" s="15">
+        <f t="shared" ref="L4:L16" si="1">W4-K4-J4-I4</f>
         <v>2035</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="15">
         <v>1906</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="15">
         <v>1957</v>
       </c>
-      <c r="R4">
+      <c r="O4" s="15">
+        <v>2012</v>
+      </c>
+      <c r="T4" s="15">
         <v>5112</v>
       </c>
-      <c r="S4">
+      <c r="U4" s="15">
         <v>5169</v>
       </c>
-      <c r="T4">
+      <c r="V4" s="15">
         <v>6637</v>
       </c>
-      <c r="U4">
+      <c r="W4" s="15">
         <v>7443</v>
       </c>
-      <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <v>168</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="15">
         <v>157</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15">
         <v>171</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="15">
         <v>177</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="15">
         <v>171</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="15">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="15">
         <v>190</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="15">
         <v>220</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="15">
         <v>227</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="15">
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="15">
         <v>258</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="15">
         <v>245</v>
       </c>
-      <c r="R5">
+      <c r="O5" s="15">
+        <v>258</v>
+      </c>
+      <c r="T5" s="15">
         <v>514</v>
       </c>
-      <c r="S5">
+      <c r="U5" s="15">
         <v>611</v>
       </c>
-      <c r="T5">
+      <c r="V5" s="15">
         <v>714</v>
       </c>
-      <c r="U5">
+      <c r="W5" s="15">
         <v>886</v>
       </c>
-      <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15">
         <v>87</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>83</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15">
         <v>79</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="15">
         <v>95</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="15">
         <v>85</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="15">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="15">
         <v>76</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="15">
         <v>77</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="15">
         <v>89</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="15">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="15">
         <v>83</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="15">
         <v>84</v>
       </c>
-      <c r="R6">
+      <c r="O6" s="15">
+        <v>101</v>
+      </c>
+      <c r="T6" s="15">
         <v>302</v>
       </c>
-      <c r="S6">
+      <c r="U6" s="15">
         <v>323</v>
       </c>
-      <c r="T6">
+      <c r="V6" s="15">
         <v>335</v>
       </c>
-      <c r="U6">
+      <c r="W6" s="15">
         <v>329</v>
       </c>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="15">
         <v>25</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="15">
         <v>-2</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="15">
         <v>35</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="15">
         <v>29</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="15">
         <v>19</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="15">
         <v>24</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="15">
         <v>14</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="15">
         <v>13</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="15">
         <v>6</v>
       </c>
-      <c r="R7">
+      <c r="O7" s="15">
+        <v>3</v>
+      </c>
+      <c r="T7" s="15">
         <v>1</v>
       </c>
-      <c r="S7">
+      <c r="U7" s="15">
         <v>47</v>
       </c>
-      <c r="T7">
+      <c r="V7" s="15">
         <v>99</v>
       </c>
-      <c r="U7">
+      <c r="W7" s="15">
         <v>61</v>
       </c>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="15">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="15">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="15">
         <v>-1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="15">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="15">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="17">
         <v>13</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="15">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="15">
         <v>0</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="17">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="17">
         <v>21</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="15">
         <v>3</v>
       </c>
-      <c r="R8">
+      <c r="O8" s="15">
+        <v>7</v>
+      </c>
+      <c r="T8" s="15">
         <v>15</v>
       </c>
-      <c r="S8">
+      <c r="U8" s="15">
         <v>29</v>
       </c>
-      <c r="T8">
+      <c r="V8" s="15">
         <v>4</v>
       </c>
-      <c r="U8">
+      <c r="W8" s="15">
         <v>32</v>
       </c>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="16">
         <f>B3-B4-B5-B6-B7-B8</f>
         <v>-85</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="16">
         <f>C3-C4-C5-C6-C7-C8</f>
         <v>49</v>
       </c>
-      <c r="E9" s="1">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16">
         <f t="shared" ref="E9:N9" si="2">E3-E4-E5-E6-E7-E8</f>
         <v>30</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="16">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="16">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="16">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="16">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="16">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="16">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="L9">
-        <f>U9-K9-J9-I9</f>
+      <c r="L9" s="16">
+        <f>W9-K9-J9-I9</f>
         <v>74</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="16">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="16">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="R9" s="1">
-        <f>R3-R4-R5-R6-R7-R8</f>
+      <c r="O9" s="16">
+        <f t="shared" ref="O9" si="3">O3-O4-O5-O6-O7-O8</f>
+        <v>90</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="T9" s="16">
+        <f>T3-T4-T5-T6-T7-T8</f>
         <v>150</v>
       </c>
-      <c r="S9" s="1">
-        <f>S3-S4-S5-S6-S7-S8</f>
+      <c r="U9" s="16">
+        <f>U3-U4-U5-U6-U7-U8</f>
         <v>16</v>
       </c>
-      <c r="T9" s="1">
-        <f>T3-T4-T5-T6-T7-T8</f>
+      <c r="V9" s="16">
+        <f>V3-V4-V5-V6-V7-V8</f>
         <v>151</v>
       </c>
-      <c r="U9" s="1">
-        <f>U3-U4-U5-U6-U7-U8</f>
+      <c r="W9" s="16">
+        <f>W3-W4-W5-W6-W7-W8</f>
         <v>242</v>
       </c>
-      <c r="V9" s="8"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="15">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="15">
         <v>-1</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="15">
         <v>11</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="15">
         <v>16</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="15">
         <v>23</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="15">
         <v>17</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="15">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="15">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="15">
         <v>1</v>
       </c>
-      <c r="R10">
+      <c r="O10" s="15">
+        <v>7</v>
+      </c>
+      <c r="T10" s="15">
         <v>1</v>
       </c>
-      <c r="S10">
+      <c r="U10" s="15">
         <v>2</v>
       </c>
-      <c r="T10">
+      <c r="V10" s="15">
         <v>23</v>
       </c>
-      <c r="U10">
+      <c r="W10" s="15">
         <v>51</v>
       </c>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="15">
         <v>-5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="15">
         <v>-6</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15">
         <v>-5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="15">
         <v>-6</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="15">
         <v>-5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="15">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="15">
         <v>-4</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="15">
         <v>-9</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="15">
         <v>-6</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="17">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="17">
         <v>-13</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="17">
         <v>-14</v>
       </c>
-      <c r="R11">
+      <c r="O11" s="17">
+        <v>-14</v>
+      </c>
+      <c r="T11" s="15">
         <v>-33</v>
       </c>
-      <c r="S11">
+      <c r="U11" s="15">
         <v>-24</v>
       </c>
-      <c r="T11">
+      <c r="V11" s="15">
         <v>-21</v>
       </c>
-      <c r="U11">
+      <c r="W11" s="15">
         <v>-29</v>
       </c>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="R12">
-        <f>R13+R8+R7+R6</f>
+      <c r="B12" s="15">
+        <f>B13+B8+B7+B6</f>
+        <v>48</v>
+      </c>
+      <c r="C12" s="15">
+        <f>C13+C8+C7+C6</f>
+        <v>124</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
+        <f>E13+E8+E7+E6</f>
+        <v>127</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" ref="F12:O12" si="4">F13+F8+F7+F6</f>
+        <v>144</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="4"/>
+        <v>157</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" si="4"/>
+        <v>194</v>
+      </c>
+      <c r="T12" s="15">
+        <f>T13+T8+T7+T6</f>
         <v>436</v>
       </c>
-      <c r="S12">
-        <f t="shared" ref="S12:T12" si="3">S13+S8+S7+S6</f>
+      <c r="U12" s="15">
+        <f t="shared" ref="U12:V12" si="5">U13+U8+U7+U6</f>
         <v>393</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="3"/>
+      <c r="V12" s="15">
+        <f t="shared" si="5"/>
         <v>591</v>
       </c>
-      <c r="U12">
-        <f>U13+U8+U7+U6</f>
+      <c r="W12" s="15">
+        <f>W13+W8+W7+W6</f>
         <v>686</v>
       </c>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="16">
         <f>B9+B10+B11</f>
         <v>-89</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="16">
         <f>C9+C10+C11</f>
         <v>43</v>
       </c>
-      <c r="E13" s="1">
-        <f t="shared" ref="E13:N13" si="4">E9+E10+E11</f>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16">
+        <f t="shared" ref="E13:N13" si="6">E9+E10+E11</f>
         <v>26</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="4"/>
+      <c r="F13" s="16">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="4"/>
+      <c r="G13" s="16">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" si="4"/>
+      <c r="H13" s="16">
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="4"/>
+      <c r="I13" s="16">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="J13" s="1">
-        <f t="shared" si="4"/>
+      <c r="J13" s="16">
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="K13" s="1">
-        <f t="shared" si="4"/>
+      <c r="K13" s="16">
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="4"/>
+      <c r="L13" s="16">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="M13" s="1">
-        <f t="shared" si="4"/>
+      <c r="M13" s="16">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" si="4"/>
+      <c r="N13" s="16">
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="R13" s="1">
-        <f>R9+R10+R11</f>
+      <c r="O13" s="16">
+        <f t="shared" ref="O13" si="7">O9+O10+O11</f>
+        <v>83</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="T13" s="16">
+        <f>T9+T10+T11</f>
         <v>118</v>
       </c>
-      <c r="S13" s="1">
-        <f>S9+S10+S11</f>
+      <c r="U13" s="16">
+        <f>U9+U10+U11</f>
         <v>-6</v>
       </c>
-      <c r="T13" s="1">
-        <f>T9+T10+T11</f>
+      <c r="V13" s="16">
+        <f>V9+V10+V11</f>
         <v>153</v>
       </c>
-      <c r="U13" s="1">
-        <f>U9+U10+U11</f>
+      <c r="W13" s="16">
+        <f>W9+W10+W11</f>
         <v>264</v>
       </c>
-      <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="8"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="15">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="15">
         <v>-20</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15">
         <v>-9</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="15">
         <v>-1</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="15">
         <v>31</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="15">
         <f t="shared" si="0"/>
         <v>-13</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="15">
         <v>-11</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="15">
         <v>-21</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="15">
         <v>-19</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="15">
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="15">
         <v>-3</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="15">
         <v>-20</v>
       </c>
-      <c r="R14">
+      <c r="O14" s="15">
+        <v>-15</v>
+      </c>
+      <c r="T14" s="15">
         <v>-37</v>
       </c>
-      <c r="S14">
+      <c r="U14" s="15">
         <v>-16</v>
       </c>
-      <c r="T14">
+      <c r="V14" s="15">
         <v>8</v>
       </c>
-      <c r="U14">
+      <c r="W14" s="15">
         <v>-64</v>
       </c>
-      <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="16">
         <f>B13+B14</f>
         <v>-65</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="16">
         <f>C13+C14</f>
         <v>23</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" ref="E15:N15" si="5">E13+E14</f>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16">
+        <f t="shared" ref="E15:N15" si="8">E13+E14</f>
         <v>17</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="5"/>
+      <c r="F15" s="16">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="5"/>
+      <c r="G15" s="16">
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" si="5"/>
+      <c r="H15" s="16">
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="5"/>
+      <c r="I15" s="16">
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="J15" s="1">
-        <f t="shared" si="5"/>
+      <c r="J15" s="16">
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="K15" s="1">
-        <f t="shared" si="5"/>
+      <c r="K15" s="16">
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="5"/>
+      <c r="L15" s="16">
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="M15" s="1">
-        <f t="shared" si="5"/>
+      <c r="M15" s="16">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" si="5"/>
+      <c r="N15" s="16">
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
-      <c r="R15" s="1">
-        <f>R13+R14</f>
+      <c r="O15" s="16">
+        <f t="shared" ref="O15" si="9">O13+O14</f>
+        <v>68</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="T15" s="16">
+        <f>T13+T14</f>
         <v>81</v>
       </c>
-      <c r="S15" s="1">
-        <f>S13+S14</f>
+      <c r="U15" s="16">
+        <f>U13+U14</f>
         <v>-22</v>
       </c>
-      <c r="T15" s="1">
-        <f>T13+T14</f>
+      <c r="V15" s="16">
+        <f>V13+V14</f>
         <v>161</v>
       </c>
-      <c r="U15" s="1">
-        <f>U13+U14</f>
+      <c r="W15" s="16">
+        <f>W13+W14</f>
         <v>200</v>
       </c>
-      <c r="V15" s="8"/>
-    </row>
-    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="15">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="15">
         <v>-5</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15">
         <v>-3</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="15">
         <v>-3</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="15">
         <v>-1</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="15">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="15">
         <v>-1</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="15">
         <v>-1</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="15">
         <v>-1</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="15">
         <v>-1</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="15">
         <v>-1</v>
       </c>
-      <c r="R16">
+      <c r="O16" s="15">
+        <v>-2</v>
+      </c>
+      <c r="T16" s="15">
         <v>-21</v>
       </c>
-      <c r="S16">
+      <c r="U16" s="15">
         <v>-9</v>
       </c>
-      <c r="T16">
+      <c r="V16" s="15">
         <v>-8</v>
       </c>
-      <c r="U16">
+      <c r="W16" s="15">
         <v>-3</v>
       </c>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="16">
         <f>B15+B16</f>
         <v>-65</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="16">
         <f>C15+C16</f>
         <v>18</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" ref="E17:N17" si="6">E15+E16</f>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16">
+        <f t="shared" ref="E17:N17" si="10">E15+E16</f>
         <v>14</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="6"/>
+      <c r="F17" s="16">
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="6"/>
+      <c r="G17" s="16">
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" si="6"/>
+      <c r="H17" s="16">
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="6"/>
+      <c r="I17" s="16">
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="J17" s="1">
-        <f t="shared" si="6"/>
+      <c r="J17" s="16">
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="K17" s="1">
-        <f t="shared" si="6"/>
+      <c r="K17" s="16">
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="6"/>
+      <c r="L17" s="16">
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="M17" s="1">
-        <f t="shared" si="6"/>
+      <c r="M17" s="16">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="N17" s="1">
-        <f t="shared" si="6"/>
+      <c r="N17" s="16">
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="R17" s="1">
-        <f>R15+R16</f>
+      <c r="O17" s="16">
+        <f t="shared" ref="O17" si="11">O15+O16</f>
+        <v>66</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="T17" s="16">
+        <f>T15+T16</f>
         <v>60</v>
       </c>
-      <c r="S17" s="1">
-        <f>S15+S16</f>
+      <c r="U17" s="16">
+        <f>U15+U16</f>
         <v>-31</v>
       </c>
-      <c r="T17" s="1">
-        <f>T15+T16</f>
+      <c r="V17" s="16">
+        <f>V15+V16</f>
         <v>153</v>
       </c>
-      <c r="U17" s="1">
-        <f>U15+U16</f>
+      <c r="W17" s="16">
+        <f>W15+W16</f>
         <v>197</v>
       </c>
-      <c r="V17" s="8">
-        <f>V19*V18</f>
+      <c r="X17" s="8">
+        <f>X19*X18</f>
         <v>269.09999999999997</v>
       </c>
-      <c r="W17" s="1">
-        <f>W19*W18</f>
+      <c r="Y17" s="1">
+        <f>Y19*Y18</f>
         <v>315.90000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="15">
         <v>115</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="15">
         <v>115</v>
       </c>
-      <c r="E18">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
         <v>114</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="15">
         <v>116</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="15">
         <v>114</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="15">
         <v>114</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="15">
         <v>114</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="15">
         <v>116</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="15">
         <v>118</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="15">
         <v>118</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="15">
         <v>118</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="15">
         <v>118</v>
       </c>
-      <c r="R18">
+      <c r="O18" s="15">
+        <v>119</v>
+      </c>
+      <c r="T18" s="15">
         <v>114</v>
       </c>
-      <c r="S18">
+      <c r="U18" s="15">
         <v>114</v>
       </c>
-      <c r="T18">
+      <c r="V18" s="15">
         <v>114</v>
       </c>
-      <c r="U18">
+      <c r="W18" s="15">
         <v>117</v>
       </c>
-      <c r="V18" s="7">
+      <c r="X18" s="7">
         <v>117</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1899,19 +2371,19 @@
         <v>0.63157894736842102</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" ref="H19:K19" si="7">H17/H18</f>
+        <f t="shared" ref="H19:K19" si="12">H17/H18</f>
         <v>0.49122807017543857</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.32456140350877194</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.43965517241379309</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.53389830508474578</v>
       </c>
       <c r="L19" s="2">
@@ -1926,30 +2398,35 @@
         <f>N17/N18</f>
         <v>0.55084745762711862</v>
       </c>
-      <c r="R19" s="2">
-        <f>R17/R18</f>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="S19" s="2">
-        <f>S17/S18</f>
-        <v>-0.27192982456140352</v>
-      </c>
+      <c r="O19" s="2">
+        <f t="shared" ref="O19" si="13">O17/O18</f>
+        <v>0.55462184873949583</v>
+      </c>
+      <c r="P19" s="8"/>
       <c r="T19" s="2">
         <f>T17/T18</f>
-        <v>1.3421052631578947</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="U19" s="2">
         <f>U17/U18</f>
+        <v>-0.27192982456140352</v>
+      </c>
+      <c r="V19" s="2">
+        <f>V17/V18</f>
+        <v>1.3421052631578947</v>
+      </c>
+      <c r="W19" s="2">
+        <f>W17/W18</f>
         <v>1.6837606837606838</v>
       </c>
-      <c r="V19" s="8">
+      <c r="X19" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W19" s="1">
+      <c r="Y19" s="1">
         <v>2.7</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1963,71 +2440,76 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
-        <f t="shared" ref="E20:N20" si="8">E3/E4-1</f>
+        <f t="shared" ref="E20:N20" si="14">E3/E4-1</f>
         <v>0.1986842105263158</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.21106821106821116</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.19563900666262879</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.18305439330543938</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.1916475972540046</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.21464788732394369</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.21326259946949611</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.21228501228501218</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.21878279118572919</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.22330097087378631</v>
       </c>
-      <c r="R20" s="5">
-        <f t="shared" ref="R20:W20" si="9">R3/R4-1</f>
+      <c r="O20" s="5">
+        <f>O3/O4-1</f>
+        <v>0.22813121272365811</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="T20" s="5">
+        <f t="shared" ref="T20:Y20" si="15">T3/T4-1</f>
         <v>0.19209702660406891</v>
       </c>
-      <c r="S20" s="5">
-        <f t="shared" si="9"/>
+      <c r="U20" s="5">
+        <f t="shared" si="15"/>
         <v>0.19849100406268128</v>
       </c>
-      <c r="T20" s="5">
-        <f t="shared" si="9"/>
+      <c r="V20" s="5">
+        <f t="shared" si="15"/>
         <v>0.19632364019888504</v>
       </c>
-      <c r="U20" s="10">
-        <f t="shared" si="9"/>
+      <c r="W20" s="10">
+        <f t="shared" si="15"/>
         <v>0.2082493618164718</v>
       </c>
-      <c r="V20" s="5" t="e">
-        <f t="shared" si="9"/>
+      <c r="X20" s="5" t="e">
+        <f>X3/X4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W20" s="5" t="e">
-        <f t="shared" si="9"/>
+      <c r="Y20" s="5" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2041,71 +2523,75 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6">
-        <f t="shared" ref="E21:N21" si="10">E17/E3</f>
+        <f t="shared" ref="E21:N21" si="16">E17/E3</f>
         <v>7.6838638858397366E-3</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5.8448459086078638E-3</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3.64741641337386E-2</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.475685234305924E-2</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.7762842054728757E-2</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.3654916512059369E-2</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.7547004809794492E-2</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.8646128901499796E-2</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.0761945759793371E-2</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.7151211361737676E-2</v>
       </c>
-      <c r="R21" s="6">
-        <f t="shared" ref="R21:W21" si="11">R17/R3</f>
+      <c r="O21" s="6">
+        <f t="shared" ref="O21" si="17">O17/O3</f>
+        <v>2.6709834075273168E-2</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" ref="T21:Y21" si="18">T17/T3</f>
         <v>9.8457499179520833E-3</v>
       </c>
-      <c r="S21" s="6">
-        <f t="shared" si="11"/>
+      <c r="U21" s="6">
+        <f t="shared" si="18"/>
         <v>-5.0040355125100886E-3</v>
       </c>
-      <c r="T21" s="6">
-        <f t="shared" si="11"/>
+      <c r="V21" s="6">
+        <f t="shared" si="18"/>
         <v>1.9269521410579346E-2</v>
       </c>
-      <c r="U21" s="11">
-        <f t="shared" si="11"/>
+      <c r="W21" s="11">
+        <f t="shared" si="18"/>
         <v>2.1905926831980428E-2</v>
       </c>
-      <c r="V21" s="6">
-        <f t="shared" si="11"/>
+      <c r="X21" s="6">
+        <f t="shared" si="18"/>
         <v>2.7628336755646812E-2</v>
       </c>
-      <c r="W21" s="6">
-        <f t="shared" si="11"/>
+      <c r="Y21" s="6">
+        <f t="shared" si="18"/>
         <v>3.0057088487155093E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -2114,11 +2600,11 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6">
-        <f t="shared" ref="F22:N22" si="12">F3/B3-1</f>
+        <f t="shared" ref="F22:O22" si="19">F3/B3-1</f>
         <v>0.3395017793594306</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.2462121212121211</v>
       </c>
       <c r="H22" s="6" t="e">
@@ -2126,51 +2612,55 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.14324917672886928</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.14558979808714123</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.1585612968591692</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>9.0627763041556175E-2</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.11521843494959194</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.11038961038961048</v>
       </c>
-      <c r="S22" s="6">
-        <f>S3/R3-1</f>
-        <v>1.6573679028552668E-2</v>
-      </c>
-      <c r="T22" s="6">
-        <f>T3/S3-1</f>
-        <v>0.28167877320419699</v>
+      <c r="O22" s="6">
+        <f t="shared" si="19"/>
+        <v>8.0454744206383877E-2</v>
       </c>
       <c r="U22" s="6">
         <f>U3/T3-1</f>
-        <v>0.13261964735516374</v>
-      </c>
-      <c r="V22" s="9">
+        <v>1.6573679028552668E-2</v>
+      </c>
+      <c r="V22" s="6">
         <f>V3/U3-1</f>
-        <v>8.306460580451458E-2</v>
+        <v>0.28167877320419699</v>
       </c>
       <c r="W22" s="6">
         <f>W3/V3-1</f>
+        <v>0.13261964735516374</v>
+      </c>
+      <c r="X22" s="9">
+        <f>X3/W3-1</f>
+        <v>8.306460580451458E-2</v>
+      </c>
+      <c r="Y22" s="6">
+        <f>Y3/X3-1</f>
         <v>7.9055441478439459E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -2179,31 +2669,31 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6">
-        <f t="shared" ref="F23:L23" si="13">F5/B5-1</f>
+        <f t="shared" ref="F23:L23" si="20">F5/B5-1</f>
         <v>5.3571428571428603E-2</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>8.9171974522292974E-2</v>
       </c>
       <c r="H23" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.11111111111111116</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.24293785310734473</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.32748538011695905</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.27692307692307683</v>
       </c>
       <c r="M23" s="6">
@@ -2214,22 +2704,26 @@
         <f>N5/J5-1</f>
         <v>0.11363636363636354</v>
       </c>
-      <c r="S23" s="6">
-        <f t="shared" ref="S23:T23" si="14">(S5-R5)/ABS(S5)</f>
+      <c r="O23" s="6">
+        <f t="shared" ref="O23:O24" si="21">O5/K5-1</f>
+        <v>0.13656387665198233</v>
+      </c>
+      <c r="U23" s="6">
+        <f t="shared" ref="U23:V23" si="22">(U5-T5)/ABS(U5)</f>
         <v>0.15875613747954173</v>
       </c>
-      <c r="T23" s="6">
-        <f t="shared" si="14"/>
+      <c r="V23" s="6">
+        <f t="shared" si="22"/>
         <v>0.14425770308123248</v>
       </c>
-      <c r="U23" s="6">
-        <f>(U5-T5)/ABS(U5)</f>
+      <c r="W23" s="11">
+        <f>(W5-V5)/ABS(W5)</f>
         <v>0.19413092550790068</v>
       </c>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2237,58 +2731,91 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="S24" s="6">
-        <f t="shared" ref="S24:T24" si="15">(S12-R12)/ABS(R12)</f>
+      <c r="F24" s="6">
+        <f>F12/B12-1</f>
+        <v>2</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" ref="G24:N24" si="23">G12/C12-1</f>
+        <v>0.27419354838709675</v>
+      </c>
+      <c r="H24" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="23"/>
+        <v>0.23622047244094491</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="23"/>
+        <v>0.21527777777777768</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="23"/>
+        <v>0.17721518987341778</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="23"/>
+        <v>3.7037037037036979E-2</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="23"/>
+        <v>-7.0063694267515908E-2</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="23"/>
+        <v>2.2857142857142909E-2</v>
+      </c>
+      <c r="O24" s="6">
+        <f>O12/K12-1</f>
+        <v>4.3010752688172005E-2</v>
+      </c>
+      <c r="U24" s="6">
+        <f t="shared" ref="U24:V24" si="24">(U12-T12)/ABS(T12)</f>
         <v>-9.862385321100918E-2</v>
       </c>
-      <c r="T24" s="6">
-        <f t="shared" si="15"/>
+      <c r="V24" s="6">
+        <f t="shared" si="24"/>
         <v>0.50381679389312972</v>
       </c>
-      <c r="U24" s="6">
-        <f>(U12-T12)/ABS(T12)</f>
+      <c r="W24" s="11">
+        <f>(W12-V12)/ABS(V12)</f>
         <v>0.16074450084602368</v>
       </c>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" ref="F25:L25" si="16">F15/B15-1</f>
+        <f t="shared" ref="F25:L25" si="25">F15/B15-1</f>
         <v>-1.2153846153846155</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>2.1739130434782608</v>
       </c>
       <c r="H25" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>1.2352941176470589</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>-0.12328767123287676</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>-0.19298245614035092</v>
       </c>
       <c r="M25" s="6">
@@ -2299,919 +2826,1014 @@
         <f>N15/J15-1</f>
         <v>0.26923076923076916</v>
       </c>
-      <c r="S25" s="6">
-        <f t="shared" ref="S25:T25" si="17">(S15-R15)/ABS(R15)</f>
+      <c r="O25" s="6">
+        <f t="shared" ref="O25" si="26">O15/K15-1</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="U25" s="6">
+        <f t="shared" ref="U25:V25" si="27">(U15-T15)/ABS(T15)</f>
         <v>-1.271604938271605</v>
       </c>
-      <c r="T25" s="6">
-        <f t="shared" si="17"/>
+      <c r="V25" s="6">
+        <f t="shared" si="27"/>
         <v>8.3181818181818183</v>
       </c>
-      <c r="U25" s="6">
-        <f>(U15-T15)/ABS(T15)</f>
+      <c r="W25" s="11">
+        <f>(W15-V15)/ABS(V15)</f>
         <v>0.24223602484472051</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W26" s="21"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W27" s="21"/>
+    </row>
+    <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="16">
         <f>D29+D30-D40-D43</f>
         <v>879</v>
       </c>
-      <c r="E28" s="1">
-        <f t="shared" ref="E28:N28" si="18">E29+E30-E40-E43</f>
+      <c r="E28" s="16">
+        <f t="shared" ref="E28:O28" si="28">E29+E30-E40-E43</f>
         <v>0</v>
       </c>
-      <c r="F28" s="1">
-        <f t="shared" si="18"/>
+      <c r="F28" s="16">
+        <f t="shared" si="28"/>
         <v>1005</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="18"/>
+      <c r="G28" s="16">
+        <f t="shared" si="28"/>
         <v>1013</v>
       </c>
-      <c r="H28" s="1">
-        <f t="shared" si="18"/>
+      <c r="H28" s="16">
+        <f t="shared" si="28"/>
         <v>879</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="18"/>
+      <c r="I28" s="16">
+        <f t="shared" si="28"/>
         <v>865</v>
       </c>
-      <c r="J28" s="1">
-        <f t="shared" si="18"/>
+      <c r="J28" s="16">
+        <f t="shared" si="28"/>
         <v>59</v>
       </c>
-      <c r="K28" s="1">
-        <f t="shared" si="18"/>
+      <c r="K28" s="16">
+        <f t="shared" si="28"/>
         <v>58</v>
       </c>
-      <c r="L28" s="1">
-        <f t="shared" si="18"/>
+      <c r="L28" s="16">
+        <f t="shared" si="28"/>
         <v>336</v>
       </c>
-      <c r="M28" s="1">
-        <f t="shared" si="18"/>
+      <c r="M28" s="16">
+        <f t="shared" si="28"/>
         <v>250</v>
       </c>
-      <c r="N28" s="1">
-        <f t="shared" si="18"/>
+      <c r="N28" s="16">
+        <f t="shared" si="28"/>
         <v>364</v>
       </c>
-      <c r="S28" s="1">
-        <f t="shared" ref="S28" si="19">S29+S30-S40-S43</f>
+      <c r="O28" s="16">
+        <f t="shared" si="28"/>
+        <v>487</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="U28" s="16">
+        <f t="shared" ref="U28" si="29">U29+U30-U40-U43</f>
         <v>879</v>
       </c>
-      <c r="T28" s="1">
-        <f t="shared" ref="T28" si="20">T29+T30-T40-T43</f>
+      <c r="V28" s="16">
+        <f t="shared" ref="V28" si="30">V29+V30-V40-V43</f>
         <v>879</v>
       </c>
-      <c r="U28" s="1">
-        <f t="shared" ref="U28" si="21">U29+U30-U40-U43</f>
+      <c r="W28" s="22">
+        <f t="shared" ref="W28" si="31">W29+W30-W40-W43</f>
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="15">
         <v>328</v>
       </c>
-      <c r="F29">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15">
         <v>326</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="15">
         <v>295</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="15">
         <v>333</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="15">
         <v>312</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="15">
         <v>384</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="15">
         <v>434</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="15">
         <v>495</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="15">
         <v>426</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="15">
         <v>305</v>
       </c>
-      <c r="S29">
+      <c r="O29" s="15">
+        <v>473</v>
+      </c>
+      <c r="U29" s="15">
         <v>328</v>
       </c>
-      <c r="T29">
+      <c r="V29" s="15">
         <v>333</v>
       </c>
-      <c r="U29">
+      <c r="W29" s="23">
         <v>495</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="15">
         <v>1224</v>
       </c>
-      <c r="F30">
+      <c r="E30" s="15"/>
+      <c r="F30" s="15">
         <v>1297</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="15">
         <v>1391</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="15">
         <v>1507</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="15">
         <v>1492</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="15">
         <v>1560</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="15">
         <v>1507</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="15">
         <v>1647</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="15">
         <v>1605</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="15">
         <v>1719</v>
       </c>
-      <c r="S30" s="13">
+      <c r="O30" s="15">
+        <v>1661</v>
+      </c>
+      <c r="U30" s="15">
         <v>1224</v>
       </c>
-      <c r="T30" s="13">
+      <c r="V30" s="15">
         <v>1507</v>
       </c>
-      <c r="U30" s="13">
+      <c r="W30" s="23">
         <v>1647</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="15">
         <v>284</v>
       </c>
-      <c r="F31">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15">
         <v>340</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="15">
         <v>292</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="15">
         <v>259</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="15">
         <v>226</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="15">
         <v>312</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="15">
         <v>301</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="15">
         <v>286</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="15">
         <v>280</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="15">
         <v>282</v>
       </c>
-      <c r="S31">
+      <c r="O31" s="15">
+        <v>332</v>
+      </c>
+      <c r="U31" s="15">
         <v>284</v>
       </c>
-      <c r="T31">
+      <c r="V31" s="15">
         <v>259</v>
       </c>
-      <c r="U31">
+      <c r="W31" s="23">
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="15">
         <v>770</v>
       </c>
-      <c r="F32">
+      <c r="E32" s="15"/>
+      <c r="F32" s="15">
         <v>838</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="15">
         <v>851</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="15">
         <v>863</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="15">
         <v>833</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="15">
         <v>905</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="15">
         <v>914</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="15">
         <v>960</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="15">
         <v>964</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="15">
         <v>965</v>
       </c>
-      <c r="S32">
+      <c r="O32" s="15">
+        <v>923</v>
+      </c>
+      <c r="U32" s="15">
         <v>770</v>
       </c>
-      <c r="T32">
+      <c r="V32" s="15">
         <v>863</v>
       </c>
-      <c r="U32">
+      <c r="W32" s="23">
         <v>960</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="15">
         <v>1434</v>
       </c>
-      <c r="F33">
+      <c r="E33" s="15"/>
+      <c r="F33" s="15">
         <v>1774</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="15">
         <v>1790</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="15">
         <v>1772</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="15">
         <v>1771</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="15">
         <v>1900</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="15">
         <v>2058</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="15">
         <v>2227</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="15">
         <v>2168</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="15">
         <v>2194</v>
       </c>
-      <c r="S33">
+      <c r="O33" s="15">
+        <v>2133</v>
+      </c>
+      <c r="U33" s="15">
         <v>1434</v>
       </c>
-      <c r="T33">
+      <c r="V33" s="15">
         <v>1772</v>
       </c>
-      <c r="U33">
+      <c r="W33" s="23">
         <v>2227</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="15">
         <v>2063</v>
       </c>
-      <c r="F34">
+      <c r="E34" s="15"/>
+      <c r="F34" s="15">
         <v>2058</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="15">
         <v>2042</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="15">
         <v>2017</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="15">
         <v>1986</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="15">
         <v>2769</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="15">
         <v>2603</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="15">
         <v>2728</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="15">
         <v>2765</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="15">
         <v>2802</v>
       </c>
-      <c r="S34">
+      <c r="O34" s="15">
+        <v>2734</v>
+      </c>
+      <c r="U34" s="15">
         <v>2063</v>
       </c>
-      <c r="T34">
+      <c r="V34" s="15">
         <v>2017</v>
       </c>
-      <c r="U34">
+      <c r="W34" s="23">
         <v>2728</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
-      <c r="D35">
+      <c r="D35" s="15">
         <v>299</v>
       </c>
-      <c r="E35"/>
-      <c r="F35">
+      <c r="E35" s="15"/>
+      <c r="F35" s="15">
         <v>295</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="15">
         <v>274</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="15">
         <v>257</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="15">
         <v>239</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="15">
         <v>557</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="15">
         <v>576</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="15">
         <v>570</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="15">
         <v>555</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="15">
         <v>544</v>
       </c>
-      <c r="S35">
+      <c r="O35" s="25">
+        <v>507</v>
+      </c>
+      <c r="P35" s="8"/>
+      <c r="U35" s="15">
         <v>299</v>
       </c>
-      <c r="T35">
+      <c r="V35" s="15">
         <v>257</v>
       </c>
-      <c r="U35">
+      <c r="W35" s="23">
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="15">
         <v>146</v>
       </c>
-      <c r="F36">
+      <c r="E36" s="15"/>
+      <c r="F36" s="15">
         <v>170</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="15">
         <v>218</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="15">
         <v>263</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="15">
         <v>267</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="15">
         <v>319</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="15">
         <v>413</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="15">
         <v>306</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="15">
         <v>327</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="15">
         <v>315</v>
       </c>
-      <c r="S36">
+      <c r="O36" s="15">
+        <v>328</v>
+      </c>
+      <c r="U36" s="15">
         <v>146</v>
       </c>
-      <c r="T36">
+      <c r="V36" s="15">
         <v>263</v>
       </c>
-      <c r="U36">
+      <c r="W36" s="23">
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1">
+      <c r="D37" s="16">
         <f>SUM(D29:D36)</f>
         <v>6548</v>
       </c>
-      <c r="E37" s="1">
-        <f t="shared" ref="E37" si="22">SUM(E29:E36)</f>
+      <c r="E37" s="16">
+        <f t="shared" ref="E37" si="32">SUM(E29:E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" ref="F37" si="23">SUM(F29:F36)</f>
+      <c r="F37" s="16">
+        <f t="shared" ref="F37" si="33">SUM(F29:F36)</f>
         <v>7098</v>
       </c>
-      <c r="G37" s="1">
-        <f t="shared" ref="G37" si="24">SUM(G29:G36)</f>
+      <c r="G37" s="16">
+        <f t="shared" ref="G37" si="34">SUM(G29:G36)</f>
         <v>7153</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="16">
         <f>SUM(H29:H36)</f>
         <v>7271</v>
       </c>
-      <c r="I37" s="1">
-        <f t="shared" ref="I37:J37" si="25">SUM(I29:I36)</f>
+      <c r="I37" s="16">
+        <f t="shared" ref="I37:J37" si="35">SUM(I29:I36)</f>
         <v>7126</v>
       </c>
-      <c r="J37" s="1">
-        <f t="shared" si="25"/>
+      <c r="J37" s="16">
+        <f t="shared" si="35"/>
         <v>8706</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="16">
         <f>SUM(K29:K36)</f>
         <v>8806</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="16">
         <f>SUM(L29:L36)</f>
         <v>9219</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="16">
         <f>SUM(M29:M36)</f>
         <v>9090</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="16">
         <f>SUM(N29:N36)</f>
         <v>9126</v>
       </c>
-      <c r="S37" s="1">
-        <f>SUM(S29:S36)</f>
+      <c r="O37" s="16">
+        <f>SUM(O29:O36)</f>
+        <v>9091</v>
+      </c>
+      <c r="U37" s="16">
+        <f>SUM(U29:U36)</f>
         <v>6548</v>
       </c>
-      <c r="T37" s="1">
-        <f>SUM(T29:T36)</f>
+      <c r="V37" s="16">
+        <f>SUM(V29:V36)</f>
         <v>7271</v>
       </c>
-      <c r="U37" s="1">
-        <f>SUM(U29:U36)</f>
+      <c r="W37" s="22">
+        <f>SUM(W29:W36)</f>
         <v>9219</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="15">
         <v>415</v>
       </c>
-      <c r="F38">
+      <c r="E38" s="15"/>
+      <c r="F38" s="15">
         <v>458</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="15">
         <v>415</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="15">
         <v>624</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="15">
         <v>549</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="15">
         <v>592</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="15">
         <v>568</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="15">
         <v>717</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="15">
         <v>652</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="15">
         <v>566</v>
       </c>
-      <c r="S38">
+      <c r="O38" s="15">
+        <v>597</v>
+      </c>
+      <c r="U38" s="15">
         <v>415</v>
       </c>
-      <c r="T38">
+      <c r="V38" s="15">
         <v>624</v>
       </c>
-      <c r="U38">
+      <c r="W38" s="23">
         <v>717</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="15">
         <v>784</v>
       </c>
-      <c r="F39">
+      <c r="E39" s="15"/>
+      <c r="F39" s="15">
         <v>973</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="15">
         <v>784</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="15">
         <v>998</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="15">
         <v>940</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="15">
         <v>1012</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="15">
         <v>952</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="15">
         <v>995</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="15">
         <v>908</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="15">
         <v>950</v>
       </c>
-      <c r="S39">
+      <c r="O39" s="15">
+        <v>975</v>
+      </c>
+      <c r="U39" s="15">
         <v>784</v>
       </c>
-      <c r="T39">
+      <c r="V39" s="15">
         <v>998</v>
       </c>
-      <c r="U39">
+      <c r="W39" s="23">
         <v>995</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="15">
         <v>58</v>
       </c>
-      <c r="F40">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15">
         <v>36</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="15">
         <v>58</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="15">
         <v>34</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="15">
         <v>32</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="15">
         <v>84</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="15">
         <v>94</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="15">
         <v>67</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="15">
         <v>84</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="15">
         <v>35</v>
       </c>
-      <c r="S40">
+      <c r="O40" s="15">
+        <v>26</v>
+      </c>
+      <c r="U40" s="15">
         <v>58</v>
       </c>
-      <c r="T40">
+      <c r="V40" s="15">
         <v>34</v>
       </c>
-      <c r="U40">
+      <c r="W40" s="23">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="15">
         <v>332</v>
       </c>
-      <c r="F41">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15">
         <v>414</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="15">
         <v>332</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="15">
         <v>453</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="15">
         <v>455</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="15">
         <v>490</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="15">
         <v>499</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="15">
         <v>560</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="15">
         <v>568</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="15">
         <v>568</v>
       </c>
-      <c r="S41">
+      <c r="O41" s="15">
+        <v>561</v>
+      </c>
+      <c r="U41" s="15">
         <v>332</v>
       </c>
-      <c r="T41">
+      <c r="V41" s="15">
         <v>453</v>
       </c>
-      <c r="U41">
+      <c r="W41" s="23">
         <v>560</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="15">
         <v>149</v>
       </c>
-      <c r="F42">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15">
         <v>128</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="15">
         <v>149</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="15">
         <v>220</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="15">
         <v>146</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="15">
         <v>186</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="15">
         <v>162</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="15">
         <v>193</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="15">
         <v>209</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="15">
         <v>284</v>
       </c>
-      <c r="S42">
+      <c r="O42" s="15">
+        <v>275</v>
+      </c>
+      <c r="U42" s="15">
         <v>149</v>
       </c>
-      <c r="T42">
+      <c r="V42" s="15">
         <v>220</v>
       </c>
-      <c r="U42">
+      <c r="W42" s="23">
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="15">
         <v>615</v>
       </c>
-      <c r="F43">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15">
         <v>582</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="15">
         <v>615</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="15">
         <v>927</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="15">
         <v>907</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="15">
         <v>1801</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="15">
         <v>1789</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="15">
         <v>1739</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="15">
         <v>1697</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="15">
         <v>1625</v>
       </c>
-      <c r="S43">
+      <c r="O43" s="15">
+        <v>1621</v>
+      </c>
+      <c r="U43" s="15">
         <v>615</v>
       </c>
-      <c r="T43">
+      <c r="V43" s="15">
         <v>927</v>
       </c>
-      <c r="U43">
+      <c r="W43" s="23">
         <v>1739</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
-      <c r="D44">
+      <c r="D44" s="15">
         <v>1099</v>
       </c>
-      <c r="E44"/>
-      <c r="F44">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15">
         <v>1340</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="15">
         <v>1382</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="15">
         <v>1391</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="15">
         <v>1388</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="15">
         <v>1570</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="15">
         <v>1669</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="15">
         <v>1853</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="15">
         <v>1800</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N44" s="15">
         <v>1838</v>
       </c>
-      <c r="S44">
+      <c r="O44" s="25">
+        <v>1800</v>
+      </c>
+      <c r="P44" s="8"/>
+      <c r="U44" s="15">
         <v>1099</v>
       </c>
-      <c r="T44">
+      <c r="V44" s="15">
         <v>1391</v>
       </c>
-      <c r="U44">
+      <c r="W44" s="23">
         <v>1853</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="15">
         <v>148</v>
       </c>
-      <c r="F45">
+      <c r="E45" s="15"/>
+      <c r="F45" s="15">
         <f>160+63</f>
         <v>223</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="15">
         <f>94+56</f>
         <v>150</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="15">
         <v>234</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="15">
         <v>334</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="15">
         <v>410</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="15">
         <v>444</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="15">
         <v>417</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M45" s="15">
         <v>453</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N45" s="15">
         <v>449</v>
       </c>
-      <c r="S45">
+      <c r="O45" s="15">
+        <v>419</v>
+      </c>
+      <c r="U45" s="15">
         <v>148</v>
       </c>
-      <c r="T45">
+      <c r="V45" s="15">
         <v>234</v>
       </c>
-      <c r="U45">
+      <c r="W45" s="23">
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1">
+      <c r="D46" s="16">
         <f>SUM(D38:D45)</f>
         <v>3600</v>
       </c>
-      <c r="E46" s="1">
-        <f t="shared" ref="E46:I46" si="26">SUM(E38:E45)</f>
+      <c r="E46" s="16">
+        <f t="shared" ref="E46:I46" si="36">SUM(E38:E45)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="1">
-        <f t="shared" si="26"/>
+      <c r="F46" s="16">
+        <f t="shared" si="36"/>
         <v>4154</v>
       </c>
-      <c r="G46" s="1">
-        <f t="shared" si="26"/>
+      <c r="G46" s="16">
+        <f t="shared" si="36"/>
         <v>3885</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="16">
         <f>SUM(H38:H45)</f>
         <v>4881</v>
       </c>
-      <c r="I46" s="1">
-        <f t="shared" si="26"/>
+      <c r="I46" s="16">
+        <f t="shared" si="36"/>
         <v>4751</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="16">
         <f>SUM(J38:J45)</f>
         <v>6145</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="16">
         <f>SUM(K38:K45)</f>
         <v>6177</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="16">
         <f>SUM(L38:L45)</f>
         <v>6541</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="16">
         <f>SUM(M38:M45)</f>
         <v>6371</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="16">
         <f>SUM(N38:N45)</f>
         <v>6315</v>
       </c>
-      <c r="S46" s="1">
-        <f>SUM(S38:S45)</f>
+      <c r="O46" s="16">
+        <f>SUM(O38:O45)</f>
+        <v>6274</v>
+      </c>
+      <c r="U46" s="16">
+        <f>SUM(U38:U45)</f>
         <v>3600</v>
       </c>
-      <c r="T46" s="1">
-        <f>SUM(T38:T45)</f>
+      <c r="V46" s="16">
+        <f>SUM(V38:V45)</f>
         <v>4881</v>
       </c>
-      <c r="U46" s="1">
-        <f>SUM(U38:U45)</f>
+      <c r="W46" s="22">
+        <f>SUM(W38:W45)</f>
         <v>6541</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="22"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W48" s="21"/>
+    </row>
+    <row r="49" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
@@ -3228,8 +3850,10 @@
       <c r="N49" s="1">
         <v>495</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P49" s="8"/>
+      <c r="W49" s="24"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -3242,8 +3866,9 @@
       <c r="N50">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W50" s="21"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -3256,8 +3881,9 @@
       <c r="N51">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W51" s="21"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3270,8 +3896,9 @@
       <c r="N52">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W52" s="21"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -3284,8 +3911,9 @@
       <c r="N53">
         <v>-17</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W53" s="21"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -3298,8 +3926,9 @@
       <c r="N54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W54" s="21"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -3312,8 +3941,9 @@
       <c r="N55">
         <v>-29</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W55" s="21"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -3326,8 +3956,9 @@
       <c r="N56">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W56" s="21"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -3340,8 +3971,9 @@
       <c r="N57">
         <v>-107</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W57" s="21"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -3354,8 +3986,9 @@
       <c r="N58">
         <v>-52</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W58" s="21"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -3368,8 +4001,9 @@
       <c r="N59">
         <v>-150</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W59" s="21"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -3382,8 +4016,9 @@
       <c r="N60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W60" s="21"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -3396,22 +4031,24 @@
       <c r="N61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W61" s="21"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>88</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="M62" s="15">
+      <c r="M62" s="14">
         <v>-21</v>
       </c>
       <c r="N62">
         <v>-138</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W62" s="21"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -3424,8 +4061,9 @@
       <c r="N63">
         <v>-16</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W63" s="21"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -3438,8 +4076,9 @@
       <c r="N64">
         <v>-6</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W64" s="21"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -3452,8 +4091,9 @@
       <c r="N65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W65" s="21"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -3467,24 +4107,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+    <row r="67" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="13">
         <f>SUM(I50:I66)</f>
         <v>-21</v>
       </c>
-      <c r="M67" s="14">
+      <c r="M67" s="13">
         <f>SUM(M50:M66)</f>
         <v>-69</v>
       </c>
-      <c r="N67" s="14">
+      <c r="N67" s="13">
         <f>SUM(N50:N66)</f>
         <v>-190</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P67" s="18"/>
+    </row>
+    <row r="68" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>93</v>
       </c>
@@ -3500,6 +4141,7 @@
         <f>N49+N67</f>
         <v>305</v>
       </c>
+      <c r="P68" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3509,4 +4151,28 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DEC602-D7CA-409B-9962-CCABA92C723B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Shipping & Transportation/GXO.xlsx
+++ b/Shipping & Transportation/GXO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9659D53-AA63-4E6E-B525-8DD2889F4935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DF6731-CA32-4B81-A8DF-66A418E180F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,44 +20,16 @@
     <sheet name="Non-GAAP" sheetId="5" r:id="rId5"/>
     <sheet name="Revenue Streams" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$A$21</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$A$22</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">[1]Model!$E$2:$U$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Model!$A$21</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Model!$A$22</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Model!$A$3</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Model!$A$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Model!$E$3:$R$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Model!$F$21:$Q$21</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Model!$F$22:$Q$22</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Model!$F$2:$R$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Model!$F$3:$R$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$A$3</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Model!$F$4:$Q$4</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Model!$F$4:$R$4</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">[1]Model!$E$2:$U$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Model!$A$21</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Model!$A$22</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Model!$F$21:$Q$21</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Model!$F$21:$R$21</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Model!$F$22:$Q$22</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Model!$F$22:$R$22</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Model!$F$2:$R$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$A$4</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">[1]Model!$A$17</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">[1]Model!$A$18</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">[1]Model!$E$17:$U$17</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">[1]Model!$E$18:$U$18</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">[1]Model!$E$2:$U$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$E$3:$R$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$F$21:$Q$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$F$22:$Q$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$F$21:$R$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$F$22:$R$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$F$2:$R$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$4</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Model!$F$2:$R$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$F$4:$Q$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$F$3:$R$3</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Model!$F$4:$R$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -689,7 +661,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -719,37 +691,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1788,7 +1750,7 @@
                   <c:v>8.7290114533526086E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1339742278584621E-2</c:v>
+                  <c:v>4.7248926160769145E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,7 +2972,7 @@
                   <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>376.04</c:v>
+                  <c:v>324.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,7 +3096,7 @@
                   <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63107296137339064</c:v>
+                  <c:v>0.41864628820960692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7919,18 +7881,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.29</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.28</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.29</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.26</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7974,7 +7936,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>exp. EPS (NON GAAP)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7994,7 +7956,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Non GAAP EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8025,18 +7987,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.18</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.21</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.18</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.19</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8080,7 +8042,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>exp. Rev</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8100,7 +8062,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -14742,190 +14704,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Model-graph"/>
-      <sheetName val="Catalysts"/>
-      <sheetName val="DoR"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="E2" t="str">
-            <v>Q120</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>Q220</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>Q320</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>Q420</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>Q121</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>Q221</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>Q321</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>Q421</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>Q122</v>
-          </cell>
-          <cell r="N2" t="str">
-            <v>Q222</v>
-          </cell>
-          <cell r="O2" t="str">
-            <v>Q322</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>Q422</v>
-          </cell>
-          <cell r="Q2" t="str">
-            <v>Q123</v>
-          </cell>
-          <cell r="R2" t="str">
-            <v>Q223</v>
-          </cell>
-          <cell r="S2" t="str">
-            <v>Q323</v>
-          </cell>
-          <cell r="T2" t="str">
-            <v>Q423</v>
-          </cell>
-          <cell r="U2" t="str">
-            <v>Q124</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>EPS</v>
-          </cell>
-          <cell r="E17">
-            <v>-0.37</v>
-          </cell>
-          <cell r="F17">
-            <v>-0.55000000000000004</v>
-          </cell>
-          <cell r="G17">
-            <v>-0.98</v>
-          </cell>
-          <cell r="H17">
-            <v>-0.85999999999999976</v>
-          </cell>
-          <cell r="I17">
-            <v>-0.87</v>
-          </cell>
-          <cell r="J17">
-            <v>-0.76</v>
-          </cell>
-          <cell r="K17">
-            <v>-1.35</v>
-          </cell>
-          <cell r="L17">
-            <v>-0.79999999999999971</v>
-          </cell>
-          <cell r="M17">
-            <v>-1.1399999999999999</v>
-          </cell>
-          <cell r="N17">
-            <v>-0.5</v>
-          </cell>
-          <cell r="O17">
-            <v>-1</v>
-          </cell>
-          <cell r="P17">
-            <v>-0.52000000000000024</v>
-          </cell>
-          <cell r="Q17">
-            <v>-0.87</v>
-          </cell>
-          <cell r="R17">
-            <v>-0.17</v>
-          </cell>
-          <cell r="S17">
-            <v>-0.61</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>EPS exp.</v>
-          </cell>
-          <cell r="E18">
-            <v>-0.15</v>
-          </cell>
-          <cell r="F18">
-            <v>-0.19600000000000001</v>
-          </cell>
-          <cell r="G18">
-            <v>-0.62</v>
-          </cell>
-          <cell r="H18">
-            <v>-0.43099999999999999</v>
-          </cell>
-          <cell r="I18">
-            <v>-0.434</v>
-          </cell>
-          <cell r="J18">
-            <v>-0.224</v>
-          </cell>
-          <cell r="K18">
-            <v>-0.97899999999999998</v>
-          </cell>
-          <cell r="L18">
-            <v>-0.80800000000000005</v>
-          </cell>
-          <cell r="M18">
-            <v>-1.1180000000000001</v>
-          </cell>
-          <cell r="N18">
-            <v>-0.755</v>
-          </cell>
-          <cell r="O18">
-            <v>-1.0009999999999999</v>
-          </cell>
-          <cell r="P18">
-            <v>-0.61699999999999999</v>
-          </cell>
-          <cell r="Q18">
-            <v>-0.877</v>
-          </cell>
-          <cell r="R18">
-            <v>-0.245</v>
-          </cell>
-          <cell r="S18">
-            <v>-0.69</v>
-          </cell>
-          <cell r="T18">
-            <v>0.08</v>
-          </cell>
-          <cell r="U18">
-            <v>-0.33</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15297,7 +15075,7 @@
       <c r="J9" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="34">
         <f>K2/Model!Y20</f>
         <v>29.931877729257643</v>
       </c>
@@ -15308,7 +15086,7 @@
       </c>
       <c r="K10" s="5">
         <f>Model!Z18/Model!Y18-1</f>
-        <v>0.6420960698689957</v>
+        <v>0.41864628820960692</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -15323,9 +15101,9 @@
       <c r="J12" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="33">
         <f>K2/Model!Z22</f>
-        <v>18.227848101265824</v>
+        <v>21.098901098901099</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -15528,29 +15306,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Z71"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R17" sqref="R17"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="23"/>
     <col min="16" max="16" width="11.42578125" style="17"/>
     <col min="17" max="18" width="11.5703125" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="23"/>
     <col min="25" max="25" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>60</v>
       </c>
@@ -15590,16 +15366,16 @@
       <c r="N2" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" t="s">
         <v>95</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" t="s">
         <v>149</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" t="s">
         <v>150</v>
       </c>
       <c r="U2" t="s">
@@ -15611,7 +15387,7 @@
       <c r="W2" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="X2" t="s">
         <v>16</v>
       </c>
       <c r="Y2" s="17" t="s">
@@ -15621,7 +15397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -15664,7 +15440,7 @@
       <c r="N3" s="12">
         <v>2394</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="12">
         <v>2471</v>
       </c>
       <c r="P3" s="19">
@@ -15679,7 +15455,7 @@
       <c r="W3" s="12">
         <v>7940</v>
       </c>
-      <c r="X3" s="26">
+      <c r="X3" s="12">
         <v>8993</v>
       </c>
       <c r="Y3" s="19">
@@ -15690,57 +15466,62 @@
         <v>10280</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="46">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="35">
         <v>2048</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="35">
         <v>2076</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="35">
         <v>2098</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="35">
         <v>2266</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="35">
         <v>2448</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="35">
         <v>2298</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="35">
         <v>2377</v>
       </c>
-      <c r="O4" s="48">
+      <c r="O4" s="37">
         <v>2480</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="36">
         <v>2550</v>
       </c>
       <c r="Q4" s="10">
-        <v>2420</v>
-      </c>
-      <c r="R4" s="10"/>
+        <v>2380</v>
+      </c>
+      <c r="R4" s="10">
+        <v>2480</v>
+      </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
-      <c r="X4" s="26"/>
+      <c r="X4" s="12"/>
       <c r="Y4" s="19"/>
       <c r="Z4">
-        <v>10280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>10240</v>
+      </c>
+      <c r="AA4">
+        <v>11020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -15783,7 +15564,7 @@
       <c r="N5" s="12">
         <v>1957</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="12">
         <v>2012</v>
       </c>
       <c r="P5" s="19">
@@ -15798,7 +15579,7 @@
       <c r="W5" s="12">
         <v>6637</v>
       </c>
-      <c r="X5" s="26">
+      <c r="X5" s="12">
         <v>7443</v>
       </c>
       <c r="Y5" s="19">
@@ -15806,7 +15587,7 @@
         <v>8035</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -15849,7 +15630,7 @@
       <c r="N6" s="12">
         <v>245</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="12">
         <v>258</v>
       </c>
       <c r="P6" s="19">
@@ -15864,7 +15645,7 @@
       <c r="W6" s="12">
         <v>714</v>
       </c>
-      <c r="X6" s="26">
+      <c r="X6" s="12">
         <v>886</v>
       </c>
       <c r="Y6" s="19">
@@ -15872,7 +15653,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -15915,7 +15696,7 @@
       <c r="N7" s="12">
         <v>84</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="12">
         <v>101</v>
       </c>
       <c r="P7" s="19">
@@ -15930,7 +15711,7 @@
       <c r="W7" s="12">
         <v>335</v>
       </c>
-      <c r="X7" s="26">
+      <c r="X7" s="12">
         <v>329</v>
       </c>
       <c r="Y7" s="19">
@@ -15938,7 +15719,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -15981,7 +15762,7 @@
       <c r="N8" s="12">
         <v>6</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="12">
         <v>3</v>
       </c>
       <c r="P8" s="19">
@@ -15996,7 +15777,7 @@
       <c r="W8" s="12">
         <v>99</v>
       </c>
-      <c r="X8" s="26">
+      <c r="X8" s="12">
         <v>61</v>
       </c>
       <c r="Y8" s="19">
@@ -16004,7 +15785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -16047,7 +15828,7 @@
       <c r="N9" s="12">
         <v>3</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="12">
         <v>7</v>
       </c>
       <c r="P9" s="19">
@@ -16062,7 +15843,7 @@
       <c r="W9" s="12">
         <v>4</v>
       </c>
-      <c r="X9" s="26">
+      <c r="X9" s="12">
         <v>32</v>
       </c>
       <c r="Y9" s="19">
@@ -16070,7 +15851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -16123,7 +15904,7 @@
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="13">
         <f t="shared" ref="O10:P10" si="3">O3-O5-O6-O7-O8-O9</f>
         <v>90</v>
       </c>
@@ -16143,16 +15924,16 @@
         <f>W3-W5-W6-W7-W8-W9</f>
         <v>151</v>
       </c>
-      <c r="X10" s="27">
+      <c r="X10" s="13">
         <f>X3-X5-X6-X7-X8-X9</f>
         <v>242</v>
       </c>
-      <c r="Y10" s="27">
+      <c r="Y10" s="13">
         <f>Y3-Y5-Y6-Y7-Y8-Y9</f>
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -16195,7 +15976,7 @@
       <c r="N11" s="12">
         <v>1</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="12">
         <v>7</v>
       </c>
       <c r="P11" s="19">
@@ -16210,7 +15991,7 @@
       <c r="W11" s="12">
         <v>23</v>
       </c>
-      <c r="X11" s="26">
+      <c r="X11" s="12">
         <v>51</v>
       </c>
       <c r="Y11" s="19">
@@ -16218,7 +15999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -16261,10 +16042,10 @@
       <c r="N12" s="14">
         <v>-14</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="14">
         <v>-14</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="25">
         <v>-12</v>
       </c>
       <c r="U12" s="12">
@@ -16276,7 +16057,7 @@
       <c r="W12" s="12">
         <v>-21</v>
       </c>
-      <c r="X12" s="26">
+      <c r="X12" s="12">
         <v>-29</v>
       </c>
       <c r="Y12" s="19">
@@ -16284,7 +16065,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -16337,7 +16118,7 @@
         <f t="shared" si="4"/>
         <v>179</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="12">
         <f t="shared" si="4"/>
         <v>194</v>
       </c>
@@ -16357,7 +16138,7 @@
         <f t="shared" si="6"/>
         <v>591</v>
       </c>
-      <c r="X13" s="26">
+      <c r="X13" s="12">
         <f>X14+X9+X8+X7</f>
         <v>686</v>
       </c>
@@ -16366,7 +16147,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -16419,7 +16200,7 @@
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="13">
         <f t="shared" ref="O14:P14" si="8">O10+O11+O12</f>
         <v>83</v>
       </c>
@@ -16439,16 +16220,16 @@
         <f>W10+W11+W12</f>
         <v>153</v>
       </c>
-      <c r="X14" s="27">
+      <c r="X14" s="13">
         <f>X10+X11+X12</f>
         <v>264</v>
       </c>
-      <c r="Y14" s="27">
+      <c r="Y14" s="13">
         <f>Y10+Y11+Y12</f>
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -16491,7 +16272,7 @@
       <c r="N15" s="12">
         <v>-20</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="12">
         <v>-15</v>
       </c>
       <c r="P15" s="19">
@@ -16506,7 +16287,7 @@
       <c r="W15" s="12">
         <v>8</v>
       </c>
-      <c r="X15" s="26">
+      <c r="X15" s="12">
         <v>-64</v>
       </c>
       <c r="Y15" s="19">
@@ -16514,7 +16295,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -16567,7 +16348,7 @@
         <f t="shared" si="9"/>
         <v>66</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="13">
         <f t="shared" ref="O16:P16" si="10">O14+O15</f>
         <v>68</v>
       </c>
@@ -16587,7 +16368,7 @@
         <f>W14+W15</f>
         <v>161</v>
       </c>
-      <c r="X16" s="27">
+      <c r="X16" s="13">
         <f>X14+X15</f>
         <v>200</v>
       </c>
@@ -16596,7 +16377,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -16639,7 +16420,7 @@
       <c r="N17" s="12">
         <v>-1</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="12">
         <v>-2</v>
       </c>
       <c r="P17" s="19">
@@ -16654,7 +16435,7 @@
       <c r="W17" s="12">
         <v>-8</v>
       </c>
-      <c r="X17" s="26">
+      <c r="X17" s="12">
         <v>-3</v>
       </c>
       <c r="Y17" s="19">
@@ -16662,7 +16443,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -16715,7 +16496,7 @@
         <f t="shared" si="11"/>
         <v>65</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="13">
         <f t="shared" ref="O18:P18" si="12">O16+O17</f>
         <v>66</v>
       </c>
@@ -16735,7 +16516,7 @@
         <f>W16+W17</f>
         <v>153</v>
       </c>
-      <c r="X18" s="27">
+      <c r="X18" s="13">
         <f>X16+X17</f>
         <v>197</v>
       </c>
@@ -16745,10 +16526,14 @@
       </c>
       <c r="Z18" s="1">
         <f>Z22*Z19</f>
-        <v>376.04</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>324.87</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>AA22*AA19</f>
+        <v>380.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -16789,7 +16574,7 @@
       <c r="N19" s="12">
         <v>118</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O19" s="12">
         <v>119</v>
       </c>
       <c r="P19" s="19">
@@ -16804,7 +16589,7 @@
       <c r="W19" s="12">
         <v>114</v>
       </c>
-      <c r="X19" s="26">
+      <c r="X19" s="12">
         <v>117</v>
       </c>
       <c r="Y19" s="17">
@@ -16813,8 +16598,11 @@
       <c r="Z19">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA19" s="40">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -16867,11 +16655,11 @@
         <f>N18/N19</f>
         <v>0.55084745762711862</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O20" s="2">
         <f t="shared" ref="O20:P20" si="14">O18/O19</f>
         <v>0.55462184873949583</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="26">
         <f t="shared" si="14"/>
         <v>0.61344537815126055</v>
       </c>
@@ -16887,16 +16675,16 @@
         <f>W18/W19</f>
         <v>1.3421052631578947</v>
       </c>
-      <c r="X20" s="29">
+      <c r="X20" s="2">
         <f>X18/X19</f>
         <v>1.6837606837606838</v>
       </c>
-      <c r="Y20" s="35">
+      <c r="Y20" s="27">
         <f>Y18/Y19</f>
         <v>1.9243697478991597</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>165</v>
       </c>
@@ -16904,101 +16692,106 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="43">
+      <c r="F21" s="33">
         <v>0.38500000000000001</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="33">
         <v>0.73</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="33">
         <v>0.59</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="33">
         <v>0.68</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="33">
         <v>0.75</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="31">
         <v>0.83</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M21" s="31">
         <v>0.49</v>
       </c>
-      <c r="N21" s="40">
+      <c r="N21" s="31">
         <v>0.7</v>
       </c>
-      <c r="O21" s="41">
+      <c r="O21" s="31">
         <v>0.69</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="32">
         <v>0.7</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="35"/>
-    </row>
-    <row r="22" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="2"/>
+      <c r="Y21" s="27"/>
+    </row>
+    <row r="22" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="49">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="38">
         <v>0.307</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="38">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="38">
         <v>0.51</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="38">
         <v>0.51</v>
       </c>
-      <c r="J22" s="49">
+      <c r="J22" s="38">
         <v>0.621</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K22" s="38">
         <v>0.69499999999999995</v>
       </c>
-      <c r="L22" s="49">
+      <c r="L22" s="38">
         <v>0.75</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="38">
         <v>0.43</v>
       </c>
-      <c r="N22" s="49">
+      <c r="N22" s="38">
         <v>0.61</v>
       </c>
-      <c r="O22" s="50">
+      <c r="O22" s="38">
         <v>0.66</v>
       </c>
-      <c r="P22" s="51">
+      <c r="P22" s="39">
         <v>0.68</v>
       </c>
       <c r="Q22" s="10">
-        <v>0.54</v>
-      </c>
-      <c r="R22" s="38"/>
+        <v>0.45</v>
+      </c>
+      <c r="R22" s="29">
+        <v>0.64</v>
+      </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="35"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="27"/>
       <c r="Z22" s="1">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2.73</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -17051,7 +16844,7 @@
         <f t="shared" si="15"/>
         <v>0.22330097087378631</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="23">
         <f>O3/O5-1</f>
         <v>0.22813121272365811</v>
       </c>
@@ -17060,7 +16853,7 @@
         <v>0.19907407407407418</v>
       </c>
       <c r="U23" s="5">
-        <f t="shared" ref="U23:Z23" si="16">U3/U5-1</f>
+        <f t="shared" ref="U23:X23" si="16">U3/U5-1</f>
         <v>0.19209702660406891</v>
       </c>
       <c r="V23" s="5">
@@ -17071,7 +16864,7 @@
         <f t="shared" si="16"/>
         <v>0.19632364019888504</v>
       </c>
-      <c r="X23" s="30">
+      <c r="X23" s="23">
         <f t="shared" si="16"/>
         <v>0.2082493618164718</v>
       </c>
@@ -17081,7 +16874,7 @@
       </c>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -17134,7 +16927,7 @@
         <f t="shared" si="17"/>
         <v>2.7151211361737676E-2</v>
       </c>
-      <c r="O24" s="31">
+      <c r="O24" s="6">
         <f t="shared" ref="O24:P24" si="18">O18/O3</f>
         <v>2.6709834075273168E-2</v>
       </c>
@@ -17143,7 +16936,7 @@
         <v>2.8185328185328186E-2</v>
       </c>
       <c r="U24" s="6">
-        <f t="shared" ref="U24:Z24" si="19">U18/U3</f>
+        <f t="shared" ref="U24:AA24" si="19">U18/U3</f>
         <v>9.8457499179520833E-3</v>
       </c>
       <c r="V24" s="6">
@@ -17154,7 +16947,7 @@
         <f t="shared" si="19"/>
         <v>1.9269521410579346E-2</v>
       </c>
-      <c r="X24" s="31">
+      <c r="X24" s="6">
         <f t="shared" si="19"/>
         <v>2.1905926831980428E-2</v>
       </c>
@@ -17163,11 +16956,15 @@
         <v>2.341992227449376E-2</v>
       </c>
       <c r="Z24" s="6">
-        <f t="shared" si="19"/>
-        <v>3.6579766536964979E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <f>Z18/Z4</f>
+        <v>3.1725585937500002E-2</v>
+      </c>
+      <c r="AA24" s="6">
+        <f>AA18/AA4</f>
+        <v>3.455535390199637E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -17208,7 +17005,7 @@
         <f t="shared" si="20"/>
         <v>0.11038961038961048</v>
       </c>
-      <c r="O25" s="31">
+      <c r="O25" s="6">
         <f t="shared" si="20"/>
         <v>8.0454744206383877E-2</v>
       </c>
@@ -17224,7 +17021,7 @@
         <f>W3/V3-1</f>
         <v>0.28167877320419699</v>
       </c>
-      <c r="X25" s="31">
+      <c r="X25" s="6">
         <f>X3/W3-1</f>
         <v>0.13261964735516374</v>
       </c>
@@ -17233,11 +17030,15 @@
         <v>8.7290114533526086E-2</v>
       </c>
       <c r="Z25" s="6">
-        <f>Z3/Y3-1</f>
-        <v>5.1339742278584621E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+        <f>Z4/Y3-1</f>
+        <v>4.7248926160769145E-2</v>
+      </c>
+      <c r="AA25" s="6">
+        <f>AA4/Z4-1</f>
+        <v>7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -17255,46 +17056,46 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6">
-        <f>I6/E6-1</f>
+        <f t="shared" ref="I26:N26" si="21">I6/E6-1</f>
         <v>0.11111111111111116</v>
       </c>
       <c r="J26" s="6">
-        <f>J6/F6-1</f>
+        <f t="shared" si="21"/>
         <v>0.24293785310734473</v>
       </c>
       <c r="K26" s="6">
-        <f>K6/G6-1</f>
+        <f t="shared" si="21"/>
         <v>0.32748538011695905</v>
       </c>
       <c r="L26" s="6">
-        <f>L6/H6-1</f>
+        <f t="shared" si="21"/>
         <v>0.27692307692307683</v>
       </c>
       <c r="M26" s="6">
-        <f>M6/I6-1</f>
+        <f t="shared" si="21"/>
         <v>0.35789473684210527</v>
       </c>
       <c r="N26" s="6">
-        <f>N6/J6-1</f>
+        <f t="shared" si="21"/>
         <v>0.11363636363636354</v>
       </c>
-      <c r="O26" s="31">
-        <f t="shared" ref="O26:P26" si="21">O6/K6-1</f>
+      <c r="O26" s="6">
+        <f t="shared" ref="O26:P26" si="22">O6/K6-1</f>
         <v>0.13656387665198233</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-4.8192771084337394E-2</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" ref="V26:W26" si="22">(V6-U6)/ABS(V6)</f>
+        <f t="shared" ref="V26:W26" si="23">(V6-U6)/ABS(V6)</f>
         <v>0.15875613747954173</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14425770308123248</v>
       </c>
-      <c r="X26" s="31">
+      <c r="X26" s="6">
         <f>(X6-W6)/ABS(X6)</f>
         <v>0.19413092550790068</v>
       </c>
@@ -17304,7 +17105,7 @@
       </c>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -17322,46 +17123,46 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6">
-        <f>I13/E13-1</f>
+        <f t="shared" ref="I27:P27" si="24">I13/E13-1</f>
         <v>0.23622047244094491</v>
       </c>
       <c r="J27" s="6">
-        <f>J13/F13-1</f>
+        <f t="shared" si="24"/>
         <v>0.21527777777777768</v>
       </c>
       <c r="K27" s="6">
-        <f>K13/G13-1</f>
+        <f t="shared" si="24"/>
         <v>0.17721518987341778</v>
       </c>
       <c r="L27" s="6">
-        <f>L13/H13-1</f>
+        <f t="shared" si="24"/>
         <v>3.7037037037036979E-2</v>
       </c>
       <c r="M27" s="6">
-        <f>M13/I13-1</f>
+        <f t="shared" si="24"/>
         <v>-7.0063694267515908E-2</v>
       </c>
       <c r="N27" s="6">
-        <f>N13/J13-1</f>
+        <f t="shared" si="24"/>
         <v>2.2857142857142909E-2</v>
       </c>
-      <c r="O27" s="31">
-        <f>O13/K13-1</f>
+      <c r="O27" s="6">
+        <f t="shared" si="24"/>
         <v>4.3010752688172005E-2</v>
       </c>
       <c r="P27" s="8">
-        <f>P13/L13-1</f>
+        <f t="shared" si="24"/>
         <v>3.5714285714285809E-2</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" ref="V27:W27" si="23">(V13-U13)/ABS(U13)</f>
+        <f t="shared" ref="V27:W27" si="25">(V13-U13)/ABS(U13)</f>
         <v>-9.862385321100918E-2</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.50381679389312972</v>
       </c>
-      <c r="X27" s="31">
+      <c r="X27" s="6">
         <f>(X13-W13)/ABS(W13)</f>
         <v>0.16074450084602368</v>
       </c>
@@ -17371,7 +17172,7 @@
       </c>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -17385,46 +17186,46 @@
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6">
-        <f>I16/E16-1</f>
+        <f t="shared" ref="I28:N28" si="26">I16/E16-1</f>
         <v>1.2352941176470589</v>
       </c>
       <c r="J28" s="6">
-        <f>J16/F16-1</f>
+        <f t="shared" si="26"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="K28" s="6">
-        <f>K16/G16-1</f>
+        <f t="shared" si="26"/>
         <v>-0.12328767123287676</v>
       </c>
       <c r="L28" s="6">
-        <f>L16/H16-1</f>
+        <f t="shared" si="26"/>
         <v>-0.19298245614035092</v>
       </c>
       <c r="M28" s="6">
-        <f>M16/I16-1</f>
+        <f t="shared" si="26"/>
         <v>-0.31578947368421051</v>
       </c>
       <c r="N28" s="6">
-        <f>N16/J16-1</f>
+        <f t="shared" si="26"/>
         <v>0.26923076923076916</v>
       </c>
-      <c r="O28" s="31">
-        <f t="shared" ref="O28:P28" si="24">O16/K16-1</f>
+      <c r="O28" s="6">
+        <f t="shared" ref="O28:P28" si="27">O16/K16-1</f>
         <v>6.25E-2</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.58695652173913038</v>
       </c>
       <c r="V28" s="6">
-        <f t="shared" ref="V28:W28" si="25">(V16-U16)/ABS(U16)</f>
+        <f t="shared" ref="V28:W28" si="28">(V16-U16)/ABS(U16)</f>
         <v>-1.271604938271605</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>8.3181818181818183</v>
       </c>
-      <c r="X28" s="31">
+      <c r="X28" s="6">
         <f>(X16-W16)/ABS(W16)</f>
         <v>0.24223602484472051</v>
       </c>
@@ -17432,12 +17233,16 @@
         <f>(Y16-X16)/ABS(X16)</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="Z28" s="8">
-        <f>(Z18-Y18)/ABS(Y16)</f>
-        <v>0.63107296137339064</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z28" s="41">
+        <f>(Z18/Y18)-1</f>
+        <v>0.41864628820960692</v>
+      </c>
+      <c r="AA28" s="41">
+        <f>(AA18/Z18)-1</f>
+        <v>0.17216117216117222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -17446,7 +17251,7 @@
         <v>879</v>
       </c>
       <c r="E31" s="13">
-        <f t="shared" ref="E31:O31" si="26">E32+E33-E43-E46</f>
+        <f t="shared" ref="E31:O31" si="29">E32+E33-E43-E46</f>
         <v>0</v>
       </c>
       <c r="F31" s="13">
@@ -17454,67 +17259,67 @@
         <v>1005</v>
       </c>
       <c r="G31" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1013</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>879</v>
       </c>
       <c r="I31" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>865</v>
       </c>
       <c r="J31" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>59</v>
       </c>
       <c r="K31" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>58</v>
       </c>
       <c r="L31" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>336</v>
       </c>
       <c r="M31" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>250</v>
       </c>
       <c r="N31" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>364</v>
       </c>
-      <c r="O31" s="27">
-        <f t="shared" si="26"/>
+      <c r="O31" s="13">
+        <f t="shared" si="29"/>
         <v>487</v>
       </c>
       <c r="P31" s="18">
-        <f t="shared" ref="P31" si="27">P32+P33-P43-P46</f>
+        <f t="shared" ref="P31" si="30">P32+P33-P43-P46</f>
         <v>574</v>
       </c>
       <c r="V31" s="13">
-        <f t="shared" ref="V31" si="28">V32+V33-V43-V46</f>
+        <f t="shared" ref="V31" si="31">V32+V33-V43-V46</f>
         <v>879</v>
       </c>
       <c r="W31" s="13">
-        <f t="shared" ref="W31" si="29">W32+W33-W43-W46</f>
+        <f t="shared" ref="W31" si="32">W32+W33-W43-W46</f>
         <v>879</v>
       </c>
-      <c r="X31" s="27">
-        <f t="shared" ref="X31:Z31" si="30">X32+X33-X43-X46</f>
+      <c r="X31" s="13">
+        <f t="shared" ref="X31:Z31" si="33">X32+X33-X43-X46</f>
         <v>336</v>
       </c>
       <c r="Y31" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>574</v>
       </c>
-      <c r="Z31" s="27">
-        <f t="shared" si="30"/>
+      <c r="Z31" s="13">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -17549,7 +17354,7 @@
       <c r="N32" s="12">
         <v>305</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O32" s="12">
         <v>473</v>
       </c>
       <c r="P32" s="19">
@@ -17561,11 +17366,11 @@
       <c r="W32" s="12">
         <v>333</v>
       </c>
-      <c r="X32" s="26">
+      <c r="X32" s="12">
         <v>495</v>
       </c>
       <c r="Y32" s="19">
-        <f>P32</f>
+        <f t="shared" ref="Y32:Y39" si="34">P32</f>
         <v>468</v>
       </c>
     </row>
@@ -17604,7 +17409,7 @@
       <c r="N33" s="12">
         <v>1719</v>
       </c>
-      <c r="O33" s="26">
+      <c r="O33" s="12">
         <v>1661</v>
       </c>
       <c r="P33" s="19">
@@ -17616,11 +17421,11 @@
       <c r="W33" s="12">
         <v>1507</v>
       </c>
-      <c r="X33" s="26">
+      <c r="X33" s="12">
         <v>1647</v>
       </c>
       <c r="Y33" s="19">
-        <f>P33</f>
+        <f t="shared" si="34"/>
         <v>1753</v>
       </c>
     </row>
@@ -17659,7 +17464,7 @@
       <c r="N34" s="12">
         <v>282</v>
       </c>
-      <c r="O34" s="26">
+      <c r="O34" s="12">
         <v>332</v>
       </c>
       <c r="P34" s="19">
@@ -17671,11 +17476,11 @@
       <c r="W34" s="12">
         <v>259</v>
       </c>
-      <c r="X34" s="26">
+      <c r="X34" s="12">
         <v>286</v>
       </c>
       <c r="Y34" s="19">
-        <f>P34</f>
+        <f t="shared" si="34"/>
         <v>347</v>
       </c>
     </row>
@@ -17714,7 +17519,7 @@
       <c r="N35" s="12">
         <v>965</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O35" s="12">
         <v>923</v>
       </c>
       <c r="P35" s="19">
@@ -17726,11 +17531,11 @@
       <c r="W35" s="12">
         <v>863</v>
       </c>
-      <c r="X35" s="26">
+      <c r="X35" s="12">
         <v>960</v>
       </c>
       <c r="Y35" s="19">
-        <f>P35</f>
+        <f t="shared" si="34"/>
         <v>953</v>
       </c>
     </row>
@@ -17769,7 +17574,7 @@
       <c r="N36" s="12">
         <v>2194</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="12">
         <v>2133</v>
       </c>
       <c r="P36" s="19">
@@ -17781,11 +17586,11 @@
       <c r="W36" s="12">
         <v>1772</v>
       </c>
-      <c r="X36" s="26">
+      <c r="X36" s="12">
         <v>2227</v>
       </c>
       <c r="Y36" s="19">
-        <f>P36</f>
+        <f t="shared" si="34"/>
         <v>2201</v>
       </c>
     </row>
@@ -17824,7 +17629,7 @@
       <c r="N37" s="12">
         <v>2802</v>
       </c>
-      <c r="O37" s="26">
+      <c r="O37" s="12">
         <v>2734</v>
       </c>
       <c r="P37" s="19">
@@ -17836,11 +17641,11 @@
       <c r="W37" s="12">
         <v>2017</v>
       </c>
-      <c r="X37" s="26">
+      <c r="X37" s="12">
         <v>2728</v>
       </c>
       <c r="Y37" s="19">
-        <f>P37</f>
+        <f t="shared" si="34"/>
         <v>2891</v>
       </c>
     </row>
@@ -17881,7 +17686,7 @@
       <c r="N38" s="12">
         <v>544</v>
       </c>
-      <c r="O38" s="23">
+      <c r="O38">
         <v>507</v>
       </c>
       <c r="P38" s="17">
@@ -17893,11 +17698,11 @@
       <c r="W38" s="12">
         <v>257</v>
       </c>
-      <c r="X38" s="26">
+      <c r="X38" s="12">
         <v>570</v>
       </c>
       <c r="Y38" s="19">
-        <f>P38</f>
+        <f t="shared" si="34"/>
         <v>567</v>
       </c>
     </row>
@@ -17936,7 +17741,7 @@
       <c r="N39" s="12">
         <v>315</v>
       </c>
-      <c r="O39" s="26">
+      <c r="O39" s="12">
         <v>328</v>
       </c>
       <c r="P39" s="19">
@@ -17948,11 +17753,11 @@
       <c r="W39" s="12">
         <v>263</v>
       </c>
-      <c r="X39" s="26">
+      <c r="X39" s="12">
         <v>306</v>
       </c>
       <c r="Y39" s="19">
-        <f>P39</f>
+        <f t="shared" si="34"/>
         <v>327</v>
       </c>
     </row>
@@ -17967,15 +17772,15 @@
         <v>6548</v>
       </c>
       <c r="E40" s="13">
-        <f t="shared" ref="E40" si="31">SUM(E32:E39)</f>
+        <f t="shared" ref="E40" si="35">SUM(E32:E39)</f>
         <v>0</v>
       </c>
       <c r="F40" s="13">
-        <f t="shared" ref="F40" si="32">SUM(F32:F39)</f>
+        <f t="shared" ref="F40" si="36">SUM(F32:F39)</f>
         <v>7098</v>
       </c>
       <c r="G40" s="13">
-        <f t="shared" ref="G40" si="33">SUM(G32:G39)</f>
+        <f t="shared" ref="G40" si="37">SUM(G32:G39)</f>
         <v>7153</v>
       </c>
       <c r="H40" s="13">
@@ -17983,35 +17788,35 @@
         <v>7271</v>
       </c>
       <c r="I40" s="13">
-        <f t="shared" ref="I40:J40" si="34">SUM(I32:I39)</f>
+        <f t="shared" ref="I40:J40" si="38">SUM(I32:I39)</f>
         <v>7126</v>
       </c>
       <c r="J40" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>8706</v>
       </c>
       <c r="K40" s="13">
-        <f>SUM(K32:K39)</f>
+        <f t="shared" ref="K40:P40" si="39">SUM(K32:K39)</f>
         <v>8806</v>
       </c>
       <c r="L40" s="13">
-        <f>SUM(L32:L39)</f>
+        <f t="shared" si="39"/>
         <v>9219</v>
       </c>
       <c r="M40" s="13">
-        <f>SUM(M32:M39)</f>
+        <f t="shared" si="39"/>
         <v>9090</v>
       </c>
       <c r="N40" s="13">
-        <f>SUM(N32:N39)</f>
+        <f t="shared" si="39"/>
         <v>9126</v>
       </c>
-      <c r="O40" s="27">
-        <f>SUM(O32:O39)</f>
+      <c r="O40" s="13">
+        <f t="shared" si="39"/>
         <v>9091</v>
       </c>
       <c r="P40" s="18">
-        <f>SUM(P32:P39)</f>
+        <f t="shared" si="39"/>
         <v>9507</v>
       </c>
       <c r="V40" s="13">
@@ -18022,7 +17827,7 @@
         <f>SUM(W32:W39)</f>
         <v>7271</v>
       </c>
-      <c r="X40" s="27">
+      <c r="X40" s="13">
         <f>SUM(X32:X39)</f>
         <v>9219</v>
       </c>
@@ -18066,7 +17871,7 @@
       <c r="N41" s="12">
         <v>566</v>
       </c>
-      <c r="O41" s="26">
+      <c r="O41" s="12">
         <v>597</v>
       </c>
       <c r="P41" s="19">
@@ -18078,11 +17883,11 @@
       <c r="W41" s="12">
         <v>624</v>
       </c>
-      <c r="X41" s="26">
+      <c r="X41" s="12">
         <v>717</v>
       </c>
       <c r="Y41" s="19">
-        <f>P41</f>
+        <f t="shared" ref="Y41:Y48" si="40">P41</f>
         <v>709</v>
       </c>
     </row>
@@ -18121,7 +17926,7 @@
       <c r="N42" s="12">
         <v>950</v>
       </c>
-      <c r="O42" s="26">
+      <c r="O42" s="12">
         <v>975</v>
       </c>
       <c r="P42" s="19">
@@ -18133,11 +17938,11 @@
       <c r="W42" s="12">
         <v>998</v>
       </c>
-      <c r="X42" s="26">
+      <c r="X42" s="12">
         <v>995</v>
       </c>
       <c r="Y42" s="19">
-        <f>P42</f>
+        <f t="shared" si="40"/>
         <v>966</v>
       </c>
     </row>
@@ -18176,7 +17981,7 @@
       <c r="N43" s="12">
         <v>35</v>
       </c>
-      <c r="O43" s="26">
+      <c r="O43" s="12">
         <v>26</v>
       </c>
       <c r="P43" s="19">
@@ -18188,11 +17993,11 @@
       <c r="W43" s="12">
         <v>34</v>
       </c>
-      <c r="X43" s="26">
+      <c r="X43" s="12">
         <v>67</v>
       </c>
       <c r="Y43" s="19">
-        <f>P43</f>
+        <f t="shared" si="40"/>
         <v>27</v>
       </c>
     </row>
@@ -18231,7 +18036,7 @@
       <c r="N44" s="12">
         <v>568</v>
       </c>
-      <c r="O44" s="26">
+      <c r="O44" s="12">
         <v>561</v>
       </c>
       <c r="P44" s="19">
@@ -18243,11 +18048,11 @@
       <c r="W44" s="12">
         <v>453</v>
       </c>
-      <c r="X44" s="26">
+      <c r="X44" s="12">
         <v>560</v>
       </c>
       <c r="Y44" s="19">
-        <f>P44</f>
+        <f t="shared" si="40"/>
         <v>597</v>
       </c>
     </row>
@@ -18286,7 +18091,7 @@
       <c r="N45" s="12">
         <v>284</v>
       </c>
-      <c r="O45" s="26">
+      <c r="O45" s="12">
         <v>275</v>
       </c>
       <c r="P45" s="19">
@@ -18298,11 +18103,11 @@
       <c r="W45" s="12">
         <v>220</v>
       </c>
-      <c r="X45" s="26">
+      <c r="X45" s="12">
         <v>193</v>
       </c>
       <c r="Y45" s="19">
-        <f>P45</f>
+        <f t="shared" si="40"/>
         <v>327</v>
       </c>
     </row>
@@ -18341,7 +18146,7 @@
       <c r="N46" s="12">
         <v>1625</v>
       </c>
-      <c r="O46" s="26">
+      <c r="O46" s="12">
         <v>1621</v>
       </c>
       <c r="P46" s="19">
@@ -18353,11 +18158,11 @@
       <c r="W46" s="12">
         <v>927</v>
       </c>
-      <c r="X46" s="26">
+      <c r="X46" s="12">
         <v>1739</v>
       </c>
       <c r="Y46" s="19">
-        <f>P46</f>
+        <f t="shared" si="40"/>
         <v>1620</v>
       </c>
     </row>
@@ -18398,7 +18203,7 @@
       <c r="N47" s="12">
         <v>1838</v>
       </c>
-      <c r="O47" s="23">
+      <c r="O47">
         <v>1800</v>
       </c>
       <c r="P47" s="17">
@@ -18410,11 +18215,11 @@
       <c r="W47" s="12">
         <v>1391</v>
       </c>
-      <c r="X47" s="26">
+      <c r="X47" s="12">
         <v>1853</v>
       </c>
       <c r="Y47" s="19">
-        <f>P47</f>
+        <f t="shared" si="40"/>
         <v>1842</v>
       </c>
     </row>
@@ -18455,7 +18260,7 @@
       <c r="N48" s="12">
         <v>449</v>
       </c>
-      <c r="O48" s="26">
+      <c r="O48" s="12">
         <v>419</v>
       </c>
       <c r="P48" s="19">
@@ -18467,11 +18272,11 @@
       <c r="W48" s="12">
         <v>234</v>
       </c>
-      <c r="X48" s="26">
+      <c r="X48" s="12">
         <v>417</v>
       </c>
       <c r="Y48" s="19">
-        <f>P48</f>
+        <f t="shared" si="40"/>
         <v>473</v>
       </c>
     </row>
@@ -18486,15 +18291,15 @@
         <v>3600</v>
       </c>
       <c r="E49" s="13">
-        <f t="shared" ref="E49:I49" si="35">SUM(E41:E48)</f>
+        <f t="shared" ref="E49:I49" si="41">SUM(E41:E48)</f>
         <v>0</v>
       </c>
       <c r="F49" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>4154</v>
       </c>
       <c r="G49" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3885</v>
       </c>
       <c r="H49" s="13">
@@ -18502,35 +18307,35 @@
         <v>4881</v>
       </c>
       <c r="I49" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>4751</v>
       </c>
       <c r="J49" s="13">
-        <f t="shared" ref="J49:O49" si="36">SUM(J41:J48)</f>
+        <f t="shared" ref="J49:O49" si="42">SUM(J41:J48)</f>
         <v>6145</v>
       </c>
       <c r="K49" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>6177</v>
       </c>
       <c r="L49" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>6541</v>
       </c>
       <c r="M49" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>6371</v>
       </c>
       <c r="N49" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>6315</v>
       </c>
-      <c r="O49" s="27">
-        <f t="shared" si="36"/>
+      <c r="O49" s="13">
+        <f t="shared" si="42"/>
         <v>6274</v>
       </c>
       <c r="P49" s="18">
-        <f t="shared" ref="P49" si="37">SUM(P41:P48)</f>
+        <f t="shared" ref="P49" si="43">SUM(P41:P48)</f>
         <v>6561</v>
       </c>
       <c r="V49" s="13">
@@ -18541,7 +18346,7 @@
         <f>SUM(W41:W48)</f>
         <v>4881</v>
       </c>
-      <c r="X49" s="27">
+      <c r="X49" s="13">
         <f>SUM(X41:X48)</f>
         <v>6541</v>
       </c>
@@ -18553,7 +18358,7 @@
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V50" s="13"/>
       <c r="W50" s="13"/>
-      <c r="X50" s="27"/>
+      <c r="X50" s="13"/>
     </row>
     <row r="52" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -18572,9 +18377,7 @@
       <c r="N52" s="1">
         <v>495</v>
       </c>
-      <c r="O52" s="24"/>
       <c r="P52" s="20"/>
-      <c r="X52" s="24"/>
       <c r="Y52" s="20"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -18831,10 +18634,8 @@
         <f>SUM(N53:N69)</f>
         <v>-190</v>
       </c>
-      <c r="O70" s="25"/>
-      <c r="P70" s="32"/>
-      <c r="X70" s="25"/>
-      <c r="Y70" s="32"/>
+      <c r="P70" s="24"/>
+      <c r="Y70" s="24"/>
     </row>
     <row r="71" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -18852,9 +18653,7 @@
         <f>N52+N70</f>
         <v>305</v>
       </c>
-      <c r="O71" s="24"/>
       <c r="P71" s="20"/>
-      <c r="X71" s="24"/>
       <c r="Y71" s="20"/>
     </row>
   </sheetData>

--- a/Shipping & Transportation/GXO.xlsx
+++ b/Shipping & Transportation/GXO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DF6731-CA32-4B81-A8DF-66A418E180F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E5BFD-EE10-499C-90A6-52C312A4E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,11 @@
     <sheet name="Catalysts" sheetId="4" r:id="rId4"/>
     <sheet name="Non-GAAP" sheetId="5" r:id="rId5"/>
     <sheet name="Revenue Streams" sheetId="6" r:id="rId6"/>
+    <sheet name="DoR" sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$A$21</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$A$22</definedName>
@@ -53,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="206">
   <si>
     <t>GXO</t>
   </si>
@@ -552,12 +556,136 @@
   <si>
     <t>Non GAAP EPS</t>
   </si>
+  <si>
+    <t>w/w</t>
+  </si>
+  <si>
+    <t>Close to Close Weekly returns</t>
+  </si>
+  <si>
+    <t>Intervals</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Cumulative Percentage</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Descriptive Statistics</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Average Returns</t>
+  </si>
+  <si>
+    <t>Frequency %</t>
+  </si>
+  <si>
+    <t>Frequency Adjusted Return</t>
+  </si>
+  <si>
+    <t>Positive Data Points</t>
+  </si>
+  <si>
+    <t>Negative Data Points</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Actual Count</t>
+  </si>
+  <si>
+    <t>Actual % Count</t>
+  </si>
+  <si>
+    <t>Normal % Count</t>
+  </si>
+  <si>
+    <t>Percentiles</t>
+  </si>
+  <si>
+    <t>Stop %</t>
+  </si>
+  <si>
+    <t>Target %</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Stop Price</t>
+  </si>
+  <si>
+    <t>Target Price</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,8 +739,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,8 +799,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -655,13 +834,490 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -710,11 +1366,118 @@
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -7873,6 +8636,347 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DoR!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DoR!$K$4:$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Less than -19,45%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19,45% to -15,54%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15,54% to -11,64%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11,64% to -7,73%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7,73% to -3,83%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3,83% to 0,08%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0,08% to 3,98%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3,98% to 7,89%</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7,89% to 11,80%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11,80% to 15,70%</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15,70% to 19,61%</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Greater than 19,61%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DoR!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F883-485D-AB3F-EBF9B5FFBEA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:axId val="1429205823"/>
+        <c:axId val="1429206303"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1429205823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429206303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1429206303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429205823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -8369,6 +9473,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12525,6 +13669,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14704,6 +16356,175 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>195261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1438274</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3DA7F0-D648-441C-BCAE-0D925385279D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Model-graph"/>
+      <sheetName val="Catalysts"/>
+      <sheetName val="DoR"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="J3" t="str">
+            <v>Frequency</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>67</v>
+          </cell>
+          <cell r="K4" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>67</v>
+          </cell>
+          <cell r="K5" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>67</v>
+          </cell>
+          <cell r="K6" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>67</v>
+          </cell>
+          <cell r="K7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>67</v>
+          </cell>
+          <cell r="K8" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>67</v>
+          </cell>
+          <cell r="K9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="J10">
+            <v>67</v>
+          </cell>
+          <cell r="K10" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11">
+            <v>67</v>
+          </cell>
+          <cell r="K11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12">
+            <v>67</v>
+          </cell>
+          <cell r="K12" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13">
+            <v>67</v>
+          </cell>
+          <cell r="K13" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="J14">
+            <v>67</v>
+          </cell>
+          <cell r="K14" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="J15">
+            <v>67</v>
+          </cell>
+          <cell r="K15" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15308,7 +17129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AC25" sqref="AC25"/>
     </sheetView>
@@ -16598,7 +18419,7 @@
       <c r="Z19">
         <v>119</v>
       </c>
-      <c r="AA19" s="40">
+      <c r="AA19" s="12">
         <v>119</v>
       </c>
     </row>
@@ -16936,7 +18757,7 @@
         <v>2.8185328185328186E-2</v>
       </c>
       <c r="U24" s="6">
-        <f t="shared" ref="U24:AA24" si="19">U18/U3</f>
+        <f t="shared" ref="U24:Y24" si="19">U18/U3</f>
         <v>9.8457499179520833E-3</v>
       </c>
       <c r="V24" s="6">
@@ -17233,11 +19054,11 @@
         <f>(Y16-X16)/ABS(X16)</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="Z28" s="41">
+      <c r="Z28" s="6">
         <f>(Z18/Y18)-1</f>
         <v>0.41864628820960692</v>
       </c>
-      <c r="AA28" s="41">
+      <c r="AA28" s="6">
         <f>(AA18/Z18)-1</f>
         <v>0.17216117216117222</v>
       </c>
@@ -24153,4 +25974,2709 @@
     <ignoredError sqref="B11 C11:F11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F020C3-F669-45B2-B298-2759C0C678D0}">
+  <dimension ref="A1:M144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15">
+        <v>45390</v>
+      </c>
+      <c r="C2" s="22">
+        <v>50.380001</v>
+      </c>
+      <c r="D2" s="111">
+        <f>C2/C3-1</f>
+        <v>-3.1526316801230303E-2</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15">
+        <v>45383</v>
+      </c>
+      <c r="C3" s="22">
+        <v>52.02</v>
+      </c>
+      <c r="D3" s="111">
+        <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
+        <v>-3.2366035430284046E-2</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
+        <v>45376</v>
+      </c>
+      <c r="C4" s="22">
+        <v>53.759998000000003</v>
+      </c>
+      <c r="D4" s="111">
+        <f t="shared" si="0"/>
+        <v>5.9936848187364999E-2</v>
+      </c>
+      <c r="H4" s="51">
+        <f>$I$19-3*$I$23</f>
+        <v>-0.19446373890452345</v>
+      </c>
+      <c r="I4" s="52">
+        <f>H4</f>
+        <v>-0.19446373890452345</v>
+      </c>
+      <c r="J4" s="53">
+        <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="53" t="str">
+        <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
+        <v>Less than -19,45%</v>
+      </c>
+      <c r="L4" s="54">
+        <f>J4/$I$31</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="55">
+        <f>L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>45369</v>
+      </c>
+      <c r="C5" s="22">
+        <v>50.720001000000003</v>
+      </c>
+      <c r="D5" s="111">
+        <f t="shared" si="0"/>
+        <v>2.4853484548252869E-2</v>
+      </c>
+      <c r="H5" s="56">
+        <f>$I$19-2.4*$I$23</f>
+        <v>-0.15541165732422391</v>
+      </c>
+      <c r="I5" s="57">
+        <f>H5</f>
+        <v>-0.15541165732422391</v>
+      </c>
+      <c r="J5" s="58">
+        <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="59" t="str">
+        <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
+        <v>-19,45% to -15,54%</v>
+      </c>
+      <c r="L5" s="60">
+        <f>J5/$I$31</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="61">
+        <f>M4+L5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>45362</v>
+      </c>
+      <c r="C6" s="22">
+        <v>49.490001999999997</v>
+      </c>
+      <c r="D6" s="111">
+        <f t="shared" si="0"/>
+        <v>5.8943291484891969E-3</v>
+      </c>
+      <c r="H6" s="56">
+        <f>$I$19-1.8*$I$23</f>
+        <v>-0.11635957574392437</v>
+      </c>
+      <c r="I6" s="57">
+        <f t="shared" ref="I6:I14" si="2">H6</f>
+        <v>-0.11635957574392437</v>
+      </c>
+      <c r="J6" s="58">
+        <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>-15,54% to -11,64%</v>
+      </c>
+      <c r="L6" s="60">
+        <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
+        <v>1.4084507042253521E-2</v>
+      </c>
+      <c r="M6" s="61">
+        <f t="shared" ref="M6:M15" si="5">M5+L6</f>
+        <v>1.4084507042253521E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>45355</v>
+      </c>
+      <c r="C7" s="22">
+        <v>49.200001</v>
+      </c>
+      <c r="D7" s="111">
+        <f t="shared" si="0"/>
+        <v>-3.396817200078539E-2</v>
+      </c>
+      <c r="H7" s="56">
+        <f>$I$19-1.2*$I$23</f>
+        <v>-7.730749416362484E-2</v>
+      </c>
+      <c r="I7" s="57">
+        <f t="shared" si="2"/>
+        <v>-7.730749416362484E-2</v>
+      </c>
+      <c r="J7" s="58">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K7" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>-11,64% to -7,73%</v>
+      </c>
+      <c r="L7" s="60">
+        <f t="shared" si="4"/>
+        <v>6.3380281690140844E-2</v>
+      </c>
+      <c r="M7" s="61">
+        <f t="shared" si="5"/>
+        <v>7.746478873239436E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>45348</v>
+      </c>
+      <c r="C8" s="22">
+        <v>50.93</v>
+      </c>
+      <c r="D8" s="111">
+        <f t="shared" si="0"/>
+        <v>-4.4644549903497421E-2</v>
+      </c>
+      <c r="H8" s="56">
+        <f>$I$19-0.6*$I$23</f>
+        <v>-3.8255412583325307E-2</v>
+      </c>
+      <c r="I8" s="57">
+        <f t="shared" si="2"/>
+        <v>-3.8255412583325307E-2</v>
+      </c>
+      <c r="J8" s="58">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K8" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>-7,73% to -3,83%</v>
+      </c>
+      <c r="L8" s="60">
+        <f t="shared" si="4"/>
+        <v>0.18309859154929578</v>
+      </c>
+      <c r="M8" s="61">
+        <f t="shared" si="5"/>
+        <v>0.26056338028169013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>45341</v>
+      </c>
+      <c r="C9" s="22">
+        <v>53.310001</v>
+      </c>
+      <c r="D9" s="111">
+        <f t="shared" si="0"/>
+        <v>-3.3889072127582409E-2</v>
+      </c>
+      <c r="H9" s="56">
+        <f>$I$19</f>
+        <v>7.9666899697422577E-4</v>
+      </c>
+      <c r="I9" s="57">
+        <f t="shared" si="2"/>
+        <v>7.9666899697422577E-4</v>
+      </c>
+      <c r="J9" s="58">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="K9" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>-3,83% to 0,08%</v>
+      </c>
+      <c r="L9" s="60">
+        <f t="shared" si="4"/>
+        <v>0.30985915492957744</v>
+      </c>
+      <c r="M9" s="61">
+        <f t="shared" si="5"/>
+        <v>0.57042253521126751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
+        <v>45334</v>
+      </c>
+      <c r="C10" s="22">
+        <v>55.18</v>
+      </c>
+      <c r="D10" s="111">
+        <f t="shared" si="0"/>
+        <v>-2.6636073851403652E-2</v>
+      </c>
+      <c r="H10" s="56">
+        <f>$I$19+0.6*$I$23</f>
+        <v>3.9848750577273759E-2</v>
+      </c>
+      <c r="I10" s="57">
+        <f t="shared" si="2"/>
+        <v>3.9848750577273759E-2</v>
+      </c>
+      <c r="J10" s="58">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="K10" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>0,08% to 3,98%</v>
+      </c>
+      <c r="L10" s="60">
+        <f t="shared" si="4"/>
+        <v>0.19718309859154928</v>
+      </c>
+      <c r="M10" s="61">
+        <f t="shared" si="5"/>
+        <v>0.76760563380281677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>45327</v>
+      </c>
+      <c r="C11" s="22">
+        <v>56.689999</v>
+      </c>
+      <c r="D11" s="111">
+        <f t="shared" si="0"/>
+        <v>3.2981012518567665E-2</v>
+      </c>
+      <c r="H11" s="56">
+        <f>$I$19+1.2*$I$23</f>
+        <v>7.8900832157573292E-2</v>
+      </c>
+      <c r="I11" s="57">
+        <f t="shared" si="2"/>
+        <v>7.8900832157573292E-2</v>
+      </c>
+      <c r="J11" s="58">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K11" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>3,98% to 7,89%</v>
+      </c>
+      <c r="L11" s="60">
+        <f t="shared" si="4"/>
+        <v>0.14084507042253522</v>
+      </c>
+      <c r="M11" s="61">
+        <f t="shared" si="5"/>
+        <v>0.90845070422535201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
+        <v>45320</v>
+      </c>
+      <c r="C12" s="22">
+        <v>54.880001</v>
+      </c>
+      <c r="D12" s="111">
+        <f t="shared" si="0"/>
+        <v>-3.6516819461320571E-2</v>
+      </c>
+      <c r="H12" s="56">
+        <f>$I$19+1.8*$I$23</f>
+        <v>0.11795291373787282</v>
+      </c>
+      <c r="I12" s="57">
+        <f t="shared" si="2"/>
+        <v>0.11795291373787282</v>
+      </c>
+      <c r="J12" s="58">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K12" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>7,89% to 11,80%</v>
+      </c>
+      <c r="L12" s="60">
+        <f t="shared" si="4"/>
+        <v>6.3380281690140844E-2</v>
+      </c>
+      <c r="M12" s="61">
+        <f t="shared" si="5"/>
+        <v>0.97183098591549288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>45313</v>
+      </c>
+      <c r="C13" s="22">
+        <v>56.959999000000003</v>
+      </c>
+      <c r="D13" s="111">
+        <f t="shared" si="0"/>
+        <v>2.1337618791464896E-2</v>
+      </c>
+      <c r="H13" s="56">
+        <f>$I$19+2.4*$I$23</f>
+        <v>0.15700499531817236</v>
+      </c>
+      <c r="I13" s="57">
+        <f t="shared" si="2"/>
+        <v>0.15700499531817236</v>
+      </c>
+      <c r="J13" s="58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>11,80% to 15,70%</v>
+      </c>
+      <c r="L13" s="60">
+        <f t="shared" si="4"/>
+        <v>7.0422535211267607E-3</v>
+      </c>
+      <c r="M13" s="61">
+        <f t="shared" si="5"/>
+        <v>0.97887323943661964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>45306</v>
+      </c>
+      <c r="C14" s="22">
+        <v>55.77</v>
+      </c>
+      <c r="D14" s="111">
+        <f t="shared" si="0"/>
+        <v>-3.5621683014985805E-2</v>
+      </c>
+      <c r="H14" s="56">
+        <f>$I$19+3*$I$23</f>
+        <v>0.1960570768984719</v>
+      </c>
+      <c r="I14" s="57">
+        <f t="shared" si="2"/>
+        <v>0.1960570768984719</v>
+      </c>
+      <c r="J14" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>15,70% to 19,61%</v>
+      </c>
+      <c r="L14" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="61">
+        <f t="shared" si="5"/>
+        <v>0.97887323943661964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
+        <v>45299</v>
+      </c>
+      <c r="C15" s="22">
+        <v>57.830002</v>
+      </c>
+      <c r="D15" s="111">
+        <f t="shared" si="0"/>
+        <v>-1.9664349223110666E-2</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="63">
+        <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
+        <v>3</v>
+      </c>
+      <c r="K15" s="63" t="str">
+        <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
+        <v>Greater than 19,61%</v>
+      </c>
+      <c r="L15" s="64">
+        <f t="shared" si="4"/>
+        <v>2.1126760563380281E-2</v>
+      </c>
+      <c r="M15" s="64">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15">
+        <v>45292</v>
+      </c>
+      <c r="C16" s="22">
+        <v>58.990001999999997</v>
+      </c>
+      <c r="D16" s="111">
+        <f t="shared" si="0"/>
+        <v>-3.5480673642903859E-2</v>
+      </c>
+      <c r="H16" s="65"/>
+      <c r="M16" s="66"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <v>45285</v>
+      </c>
+      <c r="C17" s="22">
+        <v>61.16</v>
+      </c>
+      <c r="D17" s="111">
+        <f t="shared" si="0"/>
+        <v>-1.4819619367924641E-2</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="68"/>
+      <c r="M17" s="66"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
+        <v>45278</v>
+      </c>
+      <c r="C18" s="22">
+        <v>62.080002</v>
+      </c>
+      <c r="D18" s="111">
+        <f t="shared" si="0"/>
+        <v>1.2559141860069456E-2</v>
+      </c>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+      <c r="M18" s="66"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
+        <v>45271</v>
+      </c>
+      <c r="C19" s="22">
+        <v>61.310001</v>
+      </c>
+      <c r="D19" s="111">
+        <f t="shared" si="0"/>
+        <v>7.0543059193294955E-2</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="72">
+        <f>AVERAGE(D:D)</f>
+        <v>7.9666899697422577E-4</v>
+      </c>
+      <c r="M19" s="66"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <v>45264</v>
+      </c>
+      <c r="C20" s="22">
+        <v>57.27</v>
+      </c>
+      <c r="D20" s="111">
+        <f t="shared" si="0"/>
+        <v>-1.5133309883635038E-2</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="72">
+        <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
+        <v>5.4619631441448126E-3</v>
+      </c>
+      <c r="M20" s="66"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <v>45257</v>
+      </c>
+      <c r="C21" s="22">
+        <v>58.150002000000001</v>
+      </c>
+      <c r="D21" s="111">
+        <f t="shared" si="0"/>
+        <v>2.5392400377224345E-2</v>
+      </c>
+      <c r="H21" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="72">
+        <f>MEDIAN(D:D)</f>
+        <v>-1.1939341938880355E-2</v>
+      </c>
+      <c r="M21" s="66"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="15">
+        <v>45250</v>
+      </c>
+      <c r="C22" s="22">
+        <v>56.709999000000003</v>
+      </c>
+      <c r="D22" s="111">
+        <f t="shared" si="0"/>
+        <v>-1.2020957769304563E-2</v>
+      </c>
+      <c r="H22" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" s="72" t="e">
+        <f>MODE(D:D)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="66"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
+        <v>45243</v>
+      </c>
+      <c r="C23" s="22">
+        <v>57.400002000000001</v>
+      </c>
+      <c r="D23" s="111">
+        <f t="shared" si="0"/>
+        <v>7.5107755667873199E-2</v>
+      </c>
+      <c r="H23" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="72">
+        <f>_xlfn.STDEV.S(D:D)</f>
+        <v>6.5086802633832555E-2</v>
+      </c>
+      <c r="M23" s="66"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="15">
+        <v>45236</v>
+      </c>
+      <c r="C24" s="22">
+        <v>53.389999000000003</v>
+      </c>
+      <c r="D24" s="111">
+        <f t="shared" si="0"/>
+        <v>-5.4024031296571184E-3</v>
+      </c>
+      <c r="H24" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" s="72">
+        <f>_xlfn.VAR.S(D:D)</f>
+        <v>4.2362918770954732E-3</v>
+      </c>
+      <c r="M24" s="66"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
+        <v>45229</v>
+      </c>
+      <c r="C25" s="22">
+        <v>53.68</v>
+      </c>
+      <c r="D25" s="111">
+        <f t="shared" si="0"/>
+        <v>7.7478924126856752E-2</v>
+      </c>
+      <c r="H25" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="73">
+        <f>KURT(D:D)</f>
+        <v>2.7191133956424545</v>
+      </c>
+      <c r="M25" s="66"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="15">
+        <v>45222</v>
+      </c>
+      <c r="C26" s="22">
+        <v>49.82</v>
+      </c>
+      <c r="D26" s="111">
+        <f t="shared" si="0"/>
+        <v>-4.723658352961202E-2</v>
+      </c>
+      <c r="H26" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" s="73">
+        <f>SKEW(D:D)</f>
+        <v>1.0525983249793824</v>
+      </c>
+      <c r="M26" s="66"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
+        <v>45215</v>
+      </c>
+      <c r="C27" s="22">
+        <v>52.290000999999997</v>
+      </c>
+      <c r="D27" s="111">
+        <f t="shared" si="0"/>
+        <v>-1.8949306171656799E-2</v>
+      </c>
+      <c r="H27" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="72">
+        <f>I29-I28</f>
+        <v>0.41798674186042228</v>
+      </c>
+      <c r="M27" s="66"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="15">
+        <v>45208</v>
+      </c>
+      <c r="C28" s="22">
+        <v>53.299999</v>
+      </c>
+      <c r="D28" s="111">
+        <f t="shared" si="0"/>
+        <v>-4.6341027846502625E-2</v>
+      </c>
+      <c r="H28" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="72">
+        <f>MIN(D:D)</f>
+        <v>-0.13654964462631913</v>
+      </c>
+      <c r="M28" s="66"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="15">
+        <v>45201</v>
+      </c>
+      <c r="C29" s="22">
+        <v>55.889999000000003</v>
+      </c>
+      <c r="D29" s="111">
+        <f t="shared" si="0"/>
+        <v>-4.7058873075571217E-2</v>
+      </c>
+      <c r="H29" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="I29" s="72">
+        <f>MAX(D:D)</f>
+        <v>0.28143709723410315</v>
+      </c>
+      <c r="M29" s="66"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="15">
+        <v>45194</v>
+      </c>
+      <c r="C30" s="22">
+        <v>58.650002000000001</v>
+      </c>
+      <c r="D30" s="111">
+        <f t="shared" si="0"/>
+        <v>1.382893738388713E-2</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="73">
+        <f>SUM(D:D)</f>
+        <v>0.11312699757034006</v>
+      </c>
+      <c r="M30" s="66"/>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="15">
+        <v>45187</v>
+      </c>
+      <c r="C31" s="22">
+        <v>57.849997999999999</v>
+      </c>
+      <c r="D31" s="111">
+        <f t="shared" si="0"/>
+        <v>-3.9515224970944618E-2</v>
+      </c>
+      <c r="H31" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="I31" s="45">
+        <f>COUNT(D:D)</f>
+        <v>142</v>
+      </c>
+      <c r="M31" s="66"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="15">
+        <v>45180</v>
+      </c>
+      <c r="C32" s="22">
+        <v>60.23</v>
+      </c>
+      <c r="D32" s="111">
+        <f t="shared" si="0"/>
+        <v>-9.212057752721492E-3</v>
+      </c>
+      <c r="H32" s="75"/>
+      <c r="M32" s="66"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="15">
+        <v>45173</v>
+      </c>
+      <c r="C33" s="22">
+        <v>60.790000999999997</v>
+      </c>
+      <c r="D33" s="111">
+        <f t="shared" si="0"/>
+        <v>-6.7780985551004203E-2</v>
+      </c>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="K33" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="L33" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="M33" s="66"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="15">
+        <v>45166</v>
+      </c>
+      <c r="C34" s="22">
+        <v>65.209998999999996</v>
+      </c>
+      <c r="D34" s="111">
+        <f t="shared" si="0"/>
+        <v>6.6219735120994105E-2</v>
+      </c>
+      <c r="H34" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="60">
+        <f>AVERAGEIF(D:D,"&gt;0")</f>
+        <v>5.8238721723275752E-2</v>
+      </c>
+      <c r="J34" s="58">
+        <f>COUNTIF(D:D,"&gt;0")</f>
+        <v>61</v>
+      </c>
+      <c r="K34" s="60">
+        <f>J34/$I$31</f>
+        <v>0.42957746478873238</v>
+      </c>
+      <c r="L34" s="61">
+        <f>K34*I34</f>
+        <v>2.5018042430421272E-2</v>
+      </c>
+      <c r="M34" s="66"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="15">
+        <v>45159</v>
+      </c>
+      <c r="C35" s="22">
+        <v>61.16</v>
+      </c>
+      <c r="D35" s="111">
+        <f t="shared" si="0"/>
+        <v>-7.7871351036200576E-3</v>
+      </c>
+      <c r="H35" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35" s="60">
+        <f>AVERAGEIF(D:D,"&lt;0")</f>
+        <v>-4.2992937844368508E-2</v>
+      </c>
+      <c r="J35" s="58">
+        <f>COUNTIF(D:D,"&lt;0")</f>
+        <v>80</v>
+      </c>
+      <c r="K35" s="60">
+        <f>J35/$I$31</f>
+        <v>0.56338028169014087</v>
+      </c>
+      <c r="L35" s="61">
+        <f t="shared" ref="L35:L36" si="6">K35*I35</f>
+        <v>-2.4221373433447047E-2</v>
+      </c>
+      <c r="M35" s="66"/>
+    </row>
+    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="15">
+        <v>45152</v>
+      </c>
+      <c r="C36" s="22">
+        <v>61.639999000000003</v>
+      </c>
+      <c r="D36" s="111">
+        <f t="shared" si="0"/>
+        <v>-2.6224329008283198E-2</v>
+      </c>
+      <c r="H36" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="63">
+        <v>0</v>
+      </c>
+      <c r="J36" s="63">
+        <f>COUNTIF(D:D,"0")</f>
+        <v>1</v>
+      </c>
+      <c r="K36" s="81">
+        <f>J36/$I$31</f>
+        <v>7.0422535211267607E-3</v>
+      </c>
+      <c r="L36" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="66"/>
+    </row>
+    <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="15">
+        <v>45145</v>
+      </c>
+      <c r="C37" s="22">
+        <v>63.299999</v>
+      </c>
+      <c r="D37" s="111">
+        <f t="shared" si="0"/>
+        <v>-1.2634565393315089E-2</v>
+      </c>
+      <c r="H37" s="75"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="66"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="15">
+        <v>45138</v>
+      </c>
+      <c r="C38" s="22">
+        <v>64.110000999999997</v>
+      </c>
+      <c r="D38" s="111">
+        <f t="shared" si="0"/>
+        <v>-3.4051557900336427E-2</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="J38" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="K38" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="L38" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="M38" s="78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="15">
+        <v>45131</v>
+      </c>
+      <c r="C39" s="22">
+        <v>66.370002999999997</v>
+      </c>
+      <c r="D39" s="111">
+        <f t="shared" si="0"/>
+        <v>1.8100950510785196E-2</v>
+      </c>
+      <c r="H39" s="83">
+        <v>1</v>
+      </c>
+      <c r="I39" s="60">
+        <f>$I$19+($H39*$I$23)</f>
+        <v>6.5883471630806781E-2</v>
+      </c>
+      <c r="J39" s="60">
+        <f>$I$19-($H39*$I$23)</f>
+        <v>-6.4290133636858329E-2</v>
+      </c>
+      <c r="K39" s="58">
+        <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
+        <v>103</v>
+      </c>
+      <c r="L39" s="60">
+        <f>K39/$I$31</f>
+        <v>0.72535211267605637</v>
+      </c>
+      <c r="M39" s="61">
+        <v>0.68269999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="15">
+        <v>45124</v>
+      </c>
+      <c r="C40" s="22">
+        <v>65.190002000000007</v>
+      </c>
+      <c r="D40" s="111">
+        <f t="shared" si="0"/>
+        <v>1.5104344205787434E-2</v>
+      </c>
+      <c r="H40" s="83">
+        <v>2</v>
+      </c>
+      <c r="I40" s="60">
+        <f>$I$19+($H40*$I$23)</f>
+        <v>0.13097027426463934</v>
+      </c>
+      <c r="J40" s="60">
+        <f>$I$19-($H40*$I$23)</f>
+        <v>-0.12937693627069088</v>
+      </c>
+      <c r="K40" s="58">
+        <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
+        <v>137</v>
+      </c>
+      <c r="L40" s="60">
+        <f>K40/$I$31</f>
+        <v>0.96478873239436624</v>
+      </c>
+      <c r="M40" s="61">
+        <v>0.95450000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="15">
+        <v>45117</v>
+      </c>
+      <c r="C41" s="22">
+        <v>64.220000999999996</v>
+      </c>
+      <c r="D41" s="111">
+        <f t="shared" si="0"/>
+        <v>4.1180301556420273E-2</v>
+      </c>
+      <c r="H41" s="83">
+        <v>3</v>
+      </c>
+      <c r="I41" s="60">
+        <f>$I$19+($H41*$I$23)</f>
+        <v>0.1960570768984719</v>
+      </c>
+      <c r="J41" s="60">
+        <f>$I$19-($H41*$I$23)</f>
+        <v>-0.19446373890452345</v>
+      </c>
+      <c r="K41" s="58">
+        <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
+        <v>139</v>
+      </c>
+      <c r="L41" s="60">
+        <f>K41/$I$31</f>
+        <v>0.97887323943661975</v>
+      </c>
+      <c r="M41" s="84">
+        <v>0.99729999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="15">
+        <v>45110</v>
+      </c>
+      <c r="C42" s="22">
+        <v>61.68</v>
+      </c>
+      <c r="D42" s="111">
+        <f t="shared" si="0"/>
+        <v>-1.8147086914995225E-2</v>
+      </c>
+      <c r="H42" s="56"/>
+      <c r="M42" s="84"/>
+    </row>
+    <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="15">
+        <v>45103</v>
+      </c>
+      <c r="C43" s="22">
+        <v>62.82</v>
+      </c>
+      <c r="D43" s="111">
+        <f t="shared" si="0"/>
+        <v>4.0066190726285145E-2</v>
+      </c>
+      <c r="H43" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="87"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="15">
+        <v>45096</v>
+      </c>
+      <c r="C44" s="22">
+        <v>60.400002000000001</v>
+      </c>
+      <c r="D44" s="111">
+        <f t="shared" si="0"/>
+        <v>-1.2264921921016469E-2</v>
+      </c>
+      <c r="H44" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="I44" s="89">
+        <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
+        <v>-0.11851694317397195</v>
+      </c>
+      <c r="J44" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="K44" s="89">
+        <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
+        <v>-4.6114216366488776E-2</v>
+      </c>
+      <c r="L44" s="90">
+        <v>0.85</v>
+      </c>
+      <c r="M44" s="91">
+        <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
+        <v>6.6165987253045247E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="15">
+        <v>45089</v>
+      </c>
+      <c r="C45" s="22">
+        <v>61.150002000000001</v>
+      </c>
+      <c r="D45" s="111">
+        <f t="shared" si="0"/>
+        <v>1.3088154190057155E-2</v>
+      </c>
+      <c r="H45" s="92">
+        <v>0.02</v>
+      </c>
+      <c r="I45" s="93">
+        <f t="shared" si="7"/>
+        <v>-0.11348338566350477</v>
+      </c>
+      <c r="J45" s="94">
+        <v>0.25</v>
+      </c>
+      <c r="K45" s="93">
+        <f t="shared" si="8"/>
+        <v>-3.9257902982353404E-2</v>
+      </c>
+      <c r="L45" s="94">
+        <v>0.86</v>
+      </c>
+      <c r="M45" s="95">
+        <f t="shared" si="9"/>
+        <v>6.8508911393714761E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="15">
+        <v>45082</v>
+      </c>
+      <c r="C46" s="22">
+        <v>60.360000999999997</v>
+      </c>
+      <c r="D46" s="111">
+        <f t="shared" si="0"/>
+        <v>1.9078186729697855E-2</v>
+      </c>
+      <c r="H46" s="92">
+        <v>0.03</v>
+      </c>
+      <c r="I46" s="93">
+        <f t="shared" si="7"/>
+        <v>-0.1100573657944839</v>
+      </c>
+      <c r="J46" s="94">
+        <v>0.3</v>
+      </c>
+      <c r="K46" s="93">
+        <f t="shared" si="8"/>
+        <v>-3.535163783630596E-2</v>
+      </c>
+      <c r="L46" s="94">
+        <v>0.87</v>
+      </c>
+      <c r="M46" s="95">
+        <f t="shared" si="9"/>
+        <v>6.9955284516650493E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="15">
+        <v>45075</v>
+      </c>
+      <c r="C47" s="22">
+        <v>59.23</v>
+      </c>
+      <c r="D47" s="111">
+        <f t="shared" si="0"/>
+        <v>4.8875490545856159E-2</v>
+      </c>
+      <c r="H47" s="92">
+        <v>0.04</v>
+      </c>
+      <c r="I47" s="93">
+        <f t="shared" si="7"/>
+        <v>-0.10051230169287674</v>
+      </c>
+      <c r="J47" s="94">
+        <v>0.35</v>
+      </c>
+      <c r="K47" s="93">
+        <f t="shared" si="8"/>
+        <v>-3.1625358966937862E-2</v>
+      </c>
+      <c r="L47" s="94">
+        <v>0.88</v>
+      </c>
+      <c r="M47" s="95">
+        <f t="shared" si="9"/>
+        <v>7.4711126137475298E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="15">
+        <v>45068</v>
+      </c>
+      <c r="C48" s="22">
+        <v>56.470001000000003</v>
+      </c>
+      <c r="D48" s="111">
+        <f t="shared" si="0"/>
+        <v>-3.6183632019115897E-2</v>
+      </c>
+      <c r="H48" s="92">
+        <v>0.05</v>
+      </c>
+      <c r="I48" s="93">
+        <f t="shared" si="7"/>
+        <v>-8.6993064226101632E-2</v>
+      </c>
+      <c r="J48" s="94">
+        <v>0.4</v>
+      </c>
+      <c r="K48" s="93">
+        <f t="shared" si="8"/>
+        <v>-2.1011509681269844E-2</v>
+      </c>
+      <c r="L48" s="94">
+        <v>0.89</v>
+      </c>
+      <c r="M48" s="95">
+        <f t="shared" si="9"/>
+        <v>7.6269628212775123E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="15">
+        <v>45061</v>
+      </c>
+      <c r="C49" s="22">
+        <v>58.59</v>
+      </c>
+      <c r="D49" s="111">
+        <f t="shared" si="0"/>
+        <v>4.4198876417770983E-2</v>
+      </c>
+      <c r="H49" s="92">
+        <v>0.06</v>
+      </c>
+      <c r="I49" s="93">
+        <f t="shared" si="7"/>
+        <v>-8.2869466531341779E-2</v>
+      </c>
+      <c r="J49" s="94">
+        <v>0.45</v>
+      </c>
+      <c r="K49" s="93">
+        <f t="shared" si="8"/>
+        <v>-1.5567935053948864E-2</v>
+      </c>
+      <c r="L49" s="94">
+        <v>0.9</v>
+      </c>
+      <c r="M49" s="95">
+        <f t="shared" si="9"/>
+        <v>7.7959176369035849E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="15">
+        <v>45054</v>
+      </c>
+      <c r="C50" s="22">
+        <v>56.110000999999997</v>
+      </c>
+      <c r="D50" s="111">
+        <f t="shared" si="0"/>
+        <v>6.8761923809523839E-2</v>
+      </c>
+      <c r="H50" s="92">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I50" s="93">
+        <f t="shared" si="7"/>
+        <v>-7.8333498604707869E-2</v>
+      </c>
+      <c r="J50" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="93">
+        <f t="shared" si="8"/>
+        <v>-1.1939341938880355E-2</v>
+      </c>
+      <c r="L50" s="94">
+        <v>0.91</v>
+      </c>
+      <c r="M50" s="95">
+        <f t="shared" si="9"/>
+        <v>7.9901649587290097E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="15">
+        <v>45047</v>
+      </c>
+      <c r="C51" s="22">
+        <v>52.5</v>
+      </c>
+      <c r="D51" s="111">
+        <f t="shared" si="0"/>
+        <v>-1.1857726108456146E-2</v>
+      </c>
+      <c r="H51" s="92">
+        <v>0.08</v>
+      </c>
+      <c r="I51" s="93">
+        <f t="shared" si="7"/>
+        <v>-7.4771387815156465E-2</v>
+      </c>
+      <c r="J51" s="94">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K51" s="93">
+        <f t="shared" si="8"/>
+        <v>-3.8873920022667336E-3</v>
+      </c>
+      <c r="L51" s="94">
+        <v>0.92</v>
+      </c>
+      <c r="M51" s="95">
+        <f t="shared" si="9"/>
+        <v>8.283170120891159E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="15">
+        <v>45040</v>
+      </c>
+      <c r="C52" s="22">
+        <v>53.130001</v>
+      </c>
+      <c r="D52" s="111">
+        <f t="shared" si="0"/>
+        <v>1.1306010928961996E-3</v>
+      </c>
+      <c r="H52" s="92">
+        <v>0.09</v>
+      </c>
+      <c r="I52" s="93">
+        <f t="shared" si="7"/>
+        <v>-7.2989144711235493E-2</v>
+      </c>
+      <c r="J52" s="94">
+        <v>0.6</v>
+      </c>
+      <c r="K52" s="93">
+        <f t="shared" si="8"/>
+        <v>9.7517388344257692E-3</v>
+      </c>
+      <c r="L52" s="94">
+        <v>0.93</v>
+      </c>
+      <c r="M52" s="95">
+        <f t="shared" si="9"/>
+        <v>9.3732584350672388E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="15">
+        <v>45033</v>
+      </c>
+      <c r="C53" s="22">
+        <v>53.07</v>
+      </c>
+      <c r="D53" s="111">
+        <f t="shared" si="0"/>
+        <v>1.8813591860241896E-2</v>
+      </c>
+      <c r="H53" s="92">
+        <v>0.1</v>
+      </c>
+      <c r="I53" s="93">
+        <f t="shared" si="7"/>
+        <v>-7.1697137963967525E-2</v>
+      </c>
+      <c r="J53" s="94">
+        <v>0.65</v>
+      </c>
+      <c r="K53" s="93">
+        <f t="shared" si="8"/>
+        <v>1.7242686808201062E-2</v>
+      </c>
+      <c r="L53" s="94">
+        <v>0.94</v>
+      </c>
+      <c r="M53" s="95">
+        <f t="shared" si="9"/>
+        <v>9.6651377630217958E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="15">
+        <v>45026</v>
+      </c>
+      <c r="C54" s="22">
+        <v>52.09</v>
+      </c>
+      <c r="D54" s="111">
+        <f t="shared" si="0"/>
+        <v>7.8691218084671499E-2</v>
+      </c>
+      <c r="H54" s="92">
+        <v>0.11</v>
+      </c>
+      <c r="I54" s="93">
+        <f t="shared" si="7"/>
+        <v>-6.741258205649768E-2</v>
+      </c>
+      <c r="J54" s="94">
+        <v>0.7</v>
+      </c>
+      <c r="K54" s="93">
+        <f t="shared" si="8"/>
+        <v>2.5323390847431869E-2</v>
+      </c>
+      <c r="L54" s="94">
+        <v>0.95</v>
+      </c>
+      <c r="M54" s="95">
+        <f t="shared" si="9"/>
+        <v>0.10042202692025377</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="15">
+        <v>45019</v>
+      </c>
+      <c r="C55" s="22">
+        <v>48.290000999999997</v>
+      </c>
+      <c r="D55" s="111">
+        <f t="shared" si="0"/>
+        <v>-4.3004321105912124E-2</v>
+      </c>
+      <c r="H55" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="I55" s="93">
+        <f t="shared" si="7"/>
+        <v>-6.2480784789513362E-2</v>
+      </c>
+      <c r="J55" s="94">
+        <v>0.75</v>
+      </c>
+      <c r="K55" s="93">
+        <f t="shared" si="8"/>
+        <v>3.612154964148856E-2</v>
+      </c>
+      <c r="L55" s="94">
+        <v>0.96</v>
+      </c>
+      <c r="M55" s="95">
+        <f t="shared" si="9"/>
+        <v>0.10629512133738693</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="15">
+        <v>45012</v>
+      </c>
+      <c r="C56" s="22">
+        <v>50.459999000000003</v>
+      </c>
+      <c r="D56" s="111">
+        <f t="shared" si="0"/>
+        <v>9.8628325713041587E-2</v>
+      </c>
+      <c r="H56" s="92">
+        <v>0.13</v>
+      </c>
+      <c r="I56" s="93">
+        <f t="shared" si="7"/>
+        <v>-5.7919228000990509E-2</v>
+      </c>
+      <c r="J56" s="94">
+        <v>0.8</v>
+      </c>
+      <c r="K56" s="93">
+        <f t="shared" si="8"/>
+        <v>4.4500434013127511E-2</v>
+      </c>
+      <c r="L56" s="94">
+        <v>0.97</v>
+      </c>
+      <c r="M56" s="95">
+        <f t="shared" si="9"/>
+        <v>0.11140573041622343</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="15">
+        <v>45005</v>
+      </c>
+      <c r="C57" s="22">
+        <v>45.93</v>
+      </c>
+      <c r="D57" s="111">
+        <f t="shared" si="0"/>
+        <v>4.4575823411966642E-2</v>
+      </c>
+      <c r="H57" s="92">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I57" s="93">
+        <f t="shared" si="7"/>
+        <v>-5.3743219202803658E-2</v>
+      </c>
+      <c r="J57" s="94"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="94">
+        <v>0.98</v>
+      </c>
+      <c r="M57" s="95">
+        <f t="shared" si="9"/>
+        <v>0.16145982831380726</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="15">
+        <v>44998</v>
+      </c>
+      <c r="C58" s="22">
+        <v>43.970001000000003</v>
+      </c>
+      <c r="D58" s="111">
+        <f t="shared" si="0"/>
+        <v>-5.1348373305215578E-2</v>
+      </c>
+      <c r="H58" s="96">
+        <v>0.15</v>
+      </c>
+      <c r="I58" s="97">
+        <f t="shared" si="7"/>
+        <v>-5.2521297484310038E-2</v>
+      </c>
+      <c r="J58" s="98"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="100">
+        <v>0.99</v>
+      </c>
+      <c r="M58" s="101">
+        <f t="shared" si="9"/>
+        <v>0.21713996759665369</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="15">
+        <v>44991</v>
+      </c>
+      <c r="C59" s="22">
+        <v>46.349997999999999</v>
+      </c>
+      <c r="D59" s="111">
+        <f t="shared" si="0"/>
+        <v>-0.10865388461538461</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="15">
+        <v>44984</v>
+      </c>
+      <c r="C60" s="22">
+        <v>52</v>
+      </c>
+      <c r="D60" s="111">
+        <f t="shared" si="0"/>
+        <v>6.842001513951157E-2</v>
+      </c>
+      <c r="H60" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="I60" s="103">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="15">
+        <v>44977</v>
+      </c>
+      <c r="C61" s="22">
+        <v>48.669998</v>
+      </c>
+      <c r="D61" s="111">
+        <f t="shared" si="0"/>
+        <v>-2.3475160513643734E-2</v>
+      </c>
+      <c r="H61" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="I61" s="105">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="15">
+        <v>44970</v>
+      </c>
+      <c r="C62" s="22">
+        <v>49.84</v>
+      </c>
+      <c r="D62" s="111">
+        <f t="shared" si="0"/>
+        <v>-5.1569915348618656E-2</v>
+      </c>
+      <c r="H62" s="106"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="15">
+        <v>44963</v>
+      </c>
+      <c r="C63" s="22">
+        <v>52.549999</v>
+      </c>
+      <c r="D63" s="111">
+        <f t="shared" si="0"/>
+        <v>-4.1583128156734372E-2</v>
+      </c>
+      <c r="H63" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="I63" s="107">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="15">
+        <v>44956</v>
+      </c>
+      <c r="C64" s="22">
+        <v>54.830002</v>
+      </c>
+      <c r="D64" s="111">
+        <f t="shared" si="0"/>
+        <v>7.4676636613092873E-2</v>
+      </c>
+      <c r="H64" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="I64" s="109">
+        <f>I63*(1-I60)</f>
+        <v>57.165000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="15">
+        <v>44949</v>
+      </c>
+      <c r="C65" s="22">
+        <v>51.02</v>
+      </c>
+      <c r="D65" s="111">
+        <f t="shared" si="0"/>
+        <v>-4.2057793543289312E-2</v>
+      </c>
+      <c r="H65" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" s="110">
+        <f>I63*(1+I61)</f>
+        <v>34.504999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="15">
+        <v>44942</v>
+      </c>
+      <c r="C66" s="22">
+        <v>53.259998000000003</v>
+      </c>
+      <c r="D66" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="15">
+        <v>44935</v>
+      </c>
+      <c r="C67" s="22">
+        <v>53.259998000000003</v>
+      </c>
+      <c r="D67" s="111">
+        <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
+        <v>0.15206571490374232</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="15">
+        <v>44928</v>
+      </c>
+      <c r="C68" s="22">
+        <v>46.23</v>
+      </c>
+      <c r="D68" s="111">
+        <f t="shared" si="10"/>
+        <v>8.2923426632078412E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="15">
+        <v>44921</v>
+      </c>
+      <c r="C69" s="22">
+        <v>42.689999</v>
+      </c>
+      <c r="D69" s="111">
+        <f t="shared" si="10"/>
+        <v>-7.9014642784444034E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="15">
+        <v>44914</v>
+      </c>
+      <c r="C70" s="22">
+        <v>43.029998999999997</v>
+      </c>
+      <c r="D70" s="111">
+        <f t="shared" si="10"/>
+        <v>1.4619170007073912E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="15">
+        <v>44907</v>
+      </c>
+      <c r="C71" s="22">
+        <v>42.41</v>
+      </c>
+      <c r="D71" s="111">
+        <f t="shared" si="10"/>
+        <v>-2.1909616653375985E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="15">
+        <v>44900</v>
+      </c>
+      <c r="C72" s="22">
+        <v>43.360000999999997</v>
+      </c>
+      <c r="D72" s="111">
+        <f t="shared" si="10"/>
+        <v>-7.2909963651913712E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="15">
+        <v>44893</v>
+      </c>
+      <c r="C73" s="22">
+        <v>46.77</v>
+      </c>
+      <c r="D73" s="111">
+        <f t="shared" si="10"/>
+        <v>6.5861416001335105E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="15">
+        <v>44886</v>
+      </c>
+      <c r="C74" s="22">
+        <v>43.880001</v>
+      </c>
+      <c r="D74" s="111">
+        <f t="shared" si="10"/>
+        <v>4.1043865193648221E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="15">
+        <v>44879</v>
+      </c>
+      <c r="C75" s="22">
+        <v>42.150002000000001</v>
+      </c>
+      <c r="D75" s="111">
+        <f t="shared" si="10"/>
+        <v>-6.2082711661831547E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="15">
+        <v>44872</v>
+      </c>
+      <c r="C76" s="22">
+        <v>44.939999</v>
+      </c>
+      <c r="D76" s="111">
+        <f t="shared" si="10"/>
+        <v>0.28143709723410315</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="15">
+        <v>44865</v>
+      </c>
+      <c r="C77" s="22">
+        <v>35.07</v>
+      </c>
+      <c r="D77" s="111">
+        <f t="shared" si="10"/>
+        <v>-4.4414194975090027E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="15">
+        <v>44858</v>
+      </c>
+      <c r="C78" s="22">
+        <v>36.700001</v>
+      </c>
+      <c r="D78" s="111">
+        <f t="shared" si="10"/>
+        <v>8.2595835835054032E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="15">
+        <v>44851</v>
+      </c>
+      <c r="C79" s="22">
+        <v>33.900002000000001</v>
+      </c>
+      <c r="D79" s="111">
+        <f t="shared" si="10"/>
+        <v>-2.6478374434928398E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="15">
+        <v>44844</v>
+      </c>
+      <c r="C80" s="22">
+        <v>33.990001999999997</v>
+      </c>
+      <c r="D80" s="111">
+        <f t="shared" si="10"/>
+        <v>-1.5923537466023818E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="15">
+        <v>44837</v>
+      </c>
+      <c r="C81" s="22">
+        <v>34.540000999999997</v>
+      </c>
+      <c r="D81" s="111">
+        <f t="shared" si="10"/>
+        <v>-1.4831716633436631E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="15">
+        <v>44830</v>
+      </c>
+      <c r="C82" s="22">
+        <v>35.060001</v>
+      </c>
+      <c r="D82" s="111">
+        <f t="shared" si="10"/>
+        <v>-4.5206970446433403E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="15">
+        <v>44823</v>
+      </c>
+      <c r="C83" s="22">
+        <v>36.720001000000003</v>
+      </c>
+      <c r="D83" s="111">
+        <f t="shared" si="10"/>
+        <v>-8.406083811424292E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="15">
+        <v>44816</v>
+      </c>
+      <c r="C84" s="22">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="D84" s="111">
+        <f t="shared" si="10"/>
+        <v>-0.13654964462631913</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="15">
+        <v>44809</v>
+      </c>
+      <c r="C85" s="22">
+        <v>46.43</v>
+      </c>
+      <c r="D85" s="111">
+        <f t="shared" si="10"/>
+        <v>7.8012537729277964E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="15">
+        <v>44802</v>
+      </c>
+      <c r="C86" s="22">
+        <v>43.07</v>
+      </c>
+      <c r="D86" s="111">
+        <f t="shared" si="10"/>
+        <v>-5.2782074933317102E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="15">
+        <v>44795</v>
+      </c>
+      <c r="C87" s="22">
+        <v>45.470001000000003</v>
+      </c>
+      <c r="D87" s="111">
+        <f t="shared" si="10"/>
+        <v>-3.8485937016579763E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="15">
+        <v>44788</v>
+      </c>
+      <c r="C88" s="22">
+        <v>47.290000999999997</v>
+      </c>
+      <c r="D88" s="111">
+        <f t="shared" si="10"/>
+        <v>-4.9638205371310584E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="15">
+        <v>44781</v>
+      </c>
+      <c r="C89" s="22">
+        <v>49.759998000000003</v>
+      </c>
+      <c r="D89" s="111">
+        <f t="shared" si="10"/>
+        <v>3.5157021011025691E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="15">
+        <v>44774</v>
+      </c>
+      <c r="C90" s="22">
+        <v>48.07</v>
+      </c>
+      <c r="D90" s="111">
+        <f t="shared" si="10"/>
+        <v>1.4583333333333393E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="15">
+        <v>44767</v>
+      </c>
+      <c r="C91" s="22">
+        <v>48</v>
+      </c>
+      <c r="D91" s="111">
+        <f t="shared" si="10"/>
+        <v>9.3643223824179112E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="15">
+        <v>44760</v>
+      </c>
+      <c r="C92" s="22">
+        <v>43.889999000000003</v>
+      </c>
+      <c r="D92" s="111">
+        <f t="shared" si="10"/>
+        <v>0.1114205312017964</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="15">
+        <v>44753</v>
+      </c>
+      <c r="C93" s="22">
+        <v>39.490001999999997</v>
+      </c>
+      <c r="D93" s="111">
+        <f t="shared" si="10"/>
+        <v>-8.7147391916199468E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="15">
+        <v>44746</v>
+      </c>
+      <c r="C94" s="22">
+        <v>43.259998000000003</v>
+      </c>
+      <c r="D94" s="111">
+        <f t="shared" si="10"/>
+        <v>-1.7711239379853638E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="15">
+        <v>44739</v>
+      </c>
+      <c r="C95" s="22">
+        <v>44.040000999999997</v>
+      </c>
+      <c r="D95" s="111">
+        <f t="shared" si="10"/>
+        <v>-3.6112892013851927E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="15">
+        <v>44732</v>
+      </c>
+      <c r="C96" s="22">
+        <v>45.689999</v>
+      </c>
+      <c r="D96" s="111">
+        <f t="shared" si="10"/>
+        <v>1.1512088178529556E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="15">
+        <v>44725</v>
+      </c>
+      <c r="C97" s="22">
+        <v>45.169998</v>
+      </c>
+      <c r="D97" s="111">
+        <f t="shared" si="10"/>
+        <v>-0.11047658744538369</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="15">
+        <v>44718</v>
+      </c>
+      <c r="C98" s="22">
+        <v>50.779998999999997</v>
+      </c>
+      <c r="D98" s="111">
+        <f t="shared" si="10"/>
+        <v>-6.7058625757854151E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="15">
+        <v>44711</v>
+      </c>
+      <c r="C99" s="22">
+        <v>54.43</v>
+      </c>
+      <c r="D99" s="111">
+        <f t="shared" si="10"/>
+        <v>-6.0262602639248319E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="15">
+        <v>44704</v>
+      </c>
+      <c r="C100" s="22">
+        <v>54.759998000000003</v>
+      </c>
+      <c r="D100" s="111">
+        <f t="shared" si="10"/>
+        <v>3.8301022438338217E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="15">
+        <v>44697</v>
+      </c>
+      <c r="C101" s="22">
+        <v>52.740001999999997</v>
+      </c>
+      <c r="D101" s="111">
+        <f t="shared" si="10"/>
+        <v>-7.2132266009852342E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="15">
+        <v>44690</v>
+      </c>
+      <c r="C102" s="22">
+        <v>56.84</v>
+      </c>
+      <c r="D102" s="111">
+        <f t="shared" si="10"/>
+        <v>-5.8628700585811488E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="15">
+        <v>44683</v>
+      </c>
+      <c r="C103" s="22">
+        <v>60.380001</v>
+      </c>
+      <c r="D103" s="111">
+        <f t="shared" si="10"/>
+        <v>2.0104781552708006E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="15">
+        <v>44676</v>
+      </c>
+      <c r="C104" s="22">
+        <v>59.189999</v>
+      </c>
+      <c r="D104" s="111">
+        <f t="shared" si="10"/>
+        <v>-3.5050554287577529E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="15">
+        <v>44669</v>
+      </c>
+      <c r="C105" s="22">
+        <v>61.34</v>
+      </c>
+      <c r="D105" s="111">
+        <f t="shared" si="10"/>
+        <v>3.4401366516043419E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="15">
+        <v>44662</v>
+      </c>
+      <c r="C106" s="22">
+        <v>59.299999</v>
+      </c>
+      <c r="D106" s="111">
+        <f t="shared" si="10"/>
+        <v>-3.1678689363857315E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="15">
+        <v>44655</v>
+      </c>
+      <c r="C107" s="22">
+        <v>61.240001999999997</v>
+      </c>
+      <c r="D107" s="111">
+        <f t="shared" si="10"/>
+        <v>-0.11528458371446715</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="15">
+        <v>44648</v>
+      </c>
+      <c r="C108" s="22">
+        <v>69.220000999999996</v>
+      </c>
+      <c r="D108" s="111">
+        <f t="shared" si="10"/>
+        <v>-5.2689188449432045E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="15">
+        <v>44641</v>
+      </c>
+      <c r="C109" s="22">
+        <v>73.069999999999993</v>
+      </c>
+      <c r="D109" s="111">
+        <f t="shared" si="10"/>
+        <v>-7.7864691516019602E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="15">
+        <v>44634</v>
+      </c>
+      <c r="C110" s="22">
+        <v>79.239998</v>
+      </c>
+      <c r="D110" s="111">
+        <f t="shared" si="10"/>
+        <v>0.20425523384854549</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="15">
+        <v>44627</v>
+      </c>
+      <c r="C111" s="22">
+        <v>65.800003000000004</v>
+      </c>
+      <c r="D111" s="111">
+        <f t="shared" si="10"/>
+        <v>-0.11308800072548864</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="15">
+        <v>44620</v>
+      </c>
+      <c r="C112" s="22">
+        <v>74.190002000000007</v>
+      </c>
+      <c r="D112" s="111">
+        <f t="shared" si="10"/>
+        <v>-0.12076315906956003</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="15">
+        <v>44613</v>
+      </c>
+      <c r="C113" s="22">
+        <v>84.379997000000003</v>
+      </c>
+      <c r="D113" s="111">
+        <f t="shared" si="10"/>
+        <v>3.9034577503196388E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="15">
+        <v>44606</v>
+      </c>
+      <c r="C114" s="22">
+        <v>81.209998999999996</v>
+      </c>
+      <c r="D114" s="111">
+        <f t="shared" si="10"/>
+        <v>-2.5441053031535987E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="15">
+        <v>44599</v>
+      </c>
+      <c r="C115" s="22">
+        <v>83.330001999999993</v>
+      </c>
+      <c r="D115" s="111">
+        <f t="shared" si="10"/>
+        <v>3.6185079238624018E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="15">
+        <v>44592</v>
+      </c>
+      <c r="C116" s="22">
+        <v>80.419998000000007</v>
+      </c>
+      <c r="D116" s="111">
+        <f t="shared" si="10"/>
+        <v>2.7862986397315659E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="15">
+        <v>44585</v>
+      </c>
+      <c r="C117" s="22">
+        <v>78.239998</v>
+      </c>
+      <c r="D117" s="111">
+        <f t="shared" si="10"/>
+        <v>-7.5395943911748642E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="15">
+        <v>44578</v>
+      </c>
+      <c r="C118" s="22">
+        <v>84.620002999999997</v>
+      </c>
+      <c r="D118" s="111">
+        <f t="shared" si="10"/>
+        <v>-7.3165386423919454E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="15">
+        <v>44571</v>
+      </c>
+      <c r="C119" s="22">
+        <v>91.300003000000004</v>
+      </c>
+      <c r="D119" s="111">
+        <f t="shared" si="10"/>
+        <v>9.4330612489512022E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="15">
+        <v>44564</v>
+      </c>
+      <c r="C120" s="22">
+        <v>83.43</v>
+      </c>
+      <c r="D120" s="111">
+        <f t="shared" si="10"/>
+        <v>-8.147089989054479E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="15">
+        <v>44557</v>
+      </c>
+      <c r="C121" s="22">
+        <v>90.830001999999993</v>
+      </c>
+      <c r="D121" s="111">
+        <f t="shared" si="10"/>
+        <v>-1.0889687228799128E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="15">
+        <v>44550</v>
+      </c>
+      <c r="C122" s="22">
+        <v>91.830001999999993</v>
+      </c>
+      <c r="D122" s="111">
+        <f t="shared" si="10"/>
+        <v>6.2970286641628404E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="15">
+        <v>44543</v>
+      </c>
+      <c r="C123" s="22">
+        <v>86.389999000000003</v>
+      </c>
+      <c r="D123" s="111">
+        <f t="shared" si="10"/>
+        <v>7.1112148182701507E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="15">
+        <v>44536</v>
+      </c>
+      <c r="C124" s="22">
+        <v>85.779999000000004</v>
+      </c>
+      <c r="D124" s="111">
+        <f t="shared" si="10"/>
+        <v>-2.5448739790345565E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="15">
+        <v>44529</v>
+      </c>
+      <c r="C125" s="22">
+        <v>88.019997000000004</v>
+      </c>
+      <c r="D125" s="111">
+        <f t="shared" si="10"/>
+        <v>-9.5932661298966049E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="15">
+        <v>44522</v>
+      </c>
+      <c r="C126" s="22">
+        <v>97.360000999999997</v>
+      </c>
+      <c r="D126" s="111">
+        <f t="shared" si="10"/>
+        <v>-3.6421218958618273E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="15">
+        <v>44515</v>
+      </c>
+      <c r="C127" s="22">
+        <v>101.040001</v>
+      </c>
+      <c r="D127" s="111">
+        <f t="shared" si="10"/>
+        <v>2.516236861124943E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="15">
+        <v>44508</v>
+      </c>
+      <c r="C128" s="22">
+        <v>98.559997999999993</v>
+      </c>
+      <c r="D128" s="111">
+        <f t="shared" si="10"/>
+        <v>5.4230400133284729E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="15">
+        <v>44501</v>
+      </c>
+      <c r="C129" s="22">
+        <v>93.489998</v>
+      </c>
+      <c r="D129" s="111">
+        <f t="shared" si="10"/>
+        <v>5.2815257224709811E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="15">
+        <v>44494</v>
+      </c>
+      <c r="C130" s="22">
+        <v>88.800003000000004</v>
+      </c>
+      <c r="D130" s="111">
+        <f t="shared" si="10"/>
+        <v>3.5930960850082183E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="15">
+        <v>44487</v>
+      </c>
+      <c r="C131" s="22">
+        <v>85.720000999999996</v>
+      </c>
+      <c r="D131" s="111">
+        <f t="shared" ref="D131:D144" si="11">C131/C132-1</f>
+        <v>3.1528316041596005E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="15">
+        <v>44480</v>
+      </c>
+      <c r="C132" s="22">
+        <v>83.099997999999999</v>
+      </c>
+      <c r="D132" s="111">
+        <f t="shared" si="11"/>
+        <v>0.10051643224694917</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="15">
+        <v>44473</v>
+      </c>
+      <c r="C133" s="22">
+        <v>75.510002</v>
+      </c>
+      <c r="D133" s="111">
+        <f t="shared" si="11"/>
+        <v>-5.6478783662111565E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="15">
+        <v>44466</v>
+      </c>
+      <c r="C134" s="22">
+        <v>80.029999000000004</v>
+      </c>
+      <c r="D134" s="111">
+        <f t="shared" si="11"/>
+        <v>-1.7462767056574124E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="15">
+        <v>44459</v>
+      </c>
+      <c r="C135" s="22">
+        <v>80.169998000000007</v>
+      </c>
+      <c r="D135" s="111">
+        <f t="shared" si="11"/>
+        <v>-1.4141687161829619E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="15">
+        <v>44452</v>
+      </c>
+      <c r="C136" s="22">
+        <v>81.319999999999993</v>
+      </c>
+      <c r="D136" s="111">
+        <f t="shared" si="11"/>
+        <v>-1.6805694798763149E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="15">
+        <v>44445</v>
+      </c>
+      <c r="C137" s="22">
+        <v>82.709998999999996</v>
+      </c>
+      <c r="D137" s="111">
+        <f t="shared" si="11"/>
+        <v>-4.8982430160027235E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="15">
+        <v>44438</v>
+      </c>
+      <c r="C138" s="22">
+        <v>86.970000999999996</v>
+      </c>
+      <c r="D138" s="111">
+        <f t="shared" si="11"/>
+        <v>1.5648768503401911E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="15">
+        <v>44431</v>
+      </c>
+      <c r="C139" s="22">
+        <v>85.629997000000003</v>
+      </c>
+      <c r="D139" s="111">
+        <f t="shared" si="11"/>
+        <v>0.11135617996017477</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="15">
+        <v>44424</v>
+      </c>
+      <c r="C140" s="22">
+        <v>77.050003000000004</v>
+      </c>
+      <c r="D140" s="111">
+        <f t="shared" si="11"/>
+        <v>-1.8096061958760457E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="15">
+        <v>44417</v>
+      </c>
+      <c r="C141" s="22">
+        <v>78.470000999999996</v>
+      </c>
+      <c r="D141" s="111">
+        <f t="shared" si="11"/>
+        <v>0.22609376562499994</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="15">
+        <v>44410</v>
+      </c>
+      <c r="C142" s="22">
+        <v>64</v>
+      </c>
+      <c r="D142" s="111">
+        <f t="shared" si="11"/>
+        <v>0.10344827586206895</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="15">
+        <v>44403</v>
+      </c>
+      <c r="C143" s="22">
+        <v>58</v>
+      </c>
+      <c r="D143" s="111">
+        <f t="shared" si="11"/>
+        <v>-3.3333333333333326E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="15">
+        <v>44396</v>
+      </c>
+      <c r="C144" s="22">
+        <v>60</v>
+      </c>
+      <c r="D144" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H43:M43"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B92AA462-49D9-4CFC-A383-83BFEF011434}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Shipping & Transportation/GXO.xlsx
+++ b/Shipping & Transportation/GXO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E5BFD-EE10-499C-90A6-52C312A4E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08A290C-4014-4709-AB09-AD887E6E5116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="Revenue Streams" sheetId="6" r:id="rId6"/>
     <sheet name="DoR" sheetId="7" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$A$21</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$A$22</definedName>
@@ -1366,15 +1363,6 @@
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1403,18 +1391,6 @@
     <xf numFmtId="10" fontId="9" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1429,15 +1405,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1474,6 +1441,36 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -8720,40 +8717,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Less than -19,45%</c:v>
+                  <c:v>Less than -19,33%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-19,45% to -15,54%</c:v>
+                  <c:v>-19,33% to -15,45%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15,54% to -11,64%</c:v>
+                  <c:v>-15,45% to -11,57%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11,64% to -7,73%</c:v>
+                  <c:v>-11,57% to -7,70%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7,73% to -3,83%</c:v>
+                  <c:v>-7,70% to -3,82%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3,83% to 0,08%</c:v>
+                  <c:v>-3,82% to 0,06%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,08% to 3,98%</c:v>
+                  <c:v>0,06% to 3,94%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3,98% to 7,89%</c:v>
+                  <c:v>3,94% to 7,82%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7,89% to 11,80%</c:v>
+                  <c:v>7,82% to 11,70%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11,80% to 15,70%</c:v>
+                  <c:v>11,70% to 15,57%</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15,70% to 19,61%</c:v>
+                  <c:v>15,57% to 19,45%</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Greater than 19,61%</c:v>
+                  <c:v>Greater than 19,45%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8780,16 +8777,16 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -16399,132 +16396,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Model-graph"/>
-      <sheetName val="Catalysts"/>
-      <sheetName val="DoR"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>Frequency</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>67</v>
-          </cell>
-          <cell r="K4" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>67</v>
-          </cell>
-          <cell r="K5" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>67</v>
-          </cell>
-          <cell r="K6" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>67</v>
-          </cell>
-          <cell r="K7" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>67</v>
-          </cell>
-          <cell r="K8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>67</v>
-          </cell>
-          <cell r="K9" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>67</v>
-          </cell>
-          <cell r="K10" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>67</v>
-          </cell>
-          <cell r="K11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>67</v>
-          </cell>
-          <cell r="K12" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>67</v>
-          </cell>
-          <cell r="K13" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>67</v>
-          </cell>
-          <cell r="K14" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>67</v>
-          </cell>
-          <cell r="K15" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16790,8 +16661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25978,10 +25849,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F020C3-F669-45B2-B298-2759C0C678D0}">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C146" sqref="C2:C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26009,2662 +25880,2685 @@
       <c r="D1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15">
-        <v>45390</v>
-      </c>
-      <c r="C2" s="22">
-        <v>50.380001</v>
-      </c>
-      <c r="D2" s="111">
+        <v>45404</v>
+      </c>
+      <c r="C2" s="33">
+        <v>49.1</v>
+      </c>
+      <c r="D2" s="101">
         <f>C2/C3-1</f>
-        <v>-3.1526316801230303E-2</v>
-      </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+        <v>-1.2668409410818371E-2</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15">
-        <v>45383</v>
-      </c>
-      <c r="C3" s="22">
-        <v>52.02</v>
-      </c>
-      <c r="D3" s="111">
+        <v>45397</v>
+      </c>
+      <c r="C3" s="33">
+        <v>49.73</v>
+      </c>
+      <c r="D3" s="101">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
-        <v>-3.2366035430284046E-2</v>
-      </c>
-      <c r="H3" s="46" t="s">
+        <v>-2.241006487124042E-2</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="47" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="15">
+        <v>45390</v>
+      </c>
+      <c r="C4" s="33">
+        <v>50.87</v>
+      </c>
+      <c r="D4" s="101">
+        <f t="shared" si="0"/>
+        <v>-2.2106881968473768E-2</v>
+      </c>
+      <c r="H4" s="48">
+        <f>$I$19-3*$I$23</f>
+        <v>-0.19331429114081111</v>
+      </c>
+      <c r="I4" s="49">
+        <f>H4</f>
+        <v>-0.19331429114081111</v>
+      </c>
+      <c r="J4" s="50">
+        <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="50" t="str">
+        <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
+        <v>Less than -19,33%</v>
+      </c>
+      <c r="L4" s="51">
+        <f>J4/$I$31</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="52">
+        <f>L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>45383</v>
+      </c>
+      <c r="C5" s="33">
+        <v>52.02</v>
+      </c>
+      <c r="D5" s="101">
+        <f t="shared" si="0"/>
+        <v>-3.2366035430284046E-2</v>
+      </c>
+      <c r="H5" s="53">
+        <f>$I$19-2.4*$I$23</f>
+        <v>-0.15452994963748076</v>
+      </c>
+      <c r="I5" s="54">
+        <f>H5</f>
+        <v>-0.15452994963748076</v>
+      </c>
+      <c r="J5" s="55">
+        <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="56" t="str">
+        <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
+        <v>-19,33% to -15,45%</v>
+      </c>
+      <c r="L5" s="57">
+        <f>J5/$I$31</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="58">
+        <f>M4+L5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
         <v>45376</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C6" s="33">
         <v>53.759998000000003</v>
       </c>
-      <c r="D4" s="111">
+      <c r="D6" s="101">
         <f t="shared" si="0"/>
         <v>5.9936848187364999E-2</v>
       </c>
-      <c r="H4" s="51">
-        <f>$I$19-3*$I$23</f>
-        <v>-0.19446373890452345</v>
-      </c>
-      <c r="I4" s="52">
-        <f>H4</f>
-        <v>-0.19446373890452345</v>
-      </c>
-      <c r="J4" s="53">
-        <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="53" t="str">
-        <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
-        <v>Less than -19,45%</v>
-      </c>
-      <c r="L4" s="54">
-        <f>J4/$I$31</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="55">
-        <f>L4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="H6" s="53">
+        <f>$I$19-1.8*$I$23</f>
+        <v>-0.11574560813415047</v>
+      </c>
+      <c r="I6" s="54">
+        <f t="shared" ref="I6:I14" si="2">H6</f>
+        <v>-0.11574560813415047</v>
+      </c>
+      <c r="J6" s="55">
+        <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>-15,45% to -11,57%</v>
+      </c>
+      <c r="L6" s="57">
+        <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="M6" s="58">
+        <f t="shared" ref="M6:M15" si="5">M5+L6</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
         <v>45369</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C7" s="33">
         <v>50.720001000000003</v>
       </c>
-      <c r="D5" s="111">
+      <c r="D7" s="101">
         <f t="shared" si="0"/>
         <v>2.4853484548252869E-2</v>
       </c>
-      <c r="H5" s="56">
-        <f>$I$19-2.4*$I$23</f>
-        <v>-0.15541165732422391</v>
-      </c>
-      <c r="I5" s="57">
-        <f>H5</f>
-        <v>-0.15541165732422391</v>
-      </c>
-      <c r="J5" s="58">
-        <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="59" t="str">
-        <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
-        <v>-19,45% to -15,54%</v>
-      </c>
-      <c r="L5" s="60">
-        <f>J5/$I$31</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="61">
-        <f>M4+L5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+      <c r="H7" s="53">
+        <f>$I$19-1.2*$I$23</f>
+        <v>-7.6961266630820119E-2</v>
+      </c>
+      <c r="I7" s="54">
+        <f t="shared" si="2"/>
+        <v>-7.6961266630820119E-2</v>
+      </c>
+      <c r="J7" s="55">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K7" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>-11,57% to -7,70%</v>
+      </c>
+      <c r="L7" s="57">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M7" s="58">
+        <f t="shared" si="5"/>
+        <v>7.6388888888888895E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
         <v>45362</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C8" s="33">
         <v>49.490001999999997</v>
       </c>
-      <c r="D6" s="111">
+      <c r="D8" s="101">
         <f t="shared" si="0"/>
         <v>5.8943291484891969E-3</v>
       </c>
-      <c r="H6" s="56">
-        <f>$I$19-1.8*$I$23</f>
-        <v>-0.11635957574392437</v>
-      </c>
-      <c r="I6" s="57">
-        <f t="shared" ref="I6:I14" si="2">H6</f>
-        <v>-0.11635957574392437</v>
-      </c>
-      <c r="J6" s="58">
-        <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
-        <v>2</v>
-      </c>
-      <c r="K6" s="59" t="str">
+      <c r="H8" s="53">
+        <f>$I$19-0.6*$I$23</f>
+        <v>-3.817692512748979E-2</v>
+      </c>
+      <c r="I8" s="54">
+        <f t="shared" si="2"/>
+        <v>-3.817692512748979E-2</v>
+      </c>
+      <c r="J8" s="55">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K8" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>-15,54% to -11,64%</v>
-      </c>
-      <c r="L6" s="60">
-        <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
-        <v>1.4084507042253521E-2</v>
-      </c>
-      <c r="M6" s="61">
-        <f t="shared" ref="M6:M15" si="5">M5+L6</f>
-        <v>1.4084507042253521E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+        <v>-7,70% to -3,82%</v>
+      </c>
+      <c r="L8" s="57">
+        <f t="shared" si="4"/>
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="M8" s="58">
+        <f t="shared" si="5"/>
+        <v>0.25694444444444442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
         <v>45355</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C9" s="33">
         <v>49.200001</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D9" s="101">
         <f t="shared" si="0"/>
         <v>-3.396817200078539E-2</v>
       </c>
-      <c r="H7" s="56">
-        <f>$I$19-1.2*$I$23</f>
-        <v>-7.730749416362484E-2</v>
-      </c>
-      <c r="I7" s="57">
+      <c r="H9" s="53">
+        <f>$I$19</f>
+        <v>6.0741637584054028E-4</v>
+      </c>
+      <c r="I9" s="54">
         <f t="shared" si="2"/>
-        <v>-7.730749416362484E-2</v>
-      </c>
-      <c r="J7" s="58">
+        <v>6.0741637584054028E-4</v>
+      </c>
+      <c r="J9" s="55">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="K7" s="59" t="str">
+        <v>46</v>
+      </c>
+      <c r="K9" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>-11,64% to -7,73%</v>
-      </c>
-      <c r="L7" s="60">
+        <v>-3,82% to 0,06%</v>
+      </c>
+      <c r="L9" s="57">
         <f t="shared" si="4"/>
-        <v>6.3380281690140844E-2</v>
-      </c>
-      <c r="M7" s="61">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="M9" s="58">
         <f t="shared" si="5"/>
-        <v>7.746478873239436E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
+        <v>0.57638888888888884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
         <v>45348</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C10" s="33">
         <v>50.93</v>
       </c>
-      <c r="D8" s="111">
+      <c r="D10" s="101">
         <f t="shared" si="0"/>
         <v>-4.4644549903497421E-2</v>
       </c>
-      <c r="H8" s="56">
-        <f>$I$19-0.6*$I$23</f>
-        <v>-3.8255412583325307E-2</v>
-      </c>
-      <c r="I8" s="57">
+      <c r="H10" s="53">
+        <f>$I$19+0.6*$I$23</f>
+        <v>3.9391757879170868E-2</v>
+      </c>
+      <c r="I10" s="54">
         <f t="shared" si="2"/>
-        <v>-3.8255412583325307E-2</v>
-      </c>
-      <c r="J8" s="58">
+        <v>3.9391757879170868E-2</v>
+      </c>
+      <c r="J10" s="55">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="K8" s="59" t="str">
+        <v>28</v>
+      </c>
+      <c r="K10" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>-7,73% to -3,83%</v>
-      </c>
-      <c r="L8" s="60">
+        <v>0,06% to 3,94%</v>
+      </c>
+      <c r="L10" s="57">
         <f t="shared" si="4"/>
-        <v>0.18309859154929578</v>
-      </c>
-      <c r="M8" s="61">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="M10" s="58">
         <f t="shared" si="5"/>
-        <v>0.26056338028169013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+        <v>0.77083333333333326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
         <v>45341</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C11" s="33">
         <v>53.310001</v>
       </c>
-      <c r="D9" s="111">
+      <c r="D11" s="101">
         <f t="shared" si="0"/>
         <v>-3.3889072127582409E-2</v>
       </c>
-      <c r="H9" s="56">
-        <f>$I$19</f>
-        <v>7.9666899697422577E-4</v>
-      </c>
-      <c r="I9" s="57">
+      <c r="H11" s="53">
+        <f>$I$19+1.2*$I$23</f>
+        <v>7.8176099382501196E-2</v>
+      </c>
+      <c r="I11" s="54">
         <f t="shared" si="2"/>
-        <v>7.9666899697422577E-4</v>
-      </c>
-      <c r="J9" s="58">
+        <v>7.8176099382501196E-2</v>
+      </c>
+      <c r="J11" s="55">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="K9" s="59" t="str">
+        <v>19</v>
+      </c>
+      <c r="K11" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>-3,83% to 0,08%</v>
-      </c>
-      <c r="L9" s="60">
+        <v>3,94% to 7,82%</v>
+      </c>
+      <c r="L11" s="57">
         <f t="shared" si="4"/>
-        <v>0.30985915492957744</v>
-      </c>
-      <c r="M9" s="61">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="M11" s="58">
         <f t="shared" si="5"/>
-        <v>0.57042253521126751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+        <v>0.90277777777777768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
         <v>45334</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C12" s="33">
         <v>55.18</v>
       </c>
-      <c r="D10" s="111">
+      <c r="D12" s="101">
         <f t="shared" si="0"/>
         <v>-2.6636073851403652E-2</v>
       </c>
-      <c r="H10" s="56">
-        <f>$I$19+0.6*$I$23</f>
-        <v>3.9848750577273759E-2</v>
-      </c>
-      <c r="I10" s="57">
+      <c r="H12" s="53">
+        <f>$I$19+1.8*$I$23</f>
+        <v>0.11696044088583155</v>
+      </c>
+      <c r="I12" s="54">
         <f t="shared" si="2"/>
-        <v>3.9848750577273759E-2</v>
-      </c>
-      <c r="J10" s="58">
+        <v>0.11696044088583155</v>
+      </c>
+      <c r="J12" s="55">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="K10" s="59" t="str">
+        <v>10</v>
+      </c>
+      <c r="K12" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>0,08% to 3,98%</v>
-      </c>
-      <c r="L10" s="60">
+        <v>7,82% to 11,70%</v>
+      </c>
+      <c r="L12" s="57">
         <f t="shared" si="4"/>
-        <v>0.19718309859154928</v>
-      </c>
-      <c r="M10" s="61">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="M12" s="58">
         <f t="shared" si="5"/>
-        <v>0.76760563380281677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+        <v>0.9722222222222221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
         <v>45327</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C13" s="33">
         <v>56.689999</v>
       </c>
-      <c r="D11" s="111">
+      <c r="D13" s="101">
         <f t="shared" si="0"/>
         <v>3.2981012518567665E-2</v>
       </c>
-      <c r="H11" s="56">
-        <f>$I$19+1.2*$I$23</f>
-        <v>7.8900832157573292E-2</v>
-      </c>
-      <c r="I11" s="57">
+      <c r="H13" s="53">
+        <f>$I$19+2.4*$I$23</f>
+        <v>0.15574478238916187</v>
+      </c>
+      <c r="I13" s="54">
         <f t="shared" si="2"/>
-        <v>7.8900832157573292E-2</v>
-      </c>
-      <c r="J11" s="58">
+        <v>0.15574478238916187</v>
+      </c>
+      <c r="J13" s="55">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="K11" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="K13" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>3,98% to 7,89%</v>
-      </c>
-      <c r="L11" s="60">
+        <v>11,70% to 15,57%</v>
+      </c>
+      <c r="L13" s="57">
         <f t="shared" si="4"/>
-        <v>0.14084507042253522</v>
-      </c>
-      <c r="M11" s="61">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M13" s="58">
         <f t="shared" si="5"/>
-        <v>0.90845070422535201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+        <v>0.97916666666666652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
         <v>45320</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C14" s="33">
         <v>54.880001</v>
       </c>
-      <c r="D12" s="111">
+      <c r="D14" s="101">
         <f t="shared" si="0"/>
         <v>-3.6516819461320571E-2</v>
       </c>
-      <c r="H12" s="56">
-        <f>$I$19+1.8*$I$23</f>
-        <v>0.11795291373787282</v>
-      </c>
-      <c r="I12" s="57">
+      <c r="H14" s="53">
+        <f>$I$19+3*$I$23</f>
+        <v>0.19452912389249222</v>
+      </c>
+      <c r="I14" s="54">
         <f t="shared" si="2"/>
-        <v>0.11795291373787282</v>
-      </c>
-      <c r="J12" s="58">
+        <v>0.19452912389249222</v>
+      </c>
+      <c r="J14" s="55">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="K12" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="K14" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>7,89% to 11,80%</v>
-      </c>
-      <c r="L12" s="60">
+        <v>15,57% to 19,45%</v>
+      </c>
+      <c r="L14" s="57">
         <f t="shared" si="4"/>
-        <v>6.3380281690140844E-2</v>
-      </c>
-      <c r="M12" s="61">
+        <v>0</v>
+      </c>
+      <c r="M14" s="58">
         <f t="shared" si="5"/>
-        <v>0.97183098591549288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+        <v>0.97916666666666652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
         <v>45313</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C15" s="33">
         <v>56.959999000000003</v>
       </c>
-      <c r="D13" s="111">
+      <c r="D15" s="101">
         <f t="shared" si="0"/>
         <v>2.1337618791464896E-2</v>
       </c>
-      <c r="H13" s="56">
-        <f>$I$19+2.4*$I$23</f>
-        <v>0.15700499531817236</v>
-      </c>
-      <c r="I13" s="57">
-        <f t="shared" si="2"/>
-        <v>0.15700499531817236</v>
-      </c>
-      <c r="J13" s="58">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="59" t="str">
-        <f t="shared" si="1"/>
-        <v>11,80% to 15,70%</v>
-      </c>
-      <c r="L13" s="60">
+      <c r="H15" s="59"/>
+      <c r="I15" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="60">
+        <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
+        <v>3</v>
+      </c>
+      <c r="K15" s="60" t="str">
+        <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
+        <v>Greater than 19,45%</v>
+      </c>
+      <c r="L15" s="61">
         <f t="shared" si="4"/>
-        <v>7.0422535211267607E-3</v>
-      </c>
-      <c r="M13" s="61">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M15" s="61">
         <f t="shared" si="5"/>
-        <v>0.97887323943661964</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15">
         <v>45306</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C16" s="33">
         <v>55.77</v>
       </c>
-      <c r="D14" s="111">
+      <c r="D16" s="101">
         <f t="shared" si="0"/>
         <v>-3.5621683014985805E-2</v>
       </c>
-      <c r="H14" s="56">
-        <f>$I$19+3*$I$23</f>
-        <v>0.1960570768984719</v>
-      </c>
-      <c r="I14" s="57">
-        <f t="shared" si="2"/>
-        <v>0.1960570768984719</v>
-      </c>
-      <c r="J14" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="59" t="str">
-        <f t="shared" si="1"/>
-        <v>15,70% to 19,61%</v>
-      </c>
-      <c r="L14" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="61">
-        <f t="shared" si="5"/>
-        <v>0.97887323943661964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15">
+      <c r="H16" s="62"/>
+      <c r="M16" s="63"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
         <v>45299</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C17" s="33">
         <v>57.830002</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D17" s="101">
         <f t="shared" si="0"/>
         <v>-1.9664349223110666E-2</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="J15" s="63">
-        <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
-        <v>3</v>
-      </c>
-      <c r="K15" s="63" t="str">
-        <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
-        <v>Greater than 19,61%</v>
-      </c>
-      <c r="L15" s="64">
-        <f t="shared" si="4"/>
-        <v>2.1126760563380281E-2</v>
-      </c>
-      <c r="M15" s="64">
-        <f t="shared" si="5"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15">
+      <c r="H17" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="106"/>
+      <c r="M17" s="63"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
         <v>45292</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C18" s="33">
         <v>58.990001999999997</v>
       </c>
-      <c r="D16" s="111">
+      <c r="D18" s="101">
         <f t="shared" si="0"/>
         <v>-3.5480673642903859E-2</v>
       </c>
-      <c r="H16" s="65"/>
-      <c r="M16" s="66"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
+      <c r="H18" s="107"/>
+      <c r="I18" s="108"/>
+      <c r="M18" s="63"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
         <v>45285</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C19" s="33">
         <v>61.16</v>
       </c>
-      <c r="D17" s="111">
+      <c r="D19" s="101">
         <f t="shared" si="0"/>
         <v>-1.4819619367924641E-2</v>
       </c>
-      <c r="H17" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="I17" s="68"/>
-      <c r="M17" s="66"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+      <c r="H19" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="65">
+        <f>AVERAGE(D:D)</f>
+        <v>6.0741637584054028E-4</v>
+      </c>
+      <c r="M19" s="63"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
         <v>45278</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C20" s="33">
         <v>62.080002</v>
       </c>
-      <c r="D18" s="111">
+      <c r="D20" s="101">
         <f t="shared" si="0"/>
         <v>1.2559141860069456E-2</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
-      <c r="M18" s="66"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+      <c r="H20" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="65">
+        <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
+        <v>5.3867140976847682E-3</v>
+      </c>
+      <c r="M20" s="63"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
         <v>45271</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C21" s="33">
         <v>61.310001</v>
       </c>
-      <c r="D19" s="111">
+      <c r="D21" s="101">
         <f t="shared" si="0"/>
         <v>7.0543059193294955E-2</v>
       </c>
-      <c r="H19" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" s="72">
-        <f>AVERAGE(D:D)</f>
-        <v>7.9666899697422577E-4</v>
-      </c>
-      <c r="M19" s="66"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+      <c r="H21" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="65">
+        <f>MEDIAN(D:D)</f>
+        <v>-1.2142939845160516E-2</v>
+      </c>
+      <c r="M21" s="63"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="15">
         <v>45264</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C22" s="33">
         <v>57.27</v>
       </c>
-      <c r="D20" s="111">
+      <c r="D22" s="101">
         <f t="shared" si="0"/>
         <v>-1.5133309883635038E-2</v>
       </c>
-      <c r="H20" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="I20" s="72">
-        <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
-        <v>5.4619631441448126E-3</v>
-      </c>
-      <c r="M20" s="66"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+      <c r="H22" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" s="65" t="e">
+        <f>MODE(D:D)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="63"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
         <v>45257</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C23" s="33">
         <v>58.150002000000001</v>
       </c>
-      <c r="D21" s="111">
+      <c r="D23" s="101">
         <f t="shared" si="0"/>
         <v>2.5392400377224345E-2</v>
       </c>
-      <c r="H21" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="72">
-        <f>MEDIAN(D:D)</f>
-        <v>-1.1939341938880355E-2</v>
-      </c>
-      <c r="M21" s="66"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+      <c r="H23" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="65">
+        <f>_xlfn.STDEV.S(D:D)</f>
+        <v>6.4640569172217222E-2</v>
+      </c>
+      <c r="M23" s="63"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="15">
         <v>45250</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C24" s="33">
         <v>56.709999000000003</v>
       </c>
-      <c r="D22" s="111">
+      <c r="D24" s="101">
         <f t="shared" si="0"/>
         <v>-1.2020957769304563E-2</v>
       </c>
-      <c r="H22" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="I22" s="72" t="e">
-        <f>MODE(D:D)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M22" s="66"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
+      <c r="H24" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" s="65">
+        <f>_xlfn.VAR.S(D:D)</f>
+        <v>4.1784031829081997E-3</v>
+      </c>
+      <c r="M24" s="63"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
         <v>45243</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C25" s="33">
         <v>57.400002000000001</v>
       </c>
-      <c r="D23" s="111">
+      <c r="D25" s="101">
         <f t="shared" si="0"/>
         <v>7.5107755667873199E-2</v>
       </c>
-      <c r="H23" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="I23" s="72">
-        <f>_xlfn.STDEV.S(D:D)</f>
-        <v>6.5086802633832555E-2</v>
-      </c>
-      <c r="M23" s="66"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="15">
+      <c r="H25" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="66">
+        <f>KURT(D:D)</f>
+        <v>2.8073793898249857</v>
+      </c>
+      <c r="M25" s="63"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="15">
         <v>45236</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C26" s="33">
         <v>53.389999000000003</v>
       </c>
-      <c r="D24" s="111">
+      <c r="D26" s="101">
         <f t="shared" si="0"/>
         <v>-5.4024031296571184E-3</v>
       </c>
-      <c r="H24" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="I24" s="72">
-        <f>_xlfn.VAR.S(D:D)</f>
-        <v>4.2362918770954732E-3</v>
-      </c>
-      <c r="M24" s="66"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="15">
+      <c r="H26" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" s="66">
+        <f>SKEW(D:D)</f>
+        <v>1.0683955517819361</v>
+      </c>
+      <c r="M26" s="63"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
         <v>45229</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C27" s="33">
         <v>53.68</v>
       </c>
-      <c r="D25" s="111">
+      <c r="D27" s="101">
         <f t="shared" si="0"/>
         <v>7.7478924126856752E-2</v>
       </c>
-      <c r="H25" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="I25" s="73">
-        <f>KURT(D:D)</f>
-        <v>2.7191133956424545</v>
-      </c>
-      <c r="M25" s="66"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
+      <c r="H27" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="65">
+        <f>I29-I28</f>
+        <v>0.41798674186042228</v>
+      </c>
+      <c r="M27" s="63"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="15">
         <v>45222</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C28" s="33">
         <v>49.82</v>
       </c>
-      <c r="D26" s="111">
+      <c r="D28" s="101">
         <f t="shared" si="0"/>
         <v>-4.723658352961202E-2</v>
       </c>
-      <c r="H26" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="I26" s="73">
-        <f>SKEW(D:D)</f>
-        <v>1.0525983249793824</v>
-      </c>
-      <c r="M26" s="66"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="15">
+      <c r="H28" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="65">
+        <f>MIN(D:D)</f>
+        <v>-0.13654964462631913</v>
+      </c>
+      <c r="M28" s="63"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="15">
         <v>45215</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C29" s="33">
         <v>52.290000999999997</v>
       </c>
-      <c r="D27" s="111">
+      <c r="D29" s="101">
         <f t="shared" si="0"/>
         <v>-1.8949306171656799E-2</v>
       </c>
-      <c r="H27" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="I27" s="72">
-        <f>I29-I28</f>
-        <v>0.41798674186042228</v>
-      </c>
-      <c r="M27" s="66"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="15">
+      <c r="H29" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="I29" s="65">
+        <f>MAX(D:D)</f>
+        <v>0.28143709723410315</v>
+      </c>
+      <c r="M29" s="63"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="15">
         <v>45208</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C30" s="33">
         <v>53.299999</v>
       </c>
-      <c r="D28" s="111">
+      <c r="D30" s="101">
         <f t="shared" si="0"/>
         <v>-4.6341027846502625E-2</v>
       </c>
-      <c r="H28" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="72">
-        <f>MIN(D:D)</f>
-        <v>-0.13654964462631913</v>
-      </c>
-      <c r="M28" s="66"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="15">
+      <c r="H30" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="66">
+        <f>SUM(D:D)</f>
+        <v>8.7467958121037803E-2</v>
+      </c>
+      <c r="M30" s="63"/>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="15">
         <v>45201</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C31" s="33">
         <v>55.889999000000003</v>
       </c>
-      <c r="D29" s="111">
+      <c r="D31" s="101">
         <f t="shared" si="0"/>
         <v>-4.7058873075571217E-2</v>
       </c>
-      <c r="H29" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="I29" s="72">
-        <f>MAX(D:D)</f>
-        <v>0.28143709723410315</v>
-      </c>
-      <c r="M29" s="66"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="15">
+      <c r="H31" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="I31" s="42">
+        <f>COUNT(D:D)</f>
+        <v>144</v>
+      </c>
+      <c r="M31" s="63"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="15">
         <v>45194</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C32" s="33">
         <v>58.650002000000001</v>
       </c>
-      <c r="D30" s="111">
+      <c r="D32" s="101">
         <f t="shared" si="0"/>
         <v>1.382893738388713E-2</v>
       </c>
-      <c r="H30" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="I30" s="73">
-        <f>SUM(D:D)</f>
-        <v>0.11312699757034006</v>
-      </c>
-      <c r="M30" s="66"/>
-    </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15">
+      <c r="H32" s="68"/>
+      <c r="M32" s="63"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="15">
         <v>45187</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C33" s="33">
         <v>57.849997999999999</v>
       </c>
-      <c r="D31" s="111">
+      <c r="D33" s="101">
         <f t="shared" si="0"/>
         <v>-3.9515224970944618E-2</v>
       </c>
-      <c r="H31" s="74" t="s">
+      <c r="H33" s="69"/>
+      <c r="I33" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="I31" s="45">
-        <f>COUNT(D:D)</f>
-        <v>142</v>
-      </c>
-      <c r="M31" s="66"/>
-    </row>
-    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15">
+      <c r="K33" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="L33" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="M33" s="63"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="15">
         <v>45180</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C34" s="33">
         <v>60.23</v>
       </c>
-      <c r="D32" s="111">
+      <c r="D34" s="101">
         <f t="shared" si="0"/>
         <v>-9.212057752721492E-3</v>
       </c>
-      <c r="H32" s="75"/>
-      <c r="M32" s="66"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="15">
+      <c r="H34" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="57">
+        <f>AVERAGEIF(D:D,"&gt;0")</f>
+        <v>5.8238721723275752E-2</v>
+      </c>
+      <c r="J34" s="55">
+        <f>COUNTIF(D:D,"&gt;0")</f>
+        <v>61</v>
+      </c>
+      <c r="K34" s="57">
+        <f>J34/$I$31</f>
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="L34" s="58">
+        <f>K34*I34</f>
+        <v>2.4670569618887646E-2</v>
+      </c>
+      <c r="M34" s="63"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="15">
         <v>45173</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C35" s="33">
         <v>60.790000999999997</v>
       </c>
-      <c r="D33" s="111">
+      <c r="D35" s="101">
         <f t="shared" si="0"/>
         <v>-6.7780985551004203E-2</v>
       </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="J33" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="K33" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="L33" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="M33" s="66"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="15">
+      <c r="H35" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35" s="57">
+        <f>AVERAGEIF(D:D,"&lt;0")</f>
+        <v>-4.2257244719497343E-2</v>
+      </c>
+      <c r="J35" s="55">
+        <f>COUNTIF(D:D,"&lt;0")</f>
+        <v>82</v>
+      </c>
+      <c r="K35" s="57">
+        <f>J35/$I$31</f>
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="L35" s="58">
+        <f t="shared" ref="L35:L36" si="6">K35*I35</f>
+        <v>-2.4063153243047097E-2</v>
+      </c>
+      <c r="M35" s="63"/>
+    </row>
+    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="15">
         <v>45166</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C36" s="33">
         <v>65.209998999999996</v>
       </c>
-      <c r="D34" s="111">
+      <c r="D36" s="101">
         <f t="shared" si="0"/>
         <v>6.6219735120994105E-2</v>
       </c>
-      <c r="H34" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="I34" s="60">
-        <f>AVERAGEIF(D:D,"&gt;0")</f>
-        <v>5.8238721723275752E-2</v>
-      </c>
-      <c r="J34" s="58">
-        <f>COUNTIF(D:D,"&gt;0")</f>
-        <v>61</v>
-      </c>
-      <c r="K34" s="60">
-        <f>J34/$I$31</f>
-        <v>0.42957746478873238</v>
-      </c>
-      <c r="L34" s="61">
-        <f>K34*I34</f>
-        <v>2.5018042430421272E-2</v>
-      </c>
-      <c r="M34" s="66"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="15">
+      <c r="H36" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="60">
+        <v>0</v>
+      </c>
+      <c r="J36" s="60">
+        <f>COUNTIF(D:D,"0")</f>
+        <v>1</v>
+      </c>
+      <c r="K36" s="74">
+        <f>J36/$I$31</f>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="L36" s="61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="63"/>
+    </row>
+    <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="15">
         <v>45159</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C37" s="33">
         <v>61.16</v>
       </c>
-      <c r="D35" s="111">
+      <c r="D37" s="101">
         <f t="shared" si="0"/>
         <v>-7.7871351036200576E-3</v>
       </c>
-      <c r="H35" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="I35" s="60">
-        <f>AVERAGEIF(D:D,"&lt;0")</f>
-        <v>-4.2992937844368508E-2</v>
-      </c>
-      <c r="J35" s="58">
-        <f>COUNTIF(D:D,"&lt;0")</f>
-        <v>80</v>
-      </c>
-      <c r="K35" s="60">
-        <f>J35/$I$31</f>
-        <v>0.56338028169014087</v>
-      </c>
-      <c r="L35" s="61">
-        <f t="shared" ref="L35:L36" si="6">K35*I35</f>
-        <v>-2.4221373433447047E-2</v>
-      </c>
-      <c r="M35" s="66"/>
-    </row>
-    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="15">
+      <c r="H37" s="68"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="63"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="15">
         <v>45152</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C38" s="33">
         <v>61.639999000000003</v>
       </c>
-      <c r="D36" s="111">
+      <c r="D38" s="101">
         <f t="shared" si="0"/>
         <v>-2.6224329008283198E-2</v>
       </c>
-      <c r="H36" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36" s="63">
-        <v>0</v>
-      </c>
-      <c r="J36" s="63">
-        <f>COUNTIF(D:D,"0")</f>
-        <v>1</v>
-      </c>
-      <c r="K36" s="81">
-        <f>J36/$I$31</f>
-        <v>7.0422535211267607E-3</v>
-      </c>
-      <c r="L36" s="64">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="66"/>
-    </row>
-    <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15">
+      <c r="H38" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="J38" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="K38" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="L38" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="M38" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="15">
         <v>45145</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C39" s="33">
         <v>63.299999</v>
       </c>
-      <c r="D37" s="111">
+      <c r="D39" s="101">
         <f t="shared" si="0"/>
         <v>-1.2634565393315089E-2</v>
       </c>
-      <c r="H37" s="75"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="66"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="15">
+      <c r="H39" s="76">
+        <v>1</v>
+      </c>
+      <c r="I39" s="57">
+        <f>$I$19+($H39*$I$23)</f>
+        <v>6.524798554805776E-2</v>
+      </c>
+      <c r="J39" s="57">
+        <f>$I$19-($H39*$I$23)</f>
+        <v>-6.4033152796376683E-2</v>
+      </c>
+      <c r="K39" s="55">
+        <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
+        <v>104</v>
+      </c>
+      <c r="L39" s="57">
+        <f>K39/$I$31</f>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="M39" s="58">
+        <v>0.68269999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="15">
         <v>45138</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C40" s="33">
         <v>64.110000999999997</v>
       </c>
-      <c r="D38" s="111">
+      <c r="D40" s="101">
         <f t="shared" si="0"/>
         <v>-3.4051557900336427E-2</v>
       </c>
-      <c r="H38" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="I38" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="J38" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="K38" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="L38" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="M38" s="78" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="15">
+      <c r="H40" s="76">
+        <v>2</v>
+      </c>
+      <c r="I40" s="57">
+        <f>$I$19+($H40*$I$23)</f>
+        <v>0.129888554720275</v>
+      </c>
+      <c r="J40" s="57">
+        <f>$I$19-($H40*$I$23)</f>
+        <v>-0.12867372196859389</v>
+      </c>
+      <c r="K40" s="55">
+        <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
+        <v>139</v>
+      </c>
+      <c r="L40" s="57">
+        <f>K40/$I$31</f>
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="M40" s="58">
+        <v>0.95450000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="15">
         <v>45131</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C41" s="33">
         <v>66.370002999999997</v>
       </c>
-      <c r="D39" s="111">
+      <c r="D41" s="101">
         <f t="shared" si="0"/>
         <v>1.8100950510785196E-2</v>
       </c>
-      <c r="H39" s="83">
-        <v>1</v>
-      </c>
-      <c r="I39" s="60">
-        <f>$I$19+($H39*$I$23)</f>
-        <v>6.5883471630806781E-2</v>
-      </c>
-      <c r="J39" s="60">
-        <f>$I$19-($H39*$I$23)</f>
-        <v>-6.4290133636858329E-2</v>
-      </c>
-      <c r="K39" s="58">
-        <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
-        <v>103</v>
-      </c>
-      <c r="L39" s="60">
-        <f>K39/$I$31</f>
-        <v>0.72535211267605637</v>
-      </c>
-      <c r="M39" s="61">
-        <v>0.68269999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="15">
+      <c r="H41" s="76">
+        <v>3</v>
+      </c>
+      <c r="I41" s="57">
+        <f>$I$19+($H41*$I$23)</f>
+        <v>0.19452912389249222</v>
+      </c>
+      <c r="J41" s="57">
+        <f>$I$19-($H41*$I$23)</f>
+        <v>-0.19331429114081111</v>
+      </c>
+      <c r="K41" s="55">
+        <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
+        <v>141</v>
+      </c>
+      <c r="L41" s="57">
+        <f>K41/$I$31</f>
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="M41" s="77">
+        <v>0.99729999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="15">
         <v>45124</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C42" s="33">
         <v>65.190002000000007</v>
       </c>
-      <c r="D40" s="111">
+      <c r="D42" s="101">
         <f t="shared" si="0"/>
         <v>1.5104344205787434E-2</v>
       </c>
-      <c r="H40" s="83">
-        <v>2</v>
-      </c>
-      <c r="I40" s="60">
-        <f>$I$19+($H40*$I$23)</f>
-        <v>0.13097027426463934</v>
-      </c>
-      <c r="J40" s="60">
-        <f>$I$19-($H40*$I$23)</f>
-        <v>-0.12937693627069088</v>
-      </c>
-      <c r="K40" s="58">
-        <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
-        <v>137</v>
-      </c>
-      <c r="L40" s="60">
-        <f>K40/$I$31</f>
-        <v>0.96478873239436624</v>
-      </c>
-      <c r="M40" s="61">
-        <v>0.95450000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="15">
+      <c r="H42" s="53"/>
+      <c r="M42" s="77"/>
+    </row>
+    <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="15">
         <v>45117</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C43" s="33">
         <v>64.220000999999996</v>
       </c>
-      <c r="D41" s="111">
+      <c r="D43" s="101">
         <f t="shared" si="0"/>
         <v>4.1180301556420273E-2</v>
       </c>
-      <c r="H41" s="83">
-        <v>3</v>
-      </c>
-      <c r="I41" s="60">
-        <f>$I$19+($H41*$I$23)</f>
-        <v>0.1960570768984719</v>
-      </c>
-      <c r="J41" s="60">
-        <f>$I$19-($H41*$I$23)</f>
-        <v>-0.19446373890452345</v>
-      </c>
-      <c r="K41" s="58">
-        <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
-        <v>139</v>
-      </c>
-      <c r="L41" s="60">
-        <f>K41/$I$31</f>
-        <v>0.97887323943661975</v>
-      </c>
-      <c r="M41" s="84">
-        <v>0.99729999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="15">
+      <c r="H43" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="111"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="15">
         <v>45110</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C44" s="33">
         <v>61.68</v>
       </c>
-      <c r="D42" s="111">
+      <c r="D44" s="101">
         <f t="shared" si="0"/>
         <v>-1.8147086914995225E-2</v>
       </c>
-      <c r="H42" s="56"/>
-      <c r="M42" s="84"/>
-    </row>
-    <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="15">
+      <c r="H44" s="78">
+        <v>0.01</v>
+      </c>
+      <c r="I44" s="79">
+        <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
+        <v>-0.1184073716668701</v>
+      </c>
+      <c r="J44" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="K44" s="79">
+        <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
+        <v>-4.5660593406461093E-2</v>
+      </c>
+      <c r="L44" s="80">
+        <v>0.85</v>
+      </c>
+      <c r="M44" s="81">
+        <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
+        <v>6.6058491517147558E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="15">
         <v>45103</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C45" s="33">
         <v>62.82</v>
       </c>
-      <c r="D43" s="111">
+      <c r="D45" s="101">
         <f t="shared" si="0"/>
         <v>4.0066190726285145E-2</v>
       </c>
-      <c r="H43" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="87"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="15">
+      <c r="H45" s="82">
+        <v>0.02</v>
+      </c>
+      <c r="I45" s="83">
+        <f t="shared" si="7"/>
+        <v>-0.11339552234394562</v>
+      </c>
+      <c r="J45" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="K45" s="83">
+        <f t="shared" si="8"/>
+        <v>-3.8743259005170977E-2</v>
+      </c>
+      <c r="L45" s="84">
+        <v>0.86</v>
+      </c>
+      <c r="M45" s="85">
+        <f t="shared" si="9"/>
+        <v>6.8376009539141233E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="15">
         <v>45096</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C46" s="33">
         <v>60.400002000000001</v>
       </c>
-      <c r="D44" s="111">
+      <c r="D46" s="101">
         <f t="shared" si="0"/>
         <v>-1.2264921921016469E-2</v>
       </c>
-      <c r="H44" s="88">
-        <v>0.01</v>
-      </c>
-      <c r="I44" s="89">
-        <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
-        <v>-0.11851694317397195</v>
-      </c>
-      <c r="J44" s="90">
-        <v>0.2</v>
-      </c>
-      <c r="K44" s="89">
-        <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
-        <v>-4.6114216366488776E-2</v>
-      </c>
-      <c r="L44" s="90">
-        <v>0.85</v>
-      </c>
-      <c r="M44" s="91">
-        <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
-        <v>6.6165987253045247E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="15">
+      <c r="H46" s="82">
+        <v>0.03</v>
+      </c>
+      <c r="I46" s="83">
+        <f t="shared" si="7"/>
+        <v>-0.10994800362468396</v>
+      </c>
+      <c r="J46" s="84">
+        <v>0.3</v>
+      </c>
+      <c r="K46" s="83">
+        <f t="shared" si="8"/>
+        <v>-3.5093566223110162E-2</v>
+      </c>
+      <c r="L46" s="84">
+        <v>0.87</v>
+      </c>
+      <c r="M46" s="85">
+        <f t="shared" si="9"/>
+        <v>6.9492189316869984E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="15">
         <v>45089</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C47" s="33">
         <v>61.150002000000001</v>
       </c>
-      <c r="D45" s="111">
+      <c r="D47" s="101">
         <f t="shared" si="0"/>
         <v>1.3088154190057155E-2</v>
       </c>
-      <c r="H45" s="92">
-        <v>0.02</v>
-      </c>
-      <c r="I45" s="93">
+      <c r="H47" s="82">
+        <v>0.04</v>
+      </c>
+      <c r="I47" s="83">
         <f t="shared" si="7"/>
-        <v>-0.11348338566350477</v>
-      </c>
-      <c r="J45" s="94">
-        <v>0.25</v>
-      </c>
-      <c r="K45" s="93">
+        <v>-9.9494603827563255E-2</v>
+      </c>
+      <c r="J47" s="84">
+        <v>0.35</v>
+      </c>
+      <c r="K47" s="83">
         <f t="shared" si="8"/>
-        <v>-3.9257902982353404E-2</v>
-      </c>
-      <c r="L45" s="94">
-        <v>0.86</v>
-      </c>
-      <c r="M45" s="95">
+        <v>-2.6615486609247632E-2</v>
+      </c>
+      <c r="L47" s="84">
+        <v>0.88</v>
+      </c>
+      <c r="M47" s="85">
         <f t="shared" si="9"/>
-        <v>6.8508911393714761E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="15">
+        <v>7.401526422592522E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="15">
         <v>45082</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C48" s="33">
         <v>60.360000999999997</v>
       </c>
-      <c r="D46" s="111">
+      <c r="D48" s="101">
         <f t="shared" si="0"/>
         <v>1.9078186729697855E-2</v>
       </c>
-      <c r="H46" s="92">
-        <v>0.03</v>
-      </c>
-      <c r="I46" s="93">
+      <c r="H48" s="82">
+        <v>0.05</v>
+      </c>
+      <c r="I48" s="83">
         <f t="shared" si="7"/>
-        <v>-0.1100573657944839</v>
-      </c>
-      <c r="J46" s="94">
-        <v>0.3</v>
-      </c>
-      <c r="K46" s="93">
+        <v>-8.6684408845905989E-2</v>
+      </c>
+      <c r="J48" s="84">
+        <v>0.4</v>
+      </c>
+      <c r="K48" s="83">
         <f t="shared" si="8"/>
-        <v>-3.535163783630596E-2</v>
-      </c>
-      <c r="L46" s="94">
-        <v>0.87</v>
-      </c>
-      <c r="M46" s="95">
+        <v>-2.1460563167322914E-2</v>
+      </c>
+      <c r="L48" s="84">
+        <v>0.89</v>
+      </c>
+      <c r="M48" s="85">
         <f t="shared" si="9"/>
-        <v>6.9955284516650493E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="15">
+        <v>7.574797115179871E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="15">
         <v>45075</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C49" s="33">
         <v>59.23</v>
       </c>
-      <c r="D47" s="111">
+      <c r="D49" s="101">
         <f t="shared" si="0"/>
         <v>4.8875490545856159E-2</v>
       </c>
-      <c r="H47" s="92">
-        <v>0.04</v>
-      </c>
-      <c r="I47" s="93">
+      <c r="H49" s="82">
+        <v>0.06</v>
+      </c>
+      <c r="I49" s="83">
         <f t="shared" si="7"/>
-        <v>-0.10051230169287674</v>
-      </c>
-      <c r="J47" s="94">
-        <v>0.35</v>
-      </c>
-      <c r="K47" s="93">
+        <v>-8.2558673944498007E-2</v>
+      </c>
+      <c r="J49" s="84">
+        <v>0.45</v>
+      </c>
+      <c r="K49" s="83">
         <f t="shared" si="8"/>
-        <v>-3.1625358966937862E-2</v>
-      </c>
-      <c r="L47" s="94">
-        <v>0.88</v>
-      </c>
-      <c r="M47" s="95">
+        <v>-1.5646957812187737E-2</v>
+      </c>
+      <c r="L49" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="M49" s="85">
         <f t="shared" si="9"/>
-        <v>7.4711126137475298E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="15">
+        <v>7.7852453648551603E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="15">
         <v>45068</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C50" s="33">
         <v>56.470001000000003</v>
       </c>
-      <c r="D48" s="111">
+      <c r="D50" s="101">
         <f t="shared" si="0"/>
         <v>-3.6183632019115897E-2</v>
       </c>
-      <c r="H48" s="92">
-        <v>0.05</v>
-      </c>
-      <c r="I48" s="93">
+      <c r="H50" s="82">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I50" s="83">
         <f t="shared" si="7"/>
-        <v>-8.6993064226101632E-2</v>
-      </c>
-      <c r="J48" s="94">
-        <v>0.4</v>
-      </c>
-      <c r="K48" s="93">
+        <v>-7.7840004039976887E-2</v>
+      </c>
+      <c r="J50" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="83">
         <f t="shared" si="8"/>
-        <v>-2.1011509681269844E-2</v>
-      </c>
-      <c r="L48" s="94">
-        <v>0.89</v>
-      </c>
-      <c r="M48" s="95">
+        <v>-1.2142939845160516E-2</v>
+      </c>
+      <c r="L50" s="84">
+        <v>0.91</v>
+      </c>
+      <c r="M50" s="85">
         <f t="shared" si="9"/>
-        <v>7.6269628212775123E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="15">
+        <v>7.9198818392221204E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="15">
         <v>45061</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C51" s="33">
         <v>58.59</v>
       </c>
-      <c r="D49" s="111">
+      <c r="D51" s="101">
         <f t="shared" si="0"/>
         <v>4.4198876417770983E-2</v>
       </c>
-      <c r="H49" s="92">
-        <v>0.06</v>
-      </c>
-      <c r="I49" s="93">
+      <c r="H51" s="82">
+        <v>0.08</v>
+      </c>
+      <c r="I51" s="83">
         <f t="shared" si="7"/>
-        <v>-8.2869466531341779E-2</v>
-      </c>
-      <c r="J49" s="94">
-        <v>0.45</v>
-      </c>
-      <c r="K49" s="93">
+        <v>-7.4414498617103794E-2</v>
+      </c>
+      <c r="J51" s="84">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K51" s="83">
         <f t="shared" si="8"/>
-        <v>-1.5567935053948864E-2</v>
-      </c>
-      <c r="L49" s="94">
-        <v>0.9</v>
-      </c>
-      <c r="M49" s="95">
+        <v>-5.6207531266508149E-3</v>
+      </c>
+      <c r="L51" s="84">
+        <v>0.92</v>
+      </c>
+      <c r="M51" s="85">
         <f t="shared" si="9"/>
-        <v>7.7959176369035849E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="15">
+        <v>8.277928668138769E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="15">
         <v>45054</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C52" s="33">
         <v>56.110000999999997</v>
       </c>
-      <c r="D50" s="111">
+      <c r="D52" s="101">
         <f t="shared" si="0"/>
         <v>6.8761923809523839E-2</v>
       </c>
-      <c r="H50" s="92">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I50" s="93">
+      <c r="H52" s="82">
+        <v>0.09</v>
+      </c>
+      <c r="I52" s="83">
         <f t="shared" si="7"/>
-        <v>-7.8333498604707869E-2</v>
-      </c>
-      <c r="J50" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="K50" s="93">
+        <v>-7.2943168612274456E-2</v>
+      </c>
+      <c r="J52" s="84">
+        <v>0.6</v>
+      </c>
+      <c r="K52" s="83">
         <f t="shared" si="8"/>
-        <v>-1.1939341938880355E-2</v>
-      </c>
-      <c r="L50" s="94">
-        <v>0.91</v>
-      </c>
-      <c r="M50" s="95">
+        <v>6.8678376843139561E-3</v>
+      </c>
+      <c r="L52" s="84">
+        <v>0.93</v>
+      </c>
+      <c r="M52" s="85">
         <f t="shared" si="9"/>
-        <v>7.9901649587290097E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="15">
+        <v>9.3536025852258203E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="15">
         <v>45047</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C53" s="33">
         <v>52.5</v>
       </c>
-      <c r="D51" s="111">
+      <c r="D53" s="101">
         <f t="shared" si="0"/>
         <v>-1.1857726108456146E-2</v>
       </c>
-      <c r="H51" s="92">
-        <v>0.08</v>
-      </c>
-      <c r="I51" s="93">
+      <c r="H53" s="82">
+        <v>0.1</v>
+      </c>
+      <c r="I53" s="83">
         <f t="shared" si="7"/>
-        <v>-7.4771387815156465E-2</v>
-      </c>
-      <c r="J51" s="94">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K51" s="93">
+        <v>-7.0826881872197892E-2</v>
+      </c>
+      <c r="J53" s="84">
+        <v>0.65</v>
+      </c>
+      <c r="K53" s="83">
         <f t="shared" si="8"/>
-        <v>-3.8873920022667336E-3</v>
-      </c>
-      <c r="L51" s="94">
-        <v>0.92</v>
-      </c>
-      <c r="M51" s="95">
+        <v>1.5621547288521189E-2</v>
+      </c>
+      <c r="L53" s="84">
+        <v>0.94</v>
+      </c>
+      <c r="M53" s="85">
         <f t="shared" si="9"/>
-        <v>8.283170120891159E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="15">
+        <v>9.6135652043394387E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="15">
         <v>45040</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C54" s="33">
         <v>53.130001</v>
       </c>
-      <c r="D52" s="111">
+      <c r="D54" s="101">
         <f t="shared" si="0"/>
         <v>1.1306010928961996E-3</v>
       </c>
-      <c r="H52" s="92">
-        <v>0.09</v>
-      </c>
-      <c r="I52" s="93">
+      <c r="H54" s="82">
+        <v>0.11</v>
+      </c>
+      <c r="I54" s="83">
         <f t="shared" si="7"/>
-        <v>-7.2989144711235493E-2</v>
-      </c>
-      <c r="J52" s="94">
-        <v>0.6</v>
-      </c>
-      <c r="K52" s="93">
+        <v>-6.7253662902004671E-2</v>
+      </c>
+      <c r="J54" s="84">
+        <v>0.7</v>
+      </c>
+      <c r="K54" s="83">
         <f t="shared" si="8"/>
-        <v>9.7517388344257692E-3</v>
-      </c>
-      <c r="L52" s="94">
-        <v>0.93</v>
-      </c>
-      <c r="M52" s="95">
+        <v>2.5185371787846921E-2</v>
+      </c>
+      <c r="L54" s="84">
+        <v>0.95</v>
+      </c>
+      <c r="M54" s="85">
         <f t="shared" si="9"/>
-        <v>9.3732584350672388E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="15">
+        <v>0.10023321626686302</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="15">
         <v>45033</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C55" s="33">
         <v>53.07</v>
       </c>
-      <c r="D53" s="111">
+      <c r="D55" s="101">
         <f t="shared" si="0"/>
         <v>1.8813591860241896E-2</v>
       </c>
-      <c r="H53" s="92">
-        <v>0.1</v>
-      </c>
-      <c r="I53" s="93">
+      <c r="H55" s="82">
+        <v>0.12</v>
+      </c>
+      <c r="I55" s="83">
         <f t="shared" si="7"/>
-        <v>-7.1697137963967525E-2</v>
-      </c>
-      <c r="J53" s="94">
-        <v>0.65</v>
-      </c>
-      <c r="K53" s="93">
+        <v>-6.1530069889668339E-2</v>
+      </c>
+      <c r="J55" s="84">
+        <v>0.75</v>
+      </c>
+      <c r="K55" s="83">
         <f t="shared" si="8"/>
-        <v>1.7242686808201062E-2</v>
-      </c>
-      <c r="L53" s="94">
-        <v>0.94</v>
-      </c>
-      <c r="M53" s="95">
+        <v>3.5994490447217642E-2</v>
+      </c>
+      <c r="L55" s="84">
+        <v>0.96</v>
+      </c>
+      <c r="M55" s="85">
         <f t="shared" si="9"/>
-        <v>9.6651377630217958E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="15">
+        <v>0.10566248900953859</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="15">
         <v>45026</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C56" s="33">
         <v>52.09</v>
       </c>
-      <c r="D54" s="111">
+      <c r="D56" s="101">
         <f t="shared" si="0"/>
         <v>7.8691218084671499E-2</v>
       </c>
-      <c r="H54" s="92">
-        <v>0.11</v>
-      </c>
-      <c r="I54" s="93">
+      <c r="H56" s="82">
+        <v>0.13</v>
+      </c>
+      <c r="I56" s="83">
         <f t="shared" si="7"/>
-        <v>-6.741258205649768E-2</v>
-      </c>
-      <c r="J54" s="94">
-        <v>0.7</v>
-      </c>
-      <c r="K54" s="93">
+        <v>-5.7360249600828535E-2</v>
+      </c>
+      <c r="J56" s="84">
+        <v>0.8</v>
+      </c>
+      <c r="K56" s="83">
         <f t="shared" si="8"/>
-        <v>2.5323390847431869E-2</v>
-      </c>
-      <c r="L54" s="94">
-        <v>0.95</v>
-      </c>
-      <c r="M54" s="95">
+        <v>4.434965521544925E-2</v>
+      </c>
+      <c r="L56" s="84">
+        <v>0.97</v>
+      </c>
+      <c r="M56" s="85">
         <f t="shared" si="9"/>
-        <v>0.10042202692025377</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="15">
+        <v>0.11140186934172613</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="15">
         <v>45019</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C57" s="33">
         <v>48.290000999999997</v>
       </c>
-      <c r="D55" s="111">
+      <c r="D57" s="101">
         <f t="shared" si="0"/>
         <v>-4.3004321105912124E-2</v>
       </c>
-      <c r="H55" s="92">
-        <v>0.12</v>
-      </c>
-      <c r="I55" s="93">
+      <c r="H57" s="82">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I57" s="83">
         <f t="shared" si="7"/>
-        <v>-6.2480784789513362E-2</v>
-      </c>
-      <c r="J55" s="94">
-        <v>0.75</v>
-      </c>
-      <c r="K55" s="93">
-        <f t="shared" si="8"/>
-        <v>3.612154964148856E-2</v>
-      </c>
-      <c r="L55" s="94">
-        <v>0.96</v>
-      </c>
-      <c r="M55" s="95">
+        <v>-5.2780217203639401E-2</v>
+      </c>
+      <c r="J57" s="84"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="84">
+        <v>0.98</v>
+      </c>
+      <c r="M57" s="85">
         <f t="shared" si="9"/>
-        <v>0.10629512133738693</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="15">
+        <v>0.15937224755601406</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="15">
         <v>45012</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C58" s="33">
         <v>50.459999000000003</v>
       </c>
-      <c r="D56" s="111">
+      <c r="D58" s="101">
         <f t="shared" si="0"/>
         <v>9.8628325713041587E-2</v>
       </c>
-      <c r="H56" s="92">
-        <v>0.13</v>
-      </c>
-      <c r="I56" s="93">
+      <c r="H58" s="86">
+        <v>0.15</v>
+      </c>
+      <c r="I58" s="87">
         <f t="shared" si="7"/>
-        <v>-5.7919228000990509E-2</v>
-      </c>
-      <c r="J56" s="94">
-        <v>0.8</v>
-      </c>
-      <c r="K56" s="93">
-        <f t="shared" si="8"/>
-        <v>4.4500434013127511E-2</v>
-      </c>
-      <c r="L56" s="94">
-        <v>0.97</v>
-      </c>
-      <c r="M56" s="95">
+        <v>-5.2185515554066024E-2</v>
+      </c>
+      <c r="J58" s="88"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="90">
+        <v>0.99</v>
+      </c>
+      <c r="M58" s="91">
         <f t="shared" si="9"/>
-        <v>0.11140573041622343</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="15">
+        <v>0.21670319696112439</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="15">
         <v>45005</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C59" s="33">
         <v>45.93</v>
       </c>
-      <c r="D57" s="111">
+      <c r="D59" s="101">
         <f t="shared" si="0"/>
         <v>4.4575823411966642E-2</v>
       </c>
-      <c r="H57" s="92">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I57" s="93">
-        <f t="shared" si="7"/>
-        <v>-5.3743219202803658E-2</v>
-      </c>
-      <c r="J57" s="94"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="94">
-        <v>0.98</v>
-      </c>
-      <c r="M57" s="95">
-        <f t="shared" si="9"/>
-        <v>0.16145982831380726</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="15">
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="15">
         <v>44998</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C60" s="33">
         <v>43.970001000000003</v>
       </c>
-      <c r="D58" s="111">
+      <c r="D60" s="101">
         <f t="shared" si="0"/>
         <v>-5.1348373305215578E-2</v>
       </c>
-      <c r="H58" s="96">
-        <v>0.15</v>
-      </c>
-      <c r="I58" s="97">
-        <f t="shared" si="7"/>
-        <v>-5.2521297484310038E-2</v>
-      </c>
-      <c r="J58" s="98"/>
-      <c r="K58" s="99"/>
-      <c r="L58" s="100">
-        <v>0.99</v>
-      </c>
-      <c r="M58" s="101">
-        <f t="shared" si="9"/>
-        <v>0.21713996759665369</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="15">
+      <c r="H60" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="I60" s="93">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="15">
         <v>44991</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C61" s="33">
         <v>46.349997999999999</v>
       </c>
-      <c r="D59" s="111">
+      <c r="D61" s="101">
         <f t="shared" si="0"/>
         <v>-0.10865388461538461</v>
       </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="15">
+      <c r="H61" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="I61" s="95">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="15">
         <v>44984</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C62" s="33">
         <v>52</v>
       </c>
-      <c r="D60" s="111">
+      <c r="D62" s="101">
         <f t="shared" si="0"/>
         <v>6.842001513951157E-2</v>
       </c>
-      <c r="H60" s="102" t="s">
-        <v>201</v>
-      </c>
-      <c r="I60" s="103">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="15">
+      <c r="H62" s="96"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="15">
         <v>44977</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C63" s="33">
         <v>48.669998</v>
       </c>
-      <c r="D61" s="111">
+      <c r="D63" s="101">
         <f t="shared" si="0"/>
         <v>-2.3475160513643734E-2</v>
       </c>
-      <c r="H61" s="104" t="s">
-        <v>202</v>
-      </c>
-      <c r="I61" s="105">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="15">
+      <c r="H63" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="I63" s="97">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="15">
         <v>44970</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C64" s="33">
         <v>49.84</v>
       </c>
-      <c r="D62" s="111">
+      <c r="D64" s="101">
         <f t="shared" si="0"/>
         <v>-5.1569915348618656E-2</v>
       </c>
-      <c r="H62" s="106"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="15">
+      <c r="H64" s="98" t="s">
+        <v>204</v>
+      </c>
+      <c r="I64" s="99">
+        <f>I63*(1-I60)</f>
+        <v>57.165000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="15">
         <v>44963</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C65" s="33">
         <v>52.549999</v>
       </c>
-      <c r="D63" s="111">
+      <c r="D65" s="101">
         <f t="shared" si="0"/>
         <v>-4.1583128156734372E-2</v>
       </c>
-      <c r="H63" s="102" t="s">
-        <v>203</v>
-      </c>
-      <c r="I63" s="107">
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="15">
+      <c r="H65" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" s="100">
+        <f>I63*(1+I61)</f>
+        <v>34.504999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="15">
         <v>44956</v>
       </c>
-      <c r="C64" s="22">
+      <c r="C66" s="33">
         <v>54.830002</v>
       </c>
-      <c r="D64" s="111">
+      <c r="D66" s="101">
         <f t="shared" si="0"/>
         <v>7.4676636613092873E-2</v>
       </c>
-      <c r="H64" s="108" t="s">
-        <v>204</v>
-      </c>
-      <c r="I64" s="109">
-        <f>I63*(1-I60)</f>
-        <v>57.165000000000006</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="15">
-        <v>44949</v>
-      </c>
-      <c r="C65" s="22">
-        <v>51.02</v>
-      </c>
-      <c r="D65" s="111">
-        <f t="shared" si="0"/>
-        <v>-4.2057793543289312E-2</v>
-      </c>
-      <c r="H65" s="104" t="s">
-        <v>205</v>
-      </c>
-      <c r="I65" s="110">
-        <f>I63*(1+I61)</f>
-        <v>34.504999999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="15">
-        <v>44942</v>
-      </c>
-      <c r="C66" s="22">
-        <v>53.259998000000003</v>
-      </c>
-      <c r="D66" s="111">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="15">
-        <v>44935</v>
-      </c>
-      <c r="C67" s="22">
-        <v>53.259998000000003</v>
-      </c>
-      <c r="D67" s="111">
+        <v>44949</v>
+      </c>
+      <c r="C67" s="33">
+        <v>51.02</v>
+      </c>
+      <c r="D67" s="101">
         <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
-        <v>0.15206571490374232</v>
+        <v>-4.2057793543289312E-2</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="15">
+        <v>44942</v>
+      </c>
+      <c r="C68" s="33">
+        <v>53.259998000000003</v>
+      </c>
+      <c r="D68" s="101">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="15">
+        <v>44935</v>
+      </c>
+      <c r="C69" s="33">
+        <v>53.259998000000003</v>
+      </c>
+      <c r="D69" s="101">
+        <f t="shared" si="10"/>
+        <v>0.15206571490374232</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="15">
         <v>44928</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C70" s="33">
         <v>46.23</v>
       </c>
-      <c r="D68" s="111">
+      <c r="D70" s="101">
         <f t="shared" si="10"/>
         <v>8.2923426632078412E-2</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="15">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="15">
         <v>44921</v>
       </c>
-      <c r="C69" s="22">
+      <c r="C71" s="33">
         <v>42.689999</v>
       </c>
-      <c r="D69" s="111">
+      <c r="D71" s="101">
         <f t="shared" si="10"/>
         <v>-7.9014642784444034E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="15">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="15">
         <v>44914</v>
       </c>
-      <c r="C70" s="22">
+      <c r="C72" s="33">
         <v>43.029998999999997</v>
       </c>
-      <c r="D70" s="111">
+      <c r="D72" s="101">
         <f t="shared" si="10"/>
         <v>1.4619170007073912E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="15">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="15">
         <v>44907</v>
       </c>
-      <c r="C71" s="22">
+      <c r="C73" s="33">
         <v>42.41</v>
       </c>
-      <c r="D71" s="111">
+      <c r="D73" s="101">
         <f t="shared" si="10"/>
         <v>-2.1909616653375985E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="15">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="15">
         <v>44900</v>
       </c>
-      <c r="C72" s="22">
+      <c r="C74" s="33">
         <v>43.360000999999997</v>
       </c>
-      <c r="D72" s="111">
+      <c r="D74" s="101">
         <f t="shared" si="10"/>
         <v>-7.2909963651913712E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="15">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="15">
         <v>44893</v>
       </c>
-      <c r="C73" s="22">
+      <c r="C75" s="33">
         <v>46.77</v>
       </c>
-      <c r="D73" s="111">
+      <c r="D75" s="101">
         <f t="shared" si="10"/>
         <v>6.5861416001335105E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="15">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="15">
         <v>44886</v>
       </c>
-      <c r="C74" s="22">
+      <c r="C76" s="33">
         <v>43.880001</v>
       </c>
-      <c r="D74" s="111">
+      <c r="D76" s="101">
         <f t="shared" si="10"/>
         <v>4.1043865193648221E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="15">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="15">
         <v>44879</v>
       </c>
-      <c r="C75" s="22">
+      <c r="C77" s="33">
         <v>42.150002000000001</v>
       </c>
-      <c r="D75" s="111">
+      <c r="D77" s="101">
         <f t="shared" si="10"/>
         <v>-6.2082711661831547E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="15">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="15">
         <v>44872</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C78" s="33">
         <v>44.939999</v>
       </c>
-      <c r="D76" s="111">
+      <c r="D78" s="101">
         <f t="shared" si="10"/>
         <v>0.28143709723410315</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="15">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="15">
         <v>44865</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C79" s="33">
         <v>35.07</v>
       </c>
-      <c r="D77" s="111">
+      <c r="D79" s="101">
         <f t="shared" si="10"/>
         <v>-4.4414194975090027E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="15">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="15">
         <v>44858</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C80" s="33">
         <v>36.700001</v>
       </c>
-      <c r="D78" s="111">
+      <c r="D80" s="101">
         <f t="shared" si="10"/>
         <v>8.2595835835054032E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="15">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="15">
         <v>44851</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C81" s="33">
         <v>33.900002000000001</v>
       </c>
-      <c r="D79" s="111">
+      <c r="D81" s="101">
         <f t="shared" si="10"/>
         <v>-2.6478374434928398E-3</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="15">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="15">
         <v>44844</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C82" s="33">
         <v>33.990001999999997</v>
       </c>
-      <c r="D80" s="111">
+      <c r="D82" s="101">
         <f t="shared" si="10"/>
         <v>-1.5923537466023818E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="15">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="15">
         <v>44837</v>
       </c>
-      <c r="C81" s="22">
+      <c r="C83" s="33">
         <v>34.540000999999997</v>
       </c>
-      <c r="D81" s="111">
+      <c r="D83" s="101">
         <f t="shared" si="10"/>
         <v>-1.4831716633436631E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="15">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="15">
         <v>44830</v>
       </c>
-      <c r="C82" s="22">
+      <c r="C84" s="33">
         <v>35.060001</v>
       </c>
-      <c r="D82" s="111">
+      <c r="D84" s="101">
         <f t="shared" si="10"/>
         <v>-4.5206970446433403E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="15">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="15">
         <v>44823</v>
       </c>
-      <c r="C83" s="22">
+      <c r="C85" s="33">
         <v>36.720001000000003</v>
       </c>
-      <c r="D83" s="111">
+      <c r="D85" s="101">
         <f t="shared" si="10"/>
         <v>-8.406083811424292E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="15">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="15">
         <v>44816</v>
       </c>
-      <c r="C84" s="22">
+      <c r="C86" s="33">
         <v>40.090000000000003</v>
       </c>
-      <c r="D84" s="111">
+      <c r="D86" s="101">
         <f t="shared" si="10"/>
         <v>-0.13654964462631913</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="15">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="15">
         <v>44809</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C87" s="33">
         <v>46.43</v>
       </c>
-      <c r="D85" s="111">
+      <c r="D87" s="101">
         <f t="shared" si="10"/>
         <v>7.8012537729277964E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="15">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="15">
         <v>44802</v>
       </c>
-      <c r="C86" s="22">
+      <c r="C88" s="33">
         <v>43.07</v>
       </c>
-      <c r="D86" s="111">
+      <c r="D88" s="101">
         <f t="shared" si="10"/>
         <v>-5.2782074933317102E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="15">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="15">
         <v>44795</v>
       </c>
-      <c r="C87" s="22">
+      <c r="C89" s="33">
         <v>45.470001000000003</v>
       </c>
-      <c r="D87" s="111">
+      <c r="D89" s="101">
         <f t="shared" si="10"/>
         <v>-3.8485937016579763E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="15">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="15">
         <v>44788</v>
       </c>
-      <c r="C88" s="22">
+      <c r="C90" s="33">
         <v>47.290000999999997</v>
       </c>
-      <c r="D88" s="111">
+      <c r="D90" s="101">
         <f t="shared" si="10"/>
         <v>-4.9638205371310584E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="15">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="15">
         <v>44781</v>
       </c>
-      <c r="C89" s="22">
+      <c r="C91" s="33">
         <v>49.759998000000003</v>
       </c>
-      <c r="D89" s="111">
+      <c r="D91" s="101">
         <f t="shared" si="10"/>
         <v>3.5157021011025691E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="15">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="15">
         <v>44774</v>
       </c>
-      <c r="C90" s="22">
+      <c r="C92" s="33">
         <v>48.07</v>
       </c>
-      <c r="D90" s="111">
+      <c r="D92" s="101">
         <f t="shared" si="10"/>
         <v>1.4583333333333393E-3</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="15">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="15">
         <v>44767</v>
       </c>
-      <c r="C91" s="22">
+      <c r="C93" s="33">
         <v>48</v>
       </c>
-      <c r="D91" s="111">
+      <c r="D93" s="101">
         <f t="shared" si="10"/>
         <v>9.3643223824179112E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="15">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="15">
         <v>44760</v>
       </c>
-      <c r="C92" s="22">
+      <c r="C94" s="33">
         <v>43.889999000000003</v>
       </c>
-      <c r="D92" s="111">
+      <c r="D94" s="101">
         <f t="shared" si="10"/>
         <v>0.1114205312017964</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="15">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="15">
         <v>44753</v>
       </c>
-      <c r="C93" s="22">
+      <c r="C95" s="33">
         <v>39.490001999999997</v>
       </c>
-      <c r="D93" s="111">
+      <c r="D95" s="101">
         <f t="shared" si="10"/>
         <v>-8.7147391916199468E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="15">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="15">
         <v>44746</v>
       </c>
-      <c r="C94" s="22">
+      <c r="C96" s="33">
         <v>43.259998000000003</v>
       </c>
-      <c r="D94" s="111">
+      <c r="D96" s="101">
         <f t="shared" si="10"/>
         <v>-1.7711239379853638E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="15">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="15">
         <v>44739</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C97" s="33">
         <v>44.040000999999997</v>
       </c>
-      <c r="D95" s="111">
+      <c r="D97" s="101">
         <f t="shared" si="10"/>
         <v>-3.6112892013851927E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="15">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="15">
         <v>44732</v>
       </c>
-      <c r="C96" s="22">
+      <c r="C98" s="33">
         <v>45.689999</v>
       </c>
-      <c r="D96" s="111">
+      <c r="D98" s="101">
         <f t="shared" si="10"/>
         <v>1.1512088178529556E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="15">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="15">
         <v>44725</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C99" s="33">
         <v>45.169998</v>
       </c>
-      <c r="D97" s="111">
+      <c r="D99" s="101">
         <f t="shared" si="10"/>
         <v>-0.11047658744538369</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="15">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="15">
         <v>44718</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C100" s="33">
         <v>50.779998999999997</v>
       </c>
-      <c r="D98" s="111">
+      <c r="D100" s="101">
         <f t="shared" si="10"/>
         <v>-6.7058625757854151E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="15">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="15">
         <v>44711</v>
       </c>
-      <c r="C99" s="22">
+      <c r="C101" s="33">
         <v>54.43</v>
       </c>
-      <c r="D99" s="111">
+      <c r="D101" s="101">
         <f t="shared" si="10"/>
         <v>-6.0262602639248319E-3</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="15">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="15">
         <v>44704</v>
       </c>
-      <c r="C100" s="22">
+      <c r="C102" s="33">
         <v>54.759998000000003</v>
       </c>
-      <c r="D100" s="111">
+      <c r="D102" s="101">
         <f t="shared" si="10"/>
         <v>3.8301022438338217E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="15">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="15">
         <v>44697</v>
       </c>
-      <c r="C101" s="22">
+      <c r="C103" s="33">
         <v>52.740001999999997</v>
       </c>
-      <c r="D101" s="111">
+      <c r="D103" s="101">
         <f t="shared" si="10"/>
         <v>-7.2132266009852342E-2</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="15">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="15">
         <v>44690</v>
       </c>
-      <c r="C102" s="22">
+      <c r="C104" s="33">
         <v>56.84</v>
       </c>
-      <c r="D102" s="111">
+      <c r="D104" s="101">
         <f t="shared" si="10"/>
         <v>-5.8628700585811488E-2</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="15">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="15">
         <v>44683</v>
       </c>
-      <c r="C103" s="22">
+      <c r="C105" s="33">
         <v>60.380001</v>
       </c>
-      <c r="D103" s="111">
+      <c r="D105" s="101">
         <f t="shared" si="10"/>
         <v>2.0104781552708006E-2</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="15">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="15">
         <v>44676</v>
       </c>
-      <c r="C104" s="22">
+      <c r="C106" s="33">
         <v>59.189999</v>
       </c>
-      <c r="D104" s="111">
+      <c r="D106" s="101">
         <f t="shared" si="10"/>
         <v>-3.5050554287577529E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="15">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="15">
         <v>44669</v>
       </c>
-      <c r="C105" s="22">
+      <c r="C107" s="33">
         <v>61.34</v>
       </c>
-      <c r="D105" s="111">
+      <c r="D107" s="101">
         <f t="shared" si="10"/>
         <v>3.4401366516043419E-2</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="15">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="15">
         <v>44662</v>
       </c>
-      <c r="C106" s="22">
+      <c r="C108" s="33">
         <v>59.299999</v>
       </c>
-      <c r="D106" s="111">
+      <c r="D108" s="101">
         <f t="shared" si="10"/>
         <v>-3.1678689363857315E-2</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="15">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="15">
         <v>44655</v>
       </c>
-      <c r="C107" s="22">
+      <c r="C109" s="33">
         <v>61.240001999999997</v>
       </c>
-      <c r="D107" s="111">
+      <c r="D109" s="101">
         <f t="shared" si="10"/>
         <v>-0.11528458371446715</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="15">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="15">
         <v>44648</v>
       </c>
-      <c r="C108" s="22">
+      <c r="C110" s="33">
         <v>69.220000999999996</v>
       </c>
-      <c r="D108" s="111">
+      <c r="D110" s="101">
         <f t="shared" si="10"/>
         <v>-5.2689188449432045E-2</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="15">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="15">
         <v>44641</v>
       </c>
-      <c r="C109" s="22">
+      <c r="C111" s="33">
         <v>73.069999999999993</v>
       </c>
-      <c r="D109" s="111">
+      <c r="D111" s="101">
         <f t="shared" si="10"/>
         <v>-7.7864691516019602E-2</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="15">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="15">
         <v>44634</v>
       </c>
-      <c r="C110" s="22">
+      <c r="C112" s="33">
         <v>79.239998</v>
       </c>
-      <c r="D110" s="111">
+      <c r="D112" s="101">
         <f t="shared" si="10"/>
         <v>0.20425523384854549</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="15">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="15">
         <v>44627</v>
       </c>
-      <c r="C111" s="22">
+      <c r="C113" s="33">
         <v>65.800003000000004</v>
       </c>
-      <c r="D111" s="111">
+      <c r="D113" s="101">
         <f t="shared" si="10"/>
         <v>-0.11308800072548864</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="15">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="15">
         <v>44620</v>
       </c>
-      <c r="C112" s="22">
+      <c r="C114" s="33">
         <v>74.190002000000007</v>
       </c>
-      <c r="D112" s="111">
+      <c r="D114" s="101">
         <f t="shared" si="10"/>
         <v>-0.12076315906956003</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="15">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="15">
         <v>44613</v>
       </c>
-      <c r="C113" s="22">
+      <c r="C115" s="33">
         <v>84.379997000000003</v>
       </c>
-      <c r="D113" s="111">
+      <c r="D115" s="101">
         <f t="shared" si="10"/>
         <v>3.9034577503196388E-2</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="15">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="15">
         <v>44606</v>
       </c>
-      <c r="C114" s="22">
+      <c r="C116" s="33">
         <v>81.209998999999996</v>
       </c>
-      <c r="D114" s="111">
+      <c r="D116" s="101">
         <f t="shared" si="10"/>
         <v>-2.5441053031535987E-2</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="15">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="15">
         <v>44599</v>
       </c>
-      <c r="C115" s="22">
+      <c r="C117" s="33">
         <v>83.330001999999993</v>
       </c>
-      <c r="D115" s="111">
+      <c r="D117" s="101">
         <f t="shared" si="10"/>
         <v>3.6185079238624018E-2</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="15">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="15">
         <v>44592</v>
       </c>
-      <c r="C116" s="22">
+      <c r="C118" s="33">
         <v>80.419998000000007</v>
       </c>
-      <c r="D116" s="111">
+      <c r="D118" s="101">
         <f t="shared" si="10"/>
         <v>2.7862986397315659E-2</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="15">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="15">
         <v>44585</v>
       </c>
-      <c r="C117" s="22">
+      <c r="C119" s="33">
         <v>78.239998</v>
       </c>
-      <c r="D117" s="111">
+      <c r="D119" s="101">
         <f t="shared" si="10"/>
         <v>-7.5395943911748642E-2</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="15">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="15">
         <v>44578</v>
       </c>
-      <c r="C118" s="22">
+      <c r="C120" s="33">
         <v>84.620002999999997</v>
       </c>
-      <c r="D118" s="111">
+      <c r="D120" s="101">
         <f t="shared" si="10"/>
         <v>-7.3165386423919454E-2</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="15">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="15">
         <v>44571</v>
       </c>
-      <c r="C119" s="22">
+      <c r="C121" s="33">
         <v>91.300003000000004</v>
       </c>
-      <c r="D119" s="111">
+      <c r="D121" s="101">
         <f t="shared" si="10"/>
         <v>9.4330612489512022E-2</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="15">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="15">
         <v>44564</v>
       </c>
-      <c r="C120" s="22">
+      <c r="C122" s="33">
         <v>83.43</v>
       </c>
-      <c r="D120" s="111">
+      <c r="D122" s="101">
         <f t="shared" si="10"/>
         <v>-8.147089989054479E-2</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="15">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="15">
         <v>44557</v>
       </c>
-      <c r="C121" s="22">
+      <c r="C123" s="33">
         <v>90.830001999999993</v>
       </c>
-      <c r="D121" s="111">
+      <c r="D123" s="101">
         <f t="shared" si="10"/>
         <v>-1.0889687228799128E-2</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="15">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="15">
         <v>44550</v>
       </c>
-      <c r="C122" s="22">
+      <c r="C124" s="33">
         <v>91.830001999999993</v>
       </c>
-      <c r="D122" s="111">
+      <c r="D124" s="101">
         <f t="shared" si="10"/>
         <v>6.2970286641628404E-2</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="15">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="15">
         <v>44543</v>
       </c>
-      <c r="C123" s="22">
+      <c r="C125" s="33">
         <v>86.389999000000003</v>
       </c>
-      <c r="D123" s="111">
+      <c r="D125" s="101">
         <f t="shared" si="10"/>
         <v>7.1112148182701507E-3</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="15">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="15">
         <v>44536</v>
       </c>
-      <c r="C124" s="22">
+      <c r="C126" s="33">
         <v>85.779999000000004</v>
       </c>
-      <c r="D124" s="111">
+      <c r="D126" s="101">
         <f t="shared" si="10"/>
         <v>-2.5448739790345565E-2</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="15">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="15">
         <v>44529</v>
       </c>
-      <c r="C125" s="22">
+      <c r="C127" s="33">
         <v>88.019997000000004</v>
       </c>
-      <c r="D125" s="111">
+      <c r="D127" s="101">
         <f t="shared" si="10"/>
         <v>-9.5932661298966049E-2</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="15">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="15">
         <v>44522</v>
       </c>
-      <c r="C126" s="22">
+      <c r="C128" s="33">
         <v>97.360000999999997</v>
       </c>
-      <c r="D126" s="111">
+      <c r="D128" s="101">
         <f t="shared" si="10"/>
         <v>-3.6421218958618273E-2</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="15">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="15">
         <v>44515</v>
       </c>
-      <c r="C127" s="22">
+      <c r="C129" s="33">
         <v>101.040001</v>
       </c>
-      <c r="D127" s="111">
+      <c r="D129" s="101">
         <f t="shared" si="10"/>
         <v>2.516236861124943E-2</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="15">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="15">
         <v>44508</v>
       </c>
-      <c r="C128" s="22">
+      <c r="C130" s="33">
         <v>98.559997999999993</v>
       </c>
-      <c r="D128" s="111">
+      <c r="D130" s="101">
         <f t="shared" si="10"/>
         <v>5.4230400133284729E-2</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="15">
-        <v>44501</v>
-      </c>
-      <c r="C129" s="22">
-        <v>93.489998</v>
-      </c>
-      <c r="D129" s="111">
-        <f t="shared" si="10"/>
-        <v>5.2815257224709811E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="15">
-        <v>44494</v>
-      </c>
-      <c r="C130" s="22">
-        <v>88.800003000000004</v>
-      </c>
-      <c r="D130" s="111">
-        <f t="shared" si="10"/>
-        <v>3.5930960850082183E-2</v>
-      </c>
-    </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="15">
-        <v>44487</v>
-      </c>
-      <c r="C131" s="22">
-        <v>85.720000999999996</v>
-      </c>
-      <c r="D131" s="111">
-        <f t="shared" ref="D131:D144" si="11">C131/C132-1</f>
-        <v>3.1528316041596005E-2</v>
+        <v>44501</v>
+      </c>
+      <c r="C131" s="33">
+        <v>93.489998</v>
+      </c>
+      <c r="D131" s="101">
+        <f t="shared" ref="D131:D145" si="11">C131/C132-1</f>
+        <v>5.2815257224709811E-2</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="15">
+        <v>44494</v>
+      </c>
+      <c r="C132" s="33">
+        <v>88.800003000000004</v>
+      </c>
+      <c r="D132" s="101">
+        <f t="shared" si="11"/>
+        <v>3.5930960850082183E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="15">
+        <v>44487</v>
+      </c>
+      <c r="C133" s="33">
+        <v>85.720000999999996</v>
+      </c>
+      <c r="D133" s="101">
+        <f t="shared" si="11"/>
+        <v>3.1528316041596005E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="15">
         <v>44480</v>
       </c>
-      <c r="C132" s="22">
+      <c r="C134" s="33">
         <v>83.099997999999999</v>
       </c>
-      <c r="D132" s="111">
+      <c r="D134" s="101">
         <f t="shared" si="11"/>
         <v>0.10051643224694917</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="15">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="15">
         <v>44473</v>
       </c>
-      <c r="C133" s="22">
+      <c r="C135" s="33">
         <v>75.510002</v>
       </c>
-      <c r="D133" s="111">
+      <c r="D135" s="101">
         <f t="shared" si="11"/>
         <v>-5.6478783662111565E-2</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="15">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="15">
         <v>44466</v>
       </c>
-      <c r="C134" s="22">
+      <c r="C136" s="33">
         <v>80.029999000000004</v>
       </c>
-      <c r="D134" s="111">
+      <c r="D136" s="101">
         <f t="shared" si="11"/>
         <v>-1.7462767056574124E-3</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="15">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="15">
         <v>44459</v>
       </c>
-      <c r="C135" s="22">
+      <c r="C137" s="33">
         <v>80.169998000000007</v>
       </c>
-      <c r="D135" s="111">
+      <c r="D137" s="101">
         <f t="shared" si="11"/>
         <v>-1.4141687161829619E-2</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="15">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="15">
         <v>44452</v>
       </c>
-      <c r="C136" s="22">
+      <c r="C138" s="33">
         <v>81.319999999999993</v>
       </c>
-      <c r="D136" s="111">
+      <c r="D138" s="101">
         <f t="shared" si="11"/>
         <v>-1.6805694798763149E-2</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="15">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="15">
         <v>44445</v>
       </c>
-      <c r="C137" s="22">
+      <c r="C139" s="33">
         <v>82.709998999999996</v>
       </c>
-      <c r="D137" s="111">
+      <c r="D139" s="101">
         <f t="shared" si="11"/>
         <v>-4.8982430160027235E-2</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="15">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="15">
         <v>44438</v>
       </c>
-      <c r="C138" s="22">
+      <c r="C140" s="33">
         <v>86.970000999999996</v>
       </c>
-      <c r="D138" s="111">
+      <c r="D140" s="101">
         <f t="shared" si="11"/>
         <v>1.5648768503401911E-2</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="15">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="15">
         <v>44431</v>
       </c>
-      <c r="C139" s="22">
+      <c r="C141" s="33">
         <v>85.629997000000003</v>
       </c>
-      <c r="D139" s="111">
+      <c r="D141" s="101">
         <f t="shared" si="11"/>
         <v>0.11135617996017477</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="15">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="15">
         <v>44424</v>
       </c>
-      <c r="C140" s="22">
+      <c r="C142" s="33">
         <v>77.050003000000004</v>
       </c>
-      <c r="D140" s="111">
+      <c r="D142" s="101">
         <f t="shared" si="11"/>
         <v>-1.8096061958760457E-2</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="15">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="15">
         <v>44417</v>
       </c>
-      <c r="C141" s="22">
+      <c r="C143" s="33">
         <v>78.470000999999996</v>
       </c>
-      <c r="D141" s="111">
+      <c r="D143" s="101">
         <f t="shared" si="11"/>
         <v>0.22609376562499994</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="15">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="15">
         <v>44410</v>
       </c>
-      <c r="C142" s="22">
+      <c r="C144" s="33">
         <v>64</v>
       </c>
-      <c r="D142" s="111">
+      <c r="D144" s="101">
         <f t="shared" si="11"/>
         <v>0.10344827586206895</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="15">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="15">
         <v>44403</v>
       </c>
-      <c r="C143" s="22">
+      <c r="C145" s="33">
         <v>58</v>
       </c>
-      <c r="D143" s="111">
+      <c r="D145" s="101">
         <f t="shared" si="11"/>
         <v>-3.3333333333333326E-2</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="15">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="15">
         <v>44396</v>
       </c>
-      <c r="C144" s="22">
+      <c r="C146" s="33">
         <v>60</v>
       </c>
-      <c r="D144" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Shipping & Transportation/GXO.xlsx
+++ b/Shipping & Transportation/GXO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08A290C-4014-4709-AB09-AD887E6E5116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE716D90-1B9E-42CD-A4AF-B20327C6450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -16661,7 +16661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -25851,8 +25851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F020C3-F669-45B2-B298-2759C0C678D0}">
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C146" sqref="C2:C146"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27551,7 +27551,7 @@
         <v>203</v>
       </c>
       <c r="I63" s="97">
-        <v>51.5</v>
+        <v>51.15</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -27570,7 +27570,7 @@
       </c>
       <c r="I64" s="99">
         <f>I63*(1-I60)</f>
-        <v>57.165000000000006</v>
+        <v>56.776500000000006</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27589,7 +27589,7 @@
       </c>
       <c r="I65" s="100">
         <f>I63*(1+I61)</f>
-        <v>34.504999999999995</v>
+        <v>34.270499999999998</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">

--- a/Shipping & Transportation/GXO.xlsx
+++ b/Shipping & Transportation/GXO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Shipping &amp; Transportation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE716D90-1B9E-42CD-A4AF-B20327C6450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52917A92-4FE1-40AD-AE2B-7238F0EEB014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="90" windowWidth="14460" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="210">
   <si>
     <t>GXO</t>
   </si>
@@ -673,6 +673,18 @@
   <si>
     <t>Target Price</t>
   </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Current Liabilities</t>
+  </si>
+  <si>
+    <t>Interest / OpInc</t>
+  </si>
 </sst>
 </file>
 
@@ -771,7 +783,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,6 +822,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1332,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1359,10 +1377,8 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1471,6 +1487,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1752,6 +1784,9 @@
                 <c:pt idx="14">
                   <c:v>2590</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2456</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1892,6 +1927,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.9858127280097309E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7253551442100648E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2329,7 +2367,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$U$2:$Z$2</c:f>
+              <c:f>Model!$W$2:$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2355,7 +2393,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$U$3:$Z$3</c:f>
+              <c:f>Model!$W$3:$AB$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2493,7 +2531,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$U$25:$Z$25</c:f>
+              <c:f>Model!$W$25:$AB$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3043,6 +3081,9 @@
                 <c:pt idx="13">
                   <c:v>73</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>-37</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3248,6 +3289,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="0%">
                   <c:v>0.58695652173913038</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0%">
+                  <c:v>-2.3846153846153846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3686,7 +3730,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$U$2:$Z$2</c:f>
+              <c:f>Model!$W$2:$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3712,7 +3756,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$U$18:$Z$18</c:f>
+              <c:f>Model!$W$18:$AB$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3839,7 +3883,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$U$28:$Z$28</c:f>
+              <c:f>Model!$W$28:$AB$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4181,7 +4225,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$31</c:f>
+              <c:f>Model!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4261,7 +4305,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$31:$R$31</c:f>
+              <c:f>Model!$B$33:$R$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4303,6 +4347,9 @@
                 </c:pt>
                 <c:pt idx="14" formatCode="#,##0">
                   <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16720,7 +16767,7 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <f>Model!X32</f>
+        <f>Model!Z34</f>
         <v>495</v>
       </c>
     </row>
@@ -16732,7 +16779,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <f>Model!X43+Model!X46</f>
+        <f>Model!Z46+Model!Z50</f>
         <v>1806</v>
       </c>
     </row>
@@ -16768,7 +16815,7 @@
         <v>103</v>
       </c>
       <c r="K9" s="34">
-        <f>K2/Model!Y20</f>
+        <f>K2/Model!AA20</f>
         <v>29.931877729257643</v>
       </c>
     </row>
@@ -16777,7 +16824,7 @@
         <v>99</v>
       </c>
       <c r="K10" s="5">
-        <f>Model!Z18/Model!Y18-1</f>
+        <f>Model!AB18/Model!AA18-1</f>
         <v>0.41864628820960692</v>
       </c>
     </row>
@@ -16794,7 +16841,7 @@
         <v>101</v>
       </c>
       <c r="K12" s="33">
-        <f>K2/Model!Z22</f>
+        <f>K2/Model!AB22</f>
         <v>21.098901098901099</v>
       </c>
     </row>
@@ -16998,27 +17045,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC25" sqref="AC25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="17"/>
-    <col min="17" max="18" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="17"/>
+    <col min="16" max="16" width="11.42578125" style="110"/>
+    <col min="17" max="17" width="11.5703125" style="17" customWidth="1"/>
+    <col min="18" max="20" width="11.5703125" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>60</v>
       </c>
@@ -17061,35 +17109,38 @@
       <c r="O2" t="s">
         <v>95</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="17" t="s">
         <v>149</v>
       </c>
       <c r="R2" t="s">
         <v>150</v>
       </c>
-      <c r="U2" t="s">
+      <c r="S2" t="s">
+        <v>206</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>15</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -17110,7 +17161,7 @@
         <v>1974</v>
       </c>
       <c r="H3" s="12">
-        <f>W3-G3-F3-E3</f>
+        <f>Y3-G3-F3-E3</f>
         <v>2262</v>
       </c>
       <c r="I3" s="12">
@@ -17123,7 +17174,7 @@
         <v>2287</v>
       </c>
       <c r="L3" s="12">
-        <f>X3-K3-J3-I3</f>
+        <f>Z3-K3-J3-I3</f>
         <v>2467</v>
       </c>
       <c r="M3" s="12">
@@ -17135,30 +17186,33 @@
       <c r="O3" s="12">
         <v>2471</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="111">
         <v>2590</v>
       </c>
-      <c r="U3" s="12">
+      <c r="Q3" s="19">
+        <v>2456</v>
+      </c>
+      <c r="W3" s="12">
         <v>6094</v>
       </c>
-      <c r="V3" s="12">
+      <c r="X3" s="12">
         <v>6195</v>
       </c>
-      <c r="W3" s="12">
+      <c r="Y3" s="12">
         <v>7940</v>
       </c>
-      <c r="X3" s="12">
+      <c r="Z3" s="12">
         <v>8993</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="AA3" s="19">
         <f>SUM(M3:P3)</f>
         <v>9778</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>10280</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>151</v>
       </c>
@@ -17189,31 +17243,33 @@
       <c r="N4" s="35">
         <v>2377</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="36">
         <v>2480</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="112">
         <v>2550</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="124">
         <v>2380</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="125">
         <v>2480</v>
       </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="10"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4">
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4">
         <v>10240</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>11020</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -17234,7 +17290,7 @@
         <v>1651</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" ref="H5:H17" si="0">W5-G5-F5-E5</f>
+        <f t="shared" ref="H5:H17" si="0">Y5-G5-F5-E5</f>
         <v>1912</v>
       </c>
       <c r="I5" s="12">
@@ -17247,7 +17303,7 @@
         <v>1885</v>
       </c>
       <c r="L5" s="12">
-        <f t="shared" ref="L5:L17" si="1">X5-K5-J5-I5</f>
+        <f t="shared" ref="L5:L17" si="1">Z5-K5-J5-I5</f>
         <v>2035</v>
       </c>
       <c r="M5" s="12">
@@ -17259,27 +17315,30 @@
       <c r="O5" s="12">
         <v>2012</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="111">
         <v>2160</v>
       </c>
-      <c r="U5" s="12">
+      <c r="Q5" s="19">
+        <v>2056</v>
+      </c>
+      <c r="W5" s="12">
         <v>5112</v>
       </c>
-      <c r="V5" s="12">
+      <c r="X5" s="12">
         <v>5169</v>
       </c>
-      <c r="W5" s="12">
+      <c r="Y5" s="12">
         <v>6637</v>
       </c>
-      <c r="X5" s="12">
+      <c r="Z5" s="12">
         <v>7443</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="AA5" s="19">
         <f>SUM(M5:P5)</f>
         <v>8035</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -17325,27 +17384,30 @@
       <c r="O6" s="12">
         <v>258</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="111">
         <v>237</v>
       </c>
-      <c r="U6" s="12">
+      <c r="Q6" s="19">
+        <v>249</v>
+      </c>
+      <c r="W6" s="12">
         <v>514</v>
       </c>
-      <c r="V6" s="12">
+      <c r="X6" s="12">
         <v>611</v>
       </c>
-      <c r="W6" s="12">
+      <c r="Y6" s="12">
         <v>714</v>
       </c>
-      <c r="X6" s="12">
+      <c r="Z6" s="12">
         <v>886</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="AA6" s="19">
         <f>SUM(M6:P6)</f>
         <v>998</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -17391,27 +17453,30 @@
       <c r="O7" s="12">
         <v>101</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="111">
         <v>93</v>
       </c>
-      <c r="U7" s="12">
+      <c r="Q7" s="19">
+        <v>92</v>
+      </c>
+      <c r="W7" s="12">
         <v>302</v>
       </c>
-      <c r="V7" s="12">
+      <c r="X7" s="12">
         <v>323</v>
       </c>
-      <c r="W7" s="12">
+      <c r="Y7" s="12">
         <v>335</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Z7" s="12">
         <v>329</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="AA7" s="19">
         <f>SUM(M7:P7)</f>
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -17457,27 +17522,31 @@
       <c r="O8" s="12">
         <v>3</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="111">
         <v>12</v>
       </c>
-      <c r="U8" s="12">
+      <c r="Q8" s="19">
+        <f>19+63</f>
+        <v>82</v>
+      </c>
+      <c r="W8" s="12">
         <v>1</v>
       </c>
-      <c r="V8" s="12">
+      <c r="X8" s="12">
         <v>47</v>
       </c>
-      <c r="W8" s="12">
+      <c r="Y8" s="12">
         <v>99</v>
       </c>
-      <c r="X8" s="12">
+      <c r="Z8" s="12">
         <v>61</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="AA8" s="19">
         <f>SUM(M8:P8)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -17523,27 +17592,30 @@
       <c r="O9" s="12">
         <v>7</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="111">
         <v>1</v>
       </c>
-      <c r="U9" s="12">
+      <c r="Q9" s="19">
+        <v>16</v>
+      </c>
+      <c r="W9" s="12">
         <v>15</v>
       </c>
-      <c r="V9" s="12">
+      <c r="X9" s="12">
         <v>29</v>
       </c>
-      <c r="W9" s="12">
+      <c r="Y9" s="12">
         <v>4</v>
       </c>
-      <c r="X9" s="12">
+      <c r="Z9" s="12">
         <v>32</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="AA9" s="19">
         <f>SUM(M9:P9)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -17585,7 +17657,7 @@
         <v>72</v>
       </c>
       <c r="L10" s="13">
-        <f>X10-K10-J10-I10</f>
+        <f>Z10-K10-J10-I10</f>
         <v>74</v>
       </c>
       <c r="M10" s="13">
@@ -17600,32 +17672,36 @@
         <f t="shared" ref="O10:P10" si="3">O3-O5-O6-O7-O8-O9</f>
         <v>90</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="113">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="U10" s="13">
-        <f>U3-U5-U6-U7-U8-U9</f>
-        <v>150</v>
-      </c>
-      <c r="V10" s="13">
-        <f>V3-V5-V6-V7-V8-V9</f>
-        <v>16</v>
+      <c r="Q10" s="18">
+        <f t="shared" ref="Q10:R10" si="4">Q3-Q5-Q6-Q7-Q8-Q9</f>
+        <v>-39</v>
       </c>
       <c r="W10" s="13">
         <f>W3-W5-W6-W7-W8-W9</f>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X10" s="13">
         <f>X3-X5-X6-X7-X8-X9</f>
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="Y10" s="13">
         <f>Y3-Y5-Y6-Y7-Y8-Y9</f>
+        <v>151</v>
+      </c>
+      <c r="Z10" s="13">
+        <f>Z3-Z5-Z6-Z7-Z8-Z9</f>
+        <v>242</v>
+      </c>
+      <c r="AA10" s="13">
+        <f>AA3-AA5-AA6-AA7-AA8-AA9</f>
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -17671,27 +17747,30 @@
       <c r="O11" s="12">
         <v>7</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="111">
         <v>-7</v>
       </c>
-      <c r="U11" s="12">
+      <c r="Q11" s="19">
+        <v>6</v>
+      </c>
+      <c r="W11" s="12">
         <v>1</v>
       </c>
-      <c r="V11" s="12">
+      <c r="X11" s="12">
         <v>2</v>
       </c>
-      <c r="W11" s="12">
+      <c r="Y11" s="12">
         <v>23</v>
       </c>
-      <c r="X11" s="12">
+      <c r="Z11" s="12">
         <v>51</v>
       </c>
-      <c r="Y11" s="19">
+      <c r="AA11" s="19">
         <f>SUM(M11:P11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -17737,27 +17816,30 @@
       <c r="O12" s="14">
         <v>-14</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="114">
         <v>-12</v>
       </c>
-      <c r="U12" s="12">
+      <c r="Q12" s="25">
+        <v>-13</v>
+      </c>
+      <c r="W12" s="12">
         <v>-33</v>
       </c>
-      <c r="V12" s="12">
+      <c r="X12" s="12">
         <v>-24</v>
       </c>
-      <c r="W12" s="12">
+      <c r="Y12" s="12">
         <v>-21</v>
       </c>
-      <c r="X12" s="12">
+      <c r="Z12" s="12">
         <v>-29</v>
       </c>
-      <c r="Y12" s="19">
+      <c r="AA12" s="19">
         <f>SUM(M12:P12)</f>
         <v>-53</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -17775,71 +17857,75 @@
         <v>127</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" ref="F13:O13" si="4">F14+F9+F8+F7</f>
+        <f t="shared" ref="F13:O13" si="5">F14+F9+F8+F7</f>
         <v>144</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>158</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>157</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
       <c r="L13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>146</v>
       </c>
       <c r="N13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>179</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>194</v>
       </c>
-      <c r="P13" s="19">
-        <f t="shared" ref="P13" si="5">P14+P9+P8+P7</f>
+      <c r="P13" s="111">
+        <f t="shared" ref="P13" si="6">P14+P9+P8+P7</f>
         <v>174</v>
       </c>
-      <c r="U13" s="12">
-        <f>U14+U9+U8+U7</f>
+      <c r="Q13" s="19">
+        <f>Q14+Q9+Q8+Q7</f>
+        <v>144</v>
+      </c>
+      <c r="W13" s="12">
+        <f>W14+W9+W8+W7</f>
         <v>436</v>
       </c>
-      <c r="V13" s="12">
-        <f t="shared" ref="V13:W13" si="6">V14+V9+V8+V7</f>
+      <c r="X13" s="12">
+        <f t="shared" ref="X13:Y13" si="7">X14+X9+X8+X7</f>
         <v>393</v>
       </c>
-      <c r="W13" s="12">
-        <f t="shared" si="6"/>
+      <c r="Y13" s="12">
+        <f t="shared" si="7"/>
         <v>591</v>
       </c>
-      <c r="X13" s="12">
-        <f>X14+X9+X8+X7</f>
+      <c r="Z13" s="12">
+        <f>Z14+Z9+Z8+Z7</f>
         <v>686</v>
       </c>
-      <c r="Y13" s="19">
+      <c r="AA13" s="19">
         <f>SUM(M13:P13)</f>
         <v>693</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -17853,75 +17939,79 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <f t="shared" ref="E14:N14" si="7">E10+E11+E12</f>
+        <f t="shared" ref="E14:N14" si="8">E10+E11+E12</f>
         <v>26</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="I14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="J14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="K14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="L14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="M14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" ref="O14:P14" si="8">O10+O11+O12</f>
+        <f t="shared" ref="O14:P14" si="9">O10+O11+O12</f>
         <v>83</v>
       </c>
-      <c r="P14" s="18">
-        <f t="shared" si="8"/>
+      <c r="P14" s="113">
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
-      <c r="U14" s="13">
-        <f>U10+U11+U12</f>
-        <v>118</v>
-      </c>
-      <c r="V14" s="13">
-        <f>V10+V11+V12</f>
-        <v>-6</v>
+      <c r="Q14" s="18">
+        <f>Q10+Q11+Q12</f>
+        <v>-46</v>
       </c>
       <c r="W14" s="13">
         <f>W10+W11+W12</f>
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="X14" s="13">
         <f>X10+X11+X12</f>
-        <v>264</v>
+        <v>-6</v>
       </c>
       <c r="Y14" s="13">
         <f>Y10+Y11+Y12</f>
+        <v>153</v>
+      </c>
+      <c r="Z14" s="13">
+        <f>Z10+Z11+Z12</f>
+        <v>264</v>
+      </c>
+      <c r="AA14" s="13">
+        <f>AA10+AA11+AA12</f>
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -17967,27 +18057,30 @@
       <c r="O15" s="12">
         <v>-15</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="111">
         <v>5</v>
       </c>
-      <c r="U15" s="12">
+      <c r="Q15" s="19">
+        <v>10</v>
+      </c>
+      <c r="W15" s="12">
         <v>-37</v>
       </c>
-      <c r="V15" s="12">
+      <c r="X15" s="12">
         <v>-16</v>
       </c>
-      <c r="W15" s="12">
+      <c r="Y15" s="12">
         <v>8</v>
       </c>
-      <c r="X15" s="12">
+      <c r="Z15" s="12">
         <v>-64</v>
       </c>
-      <c r="Y15" s="19">
+      <c r="AA15" s="19">
         <f>SUM(M15:P15)</f>
         <v>-33</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -18001,75 +18094,79 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <f t="shared" ref="E16:N16" si="9">E14+E15</f>
+        <f t="shared" ref="E16:N16" si="10">E14+E15</f>
         <v>17</v>
       </c>
       <c r="F16" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" si="9"/>
-        <v>73</v>
-      </c>
-      <c r="H16" s="13">
-        <f t="shared" si="9"/>
-        <v>57</v>
-      </c>
-      <c r="I16" s="13">
-        <f t="shared" si="9"/>
-        <v>38</v>
-      </c>
-      <c r="J16" s="13">
-        <f t="shared" si="9"/>
-        <v>52</v>
-      </c>
-      <c r="K16" s="13">
-        <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="L16" s="13">
-        <f t="shared" si="9"/>
-        <v>46</v>
-      </c>
-      <c r="M16" s="13">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="N16" s="13">
-        <f t="shared" si="9"/>
-        <v>66</v>
-      </c>
-      <c r="O16" s="13">
-        <f t="shared" ref="O16:P16" si="10">O14+O15</f>
-        <v>68</v>
-      </c>
-      <c r="P16" s="18">
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="U16" s="13">
-        <f>U14+U15</f>
-        <v>81</v>
-      </c>
-      <c r="V16" s="13">
-        <f>V14+V15</f>
-        <v>-22</v>
+      <c r="H16" s="13">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" ref="O16:P16" si="11">O14+O15</f>
+        <v>68</v>
+      </c>
+      <c r="P16" s="113">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="Q16" s="18">
+        <f t="shared" ref="Q16" si="12">Q14+Q15</f>
+        <v>-36</v>
       </c>
       <c r="W16" s="13">
         <f>W14+W15</f>
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="X16" s="13">
         <f>X14+X15</f>
+        <v>-22</v>
+      </c>
+      <c r="Y16" s="13">
+        <f>Y14+Y15</f>
+        <v>161</v>
+      </c>
+      <c r="Z16" s="13">
+        <f>Z14+Z15</f>
         <v>200</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="AA16" s="18">
         <f>SUM(M16:P16)</f>
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -18115,27 +18212,30 @@
       <c r="O17" s="12">
         <v>-2</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="111">
         <v>0</v>
       </c>
-      <c r="U17" s="12">
+      <c r="Q17" s="19">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="12">
         <v>-21</v>
       </c>
-      <c r="V17" s="12">
+      <c r="X17" s="12">
         <v>-9</v>
       </c>
-      <c r="W17" s="12">
+      <c r="Y17" s="12">
         <v>-8</v>
       </c>
-      <c r="X17" s="12">
+      <c r="Z17" s="12">
         <v>-3</v>
       </c>
-      <c r="Y17" s="19">
+      <c r="AA17" s="19">
         <f>SUM(M17:P17)</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -18149,83 +18249,87 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <f t="shared" ref="E18:N18" si="11">E16+E17</f>
+        <f t="shared" ref="E18:N18" si="13">E16+E17</f>
         <v>14</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="I18" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="J18" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>51</v>
       </c>
       <c r="K18" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63</v>
       </c>
       <c r="L18" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="M18" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="N18" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="O18" s="13">
-        <f t="shared" ref="O18:P18" si="12">O16+O17</f>
+        <f t="shared" ref="O18:P18" si="14">O16+O17</f>
         <v>66</v>
       </c>
-      <c r="P18" s="18">
-        <f t="shared" si="12"/>
+      <c r="P18" s="113">
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
-      <c r="U18" s="13">
-        <f>U16+U17</f>
-        <v>60</v>
-      </c>
-      <c r="V18" s="13">
-        <f>V16+V17</f>
-        <v>-31</v>
+      <c r="Q18" s="18">
+        <f t="shared" ref="Q18" si="15">Q16+Q17</f>
+        <v>-37</v>
       </c>
       <c r="W18" s="13">
         <f>W16+W17</f>
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="X18" s="13">
         <f>X16+X17</f>
+        <v>-31</v>
+      </c>
+      <c r="Y18" s="13">
+        <f>Y16+Y17</f>
+        <v>153</v>
+      </c>
+      <c r="Z18" s="13">
+        <f>Z16+Z17</f>
         <v>197</v>
       </c>
-      <c r="Y18" s="18">
-        <f>Y16+Y17</f>
+      <c r="AA18" s="18">
+        <f>AA16+AA17</f>
         <v>229</v>
       </c>
-      <c r="Z18" s="1">
-        <f>Z22*Z19</f>
+      <c r="AB18" s="1">
+        <f>AB22*AB19</f>
         <v>324.87</v>
       </c>
-      <c r="AA18" s="1">
-        <f>AA22*AA19</f>
+      <c r="AC18" s="1">
+        <f>AC22*AC19</f>
         <v>380.8</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -18269,32 +18373,35 @@
       <c r="O19" s="12">
         <v>119</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="111">
         <v>119</v>
       </c>
-      <c r="U19" s="12">
-        <v>114</v>
-      </c>
-      <c r="V19" s="12">
-        <v>114</v>
+      <c r="Q19" s="19">
+        <v>119.273</v>
       </c>
       <c r="W19" s="12">
         <v>114</v>
       </c>
       <c r="X19" s="12">
+        <v>114</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>114</v>
+      </c>
+      <c r="Z19" s="12">
         <v>117</v>
       </c>
-      <c r="Y19" s="17">
+      <c r="AA19" s="17">
         <v>119</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>119</v>
       </c>
-      <c r="AA19" s="12">
+      <c r="AC19" s="12">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -18320,19 +18427,19 @@
         <v>0.63157894736842102</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" ref="H20:K20" si="13">H18/H19</f>
+        <f t="shared" ref="H20:K20" si="16">H18/H19</f>
         <v>0.49122807017543857</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.32456140350877194</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.43965517241379309</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.53389830508474578</v>
       </c>
       <c r="L20" s="2">
@@ -18348,35 +18455,39 @@
         <v>0.55084745762711862</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" ref="O20:P20" si="14">O18/O19</f>
+        <f t="shared" ref="O20:P20" si="17">O18/O19</f>
         <v>0.55462184873949583</v>
       </c>
-      <c r="P20" s="26">
-        <f t="shared" si="14"/>
+      <c r="P20" s="115">
+        <f t="shared" si="17"/>
         <v>0.61344537815126055</v>
       </c>
-      <c r="U20" s="2">
-        <f>U18/U19</f>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="V20" s="2">
-        <f>V18/V19</f>
-        <v>-0.27192982456140352</v>
+      <c r="Q20" s="26">
+        <f t="shared" ref="Q20" si="18">Q18/Q19</f>
+        <v>-0.31021270530631412</v>
       </c>
       <c r="W20" s="2">
         <f>W18/W19</f>
-        <v>1.3421052631578947</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="X20" s="2">
         <f>X18/X19</f>
+        <v>-0.27192982456140352</v>
+      </c>
+      <c r="Y20" s="2">
+        <f>Y18/Y19</f>
+        <v>1.3421052631578947</v>
+      </c>
+      <c r="Z20" s="2">
+        <f>Z18/Z19</f>
         <v>1.6837606837606838</v>
       </c>
-      <c r="Y20" s="27">
-        <f>Y18/Y19</f>
+      <c r="AA20" s="27">
+        <f>AA18/AA19</f>
         <v>1.9243697478991597</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>165</v>
       </c>
@@ -18414,17 +18525,17 @@
       <c r="O21" s="31">
         <v>0.69</v>
       </c>
-      <c r="P21" s="32">
+      <c r="P21" s="116">
         <v>0.7</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+      <c r="Q21" s="32"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="27"/>
-    </row>
-    <row r="22" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="27"/>
+    </row>
+    <row r="22" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>164</v>
       </c>
@@ -18432,58 +18543,58 @@
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="38">
+      <c r="F22" s="37">
         <v>0.307</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="37">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="37">
         <v>0.51</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="37">
         <v>0.51</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="37">
         <v>0.621</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="37">
         <v>0.69499999999999995</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="37">
         <v>0.75</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="37">
         <v>0.43</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="37">
         <v>0.61</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="37">
         <v>0.66</v>
       </c>
-      <c r="P22" s="39">
+      <c r="P22" s="117">
         <v>0.68</v>
       </c>
-      <c r="Q22" s="10">
-        <v>0.45</v>
-      </c>
+      <c r="Q22" s="123"/>
       <c r="R22" s="29">
         <v>0.64</v>
       </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="122"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="1">
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="1">
         <v>2.73</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AC22" s="1">
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -18497,76 +18608,80 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5">
-        <f t="shared" ref="E23:N23" si="15">E3/E5-1</f>
+        <f t="shared" ref="E23:N23" si="19">E3/E5-1</f>
         <v>0.1986842105263158</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.21106821106821116</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.19563900666262879</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.18305439330543938</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.1916475972540046</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.21464788732394369</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.21326259946949611</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.21228501228501218</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.21878279118572919</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.22330097087378631</v>
       </c>
       <c r="O23" s="23">
         <f>O3/O5-1</f>
         <v>0.22813121272365811</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="23">
         <f>P3/P5-1</f>
         <v>0.19907407407407418</v>
       </c>
-      <c r="U23" s="5">
-        <f t="shared" ref="U23:X23" si="16">U3/U5-1</f>
+      <c r="Q23" s="7">
+        <f>Q3/Q5-1</f>
+        <v>0.19455252918287935</v>
+      </c>
+      <c r="W23" s="5">
+        <f t="shared" ref="W23:Z23" si="20">W3/W5-1</f>
         <v>0.19209702660406891</v>
       </c>
-      <c r="V23" s="5">
-        <f t="shared" si="16"/>
+      <c r="X23" s="5">
+        <f t="shared" si="20"/>
         <v>0.19849100406268128</v>
       </c>
-      <c r="W23" s="5">
-        <f t="shared" si="16"/>
+      <c r="Y23" s="5">
+        <f t="shared" si="20"/>
         <v>0.19632364019888504</v>
       </c>
-      <c r="X23" s="23">
-        <f t="shared" si="16"/>
+      <c r="Z23" s="23">
+        <f t="shared" si="20"/>
         <v>0.2082493618164718</v>
       </c>
-      <c r="Y23" s="7">
-        <f>Y3/Y5-1</f>
+      <c r="AA23" s="7">
+        <f>AA3/AA5-1</f>
         <v>0.21692594897324202</v>
       </c>
-      <c r="Z23" s="5"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -18580,83 +18695,87 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6">
-        <f t="shared" ref="E24:N24" si="17">E18/E3</f>
+        <f t="shared" ref="E24:N24" si="21">E18/E3</f>
         <v>7.6838638858397366E-3</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5.8448459086078638E-3</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.64741641337386E-2</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2.475685234305924E-2</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.7762842054728757E-2</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2.3654916512059369E-2</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2.7547004809794492E-2</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.8646128901499796E-2</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0761945759793371E-2</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2.7151211361737676E-2</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" ref="O24:P24" si="18">O18/O3</f>
+        <f t="shared" ref="O24:P24" si="22">O18/O3</f>
         <v>2.6709834075273168E-2</v>
       </c>
-      <c r="P24" s="8">
-        <f t="shared" si="18"/>
+      <c r="P24" s="118">
+        <f t="shared" si="22"/>
         <v>2.8185328185328186E-2</v>
       </c>
-      <c r="U24" s="6">
-        <f t="shared" ref="U24:Y24" si="19">U18/U3</f>
+      <c r="Q24" s="8">
+        <f t="shared" ref="Q24" si="23">Q18/Q3</f>
+        <v>-1.506514657980456E-2</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" ref="W24:AA24" si="24">W18/W3</f>
         <v>9.8457499179520833E-3</v>
       </c>
-      <c r="V24" s="6">
-        <f t="shared" si="19"/>
+      <c r="X24" s="6">
+        <f t="shared" si="24"/>
         <v>-5.0040355125100886E-3</v>
       </c>
-      <c r="W24" s="6">
-        <f t="shared" si="19"/>
+      <c r="Y24" s="6">
+        <f t="shared" si="24"/>
         <v>1.9269521410579346E-2</v>
       </c>
-      <c r="X24" s="6">
-        <f t="shared" si="19"/>
+      <c r="Z24" s="6">
+        <f t="shared" si="24"/>
         <v>2.1905926831980428E-2</v>
       </c>
-      <c r="Y24" s="8">
-        <f t="shared" si="19"/>
+      <c r="AA24" s="8">
+        <f t="shared" si="24"/>
         <v>2.341992227449376E-2</v>
       </c>
-      <c r="Z24" s="6">
-        <f>Z18/Z4</f>
+      <c r="AB24" s="6">
+        <f>AB18/AB4</f>
         <v>3.1725585937500002E-2</v>
       </c>
-      <c r="AA24" s="6">
-        <f>AA18/AA4</f>
+      <c r="AC24" s="6">
+        <f>AC18/AC4</f>
         <v>3.455535390199637E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -18665,72 +18784,76 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6">
-        <f t="shared" ref="F25:P25" si="20">F3/B3-1</f>
+        <f t="shared" ref="F25:Q25" si="25">F3/B3-1</f>
         <v>0.3395017793594306</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.2462121212121211</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.14324917672886928</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.14558979808714123</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.1585612968591692</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>9.0627763041556175E-2</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.11521843494959194</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.11038961038961048</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>8.0454744206383877E-2</v>
       </c>
-      <c r="P25" s="8">
-        <f t="shared" si="20"/>
+      <c r="P25" s="118">
+        <f t="shared" si="25"/>
         <v>4.9858127280097309E-2</v>
       </c>
-      <c r="V25" s="6">
-        <f>V3/U3-1</f>
-        <v>1.6573679028552668E-2</v>
-      </c>
-      <c r="W25" s="6">
-        <f>W3/V3-1</f>
-        <v>0.28167877320419699</v>
+      <c r="Q25" s="8">
+        <f t="shared" si="25"/>
+        <v>5.7253551442100648E-2</v>
       </c>
       <c r="X25" s="6">
         <f>X3/W3-1</f>
+        <v>1.6573679028552668E-2</v>
+      </c>
+      <c r="Y25" s="6">
+        <f>Y3/X3-1</f>
+        <v>0.28167877320419699</v>
+      </c>
+      <c r="Z25" s="6">
+        <f>Z3/Y3-1</f>
         <v>0.13261964735516374</v>
       </c>
-      <c r="Y25" s="8">
-        <f>Y3/X3-1</f>
+      <c r="AA25" s="8">
+        <f>AA3/Z3-1</f>
         <v>8.7290114533526086E-2</v>
       </c>
-      <c r="Z25" s="6">
-        <f>Z4/Y3-1</f>
+      <c r="AB25" s="6">
+        <f>AB4/AA3-1</f>
         <v>4.7248926160769145E-2</v>
       </c>
-      <c r="AA25" s="6">
-        <f>AA4/Z4-1</f>
+      <c r="AC25" s="6">
+        <f>AC4/AB4-1</f>
         <v>7.6171875E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -18748,56 +18871,60 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6">
-        <f t="shared" ref="I26:N26" si="21">I6/E6-1</f>
+        <f t="shared" ref="I26:N26" si="26">I6/E6-1</f>
         <v>0.11111111111111116</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.24293785310734473</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.32748538011695905</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.27692307692307683</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.35789473684210527</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.11363636363636354</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" ref="O26:P26" si="22">O6/K6-1</f>
+        <f t="shared" ref="O26:Q26" si="27">O6/K6-1</f>
         <v>0.13656387665198233</v>
       </c>
-      <c r="P26" s="8">
-        <f t="shared" si="22"/>
+      <c r="P26" s="118">
+        <f t="shared" si="27"/>
         <v>-4.8192771084337394E-2</v>
       </c>
-      <c r="V26" s="6">
-        <f t="shared" ref="V26:W26" si="23">(V6-U6)/ABS(V6)</f>
+      <c r="Q26" s="8">
+        <f t="shared" si="27"/>
+        <v>-3.4883720930232509E-2</v>
+      </c>
+      <c r="X26" s="6">
+        <f t="shared" ref="X26:Y26" si="28">(X6-W6)/ABS(X6)</f>
         <v>0.15875613747954173</v>
       </c>
-      <c r="W26" s="6">
-        <f t="shared" si="23"/>
+      <c r="Y26" s="6">
+        <f t="shared" si="28"/>
         <v>0.14425770308123248</v>
       </c>
-      <c r="X26" s="6">
-        <f>(X6-W6)/ABS(X6)</f>
+      <c r="Z26" s="6">
+        <f>(Z6-Y6)/ABS(Z6)</f>
         <v>0.19413092550790068</v>
       </c>
-      <c r="Y26" s="8">
-        <f>(Y6-X6)/ABS(Y6)</f>
+      <c r="AA26" s="8">
+        <f>(AA6-Z6)/ABS(AA6)</f>
         <v>0.11222444889779559</v>
       </c>
-      <c r="Z26" s="6"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="6"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -18815,56 +18942,60 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6">
-        <f t="shared" ref="I27:P27" si="24">I13/E13-1</f>
+        <f t="shared" ref="I27:Q27" si="29">I13/E13-1</f>
         <v>0.23622047244094491</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.21527777777777768</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.17721518987341778</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>3.7037037037036979E-2</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-7.0063694267515908E-2</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>2.2857142857142909E-2</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>4.3010752688172005E-2</v>
       </c>
-      <c r="P27" s="8">
-        <f t="shared" si="24"/>
+      <c r="P27" s="118">
+        <f t="shared" si="29"/>
         <v>3.5714285714285809E-2</v>
       </c>
-      <c r="V27" s="6">
-        <f t="shared" ref="V27:W27" si="25">(V13-U13)/ABS(U13)</f>
+      <c r="Q27" s="8">
+        <f t="shared" si="29"/>
+        <v>-1.3698630136986356E-2</v>
+      </c>
+      <c r="X27" s="6">
+        <f t="shared" ref="X27:Y27" si="30">(X13-W13)/ABS(W13)</f>
         <v>-9.862385321100918E-2</v>
       </c>
-      <c r="W27" s="6">
-        <f t="shared" si="25"/>
+      <c r="Y27" s="6">
+        <f t="shared" si="30"/>
         <v>0.50381679389312972</v>
       </c>
-      <c r="X27" s="6">
-        <f>(X13-W13)/ABS(W13)</f>
+      <c r="Z27" s="6">
+        <f>(Z13-Y13)/ABS(Y13)</f>
         <v>0.16074450084602368</v>
       </c>
-      <c r="Y27" s="8">
-        <f>(Y13-X13)/ABS(X13)</f>
+      <c r="AA27" s="8">
+        <f>(AA13-Z13)/ABS(Z13)</f>
         <v>1.020408163265306E-2</v>
       </c>
-      <c r="Z27" s="6"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB27" s="6"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -18878,1475 +19009,1742 @@
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6">
-        <f t="shared" ref="I28:N28" si="26">I16/E16-1</f>
+        <f t="shared" ref="I28:N28" si="31">I16/E16-1</f>
         <v>1.2352941176470589</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-0.12328767123287676</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-0.19298245614035092</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-0.31578947368421051</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.26923076923076916</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" ref="O28:P28" si="27">O16/K16-1</f>
+        <f t="shared" ref="O28:Q28" si="32">O16/K16-1</f>
         <v>6.25E-2</v>
       </c>
-      <c r="P28" s="8">
-        <f t="shared" si="27"/>
+      <c r="P28" s="118">
+        <f t="shared" si="32"/>
         <v>0.58695652173913038</v>
       </c>
-      <c r="V28" s="6">
-        <f t="shared" ref="V28:W28" si="28">(V16-U16)/ABS(U16)</f>
+      <c r="Q28" s="8">
+        <f t="shared" si="32"/>
+        <v>-2.3846153846153846</v>
+      </c>
+      <c r="X28" s="6">
+        <f t="shared" ref="X28:Y28" si="33">(X16-W16)/ABS(W16)</f>
         <v>-1.271604938271605</v>
       </c>
-      <c r="W28" s="6">
-        <f t="shared" si="28"/>
+      <c r="Y28" s="6">
+        <f t="shared" si="33"/>
         <v>8.3181818181818183</v>
       </c>
-      <c r="X28" s="6">
-        <f>(X16-W16)/ABS(W16)</f>
+      <c r="Z28" s="6">
+        <f>(Z16-Y16)/ABS(Y16)</f>
         <v>0.24223602484472051</v>
       </c>
-      <c r="Y28" s="8">
-        <f>(Y16-X16)/ABS(X16)</f>
+      <c r="AA28" s="8">
+        <f>(AA16-Z16)/ABS(Z16)</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="Z28" s="6">
-        <f>(Z18/Y18)-1</f>
+      <c r="AB28" s="6">
+        <f>(AB18/AA18)-1</f>
         <v>0.41864628820960692</v>
       </c>
-      <c r="AA28" s="6">
-        <f>(AA18/Z18)-1</f>
+      <c r="AC28" s="6">
+        <f>(AC18/AB18)-1</f>
         <v>0.17216117216117222</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="118">
+        <f t="shared" ref="G29:L29" si="34">-G12/G10</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="H29" s="118">
+        <f t="shared" si="34"/>
+        <v>7.9365079365079361E-2</v>
+      </c>
+      <c r="I29" s="118">
+        <f t="shared" si="34"/>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="J29" s="118">
+        <f t="shared" si="34"/>
+        <v>0.15254237288135594</v>
+      </c>
+      <c r="K29" s="118">
+        <f t="shared" si="34"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L29" s="118">
+        <f t="shared" si="34"/>
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="M29" s="118">
+        <f t="shared" ref="M29:P29" si="35">-M12/M10</f>
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="N29" s="118">
+        <f t="shared" si="35"/>
+        <v>0.14141414141414141</v>
+      </c>
+      <c r="O29" s="118">
+        <f>-O12/O10</f>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="P29" s="118">
+        <f t="shared" si="35"/>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="Q29" s="8">
+        <f>-Q12/Q10</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="8"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+    </row>
+    <row r="33" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="13">
-        <f>D32+D33-D43-D46</f>
+      <c r="D33" s="13">
+        <f>D34+D35-D46-D50</f>
         <v>879</v>
       </c>
-      <c r="E31" s="13">
-        <f t="shared" ref="E31:O31" si="29">E32+E33-E43-E46</f>
+      <c r="E33" s="13">
+        <f t="shared" ref="E33:O33" si="36">E34+E35-E46-E50</f>
         <v>0</v>
       </c>
-      <c r="F31" s="13">
-        <f>F32+F33-F43-F46</f>
+      <c r="F33" s="13">
+        <f>F34+F35-F46-F50</f>
         <v>1005</v>
       </c>
-      <c r="G31" s="13">
-        <f t="shared" si="29"/>
+      <c r="G33" s="13">
+        <f t="shared" si="36"/>
         <v>1013</v>
       </c>
-      <c r="H31" s="13">
-        <f t="shared" si="29"/>
+      <c r="H33" s="13">
+        <f t="shared" si="36"/>
         <v>879</v>
       </c>
-      <c r="I31" s="13">
-        <f t="shared" si="29"/>
+      <c r="I33" s="13">
+        <f t="shared" si="36"/>
         <v>865</v>
       </c>
-      <c r="J31" s="13">
-        <f t="shared" si="29"/>
+      <c r="J33" s="13">
+        <f t="shared" si="36"/>
         <v>59</v>
       </c>
-      <c r="K31" s="13">
-        <f t="shared" si="29"/>
+      <c r="K33" s="13">
+        <f t="shared" si="36"/>
         <v>58</v>
       </c>
-      <c r="L31" s="13">
-        <f t="shared" si="29"/>
+      <c r="L33" s="13">
+        <f t="shared" si="36"/>
         <v>336</v>
       </c>
-      <c r="M31" s="13">
-        <f t="shared" si="29"/>
+      <c r="M33" s="13">
+        <f t="shared" si="36"/>
         <v>250</v>
       </c>
-      <c r="N31" s="13">
-        <f t="shared" si="29"/>
+      <c r="N33" s="13">
+        <f t="shared" si="36"/>
         <v>364</v>
       </c>
-      <c r="O31" s="13">
-        <f t="shared" si="29"/>
+      <c r="O33" s="13">
+        <f t="shared" si="36"/>
         <v>487</v>
       </c>
-      <c r="P31" s="18">
-        <f t="shared" ref="P31" si="30">P32+P33-P43-P46</f>
+      <c r="P33" s="113">
+        <f t="shared" ref="P33:Q33" si="37">P34+P35-P46-P50</f>
         <v>574</v>
       </c>
-      <c r="V31" s="13">
-        <f t="shared" ref="V31" si="31">V32+V33-V43-V46</f>
+      <c r="Q33" s="18">
+        <f t="shared" si="37"/>
+        <v>441</v>
+      </c>
+      <c r="X33" s="13">
+        <f t="shared" ref="X33" si="38">X34+X35-X46-X50</f>
         <v>879</v>
       </c>
-      <c r="W31" s="13">
-        <f t="shared" ref="W31" si="32">W32+W33-W43-W46</f>
+      <c r="Y33" s="13">
+        <f t="shared" ref="Y33" si="39">Y34+Y35-Y46-Y50</f>
         <v>879</v>
       </c>
-      <c r="X31" s="13">
-        <f t="shared" ref="X31:Z31" si="33">X32+X33-X43-X46</f>
+      <c r="Z33" s="13">
+        <f t="shared" ref="Z33:AB33" si="40">Z34+Z35-Z46-Z50</f>
         <v>336</v>
       </c>
-      <c r="Y31" s="18">
-        <f t="shared" si="33"/>
+      <c r="AA33" s="18">
+        <f t="shared" si="40"/>
         <v>574</v>
       </c>
-      <c r="Z31" s="13">
-        <f t="shared" si="33"/>
+      <c r="AB33" s="13">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D34" s="12">
         <v>328</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12">
-        <v>326</v>
-      </c>
-      <c r="G32" s="12">
-        <v>295</v>
-      </c>
-      <c r="H32" s="12">
-        <v>333</v>
-      </c>
-      <c r="I32" s="12">
-        <v>312</v>
-      </c>
-      <c r="J32" s="12">
-        <v>384</v>
-      </c>
-      <c r="K32" s="12">
-        <v>434</v>
-      </c>
-      <c r="L32" s="12">
-        <v>495</v>
-      </c>
-      <c r="M32" s="12">
-        <v>426</v>
-      </c>
-      <c r="N32" s="12">
-        <v>305</v>
-      </c>
-      <c r="O32" s="12">
-        <v>473</v>
-      </c>
-      <c r="P32" s="19">
-        <v>468</v>
-      </c>
-      <c r="V32" s="12">
-        <v>328</v>
-      </c>
-      <c r="W32" s="12">
-        <v>333</v>
-      </c>
-      <c r="X32" s="12">
-        <v>495</v>
-      </c>
-      <c r="Y32" s="19">
-        <f t="shared" ref="Y32:Y39" si="34">P32</f>
-        <v>468</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="12">
-        <v>1224</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12">
-        <v>1297</v>
-      </c>
-      <c r="G33" s="12">
-        <v>1391</v>
-      </c>
-      <c r="H33" s="12">
-        <v>1507</v>
-      </c>
-      <c r="I33" s="12">
-        <v>1492</v>
-      </c>
-      <c r="J33" s="12">
-        <v>1560</v>
-      </c>
-      <c r="K33" s="12">
-        <v>1507</v>
-      </c>
-      <c r="L33" s="12">
-        <v>1647</v>
-      </c>
-      <c r="M33" s="12">
-        <v>1605</v>
-      </c>
-      <c r="N33" s="12">
-        <v>1719</v>
-      </c>
-      <c r="O33" s="12">
-        <v>1661</v>
-      </c>
-      <c r="P33" s="19">
-        <v>1753</v>
-      </c>
-      <c r="V33" s="12">
-        <v>1224</v>
-      </c>
-      <c r="W33" s="12">
-        <v>1507</v>
-      </c>
-      <c r="X33" s="12">
-        <v>1647</v>
-      </c>
-      <c r="Y33" s="19">
-        <f t="shared" si="34"/>
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="12">
-        <v>284</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G34" s="12">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H34" s="12">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="I34" s="12">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="J34" s="12">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="K34" s="12">
-        <v>301</v>
+        <v>434</v>
       </c>
       <c r="L34" s="12">
-        <v>286</v>
+        <v>495</v>
       </c>
       <c r="M34" s="12">
-        <v>280</v>
+        <v>426</v>
       </c>
       <c r="N34" s="12">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="O34" s="12">
-        <v>332</v>
-      </c>
-      <c r="P34" s="19">
-        <v>347</v>
-      </c>
-      <c r="V34" s="12">
-        <v>284</v>
-      </c>
-      <c r="W34" s="12">
-        <v>259</v>
+        <v>473</v>
+      </c>
+      <c r="P34" s="111">
+        <v>468</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>423</v>
       </c>
       <c r="X34" s="12">
-        <v>286</v>
-      </c>
-      <c r="Y34" s="19">
-        <f t="shared" si="34"/>
-        <v>347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="Y34" s="12">
+        <v>333</v>
+      </c>
+      <c r="Z34" s="12">
+        <v>495</v>
+      </c>
+      <c r="AA34" s="19">
+        <f t="shared" ref="AA34:AA42" si="41">P34</f>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" s="12">
-        <v>770</v>
+        <v>1224</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12">
-        <v>838</v>
+        <v>1297</v>
       </c>
       <c r="G35" s="12">
-        <v>851</v>
+        <v>1391</v>
       </c>
       <c r="H35" s="12">
-        <v>863</v>
+        <v>1507</v>
       </c>
       <c r="I35" s="12">
-        <v>833</v>
+        <v>1492</v>
       </c>
       <c r="J35" s="12">
-        <v>905</v>
+        <v>1560</v>
       </c>
       <c r="K35" s="12">
-        <v>914</v>
+        <v>1507</v>
       </c>
       <c r="L35" s="12">
-        <v>960</v>
+        <v>1647</v>
       </c>
       <c r="M35" s="12">
-        <v>964</v>
+        <v>1605</v>
       </c>
       <c r="N35" s="12">
-        <v>965</v>
+        <v>1719</v>
       </c>
       <c r="O35" s="12">
-        <v>923</v>
-      </c>
-      <c r="P35" s="19">
-        <v>953</v>
-      </c>
-      <c r="V35" s="12">
-        <v>770</v>
-      </c>
-      <c r="W35" s="12">
-        <v>863</v>
+        <v>1661</v>
+      </c>
+      <c r="P35" s="111">
+        <v>1753</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>1665</v>
       </c>
       <c r="X35" s="12">
-        <v>960</v>
-      </c>
-      <c r="Y35" s="19">
-        <f t="shared" si="34"/>
-        <v>953</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+      <c r="Y35" s="12">
+        <v>1507</v>
+      </c>
+      <c r="Z35" s="12">
+        <v>1647</v>
+      </c>
+      <c r="AA35" s="19">
+        <f t="shared" si="41"/>
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="12">
-        <v>1434</v>
+        <v>284</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12">
-        <v>1774</v>
+        <v>340</v>
       </c>
       <c r="G36" s="12">
-        <v>1790</v>
+        <v>292</v>
       </c>
       <c r="H36" s="12">
-        <v>1772</v>
+        <v>259</v>
       </c>
       <c r="I36" s="12">
-        <v>1771</v>
+        <v>226</v>
       </c>
       <c r="J36" s="12">
-        <v>1900</v>
+        <v>312</v>
       </c>
       <c r="K36" s="12">
-        <v>2058</v>
+        <v>301</v>
       </c>
       <c r="L36" s="12">
-        <v>2227</v>
+        <v>286</v>
       </c>
       <c r="M36" s="12">
-        <v>2168</v>
+        <v>280</v>
       </c>
       <c r="N36" s="12">
-        <v>2194</v>
+        <v>282</v>
       </c>
       <c r="O36" s="12">
-        <v>2133</v>
-      </c>
-      <c r="P36" s="19">
-        <v>2201</v>
-      </c>
-      <c r="V36" s="12">
-        <v>1434</v>
-      </c>
-      <c r="W36" s="12">
-        <v>1772</v>
+        <v>332</v>
+      </c>
+      <c r="P36" s="111">
+        <v>347</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>375</v>
       </c>
       <c r="X36" s="12">
-        <v>2227</v>
-      </c>
-      <c r="Y36" s="19">
-        <f t="shared" si="34"/>
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="12">
-        <v>2063</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12">
-        <v>2058</v>
-      </c>
-      <c r="G37" s="12">
-        <v>2042</v>
-      </c>
-      <c r="H37" s="12">
-        <v>2017</v>
-      </c>
-      <c r="I37" s="12">
-        <v>1986</v>
-      </c>
-      <c r="J37" s="12">
-        <v>2769</v>
-      </c>
-      <c r="K37" s="12">
-        <v>2603</v>
-      </c>
-      <c r="L37" s="12">
-        <v>2728</v>
-      </c>
-      <c r="M37" s="12">
-        <v>2765</v>
-      </c>
-      <c r="N37" s="12">
-        <v>2802</v>
-      </c>
-      <c r="O37" s="12">
-        <v>2734</v>
-      </c>
-      <c r="P37" s="19">
-        <v>2891</v>
-      </c>
-      <c r="V37" s="12">
-        <v>2063</v>
-      </c>
-      <c r="W37" s="12">
-        <v>2017</v>
-      </c>
-      <c r="X37" s="12">
-        <v>2728</v>
-      </c>
-      <c r="Y37" s="19">
-        <f t="shared" si="34"/>
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="Y36" s="12">
+        <v>259</v>
+      </c>
+      <c r="Z36" s="12">
+        <v>286</v>
+      </c>
+      <c r="AA36" s="19">
+        <f t="shared" si="41"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="13">
+        <f>SUM(D34:D36)</f>
+        <v>1836</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13">
+        <f t="shared" ref="F37:Q37" si="42">SUM(F34:F36)</f>
+        <v>1963</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="42"/>
+        <v>1978</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="42"/>
+        <v>2099</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="42"/>
+        <v>2030</v>
+      </c>
+      <c r="J37" s="13">
+        <f t="shared" si="42"/>
+        <v>2256</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="shared" si="42"/>
+        <v>2242</v>
+      </c>
+      <c r="L37" s="13">
+        <f t="shared" si="42"/>
+        <v>2428</v>
+      </c>
+      <c r="M37" s="13">
+        <f t="shared" si="42"/>
+        <v>2311</v>
+      </c>
+      <c r="N37" s="13">
+        <f t="shared" si="42"/>
+        <v>2306</v>
+      </c>
+      <c r="O37" s="13">
+        <f t="shared" si="42"/>
+        <v>2466</v>
+      </c>
+      <c r="P37" s="13">
+        <f t="shared" si="42"/>
+        <v>2568</v>
+      </c>
+      <c r="Q37" s="18">
+        <f t="shared" si="42"/>
+        <v>2463</v>
+      </c>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="18"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38"/>
-      <c r="C38"/>
+        <v>37</v>
+      </c>
       <c r="D38" s="12">
-        <v>299</v>
+        <v>770</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12">
-        <v>295</v>
+        <v>838</v>
       </c>
       <c r="G38" s="12">
-        <v>274</v>
+        <v>851</v>
       </c>
       <c r="H38" s="12">
-        <v>257</v>
+        <v>863</v>
       </c>
       <c r="I38" s="12">
-        <v>239</v>
+        <v>833</v>
       </c>
       <c r="J38" s="12">
-        <v>557</v>
+        <v>905</v>
       </c>
       <c r="K38" s="12">
-        <v>576</v>
+        <v>914</v>
       </c>
       <c r="L38" s="12">
-        <v>570</v>
+        <v>960</v>
       </c>
       <c r="M38" s="12">
-        <v>555</v>
+        <v>964</v>
       </c>
       <c r="N38" s="12">
-        <v>544</v>
-      </c>
-      <c r="O38">
-        <v>507</v>
-      </c>
-      <c r="P38" s="17">
-        <v>567</v>
-      </c>
-      <c r="V38" s="12">
-        <v>299</v>
-      </c>
-      <c r="W38" s="12">
-        <v>257</v>
+        <v>965</v>
+      </c>
+      <c r="O38" s="12">
+        <v>923</v>
+      </c>
+      <c r="P38" s="111">
+        <v>953</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>953</v>
       </c>
       <c r="X38" s="12">
-        <v>570</v>
-      </c>
-      <c r="Y38" s="19">
-        <f t="shared" si="34"/>
-        <v>567</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+      <c r="Y38" s="12">
+        <v>863</v>
+      </c>
+      <c r="Z38" s="12">
+        <v>960</v>
+      </c>
+      <c r="AA38" s="19">
+        <f t="shared" si="41"/>
+        <v>953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D39" s="12">
-        <v>146</v>
+        <v>1434</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12">
-        <v>170</v>
+        <v>1774</v>
       </c>
       <c r="G39" s="12">
-        <v>218</v>
+        <v>1790</v>
       </c>
       <c r="H39" s="12">
-        <v>263</v>
+        <v>1772</v>
       </c>
       <c r="I39" s="12">
-        <v>267</v>
+        <v>1771</v>
       </c>
       <c r="J39" s="12">
-        <v>319</v>
+        <v>1900</v>
       </c>
       <c r="K39" s="12">
-        <v>413</v>
+        <v>2058</v>
       </c>
       <c r="L39" s="12">
-        <v>306</v>
+        <v>2227</v>
       </c>
       <c r="M39" s="12">
-        <v>327</v>
+        <v>2168</v>
       </c>
       <c r="N39" s="12">
-        <v>315</v>
+        <v>2194</v>
       </c>
       <c r="O39" s="12">
-        <v>328</v>
-      </c>
-      <c r="P39" s="19">
-        <v>327</v>
-      </c>
-      <c r="V39" s="12">
-        <v>146</v>
-      </c>
-      <c r="W39" s="12">
-        <v>263</v>
+        <v>2133</v>
+      </c>
+      <c r="P39" s="111">
+        <v>2201</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>2201</v>
       </c>
       <c r="X39" s="12">
-        <v>306</v>
-      </c>
-      <c r="Y39" s="19">
-        <f t="shared" si="34"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="13">
-        <f>SUM(D32:D39)</f>
-        <v>6548</v>
-      </c>
-      <c r="E40" s="13">
-        <f t="shared" ref="E40" si="35">SUM(E32:E39)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="13">
-        <f t="shared" ref="F40" si="36">SUM(F32:F39)</f>
-        <v>7098</v>
-      </c>
-      <c r="G40" s="13">
-        <f t="shared" ref="G40" si="37">SUM(G32:G39)</f>
-        <v>7153</v>
-      </c>
-      <c r="H40" s="13">
-        <f>SUM(H32:H39)</f>
-        <v>7271</v>
-      </c>
-      <c r="I40" s="13">
-        <f t="shared" ref="I40:J40" si="38">SUM(I32:I39)</f>
-        <v>7126</v>
-      </c>
-      <c r="J40" s="13">
-        <f t="shared" si="38"/>
-        <v>8706</v>
-      </c>
-      <c r="K40" s="13">
-        <f t="shared" ref="K40:P40" si="39">SUM(K32:K39)</f>
-        <v>8806</v>
-      </c>
-      <c r="L40" s="13">
-        <f t="shared" si="39"/>
-        <v>9219</v>
-      </c>
-      <c r="M40" s="13">
-        <f t="shared" si="39"/>
-        <v>9090</v>
-      </c>
-      <c r="N40" s="13">
-        <f t="shared" si="39"/>
-        <v>9126</v>
-      </c>
-      <c r="O40" s="13">
-        <f t="shared" si="39"/>
-        <v>9091</v>
-      </c>
-      <c r="P40" s="18">
-        <f t="shared" si="39"/>
-        <v>9507</v>
-      </c>
-      <c r="V40" s="13">
-        <f>SUM(V32:V39)</f>
-        <v>6548</v>
-      </c>
-      <c r="W40" s="13">
-        <f>SUM(W32:W39)</f>
-        <v>7271</v>
-      </c>
-      <c r="X40" s="13">
-        <f>SUM(X32:X39)</f>
-        <v>9219</v>
-      </c>
-      <c r="Y40" s="18">
-        <f>SUM(Y32:Y39)</f>
-        <v>9507</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1434</v>
+      </c>
+      <c r="Y39" s="12">
+        <v>1772</v>
+      </c>
+      <c r="Z39" s="12">
+        <v>2227</v>
+      </c>
+      <c r="AA39" s="19">
+        <f t="shared" si="41"/>
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="12">
+        <v>2063</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12">
+        <v>2058</v>
+      </c>
+      <c r="G40" s="12">
+        <v>2042</v>
+      </c>
+      <c r="H40" s="12">
+        <v>2017</v>
+      </c>
+      <c r="I40" s="12">
+        <v>1986</v>
+      </c>
+      <c r="J40" s="12">
+        <v>2769</v>
+      </c>
+      <c r="K40" s="12">
+        <v>2603</v>
+      </c>
+      <c r="L40" s="12">
+        <v>2728</v>
+      </c>
+      <c r="M40" s="12">
+        <v>2765</v>
+      </c>
+      <c r="N40" s="12">
+        <v>2802</v>
+      </c>
+      <c r="O40" s="12">
+        <v>2734</v>
+      </c>
+      <c r="P40" s="111">
+        <v>2891</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>2891</v>
+      </c>
+      <c r="X40" s="12">
+        <v>2063</v>
+      </c>
+      <c r="Y40" s="12">
+        <v>2017</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>2728</v>
+      </c>
+      <c r="AA40" s="19">
+        <f t="shared" si="41"/>
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
       <c r="D41" s="12">
-        <v>415</v>
+        <v>299</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12">
-        <v>458</v>
+        <v>295</v>
       </c>
       <c r="G41" s="12">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="H41" s="12">
-        <v>624</v>
+        <v>257</v>
       </c>
       <c r="I41" s="12">
-        <v>549</v>
+        <v>239</v>
       </c>
       <c r="J41" s="12">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="K41" s="12">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="L41" s="12">
-        <v>717</v>
+        <v>570</v>
       </c>
       <c r="M41" s="12">
-        <v>652</v>
+        <v>555</v>
       </c>
       <c r="N41" s="12">
-        <v>566</v>
-      </c>
-      <c r="O41" s="12">
-        <v>597</v>
-      </c>
-      <c r="P41" s="19">
-        <v>709</v>
-      </c>
-      <c r="V41" s="12">
-        <v>415</v>
-      </c>
-      <c r="W41" s="12">
-        <v>624</v>
+        <v>544</v>
+      </c>
+      <c r="O41">
+        <v>507</v>
+      </c>
+      <c r="P41" s="110">
+        <v>567</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>567</v>
       </c>
       <c r="X41" s="12">
-        <v>717</v>
-      </c>
-      <c r="Y41" s="19">
-        <f t="shared" ref="Y41:Y48" si="40">P41</f>
-        <v>709</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="Y41" s="12">
+        <v>257</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>570</v>
+      </c>
+      <c r="AA41" s="19">
+        <f t="shared" si="41"/>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="12">
-        <v>784</v>
+        <v>146</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12">
-        <v>973</v>
+        <v>170</v>
       </c>
       <c r="G42" s="12">
-        <v>784</v>
+        <v>218</v>
       </c>
       <c r="H42" s="12">
-        <v>998</v>
+        <v>263</v>
       </c>
       <c r="I42" s="12">
-        <v>940</v>
+        <v>267</v>
       </c>
       <c r="J42" s="12">
-        <v>1012</v>
+        <v>319</v>
       </c>
       <c r="K42" s="12">
-        <v>952</v>
+        <v>413</v>
       </c>
       <c r="L42" s="12">
-        <v>995</v>
+        <v>306</v>
       </c>
       <c r="M42" s="12">
-        <v>908</v>
+        <v>327</v>
       </c>
       <c r="N42" s="12">
-        <v>950</v>
+        <v>315</v>
       </c>
       <c r="O42" s="12">
-        <v>975</v>
-      </c>
-      <c r="P42" s="19">
-        <v>966</v>
-      </c>
-      <c r="V42" s="12">
-        <v>784</v>
-      </c>
-      <c r="W42" s="12">
-        <v>998</v>
+        <v>328</v>
+      </c>
+      <c r="P42" s="111">
+        <v>327</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>327</v>
       </c>
       <c r="X42" s="12">
-        <v>995</v>
-      </c>
-      <c r="Y42" s="19">
-        <f t="shared" si="40"/>
-        <v>966</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="12">
-        <v>58</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12">
-        <v>36</v>
-      </c>
-      <c r="G43" s="12">
-        <v>58</v>
-      </c>
-      <c r="H43" s="12">
-        <v>34</v>
-      </c>
-      <c r="I43" s="12">
-        <v>32</v>
-      </c>
-      <c r="J43" s="12">
-        <v>84</v>
-      </c>
-      <c r="K43" s="12">
-        <v>94</v>
-      </c>
-      <c r="L43" s="12">
-        <v>67</v>
-      </c>
-      <c r="M43" s="12">
-        <v>84</v>
-      </c>
-      <c r="N43" s="12">
-        <v>35</v>
-      </c>
-      <c r="O43" s="12">
-        <v>26</v>
-      </c>
-      <c r="P43" s="19">
-        <v>27</v>
-      </c>
-      <c r="V43" s="12">
-        <v>58</v>
-      </c>
-      <c r="W43" s="12">
-        <v>34</v>
-      </c>
-      <c r="X43" s="12">
-        <v>67</v>
-      </c>
-      <c r="Y43" s="19">
-        <f t="shared" si="40"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>263</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>306</v>
+      </c>
+      <c r="AA42" s="19">
+        <f t="shared" si="41"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="13">
+        <f>SUM(D37:D42)</f>
+        <v>6548</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" ref="E43:Q43" si="43">SUM(E37:E42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="13">
+        <f t="shared" si="43"/>
+        <v>7098</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="43"/>
+        <v>7153</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="43"/>
+        <v>7271</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="43"/>
+        <v>7126</v>
+      </c>
+      <c r="J43" s="13">
+        <f t="shared" si="43"/>
+        <v>8706</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="43"/>
+        <v>8806</v>
+      </c>
+      <c r="L43" s="13">
+        <f t="shared" si="43"/>
+        <v>9219</v>
+      </c>
+      <c r="M43" s="13">
+        <f t="shared" si="43"/>
+        <v>9090</v>
+      </c>
+      <c r="N43" s="13">
+        <f t="shared" si="43"/>
+        <v>9126</v>
+      </c>
+      <c r="O43" s="13">
+        <f t="shared" si="43"/>
+        <v>9091</v>
+      </c>
+      <c r="P43" s="13">
+        <f t="shared" si="43"/>
+        <v>9507</v>
+      </c>
+      <c r="Q43" s="18">
+        <f t="shared" si="43"/>
+        <v>9402</v>
+      </c>
+      <c r="X43" s="13">
+        <f>SUM(X34:X42)</f>
+        <v>6548</v>
+      </c>
+      <c r="Y43" s="13">
+        <f>SUM(Y34:Y42)</f>
+        <v>7271</v>
+      </c>
+      <c r="Z43" s="13">
+        <f>SUM(Z34:Z42)</f>
+        <v>9219</v>
+      </c>
+      <c r="AA43" s="18">
+        <f>SUM(AA34:AA42)</f>
+        <v>9507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D44" s="12">
-        <v>332</v>
+        <v>415</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="G44" s="12">
-        <v>332</v>
+        <v>415</v>
       </c>
       <c r="H44" s="12">
-        <v>453</v>
+        <v>624</v>
       </c>
       <c r="I44" s="12">
-        <v>455</v>
+        <v>549</v>
       </c>
       <c r="J44" s="12">
-        <v>490</v>
+        <v>592</v>
       </c>
       <c r="K44" s="12">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="L44" s="12">
-        <v>560</v>
+        <v>717</v>
       </c>
       <c r="M44" s="12">
-        <v>568</v>
+        <v>652</v>
       </c>
       <c r="N44" s="12">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O44" s="12">
-        <v>561</v>
-      </c>
-      <c r="P44" s="19">
         <v>597</v>
       </c>
-      <c r="V44" s="12">
-        <v>332</v>
-      </c>
-      <c r="W44" s="12">
-        <v>453</v>
+      <c r="P44" s="111">
+        <v>709</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>709</v>
       </c>
       <c r="X44" s="12">
-        <v>560</v>
-      </c>
-      <c r="Y44" s="19">
-        <f t="shared" si="40"/>
-        <v>597</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="Y44" s="12">
+        <v>624</v>
+      </c>
+      <c r="Z44" s="12">
+        <v>717</v>
+      </c>
+      <c r="AA44" s="19">
+        <f t="shared" ref="AA44:AA52" si="44">P44</f>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D45" s="12">
-        <v>149</v>
+        <v>784</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12">
-        <v>128</v>
+        <v>973</v>
       </c>
       <c r="G45" s="12">
-        <v>149</v>
+        <v>784</v>
       </c>
       <c r="H45" s="12">
-        <v>220</v>
+        <v>998</v>
       </c>
       <c r="I45" s="12">
-        <v>146</v>
+        <v>940</v>
       </c>
       <c r="J45" s="12">
-        <v>186</v>
+        <v>1012</v>
       </c>
       <c r="K45" s="12">
-        <v>162</v>
+        <v>952</v>
       </c>
       <c r="L45" s="12">
-        <v>193</v>
+        <v>995</v>
       </c>
       <c r="M45" s="12">
-        <v>209</v>
+        <v>908</v>
       </c>
       <c r="N45" s="12">
-        <v>284</v>
+        <v>950</v>
       </c>
       <c r="O45" s="12">
-        <v>275</v>
-      </c>
-      <c r="P45" s="19">
-        <v>327</v>
-      </c>
-      <c r="V45" s="12">
-        <v>149</v>
-      </c>
-      <c r="W45" s="12">
-        <v>220</v>
+        <v>975</v>
+      </c>
+      <c r="P45" s="111">
+        <v>966</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>966</v>
       </c>
       <c r="X45" s="12">
-        <v>193</v>
-      </c>
-      <c r="Y45" s="19">
-        <f t="shared" si="40"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+      <c r="Y45" s="12">
+        <v>998</v>
+      </c>
+      <c r="Z45" s="12">
+        <v>995</v>
+      </c>
+      <c r="AA45" s="19">
+        <f t="shared" si="44"/>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D46" s="12">
-        <v>615</v>
+        <v>58</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12">
-        <v>582</v>
+        <v>36</v>
       </c>
       <c r="G46" s="12">
-        <v>615</v>
+        <v>58</v>
       </c>
       <c r="H46" s="12">
-        <v>927</v>
+        <v>34</v>
       </c>
       <c r="I46" s="12">
-        <v>907</v>
+        <v>32</v>
       </c>
       <c r="J46" s="12">
-        <v>1801</v>
+        <v>84</v>
       </c>
       <c r="K46" s="12">
-        <v>1789</v>
+        <v>94</v>
       </c>
       <c r="L46" s="12">
-        <v>1739</v>
+        <v>67</v>
       </c>
       <c r="M46" s="12">
-        <v>1697</v>
+        <v>84</v>
       </c>
       <c r="N46" s="12">
-        <v>1625</v>
+        <v>35</v>
       </c>
       <c r="O46" s="12">
-        <v>1621</v>
-      </c>
-      <c r="P46" s="19">
-        <v>1620</v>
-      </c>
-      <c r="V46" s="12">
-        <v>615</v>
-      </c>
-      <c r="W46" s="12">
-        <v>927</v>
+        <v>26</v>
+      </c>
+      <c r="P46" s="111">
+        <v>27</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>27</v>
       </c>
       <c r="X46" s="12">
-        <v>1739</v>
-      </c>
-      <c r="Y46" s="19">
-        <f t="shared" si="40"/>
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="Y46" s="12">
+        <v>34</v>
+      </c>
+      <c r="Z46" s="12">
+        <v>67</v>
+      </c>
+      <c r="AA46" s="19">
+        <f t="shared" si="44"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47"/>
+        <v>44</v>
+      </c>
       <c r="D47" s="12">
-        <v>1099</v>
+        <v>332</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12">
-        <v>1340</v>
+        <v>414</v>
       </c>
       <c r="G47" s="12">
-        <v>1382</v>
+        <v>332</v>
       </c>
       <c r="H47" s="12">
-        <v>1391</v>
+        <v>453</v>
       </c>
       <c r="I47" s="12">
-        <v>1388</v>
+        <v>455</v>
       </c>
       <c r="J47" s="12">
-        <v>1570</v>
+        <v>490</v>
       </c>
       <c r="K47" s="12">
-        <v>1669</v>
+        <v>499</v>
       </c>
       <c r="L47" s="12">
-        <v>1853</v>
+        <v>560</v>
       </c>
       <c r="M47" s="12">
-        <v>1800</v>
+        <v>568</v>
       </c>
       <c r="N47" s="12">
-        <v>1838</v>
-      </c>
-      <c r="O47">
-        <v>1800</v>
-      </c>
-      <c r="P47" s="17">
-        <v>1842</v>
-      </c>
-      <c r="V47" s="12">
-        <v>1099</v>
-      </c>
-      <c r="W47" s="12">
-        <v>1391</v>
+        <v>568</v>
+      </c>
+      <c r="O47" s="12">
+        <v>561</v>
+      </c>
+      <c r="P47" s="111">
+        <v>597</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>597</v>
       </c>
       <c r="X47" s="12">
-        <v>1853</v>
-      </c>
-      <c r="Y47" s="19">
-        <f t="shared" si="40"/>
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="Y47" s="12">
+        <v>453</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>560</v>
+      </c>
+      <c r="AA47" s="19">
+        <f t="shared" si="44"/>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D48" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12">
+        <v>128</v>
+      </c>
+      <c r="G48" s="12">
+        <v>149</v>
+      </c>
+      <c r="H48" s="12">
+        <v>220</v>
+      </c>
+      <c r="I48" s="12">
+        <v>146</v>
+      </c>
+      <c r="J48" s="12">
+        <v>186</v>
+      </c>
+      <c r="K48" s="12">
+        <v>162</v>
+      </c>
+      <c r="L48" s="12">
+        <v>193</v>
+      </c>
+      <c r="M48" s="12">
+        <v>209</v>
+      </c>
+      <c r="N48" s="12">
+        <v>284</v>
+      </c>
+      <c r="O48" s="12">
+        <v>275</v>
+      </c>
+      <c r="P48" s="111">
+        <v>327</v>
+      </c>
+      <c r="Q48" s="19">
+        <v>327</v>
+      </c>
+      <c r="X48" s="12">
+        <v>149</v>
+      </c>
+      <c r="Y48" s="12">
+        <v>220</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>193</v>
+      </c>
+      <c r="AA48" s="19">
+        <f t="shared" si="44"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="13">
+        <f>SUM(D44:D48)</f>
+        <v>1738</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13">
+        <f t="shared" ref="F49:Q49" si="45">SUM(F44:F48)</f>
+        <v>2009</v>
+      </c>
+      <c r="G49" s="13">
+        <f t="shared" si="45"/>
+        <v>1738</v>
+      </c>
+      <c r="H49" s="13">
+        <f t="shared" si="45"/>
+        <v>2329</v>
+      </c>
+      <c r="I49" s="13">
+        <f t="shared" si="45"/>
+        <v>2122</v>
+      </c>
+      <c r="J49" s="13">
+        <f t="shared" si="45"/>
+        <v>2364</v>
+      </c>
+      <c r="K49" s="13">
+        <f t="shared" si="45"/>
+        <v>2275</v>
+      </c>
+      <c r="L49" s="13">
+        <f t="shared" si="45"/>
+        <v>2532</v>
+      </c>
+      <c r="M49" s="13">
+        <f t="shared" si="45"/>
+        <v>2421</v>
+      </c>
+      <c r="N49" s="13">
+        <f t="shared" si="45"/>
+        <v>2403</v>
+      </c>
+      <c r="O49" s="13">
+        <f t="shared" si="45"/>
+        <v>2434</v>
+      </c>
+      <c r="P49" s="13">
+        <f t="shared" si="45"/>
+        <v>2626</v>
+      </c>
+      <c r="Q49" s="18">
+        <f t="shared" si="45"/>
+        <v>2626</v>
+      </c>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="18"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="12">
+        <v>615</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12">
+        <v>582</v>
+      </c>
+      <c r="G50" s="12">
+        <v>615</v>
+      </c>
+      <c r="H50" s="12">
+        <v>927</v>
+      </c>
+      <c r="I50" s="12">
+        <v>907</v>
+      </c>
+      <c r="J50" s="12">
+        <v>1801</v>
+      </c>
+      <c r="K50" s="12">
+        <v>1789</v>
+      </c>
+      <c r="L50" s="12">
+        <v>1739</v>
+      </c>
+      <c r="M50" s="12">
+        <v>1697</v>
+      </c>
+      <c r="N50" s="12">
+        <v>1625</v>
+      </c>
+      <c r="O50" s="12">
+        <v>1621</v>
+      </c>
+      <c r="P50" s="111">
+        <v>1620</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>1620</v>
+      </c>
+      <c r="X50" s="12">
+        <v>615</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>927</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>1739</v>
+      </c>
+      <c r="AA50" s="19">
+        <f t="shared" si="44"/>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51" s="12">
+        <v>1099</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12">
+        <v>1340</v>
+      </c>
+      <c r="G51" s="12">
+        <v>1382</v>
+      </c>
+      <c r="H51" s="12">
+        <v>1391</v>
+      </c>
+      <c r="I51" s="12">
+        <v>1388</v>
+      </c>
+      <c r="J51" s="12">
+        <v>1570</v>
+      </c>
+      <c r="K51" s="12">
+        <v>1669</v>
+      </c>
+      <c r="L51" s="12">
+        <v>1853</v>
+      </c>
+      <c r="M51" s="12">
+        <v>1800</v>
+      </c>
+      <c r="N51" s="12">
+        <v>1838</v>
+      </c>
+      <c r="O51">
+        <v>1800</v>
+      </c>
+      <c r="P51" s="110">
+        <v>1842</v>
+      </c>
+      <c r="Q51" s="17">
+        <v>1842</v>
+      </c>
+      <c r="X51" s="12">
+        <v>1099</v>
+      </c>
+      <c r="Y51" s="12">
+        <v>1391</v>
+      </c>
+      <c r="Z51" s="12">
+        <v>1853</v>
+      </c>
+      <c r="AA51" s="19">
+        <f t="shared" si="44"/>
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="12">
+        <v>148</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12">
         <f>160+63</f>
         <v>223</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G52" s="12">
         <f>94+56</f>
         <v>150</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H52" s="12">
         <v>234</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I52" s="12">
         <v>334</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J52" s="12">
         <v>410</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K52" s="12">
         <v>444</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L52" s="12">
         <v>417</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M52" s="12">
         <v>453</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N52" s="12">
         <v>449</v>
       </c>
-      <c r="O48" s="12">
+      <c r="O52" s="12">
         <v>419</v>
       </c>
-      <c r="P48" s="19">
+      <c r="P52" s="111">
         <v>473</v>
       </c>
-      <c r="V48" s="12">
+      <c r="Q52" s="19">
+        <v>473</v>
+      </c>
+      <c r="X52" s="12">
         <v>148</v>
       </c>
-      <c r="W48" s="12">
+      <c r="Y52" s="12">
         <v>234</v>
       </c>
-      <c r="X48" s="12">
+      <c r="Z52" s="12">
         <v>417</v>
       </c>
-      <c r="Y48" s="19">
-        <f t="shared" si="40"/>
+      <c r="AA52" s="19">
+        <f t="shared" si="44"/>
         <v>473</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="13">
-        <f>SUM(D41:D48)</f>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="13">
+        <f>SUM(D49:D52)</f>
         <v>3600</v>
       </c>
-      <c r="E49" s="13">
-        <f t="shared" ref="E49:I49" si="41">SUM(E41:E48)</f>
+      <c r="E53" s="13">
+        <f t="shared" ref="E53" si="46">SUM(E44:E52)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="13">
-        <f t="shared" si="41"/>
+      <c r="F53" s="13">
+        <f t="shared" ref="F53:Q53" si="47">SUM(F49:F52)</f>
         <v>4154</v>
       </c>
-      <c r="G49" s="13">
-        <f t="shared" si="41"/>
+      <c r="G53" s="13">
+        <f t="shared" si="47"/>
         <v>3885</v>
       </c>
-      <c r="H49" s="13">
-        <f>SUM(H41:H48)</f>
+      <c r="H53" s="13">
+        <f t="shared" si="47"/>
         <v>4881</v>
       </c>
-      <c r="I49" s="13">
-        <f t="shared" si="41"/>
+      <c r="I53" s="13">
+        <f t="shared" si="47"/>
         <v>4751</v>
       </c>
-      <c r="J49" s="13">
-        <f t="shared" ref="J49:O49" si="42">SUM(J41:J48)</f>
+      <c r="J53" s="13">
+        <f t="shared" si="47"/>
         <v>6145</v>
       </c>
-      <c r="K49" s="13">
-        <f t="shared" si="42"/>
+      <c r="K53" s="13">
+        <f t="shared" si="47"/>
         <v>6177</v>
       </c>
-      <c r="L49" s="13">
-        <f t="shared" si="42"/>
+      <c r="L53" s="13">
+        <f t="shared" si="47"/>
         <v>6541</v>
       </c>
-      <c r="M49" s="13">
-        <f t="shared" si="42"/>
+      <c r="M53" s="13">
+        <f t="shared" si="47"/>
         <v>6371</v>
       </c>
-      <c r="N49" s="13">
-        <f t="shared" si="42"/>
+      <c r="N53" s="13">
+        <f t="shared" si="47"/>
         <v>6315</v>
       </c>
-      <c r="O49" s="13">
-        <f t="shared" si="42"/>
+      <c r="O53" s="13">
+        <f t="shared" si="47"/>
         <v>6274</v>
       </c>
-      <c r="P49" s="18">
-        <f t="shared" ref="P49" si="43">SUM(P41:P48)</f>
+      <c r="P53" s="13">
+        <f t="shared" si="47"/>
         <v>6561</v>
       </c>
-      <c r="V49" s="13">
-        <f>SUM(V41:V48)</f>
+      <c r="Q53" s="18">
+        <f t="shared" si="47"/>
+        <v>6561</v>
+      </c>
+      <c r="X53" s="13">
+        <f>SUM(X44:X52)</f>
         <v>3600</v>
       </c>
-      <c r="W49" s="13">
-        <f>SUM(W41:W48)</f>
+      <c r="Y53" s="13">
+        <f>SUM(Y44:Y52)</f>
         <v>4881</v>
       </c>
-      <c r="X49" s="13">
-        <f>SUM(X41:X48)</f>
+      <c r="Z53" s="13">
+        <f>SUM(Z44:Z52)</f>
         <v>6541</v>
       </c>
-      <c r="Y49" s="18">
-        <f>SUM(Y41:Y48)</f>
+      <c r="AA53" s="18">
+        <f>SUM(AA44:AA52)</f>
         <v>6561</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-    </row>
-    <row r="52" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+    </row>
+    <row r="56" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I56" s="1">
         <v>333</v>
       </c>
-      <c r="J52" s="1">
-        <f>I71</f>
+      <c r="J56" s="1">
+        <f>I75</f>
         <v>312</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M56" s="1">
         <v>495</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N56" s="1">
         <v>495</v>
       </c>
-      <c r="P52" s="20"/>
-      <c r="Y52" s="20"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="P56" s="119"/>
+      <c r="Q56" s="20"/>
+      <c r="AA56" s="20"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>81</v>
       </c>
-      <c r="I53">
+      <c r="I57">
         <v>38</v>
       </c>
-      <c r="M53">
+      <c r="M57">
         <v>26</v>
       </c>
-      <c r="N53">
+      <c r="N57">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>31</v>
       </c>
-      <c r="I54">
+      <c r="I58">
         <v>76</v>
       </c>
-      <c r="M54">
+      <c r="M58">
         <v>83</v>
       </c>
-      <c r="N54">
+      <c r="N58">
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>82</v>
       </c>
-      <c r="I55">
+      <c r="I59">
         <v>6</v>
       </c>
-      <c r="M55">
+      <c r="M59">
         <v>9</v>
-      </c>
-      <c r="N55">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>83</v>
-      </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
-      <c r="M56">
-        <v>-7</v>
-      </c>
-      <c r="N56">
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57">
-        <v>4</v>
-      </c>
-      <c r="M57">
-        <v>9</v>
-      </c>
-      <c r="N57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>35</v>
-      </c>
-      <c r="I58">
-        <v>-33</v>
-      </c>
-      <c r="M58">
-        <v>57</v>
-      </c>
-      <c r="N58">
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>84</v>
-      </c>
-      <c r="I59">
-        <v>-7</v>
-      </c>
-      <c r="M59">
-        <v>11</v>
       </c>
       <c r="N59">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>-7</v>
+      </c>
+      <c r="N60">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>9</v>
+      </c>
+      <c r="N61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62">
+        <v>-33</v>
+      </c>
+      <c r="M62">
+        <v>57</v>
+      </c>
+      <c r="N62">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="I63">
+        <v>-7</v>
+      </c>
+      <c r="M63">
+        <v>11</v>
+      </c>
+      <c r="N63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>51</v>
       </c>
-      <c r="I60">
+      <c r="I64">
         <v>-39</v>
       </c>
-      <c r="M60">
+      <c r="M64">
         <v>-49</v>
       </c>
-      <c r="N60">
+      <c r="N64">
         <v>-107</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>85</v>
       </c>
-      <c r="I61">
+      <c r="I65">
         <v>-2</v>
       </c>
-      <c r="M61">
+      <c r="M65">
         <v>-100</v>
       </c>
-      <c r="N61">
+      <c r="N65">
         <v>-52</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>86</v>
       </c>
-      <c r="I62">
+      <c r="I66">
         <v>-65</v>
       </c>
-      <c r="M62">
+      <c r="M66">
         <v>-91</v>
       </c>
-      <c r="N62">
+      <c r="N66">
         <v>-150</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>87</v>
       </c>
-      <c r="I63">
+      <c r="I67">
         <v>3</v>
       </c>
-      <c r="M63">
+      <c r="M67">
         <v>9</v>
       </c>
-      <c r="N63">
+      <c r="N67">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="I64">
-        <v>18</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>88</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="M65" s="11">
-        <v>-21</v>
-      </c>
-      <c r="N65">
-        <v>-138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>89</v>
-      </c>
-      <c r="I66">
-        <v>-9</v>
-      </c>
-      <c r="M66">
-        <v>-8</v>
-      </c>
-      <c r="N66">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>90</v>
-      </c>
-      <c r="I67">
-        <v>-11</v>
-      </c>
-      <c r="M67">
-        <v>-4</v>
-      </c>
-      <c r="N67">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>36</v>
       </c>
       <c r="I68">
+        <v>18</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="11">
+        <v>-21</v>
+      </c>
+      <c r="N69">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="I70">
+        <v>-9</v>
+      </c>
+      <c r="M70">
+        <v>-8</v>
+      </c>
+      <c r="N70">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="I71">
+        <v>-11</v>
+      </c>
+      <c r="M71">
+        <v>-4</v>
+      </c>
+      <c r="N71">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="I72">
         <v>2</v>
       </c>
-      <c r="M68">
+      <c r="M72">
         <v>4</v>
       </c>
-      <c r="N68">
+      <c r="N72">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>91</v>
       </c>
-      <c r="I69">
+      <c r="I73">
         <v>-5</v>
       </c>
-      <c r="M69">
+      <c r="M73">
         <v>3</v>
       </c>
-      <c r="N69">
+      <c r="N73">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+    <row r="74" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I70" s="10">
-        <f>SUM(I53:I69)</f>
+      <c r="I74" s="10">
+        <f>SUM(I57:I73)</f>
         <v>-21</v>
       </c>
-      <c r="M70" s="10">
-        <f>SUM(M53:M69)</f>
+      <c r="M74" s="10">
+        <f>SUM(M57:M73)</f>
         <v>-69</v>
       </c>
-      <c r="N70" s="10">
-        <f>SUM(N53:N69)</f>
+      <c r="N74" s="10">
+        <f>SUM(N57:N73)</f>
         <v>-190</v>
       </c>
-      <c r="P70" s="24"/>
-      <c r="Y70" s="24"/>
-    </row>
-    <row r="71" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="P74" s="120"/>
+      <c r="Q74" s="24"/>
+      <c r="AA74" s="24"/>
+    </row>
+    <row r="75" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I71" s="1">
-        <f>I52+I70</f>
+      <c r="I75" s="1">
+        <f>I56+I74</f>
         <v>312</v>
       </c>
-      <c r="M71" s="1">
-        <f>M52+M70</f>
+      <c r="M75" s="1">
+        <f>M56+M74</f>
         <v>426</v>
       </c>
-      <c r="N71" s="1">
-        <f>N52+N70</f>
+      <c r="N75" s="1">
+        <f>N56+N74</f>
         <v>305</v>
       </c>
-      <c r="P71" s="20"/>
-      <c r="Y71" s="20"/>
+      <c r="P75" s="119"/>
+      <c r="Q75" s="20"/>
+      <c r="AA75" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -25620,7 +26018,7 @@
   <dimension ref="A3:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25752,10 +26150,10 @@
       <c r="A14" t="s">
         <v>159</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="12">
         <v>3649</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="12">
         <v>4100</v>
       </c>
     </row>
@@ -25763,10 +26161,10 @@
       <c r="A15" t="s">
         <v>160</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="12">
         <v>1337</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="12">
         <v>1467</v>
       </c>
     </row>
@@ -25774,10 +26172,10 @@
       <c r="A16" t="s">
         <v>161</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="12">
         <v>1327</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="12">
         <v>1331</v>
       </c>
     </row>
@@ -25785,10 +26183,10 @@
       <c r="A17" t="s">
         <v>162</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="12">
         <v>1076</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="12">
         <v>1078</v>
       </c>
     </row>
@@ -25796,10 +26194,10 @@
       <c r="A18" t="s">
         <v>163</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="12">
         <v>915</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="12">
         <v>1027</v>
       </c>
     </row>
@@ -25807,10 +26205,10 @@
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="12">
         <v>689</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="12">
         <v>775</v>
       </c>
     </row>
@@ -25851,7 +26249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F020C3-F669-45B2-B298-2759C0C678D0}">
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
@@ -25880,14 +26278,14 @@
       <c r="D1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15">
@@ -25896,16 +26294,16 @@
       <c r="C2" s="33">
         <v>49.1</v>
       </c>
-      <c r="D2" s="101">
+      <c r="D2" s="99">
         <f>C2/C3-1</f>
         <v>-1.2668409410818371E-2</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15">
@@ -25914,26 +26312,26 @@
       <c r="C3" s="33">
         <v>49.73</v>
       </c>
-      <c r="D3" s="101">
+      <c r="D3" s="99">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>-2.241006487124042E-2</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="45" t="s">
         <v>173</v>
       </c>
     </row>
@@ -25944,31 +26342,31 @@
       <c r="C4" s="33">
         <v>50.87</v>
       </c>
-      <c r="D4" s="101">
+      <c r="D4" s="99">
         <f t="shared" si="0"/>
         <v>-2.2106881968473768E-2</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="46">
         <f>$I$19-3*$I$23</f>
         <v>-0.19331429114081111</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="47">
         <f>H4</f>
         <v>-0.19331429114081111</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="48">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="50" t="str">
+      <c r="K4" s="48" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>Less than -19,33%</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="49">
         <f>J4/$I$31</f>
         <v>0</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="50">
         <f>L4</f>
         <v>0</v>
       </c>
@@ -25980,31 +26378,31 @@
       <c r="C5" s="33">
         <v>52.02</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="99">
         <f t="shared" si="0"/>
         <v>-3.2366035430284046E-2</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="51">
         <f>$I$19-2.4*$I$23</f>
         <v>-0.15452994963748076</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="52">
         <f>H5</f>
         <v>-0.15452994963748076</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="53">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="56" t="str">
+      <c r="K5" s="54" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>-19,33% to -15,45%</v>
       </c>
-      <c r="L5" s="57">
+      <c r="L5" s="55">
         <f>J5/$I$31</f>
         <v>0</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="56">
         <f>M4+L5</f>
         <v>0</v>
       </c>
@@ -26016,31 +26414,31 @@
       <c r="C6" s="33">
         <v>53.759998000000003</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="99">
         <f t="shared" si="0"/>
         <v>5.9936848187364999E-2</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="51">
         <f>$I$19-1.8*$I$23</f>
         <v>-0.11574560813415047</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="52">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>-0.11574560813415047</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="53">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="56" t="str">
+      <c r="K6" s="54" t="str">
         <f t="shared" si="1"/>
         <v>-15,45% to -11,57%</v>
       </c>
-      <c r="L6" s="57">
+      <c r="L6" s="55">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="M6" s="58">
+      <c r="M6" s="56">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>1.3888888888888888E-2</v>
       </c>
@@ -26052,31 +26450,31 @@
       <c r="C7" s="33">
         <v>50.720001000000003</v>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="99">
         <f t="shared" si="0"/>
         <v>2.4853484548252869E-2</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="51">
         <f>$I$19-1.2*$I$23</f>
         <v>-7.6961266630820119E-2</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="52">
         <f t="shared" si="2"/>
         <v>-7.6961266630820119E-2</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="53">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="K7" s="56" t="str">
+      <c r="K7" s="54" t="str">
         <f t="shared" si="1"/>
         <v>-11,57% to -7,70%</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="55">
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="M7" s="58">
+      <c r="M7" s="56">
         <f t="shared" si="5"/>
         <v>7.6388888888888895E-2</v>
       </c>
@@ -26088,31 +26486,31 @@
       <c r="C8" s="33">
         <v>49.490001999999997</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="99">
         <f t="shared" si="0"/>
         <v>5.8943291484891969E-3</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="51">
         <f>$I$19-0.6*$I$23</f>
         <v>-3.817692512748979E-2</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="52">
         <f t="shared" si="2"/>
         <v>-3.817692512748979E-2</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="53">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="K8" s="56" t="str">
+      <c r="K8" s="54" t="str">
         <f t="shared" si="1"/>
         <v>-7,70% to -3,82%</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="55">
         <f t="shared" si="4"/>
         <v>0.18055555555555555</v>
       </c>
-      <c r="M8" s="58">
+      <c r="M8" s="56">
         <f t="shared" si="5"/>
         <v>0.25694444444444442</v>
       </c>
@@ -26124,31 +26522,31 @@
       <c r="C9" s="33">
         <v>49.200001</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="99">
         <f t="shared" si="0"/>
         <v>-3.396817200078539E-2</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="51">
         <f>$I$19</f>
         <v>6.0741637584054028E-4</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="52">
         <f t="shared" si="2"/>
         <v>6.0741637584054028E-4</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="53">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="K9" s="56" t="str">
+      <c r="K9" s="54" t="str">
         <f t="shared" si="1"/>
         <v>-3,82% to 0,06%</v>
       </c>
-      <c r="L9" s="57">
+      <c r="L9" s="55">
         <f t="shared" si="4"/>
         <v>0.31944444444444442</v>
       </c>
-      <c r="M9" s="58">
+      <c r="M9" s="56">
         <f t="shared" si="5"/>
         <v>0.57638888888888884</v>
       </c>
@@ -26160,31 +26558,31 @@
       <c r="C10" s="33">
         <v>50.93</v>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="99">
         <f t="shared" si="0"/>
         <v>-4.4644549903497421E-2</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="51">
         <f>$I$19+0.6*$I$23</f>
         <v>3.9391757879170868E-2</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="52">
         <f t="shared" si="2"/>
         <v>3.9391757879170868E-2</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="53">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="K10" s="56" t="str">
+      <c r="K10" s="54" t="str">
         <f t="shared" si="1"/>
         <v>0,06% to 3,94%</v>
       </c>
-      <c r="L10" s="57">
+      <c r="L10" s="55">
         <f t="shared" si="4"/>
         <v>0.19444444444444445</v>
       </c>
-      <c r="M10" s="58">
+      <c r="M10" s="56">
         <f t="shared" si="5"/>
         <v>0.77083333333333326</v>
       </c>
@@ -26196,31 +26594,31 @@
       <c r="C11" s="33">
         <v>53.310001</v>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="99">
         <f t="shared" si="0"/>
         <v>-3.3889072127582409E-2</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="51">
         <f>$I$19+1.2*$I$23</f>
         <v>7.8176099382501196E-2</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="52">
         <f t="shared" si="2"/>
         <v>7.8176099382501196E-2</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="53">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="K11" s="56" t="str">
+      <c r="K11" s="54" t="str">
         <f t="shared" si="1"/>
         <v>3,94% to 7,82%</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="55">
         <f t="shared" si="4"/>
         <v>0.13194444444444445</v>
       </c>
-      <c r="M11" s="58">
+      <c r="M11" s="56">
         <f t="shared" si="5"/>
         <v>0.90277777777777768</v>
       </c>
@@ -26232,31 +26630,31 @@
       <c r="C12" s="33">
         <v>55.18</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="99">
         <f t="shared" si="0"/>
         <v>-2.6636073851403652E-2</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="51">
         <f>$I$19+1.8*$I$23</f>
         <v>0.11696044088583155</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="52">
         <f t="shared" si="2"/>
         <v>0.11696044088583155</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="53">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K12" s="56" t="str">
+      <c r="K12" s="54" t="str">
         <f t="shared" si="1"/>
         <v>7,82% to 11,70%</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="55">
         <f t="shared" si="4"/>
         <v>6.9444444444444448E-2</v>
       </c>
-      <c r="M12" s="58">
+      <c r="M12" s="56">
         <f t="shared" si="5"/>
         <v>0.9722222222222221</v>
       </c>
@@ -26268,31 +26666,31 @@
       <c r="C13" s="33">
         <v>56.689999</v>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="99">
         <f t="shared" si="0"/>
         <v>3.2981012518567665E-2</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="51">
         <f>$I$19+2.4*$I$23</f>
         <v>0.15574478238916187</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="52">
         <f t="shared" si="2"/>
         <v>0.15574478238916187</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="53">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K13" s="56" t="str">
+      <c r="K13" s="54" t="str">
         <f t="shared" si="1"/>
         <v>11,70% to 15,57%</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="55">
         <f t="shared" si="4"/>
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="M13" s="58">
+      <c r="M13" s="56">
         <f t="shared" si="5"/>
         <v>0.97916666666666652</v>
       </c>
@@ -26304,31 +26702,31 @@
       <c r="C14" s="33">
         <v>54.880001</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="99">
         <f t="shared" si="0"/>
         <v>-3.6516819461320571E-2</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="51">
         <f>$I$19+3*$I$23</f>
         <v>0.19452912389249222</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="52">
         <f t="shared" si="2"/>
         <v>0.19452912389249222</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="56" t="str">
+      <c r="K14" s="54" t="str">
         <f t="shared" si="1"/>
         <v>15,57% to 19,45%</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="58">
+      <c r="M14" s="56">
         <f t="shared" si="5"/>
         <v>0.97916666666666652</v>
       </c>
@@ -26340,27 +26738,27 @@
       <c r="C15" s="33">
         <v>56.959999000000003</v>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="99">
         <f t="shared" si="0"/>
         <v>2.1337618791464896E-2</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="60" t="s">
+      <c r="H15" s="57"/>
+      <c r="I15" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="58">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>3</v>
       </c>
-      <c r="K15" s="60" t="str">
+      <c r="K15" s="58" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>Greater than 19,45%</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="59">
         <f t="shared" si="4"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="59">
         <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
@@ -26372,12 +26770,12 @@
       <c r="C16" s="33">
         <v>55.77</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D16" s="99">
         <f t="shared" si="0"/>
         <v>-3.5621683014985805E-2</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="M16" s="63"/>
+      <c r="H16" s="60"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
@@ -26386,15 +26784,15 @@
       <c r="C17" s="33">
         <v>57.830002</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D17" s="99">
         <f t="shared" si="0"/>
         <v>-1.9664349223110666E-2</v>
       </c>
-      <c r="H17" s="105" t="s">
+      <c r="H17" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="106"/>
-      <c r="M17" s="63"/>
+      <c r="I17" s="104"/>
+      <c r="M17" s="61"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="15">
@@ -26403,13 +26801,13 @@
       <c r="C18" s="33">
         <v>58.990001999999997</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="99">
         <f t="shared" si="0"/>
         <v>-3.5480673642903859E-2</v>
       </c>
-      <c r="H18" s="107"/>
-      <c r="I18" s="108"/>
-      <c r="M18" s="63"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106"/>
+      <c r="M18" s="61"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
@@ -26418,18 +26816,18 @@
       <c r="C19" s="33">
         <v>61.16</v>
       </c>
-      <c r="D19" s="101">
+      <c r="D19" s="99">
         <f t="shared" si="0"/>
         <v>-1.4819619367924641E-2</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="63">
         <f>AVERAGE(D:D)</f>
         <v>6.0741637584054028E-4</v>
       </c>
-      <c r="M19" s="63"/>
+      <c r="M19" s="61"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
@@ -26438,18 +26836,18 @@
       <c r="C20" s="33">
         <v>62.080002</v>
       </c>
-      <c r="D20" s="101">
+      <c r="D20" s="99">
         <f t="shared" si="0"/>
         <v>1.2559141860069456E-2</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="63">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>5.3867140976847682E-3</v>
       </c>
-      <c r="M20" s="63"/>
+      <c r="M20" s="61"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
@@ -26458,18 +26856,18 @@
       <c r="C21" s="33">
         <v>61.310001</v>
       </c>
-      <c r="D21" s="101">
+      <c r="D21" s="99">
         <f t="shared" si="0"/>
         <v>7.0543059193294955E-2</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="H21" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="63">
         <f>MEDIAN(D:D)</f>
         <v>-1.2142939845160516E-2</v>
       </c>
-      <c r="M21" s="63"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="15">
@@ -26478,18 +26876,18 @@
       <c r="C22" s="33">
         <v>57.27</v>
       </c>
-      <c r="D22" s="101">
+      <c r="D22" s="99">
         <f t="shared" si="0"/>
         <v>-1.5133309883635038E-2</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="I22" s="65" t="e">
+      <c r="I22" s="63" t="e">
         <f>MODE(D:D)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="63"/>
+      <c r="M22" s="61"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="15">
@@ -26498,18 +26896,18 @@
       <c r="C23" s="33">
         <v>58.150002000000001</v>
       </c>
-      <c r="D23" s="101">
+      <c r="D23" s="99">
         <f t="shared" si="0"/>
         <v>2.5392400377224345E-2</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I23" s="63">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>6.4640569172217222E-2</v>
       </c>
-      <c r="M23" s="63"/>
+      <c r="M23" s="61"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="15">
@@ -26518,18 +26916,18 @@
       <c r="C24" s="33">
         <v>56.709999000000003</v>
       </c>
-      <c r="D24" s="101">
+      <c r="D24" s="99">
         <f t="shared" si="0"/>
         <v>-1.2020957769304563E-2</v>
       </c>
-      <c r="H24" s="64" t="s">
+      <c r="H24" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="I24" s="65">
+      <c r="I24" s="63">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>4.1784031829081997E-3</v>
       </c>
-      <c r="M24" s="63"/>
+      <c r="M24" s="61"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="15">
@@ -26538,18 +26936,18 @@
       <c r="C25" s="33">
         <v>57.400002000000001</v>
       </c>
-      <c r="D25" s="101">
+      <c r="D25" s="99">
         <f t="shared" si="0"/>
         <v>7.5107755667873199E-2</v>
       </c>
-      <c r="H25" s="64" t="s">
+      <c r="H25" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="I25" s="66">
+      <c r="I25" s="64">
         <f>KURT(D:D)</f>
         <v>2.8073793898249857</v>
       </c>
-      <c r="M25" s="63"/>
+      <c r="M25" s="61"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="15">
@@ -26558,18 +26956,18 @@
       <c r="C26" s="33">
         <v>53.389999000000003</v>
       </c>
-      <c r="D26" s="101">
+      <c r="D26" s="99">
         <f t="shared" si="0"/>
         <v>-5.4024031296571184E-3</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="I26" s="66">
+      <c r="I26" s="64">
         <f>SKEW(D:D)</f>
         <v>1.0683955517819361</v>
       </c>
-      <c r="M26" s="63"/>
+      <c r="M26" s="61"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
@@ -26578,18 +26976,18 @@
       <c r="C27" s="33">
         <v>53.68</v>
       </c>
-      <c r="D27" s="101">
+      <c r="D27" s="99">
         <f t="shared" si="0"/>
         <v>7.7478924126856752E-2</v>
       </c>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="65">
+      <c r="I27" s="63">
         <f>I29-I28</f>
         <v>0.41798674186042228</v>
       </c>
-      <c r="M27" s="63"/>
+      <c r="M27" s="61"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="15">
@@ -26598,18 +26996,18 @@
       <c r="C28" s="33">
         <v>49.82</v>
       </c>
-      <c r="D28" s="101">
+      <c r="D28" s="99">
         <f t="shared" si="0"/>
         <v>-4.723658352961202E-2</v>
       </c>
-      <c r="H28" s="64" t="s">
+      <c r="H28" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="65">
+      <c r="I28" s="63">
         <f>MIN(D:D)</f>
         <v>-0.13654964462631913</v>
       </c>
-      <c r="M28" s="63"/>
+      <c r="M28" s="61"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="15">
@@ -26618,18 +27016,18 @@
       <c r="C29" s="33">
         <v>52.290000999999997</v>
       </c>
-      <c r="D29" s="101">
+      <c r="D29" s="99">
         <f t="shared" si="0"/>
         <v>-1.8949306171656799E-2</v>
       </c>
-      <c r="H29" s="64" t="s">
+      <c r="H29" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="I29" s="65">
+      <c r="I29" s="63">
         <f>MAX(D:D)</f>
         <v>0.28143709723410315</v>
       </c>
-      <c r="M29" s="63"/>
+      <c r="M29" s="61"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="15">
@@ -26638,18 +27036,18 @@
       <c r="C30" s="33">
         <v>53.299999</v>
       </c>
-      <c r="D30" s="101">
+      <c r="D30" s="99">
         <f t="shared" si="0"/>
         <v>-4.6341027846502625E-2</v>
       </c>
-      <c r="H30" s="64" t="s">
+      <c r="H30" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="I30" s="66">
+      <c r="I30" s="64">
         <f>SUM(D:D)</f>
         <v>8.7467958121037803E-2</v>
       </c>
-      <c r="M30" s="63"/>
+      <c r="M30" s="61"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15">
@@ -26658,18 +27056,18 @@
       <c r="C31" s="33">
         <v>55.889999000000003</v>
       </c>
-      <c r="D31" s="101">
+      <c r="D31" s="99">
         <f t="shared" si="0"/>
         <v>-4.7058873075571217E-2</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="40">
         <f>COUNT(D:D)</f>
         <v>144</v>
       </c>
-      <c r="M31" s="63"/>
+      <c r="M31" s="61"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="15">
@@ -26678,12 +27076,12 @@
       <c r="C32" s="33">
         <v>58.650002000000001</v>
       </c>
-      <c r="D32" s="101">
+      <c r="D32" s="99">
         <f t="shared" si="0"/>
         <v>1.382893738388713E-2</v>
       </c>
-      <c r="H32" s="68"/>
-      <c r="M32" s="63"/>
+      <c r="H32" s="66"/>
+      <c r="M32" s="61"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="15">
@@ -26692,24 +27090,24 @@
       <c r="C33" s="33">
         <v>57.849997999999999</v>
       </c>
-      <c r="D33" s="101">
+      <c r="D33" s="99">
         <f t="shared" si="0"/>
         <v>-3.9515224970944618E-2</v>
       </c>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70" t="s">
+      <c r="H33" s="67"/>
+      <c r="I33" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="70" t="s">
+      <c r="J33" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="K33" s="70" t="s">
+      <c r="K33" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="L33" s="71" t="s">
+      <c r="L33" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="M33" s="63"/>
+      <c r="M33" s="61"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="15">
@@ -26718,30 +27116,30 @@
       <c r="C34" s="33">
         <v>60.23</v>
       </c>
-      <c r="D34" s="101">
+      <c r="D34" s="99">
         <f t="shared" si="0"/>
         <v>-9.212057752721492E-3</v>
       </c>
-      <c r="H34" s="72" t="s">
+      <c r="H34" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="55">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>5.8238721723275752E-2</v>
       </c>
-      <c r="J34" s="55">
+      <c r="J34" s="53">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>61</v>
       </c>
-      <c r="K34" s="57">
+      <c r="K34" s="55">
         <f>J34/$I$31</f>
         <v>0.4236111111111111</v>
       </c>
-      <c r="L34" s="58">
+      <c r="L34" s="56">
         <f>K34*I34</f>
         <v>2.4670569618887646E-2</v>
       </c>
-      <c r="M34" s="63"/>
+      <c r="M34" s="61"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="15">
@@ -26750,30 +27148,30 @@
       <c r="C35" s="33">
         <v>60.790000999999997</v>
       </c>
-      <c r="D35" s="101">
+      <c r="D35" s="99">
         <f t="shared" si="0"/>
         <v>-6.7780985551004203E-2</v>
       </c>
-      <c r="H35" s="72" t="s">
+      <c r="H35" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="55">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>-4.2257244719497343E-2</v>
       </c>
-      <c r="J35" s="55">
+      <c r="J35" s="53">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>82</v>
       </c>
-      <c r="K35" s="57">
+      <c r="K35" s="55">
         <f>J35/$I$31</f>
         <v>0.56944444444444442</v>
       </c>
-      <c r="L35" s="58">
+      <c r="L35" s="56">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>-2.4063153243047097E-2</v>
       </c>
-      <c r="M35" s="63"/>
+      <c r="M35" s="61"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="15">
@@ -26782,29 +27180,29 @@
       <c r="C36" s="33">
         <v>65.209998999999996</v>
       </c>
-      <c r="D36" s="101">
+      <c r="D36" s="99">
         <f t="shared" si="0"/>
         <v>6.6219735120994105E-2</v>
       </c>
-      <c r="H36" s="73" t="s">
+      <c r="H36" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="58">
         <v>0</v>
       </c>
-      <c r="J36" s="60">
+      <c r="J36" s="58">
         <f>COUNTIF(D:D,"0")</f>
         <v>1</v>
       </c>
-      <c r="K36" s="74">
+      <c r="K36" s="72">
         <f>J36/$I$31</f>
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="L36" s="61">
+      <c r="L36" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" s="63"/>
+      <c r="M36" s="61"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="15">
@@ -26813,16 +27211,16 @@
       <c r="C37" s="33">
         <v>61.16</v>
       </c>
-      <c r="D37" s="101">
+      <c r="D37" s="99">
         <f t="shared" si="0"/>
         <v>-7.7871351036200576E-3</v>
       </c>
-      <c r="H37" s="68"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="63"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="61"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="15">
@@ -26831,26 +27229,26 @@
       <c r="C38" s="33">
         <v>61.639999000000003</v>
       </c>
-      <c r="D38" s="101">
+      <c r="D38" s="99">
         <f t="shared" si="0"/>
         <v>-2.6224329008283198E-2</v>
       </c>
-      <c r="H38" s="48" t="s">
+      <c r="H38" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="I38" s="70" t="s">
+      <c r="I38" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="J38" s="70" t="s">
+      <c r="J38" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="K38" s="70" t="s">
+      <c r="K38" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="L38" s="70" t="s">
+      <c r="L38" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="M38" s="71" t="s">
+      <c r="M38" s="69" t="s">
         <v>199</v>
       </c>
     </row>
@@ -26861,30 +27259,30 @@
       <c r="C39" s="33">
         <v>63.299999</v>
       </c>
-      <c r="D39" s="101">
+      <c r="D39" s="99">
         <f t="shared" si="0"/>
         <v>-1.2634565393315089E-2</v>
       </c>
-      <c r="H39" s="76">
+      <c r="H39" s="74">
         <v>1</v>
       </c>
-      <c r="I39" s="57">
+      <c r="I39" s="55">
         <f>$I$19+($H39*$I$23)</f>
         <v>6.524798554805776E-2</v>
       </c>
-      <c r="J39" s="57">
+      <c r="J39" s="55">
         <f>$I$19-($H39*$I$23)</f>
         <v>-6.4033152796376683E-2</v>
       </c>
-      <c r="K39" s="55">
+      <c r="K39" s="53">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>104</v>
       </c>
-      <c r="L39" s="57">
+      <c r="L39" s="55">
         <f>K39/$I$31</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="M39" s="58">
+      <c r="M39" s="56">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -26895,30 +27293,30 @@
       <c r="C40" s="33">
         <v>64.110000999999997</v>
       </c>
-      <c r="D40" s="101">
+      <c r="D40" s="99">
         <f t="shared" si="0"/>
         <v>-3.4051557900336427E-2</v>
       </c>
-      <c r="H40" s="76">
+      <c r="H40" s="74">
         <v>2</v>
       </c>
-      <c r="I40" s="57">
+      <c r="I40" s="55">
         <f>$I$19+($H40*$I$23)</f>
         <v>0.129888554720275</v>
       </c>
-      <c r="J40" s="57">
+      <c r="J40" s="55">
         <f>$I$19-($H40*$I$23)</f>
         <v>-0.12867372196859389</v>
       </c>
-      <c r="K40" s="55">
+      <c r="K40" s="53">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>139</v>
       </c>
-      <c r="L40" s="57">
+      <c r="L40" s="55">
         <f>K40/$I$31</f>
         <v>0.96527777777777779</v>
       </c>
-      <c r="M40" s="58">
+      <c r="M40" s="56">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -26929,30 +27327,30 @@
       <c r="C41" s="33">
         <v>66.370002999999997</v>
       </c>
-      <c r="D41" s="101">
+      <c r="D41" s="99">
         <f t="shared" si="0"/>
         <v>1.8100950510785196E-2</v>
       </c>
-      <c r="H41" s="76">
+      <c r="H41" s="74">
         <v>3</v>
       </c>
-      <c r="I41" s="57">
+      <c r="I41" s="55">
         <f>$I$19+($H41*$I$23)</f>
         <v>0.19452912389249222</v>
       </c>
-      <c r="J41" s="57">
+      <c r="J41" s="55">
         <f>$I$19-($H41*$I$23)</f>
         <v>-0.19331429114081111</v>
       </c>
-      <c r="K41" s="55">
+      <c r="K41" s="53">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>141</v>
       </c>
-      <c r="L41" s="57">
+      <c r="L41" s="55">
         <f>K41/$I$31</f>
         <v>0.97916666666666663</v>
       </c>
-      <c r="M41" s="77">
+      <c r="M41" s="75">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -26963,12 +27361,12 @@
       <c r="C42" s="33">
         <v>65.190002000000007</v>
       </c>
-      <c r="D42" s="101">
+      <c r="D42" s="99">
         <f t="shared" si="0"/>
         <v>1.5104344205787434E-2</v>
       </c>
-      <c r="H42" s="53"/>
-      <c r="M42" s="77"/>
+      <c r="H42" s="51"/>
+      <c r="M42" s="75"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="15">
@@ -26977,18 +27375,18 @@
       <c r="C43" s="33">
         <v>64.220000999999996</v>
       </c>
-      <c r="D43" s="101">
+      <c r="D43" s="99">
         <f t="shared" si="0"/>
         <v>4.1180301556420273E-2</v>
       </c>
-      <c r="H43" s="109" t="s">
+      <c r="H43" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="111"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="109"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="15">
@@ -26997,28 +27395,28 @@
       <c r="C44" s="33">
         <v>61.68</v>
       </c>
-      <c r="D44" s="101">
+      <c r="D44" s="99">
         <f t="shared" si="0"/>
         <v>-1.8147086914995225E-2</v>
       </c>
-      <c r="H44" s="78">
+      <c r="H44" s="76">
         <v>0.01</v>
       </c>
-      <c r="I44" s="79">
+      <c r="I44" s="77">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>-0.1184073716668701</v>
       </c>
-      <c r="J44" s="80">
+      <c r="J44" s="78">
         <v>0.2</v>
       </c>
-      <c r="K44" s="79">
+      <c r="K44" s="77">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>-4.5660593406461093E-2</v>
       </c>
-      <c r="L44" s="80">
+      <c r="L44" s="78">
         <v>0.85</v>
       </c>
-      <c r="M44" s="81">
+      <c r="M44" s="79">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>6.6058491517147558E-2</v>
       </c>
@@ -27030,28 +27428,28 @@
       <c r="C45" s="33">
         <v>62.82</v>
       </c>
-      <c r="D45" s="101">
+      <c r="D45" s="99">
         <f t="shared" si="0"/>
         <v>4.0066190726285145E-2</v>
       </c>
-      <c r="H45" s="82">
+      <c r="H45" s="80">
         <v>0.02</v>
       </c>
-      <c r="I45" s="83">
+      <c r="I45" s="81">
         <f t="shared" si="7"/>
         <v>-0.11339552234394562</v>
       </c>
-      <c r="J45" s="84">
+      <c r="J45" s="82">
         <v>0.25</v>
       </c>
-      <c r="K45" s="83">
+      <c r="K45" s="81">
         <f t="shared" si="8"/>
         <v>-3.8743259005170977E-2</v>
       </c>
-      <c r="L45" s="84">
+      <c r="L45" s="82">
         <v>0.86</v>
       </c>
-      <c r="M45" s="85">
+      <c r="M45" s="83">
         <f t="shared" si="9"/>
         <v>6.8376009539141233E-2</v>
       </c>
@@ -27063,28 +27461,28 @@
       <c r="C46" s="33">
         <v>60.400002000000001</v>
       </c>
-      <c r="D46" s="101">
+      <c r="D46" s="99">
         <f t="shared" si="0"/>
         <v>-1.2264921921016469E-2</v>
       </c>
-      <c r="H46" s="82">
+      <c r="H46" s="80">
         <v>0.03</v>
       </c>
-      <c r="I46" s="83">
+      <c r="I46" s="81">
         <f t="shared" si="7"/>
         <v>-0.10994800362468396</v>
       </c>
-      <c r="J46" s="84">
+      <c r="J46" s="82">
         <v>0.3</v>
       </c>
-      <c r="K46" s="83">
+      <c r="K46" s="81">
         <f t="shared" si="8"/>
         <v>-3.5093566223110162E-2</v>
       </c>
-      <c r="L46" s="84">
+      <c r="L46" s="82">
         <v>0.87</v>
       </c>
-      <c r="M46" s="85">
+      <c r="M46" s="83">
         <f t="shared" si="9"/>
         <v>6.9492189316869984E-2</v>
       </c>
@@ -27096,28 +27494,28 @@
       <c r="C47" s="33">
         <v>61.150002000000001</v>
       </c>
-      <c r="D47" s="101">
+      <c r="D47" s="99">
         <f t="shared" si="0"/>
         <v>1.3088154190057155E-2</v>
       </c>
-      <c r="H47" s="82">
+      <c r="H47" s="80">
         <v>0.04</v>
       </c>
-      <c r="I47" s="83">
+      <c r="I47" s="81">
         <f t="shared" si="7"/>
         <v>-9.9494603827563255E-2</v>
       </c>
-      <c r="J47" s="84">
+      <c r="J47" s="82">
         <v>0.35</v>
       </c>
-      <c r="K47" s="83">
+      <c r="K47" s="81">
         <f t="shared" si="8"/>
         <v>-2.6615486609247632E-2</v>
       </c>
-      <c r="L47" s="84">
+      <c r="L47" s="82">
         <v>0.88</v>
       </c>
-      <c r="M47" s="85">
+      <c r="M47" s="83">
         <f t="shared" si="9"/>
         <v>7.401526422592522E-2</v>
       </c>
@@ -27129,28 +27527,28 @@
       <c r="C48" s="33">
         <v>60.360000999999997</v>
       </c>
-      <c r="D48" s="101">
+      <c r="D48" s="99">
         <f t="shared" si="0"/>
         <v>1.9078186729697855E-2</v>
       </c>
-      <c r="H48" s="82">
+      <c r="H48" s="80">
         <v>0.05</v>
       </c>
-      <c r="I48" s="83">
+      <c r="I48" s="81">
         <f t="shared" si="7"/>
         <v>-8.6684408845905989E-2</v>
       </c>
-      <c r="J48" s="84">
+      <c r="J48" s="82">
         <v>0.4</v>
       </c>
-      <c r="K48" s="83">
+      <c r="K48" s="81">
         <f t="shared" si="8"/>
         <v>-2.1460563167322914E-2</v>
       </c>
-      <c r="L48" s="84">
+      <c r="L48" s="82">
         <v>0.89</v>
       </c>
-      <c r="M48" s="85">
+      <c r="M48" s="83">
         <f t="shared" si="9"/>
         <v>7.574797115179871E-2</v>
       </c>
@@ -27162,28 +27560,28 @@
       <c r="C49" s="33">
         <v>59.23</v>
       </c>
-      <c r="D49" s="101">
+      <c r="D49" s="99">
         <f t="shared" si="0"/>
         <v>4.8875490545856159E-2</v>
       </c>
-      <c r="H49" s="82">
+      <c r="H49" s="80">
         <v>0.06</v>
       </c>
-      <c r="I49" s="83">
+      <c r="I49" s="81">
         <f t="shared" si="7"/>
         <v>-8.2558673944498007E-2</v>
       </c>
-      <c r="J49" s="84">
+      <c r="J49" s="82">
         <v>0.45</v>
       </c>
-      <c r="K49" s="83">
+      <c r="K49" s="81">
         <f t="shared" si="8"/>
         <v>-1.5646957812187737E-2</v>
       </c>
-      <c r="L49" s="84">
+      <c r="L49" s="82">
         <v>0.9</v>
       </c>
-      <c r="M49" s="85">
+      <c r="M49" s="83">
         <f t="shared" si="9"/>
         <v>7.7852453648551603E-2</v>
       </c>
@@ -27195,28 +27593,28 @@
       <c r="C50" s="33">
         <v>56.470001000000003</v>
       </c>
-      <c r="D50" s="101">
+      <c r="D50" s="99">
         <f t="shared" si="0"/>
         <v>-3.6183632019115897E-2</v>
       </c>
-      <c r="H50" s="82">
+      <c r="H50" s="80">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="83">
+      <c r="I50" s="81">
         <f t="shared" si="7"/>
         <v>-7.7840004039976887E-2</v>
       </c>
-      <c r="J50" s="84">
+      <c r="J50" s="82">
         <v>0.5</v>
       </c>
-      <c r="K50" s="83">
+      <c r="K50" s="81">
         <f t="shared" si="8"/>
         <v>-1.2142939845160516E-2</v>
       </c>
-      <c r="L50" s="84">
+      <c r="L50" s="82">
         <v>0.91</v>
       </c>
-      <c r="M50" s="85">
+      <c r="M50" s="83">
         <f t="shared" si="9"/>
         <v>7.9198818392221204E-2</v>
       </c>
@@ -27228,28 +27626,28 @@
       <c r="C51" s="33">
         <v>58.59</v>
       </c>
-      <c r="D51" s="101">
+      <c r="D51" s="99">
         <f t="shared" si="0"/>
         <v>4.4198876417770983E-2</v>
       </c>
-      <c r="H51" s="82">
+      <c r="H51" s="80">
         <v>0.08</v>
       </c>
-      <c r="I51" s="83">
+      <c r="I51" s="81">
         <f t="shared" si="7"/>
         <v>-7.4414498617103794E-2</v>
       </c>
-      <c r="J51" s="84">
+      <c r="J51" s="82">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="83">
+      <c r="K51" s="81">
         <f t="shared" si="8"/>
         <v>-5.6207531266508149E-3</v>
       </c>
-      <c r="L51" s="84">
+      <c r="L51" s="82">
         <v>0.92</v>
       </c>
-      <c r="M51" s="85">
+      <c r="M51" s="83">
         <f t="shared" si="9"/>
         <v>8.277928668138769E-2</v>
       </c>
@@ -27261,28 +27659,28 @@
       <c r="C52" s="33">
         <v>56.110000999999997</v>
       </c>
-      <c r="D52" s="101">
+      <c r="D52" s="99">
         <f t="shared" si="0"/>
         <v>6.8761923809523839E-2</v>
       </c>
-      <c r="H52" s="82">
+      <c r="H52" s="80">
         <v>0.09</v>
       </c>
-      <c r="I52" s="83">
+      <c r="I52" s="81">
         <f t="shared" si="7"/>
         <v>-7.2943168612274456E-2</v>
       </c>
-      <c r="J52" s="84">
+      <c r="J52" s="82">
         <v>0.6</v>
       </c>
-      <c r="K52" s="83">
+      <c r="K52" s="81">
         <f t="shared" si="8"/>
         <v>6.8678376843139561E-3</v>
       </c>
-      <c r="L52" s="84">
+      <c r="L52" s="82">
         <v>0.93</v>
       </c>
-      <c r="M52" s="85">
+      <c r="M52" s="83">
         <f t="shared" si="9"/>
         <v>9.3536025852258203E-2</v>
       </c>
@@ -27294,28 +27692,28 @@
       <c r="C53" s="33">
         <v>52.5</v>
       </c>
-      <c r="D53" s="101">
+      <c r="D53" s="99">
         <f t="shared" si="0"/>
         <v>-1.1857726108456146E-2</v>
       </c>
-      <c r="H53" s="82">
+      <c r="H53" s="80">
         <v>0.1</v>
       </c>
-      <c r="I53" s="83">
+      <c r="I53" s="81">
         <f t="shared" si="7"/>
         <v>-7.0826881872197892E-2</v>
       </c>
-      <c r="J53" s="84">
+      <c r="J53" s="82">
         <v>0.65</v>
       </c>
-      <c r="K53" s="83">
+      <c r="K53" s="81">
         <f t="shared" si="8"/>
         <v>1.5621547288521189E-2</v>
       </c>
-      <c r="L53" s="84">
+      <c r="L53" s="82">
         <v>0.94</v>
       </c>
-      <c r="M53" s="85">
+      <c r="M53" s="83">
         <f t="shared" si="9"/>
         <v>9.6135652043394387E-2</v>
       </c>
@@ -27327,28 +27725,28 @@
       <c r="C54" s="33">
         <v>53.130001</v>
       </c>
-      <c r="D54" s="101">
+      <c r="D54" s="99">
         <f t="shared" si="0"/>
         <v>1.1306010928961996E-3</v>
       </c>
-      <c r="H54" s="82">
+      <c r="H54" s="80">
         <v>0.11</v>
       </c>
-      <c r="I54" s="83">
+      <c r="I54" s="81">
         <f t="shared" si="7"/>
         <v>-6.7253662902004671E-2</v>
       </c>
-      <c r="J54" s="84">
+      <c r="J54" s="82">
         <v>0.7</v>
       </c>
-      <c r="K54" s="83">
+      <c r="K54" s="81">
         <f t="shared" si="8"/>
         <v>2.5185371787846921E-2</v>
       </c>
-      <c r="L54" s="84">
+      <c r="L54" s="82">
         <v>0.95</v>
       </c>
-      <c r="M54" s="85">
+      <c r="M54" s="83">
         <f t="shared" si="9"/>
         <v>0.10023321626686302</v>
       </c>
@@ -27360,28 +27758,28 @@
       <c r="C55" s="33">
         <v>53.07</v>
       </c>
-      <c r="D55" s="101">
+      <c r="D55" s="99">
         <f t="shared" si="0"/>
         <v>1.8813591860241896E-2</v>
       </c>
-      <c r="H55" s="82">
+      <c r="H55" s="80">
         <v>0.12</v>
       </c>
-      <c r="I55" s="83">
+      <c r="I55" s="81">
         <f t="shared" si="7"/>
         <v>-6.1530069889668339E-2</v>
       </c>
-      <c r="J55" s="84">
+      <c r="J55" s="82">
         <v>0.75</v>
       </c>
-      <c r="K55" s="83">
+      <c r="K55" s="81">
         <f t="shared" si="8"/>
         <v>3.5994490447217642E-2</v>
       </c>
-      <c r="L55" s="84">
+      <c r="L55" s="82">
         <v>0.96</v>
       </c>
-      <c r="M55" s="85">
+      <c r="M55" s="83">
         <f t="shared" si="9"/>
         <v>0.10566248900953859</v>
       </c>
@@ -27393,28 +27791,28 @@
       <c r="C56" s="33">
         <v>52.09</v>
       </c>
-      <c r="D56" s="101">
+      <c r="D56" s="99">
         <f t="shared" si="0"/>
         <v>7.8691218084671499E-2</v>
       </c>
-      <c r="H56" s="82">
+      <c r="H56" s="80">
         <v>0.13</v>
       </c>
-      <c r="I56" s="83">
+      <c r="I56" s="81">
         <f t="shared" si="7"/>
         <v>-5.7360249600828535E-2</v>
       </c>
-      <c r="J56" s="84">
+      <c r="J56" s="82">
         <v>0.8</v>
       </c>
-      <c r="K56" s="83">
+      <c r="K56" s="81">
         <f t="shared" si="8"/>
         <v>4.434965521544925E-2</v>
       </c>
-      <c r="L56" s="84">
+      <c r="L56" s="82">
         <v>0.97</v>
       </c>
-      <c r="M56" s="85">
+      <c r="M56" s="83">
         <f t="shared" si="9"/>
         <v>0.11140186934172613</v>
       </c>
@@ -27426,23 +27824,23 @@
       <c r="C57" s="33">
         <v>48.290000999999997</v>
       </c>
-      <c r="D57" s="101">
+      <c r="D57" s="99">
         <f t="shared" si="0"/>
         <v>-4.3004321105912124E-2</v>
       </c>
-      <c r="H57" s="82">
+      <c r="H57" s="80">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="83">
+      <c r="I57" s="81">
         <f t="shared" si="7"/>
         <v>-5.2780217203639401E-2</v>
       </c>
-      <c r="J57" s="84"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="84">
+      <c r="J57" s="82"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="82">
         <v>0.98</v>
       </c>
-      <c r="M57" s="85">
+      <c r="M57" s="83">
         <f t="shared" si="9"/>
         <v>0.15937224755601406</v>
       </c>
@@ -27454,23 +27852,23 @@
       <c r="C58" s="33">
         <v>50.459999000000003</v>
       </c>
-      <c r="D58" s="101">
+      <c r="D58" s="99">
         <f t="shared" si="0"/>
         <v>9.8628325713041587E-2</v>
       </c>
-      <c r="H58" s="86">
+      <c r="H58" s="84">
         <v>0.15</v>
       </c>
-      <c r="I58" s="87">
+      <c r="I58" s="85">
         <f t="shared" si="7"/>
         <v>-5.2185515554066024E-2</v>
       </c>
-      <c r="J58" s="88"/>
-      <c r="K58" s="89"/>
-      <c r="L58" s="90">
+      <c r="J58" s="86"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="88">
         <v>0.99</v>
       </c>
-      <c r="M58" s="91">
+      <c r="M58" s="89">
         <f t="shared" si="9"/>
         <v>0.21670319696112439</v>
       </c>
@@ -27482,7 +27880,7 @@
       <c r="C59" s="33">
         <v>45.93</v>
       </c>
-      <c r="D59" s="101">
+      <c r="D59" s="99">
         <f t="shared" si="0"/>
         <v>4.4575823411966642E-2</v>
       </c>
@@ -27494,14 +27892,14 @@
       <c r="C60" s="33">
         <v>43.970001000000003</v>
       </c>
-      <c r="D60" s="101">
+      <c r="D60" s="99">
         <f t="shared" si="0"/>
         <v>-5.1348373305215578E-2</v>
       </c>
-      <c r="H60" s="92" t="s">
+      <c r="H60" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="I60" s="93">
+      <c r="I60" s="91">
         <v>-0.11</v>
       </c>
     </row>
@@ -27512,14 +27910,14 @@
       <c r="C61" s="33">
         <v>46.349997999999999</v>
       </c>
-      <c r="D61" s="101">
+      <c r="D61" s="99">
         <f t="shared" si="0"/>
         <v>-0.10865388461538461</v>
       </c>
-      <c r="H61" s="94" t="s">
+      <c r="H61" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="I61" s="95">
+      <c r="I61" s="93">
         <v>-0.33</v>
       </c>
     </row>
@@ -27530,11 +27928,11 @@
       <c r="C62" s="33">
         <v>52</v>
       </c>
-      <c r="D62" s="101">
+      <c r="D62" s="99">
         <f t="shared" si="0"/>
         <v>6.842001513951157E-2</v>
       </c>
-      <c r="H62" s="96"/>
+      <c r="H62" s="94"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="15">
@@ -27543,14 +27941,14 @@
       <c r="C63" s="33">
         <v>48.669998</v>
       </c>
-      <c r="D63" s="101">
+      <c r="D63" s="99">
         <f t="shared" si="0"/>
         <v>-2.3475160513643734E-2</v>
       </c>
-      <c r="H63" s="92" t="s">
+      <c r="H63" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="I63" s="97">
+      <c r="I63" s="95">
         <v>51.15</v>
       </c>
     </row>
@@ -27561,14 +27959,14 @@
       <c r="C64" s="33">
         <v>49.84</v>
       </c>
-      <c r="D64" s="101">
+      <c r="D64" s="99">
         <f t="shared" si="0"/>
         <v>-5.1569915348618656E-2</v>
       </c>
-      <c r="H64" s="98" t="s">
+      <c r="H64" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="I64" s="99">
+      <c r="I64" s="97">
         <f>I63*(1-I60)</f>
         <v>56.776500000000006</v>
       </c>
@@ -27580,14 +27978,14 @@
       <c r="C65" s="33">
         <v>52.549999</v>
       </c>
-      <c r="D65" s="101">
+      <c r="D65" s="99">
         <f t="shared" si="0"/>
         <v>-4.1583128156734372E-2</v>
       </c>
-      <c r="H65" s="94" t="s">
+      <c r="H65" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="I65" s="100">
+      <c r="I65" s="98">
         <f>I63*(1+I61)</f>
         <v>34.270499999999998</v>
       </c>
@@ -27599,7 +27997,7 @@
       <c r="C66" s="33">
         <v>54.830002</v>
       </c>
-      <c r="D66" s="101">
+      <c r="D66" s="99">
         <f t="shared" si="0"/>
         <v>7.4676636613092873E-2</v>
       </c>
@@ -27611,7 +28009,7 @@
       <c r="C67" s="33">
         <v>51.02</v>
       </c>
-      <c r="D67" s="101">
+      <c r="D67" s="99">
         <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
         <v>-4.2057793543289312E-2</v>
       </c>
@@ -27623,7 +28021,7 @@
       <c r="C68" s="33">
         <v>53.259998000000003</v>
       </c>
-      <c r="D68" s="101">
+      <c r="D68" s="99">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -27635,7 +28033,7 @@
       <c r="C69" s="33">
         <v>53.259998000000003</v>
       </c>
-      <c r="D69" s="101">
+      <c r="D69" s="99">
         <f t="shared" si="10"/>
         <v>0.15206571490374232</v>
       </c>
@@ -27647,7 +28045,7 @@
       <c r="C70" s="33">
         <v>46.23</v>
       </c>
-      <c r="D70" s="101">
+      <c r="D70" s="99">
         <f t="shared" si="10"/>
         <v>8.2923426632078412E-2</v>
       </c>
@@ -27659,7 +28057,7 @@
       <c r="C71" s="33">
         <v>42.689999</v>
       </c>
-      <c r="D71" s="101">
+      <c r="D71" s="99">
         <f t="shared" si="10"/>
         <v>-7.9014642784444034E-3</v>
       </c>
@@ -27671,7 +28069,7 @@
       <c r="C72" s="33">
         <v>43.029998999999997</v>
       </c>
-      <c r="D72" s="101">
+      <c r="D72" s="99">
         <f t="shared" si="10"/>
         <v>1.4619170007073912E-2</v>
       </c>
@@ -27683,7 +28081,7 @@
       <c r="C73" s="33">
         <v>42.41</v>
       </c>
-      <c r="D73" s="101">
+      <c r="D73" s="99">
         <f t="shared" si="10"/>
         <v>-2.1909616653375985E-2</v>
       </c>
@@ -27695,7 +28093,7 @@
       <c r="C74" s="33">
         <v>43.360000999999997</v>
       </c>
-      <c r="D74" s="101">
+      <c r="D74" s="99">
         <f t="shared" si="10"/>
         <v>-7.2909963651913712E-2</v>
       </c>
@@ -27707,7 +28105,7 @@
       <c r="C75" s="33">
         <v>46.77</v>
       </c>
-      <c r="D75" s="101">
+      <c r="D75" s="99">
         <f t="shared" si="10"/>
         <v>6.5861416001335105E-2</v>
       </c>
@@ -27719,7 +28117,7 @@
       <c r="C76" s="33">
         <v>43.880001</v>
       </c>
-      <c r="D76" s="101">
+      <c r="D76" s="99">
         <f t="shared" si="10"/>
         <v>4.1043865193648221E-2</v>
       </c>
@@ -27731,7 +28129,7 @@
       <c r="C77" s="33">
         <v>42.150002000000001</v>
       </c>
-      <c r="D77" s="101">
+      <c r="D77" s="99">
         <f t="shared" si="10"/>
         <v>-6.2082711661831547E-2</v>
       </c>
@@ -27743,7 +28141,7 @@
       <c r="C78" s="33">
         <v>44.939999</v>
       </c>
-      <c r="D78" s="101">
+      <c r="D78" s="99">
         <f t="shared" si="10"/>
         <v>0.28143709723410315</v>
       </c>
@@ -27755,7 +28153,7 @@
       <c r="C79" s="33">
         <v>35.07</v>
       </c>
-      <c r="D79" s="101">
+      <c r="D79" s="99">
         <f t="shared" si="10"/>
         <v>-4.4414194975090027E-2</v>
       </c>
@@ -27767,7 +28165,7 @@
       <c r="C80" s="33">
         <v>36.700001</v>
       </c>
-      <c r="D80" s="101">
+      <c r="D80" s="99">
         <f t="shared" si="10"/>
         <v>8.2595835835054032E-2</v>
       </c>
@@ -27779,7 +28177,7 @@
       <c r="C81" s="33">
         <v>33.900002000000001</v>
       </c>
-      <c r="D81" s="101">
+      <c r="D81" s="99">
         <f t="shared" si="10"/>
         <v>-2.6478374434928398E-3</v>
       </c>
@@ -27791,7 +28189,7 @@
       <c r="C82" s="33">
         <v>33.990001999999997</v>
       </c>
-      <c r="D82" s="101">
+      <c r="D82" s="99">
         <f t="shared" si="10"/>
         <v>-1.5923537466023818E-2</v>
       </c>
@@ -27803,7 +28201,7 @@
       <c r="C83" s="33">
         <v>34.540000999999997</v>
       </c>
-      <c r="D83" s="101">
+      <c r="D83" s="99">
         <f t="shared" si="10"/>
         <v>-1.4831716633436631E-2</v>
       </c>
@@ -27815,7 +28213,7 @@
       <c r="C84" s="33">
         <v>35.060001</v>
       </c>
-      <c r="D84" s="101">
+      <c r="D84" s="99">
         <f t="shared" si="10"/>
         <v>-4.5206970446433403E-2</v>
       </c>
@@ -27827,7 +28225,7 @@
       <c r="C85" s="33">
         <v>36.720001000000003</v>
       </c>
-      <c r="D85" s="101">
+      <c r="D85" s="99">
         <f t="shared" si="10"/>
         <v>-8.406083811424292E-2</v>
       </c>
@@ -27839,7 +28237,7 @@
       <c r="C86" s="33">
         <v>40.090000000000003</v>
       </c>
-      <c r="D86" s="101">
+      <c r="D86" s="99">
         <f t="shared" si="10"/>
         <v>-0.13654964462631913</v>
       </c>
@@ -27851,7 +28249,7 @@
       <c r="C87" s="33">
         <v>46.43</v>
       </c>
-      <c r="D87" s="101">
+      <c r="D87" s="99">
         <f t="shared" si="10"/>
         <v>7.8012537729277964E-2</v>
       </c>
@@ -27863,7 +28261,7 @@
       <c r="C88" s="33">
         <v>43.07</v>
       </c>
-      <c r="D88" s="101">
+      <c r="D88" s="99">
         <f t="shared" si="10"/>
         <v>-5.2782074933317102E-2</v>
       </c>
@@ -27875,7 +28273,7 @@
       <c r="C89" s="33">
         <v>45.470001000000003</v>
       </c>
-      <c r="D89" s="101">
+      <c r="D89" s="99">
         <f t="shared" si="10"/>
         <v>-3.8485937016579763E-2</v>
       </c>
@@ -27887,7 +28285,7 @@
       <c r="C90" s="33">
         <v>47.290000999999997</v>
       </c>
-      <c r="D90" s="101">
+      <c r="D90" s="99">
         <f t="shared" si="10"/>
         <v>-4.9638205371310584E-2</v>
       </c>
@@ -27899,7 +28297,7 @@
       <c r="C91" s="33">
         <v>49.759998000000003</v>
       </c>
-      <c r="D91" s="101">
+      <c r="D91" s="99">
         <f t="shared" si="10"/>
         <v>3.5157021011025691E-2</v>
       </c>
@@ -27911,7 +28309,7 @@
       <c r="C92" s="33">
         <v>48.07</v>
       </c>
-      <c r="D92" s="101">
+      <c r="D92" s="99">
         <f t="shared" si="10"/>
         <v>1.4583333333333393E-3</v>
       </c>
@@ -27923,7 +28321,7 @@
       <c r="C93" s="33">
         <v>48</v>
       </c>
-      <c r="D93" s="101">
+      <c r="D93" s="99">
         <f t="shared" si="10"/>
         <v>9.3643223824179112E-2</v>
       </c>
@@ -27935,7 +28333,7 @@
       <c r="C94" s="33">
         <v>43.889999000000003</v>
       </c>
-      <c r="D94" s="101">
+      <c r="D94" s="99">
         <f t="shared" si="10"/>
         <v>0.1114205312017964</v>
       </c>
@@ -27947,7 +28345,7 @@
       <c r="C95" s="33">
         <v>39.490001999999997</v>
       </c>
-      <c r="D95" s="101">
+      <c r="D95" s="99">
         <f t="shared" si="10"/>
         <v>-8.7147391916199468E-2</v>
       </c>
@@ -27959,7 +28357,7 @@
       <c r="C96" s="33">
         <v>43.259998000000003</v>
       </c>
-      <c r="D96" s="101">
+      <c r="D96" s="99">
         <f t="shared" si="10"/>
         <v>-1.7711239379853638E-2</v>
       </c>
@@ -27971,7 +28369,7 @@
       <c r="C97" s="33">
         <v>44.040000999999997</v>
       </c>
-      <c r="D97" s="101">
+      <c r="D97" s="99">
         <f t="shared" si="10"/>
         <v>-3.6112892013851927E-2</v>
       </c>
@@ -27983,7 +28381,7 @@
       <c r="C98" s="33">
         <v>45.689999</v>
       </c>
-      <c r="D98" s="101">
+      <c r="D98" s="99">
         <f t="shared" si="10"/>
         <v>1.1512088178529556E-2</v>
       </c>
@@ -27995,7 +28393,7 @@
       <c r="C99" s="33">
         <v>45.169998</v>
       </c>
-      <c r="D99" s="101">
+      <c r="D99" s="99">
         <f t="shared" si="10"/>
         <v>-0.11047658744538369</v>
       </c>
@@ -28007,7 +28405,7 @@
       <c r="C100" s="33">
         <v>50.779998999999997</v>
       </c>
-      <c r="D100" s="101">
+      <c r="D100" s="99">
         <f t="shared" si="10"/>
         <v>-6.7058625757854151E-2</v>
       </c>
@@ -28019,7 +28417,7 @@
       <c r="C101" s="33">
         <v>54.43</v>
       </c>
-      <c r="D101" s="101">
+      <c r="D101" s="99">
         <f t="shared" si="10"/>
         <v>-6.0262602639248319E-3</v>
       </c>
@@ -28031,7 +28429,7 @@
       <c r="C102" s="33">
         <v>54.759998000000003</v>
       </c>
-      <c r="D102" s="101">
+      <c r="D102" s="99">
         <f t="shared" si="10"/>
         <v>3.8301022438338217E-2</v>
       </c>
@@ -28043,7 +28441,7 @@
       <c r="C103" s="33">
         <v>52.740001999999997</v>
       </c>
-      <c r="D103" s="101">
+      <c r="D103" s="99">
         <f t="shared" si="10"/>
         <v>-7.2132266009852342E-2</v>
       </c>
@@ -28055,7 +28453,7 @@
       <c r="C104" s="33">
         <v>56.84</v>
       </c>
-      <c r="D104" s="101">
+      <c r="D104" s="99">
         <f t="shared" si="10"/>
         <v>-5.8628700585811488E-2</v>
       </c>
@@ -28067,7 +28465,7 @@
       <c r="C105" s="33">
         <v>60.380001</v>
       </c>
-      <c r="D105" s="101">
+      <c r="D105" s="99">
         <f t="shared" si="10"/>
         <v>2.0104781552708006E-2</v>
       </c>
@@ -28079,7 +28477,7 @@
       <c r="C106" s="33">
         <v>59.189999</v>
       </c>
-      <c r="D106" s="101">
+      <c r="D106" s="99">
         <f t="shared" si="10"/>
         <v>-3.5050554287577529E-2</v>
       </c>
@@ -28091,7 +28489,7 @@
       <c r="C107" s="33">
         <v>61.34</v>
       </c>
-      <c r="D107" s="101">
+      <c r="D107" s="99">
         <f t="shared" si="10"/>
         <v>3.4401366516043419E-2</v>
       </c>
@@ -28103,7 +28501,7 @@
       <c r="C108" s="33">
         <v>59.299999</v>
       </c>
-      <c r="D108" s="101">
+      <c r="D108" s="99">
         <f t="shared" si="10"/>
         <v>-3.1678689363857315E-2</v>
       </c>
@@ -28115,7 +28513,7 @@
       <c r="C109" s="33">
         <v>61.240001999999997</v>
       </c>
-      <c r="D109" s="101">
+      <c r="D109" s="99">
         <f t="shared" si="10"/>
         <v>-0.11528458371446715</v>
       </c>
@@ -28127,7 +28525,7 @@
       <c r="C110" s="33">
         <v>69.220000999999996</v>
       </c>
-      <c r="D110" s="101">
+      <c r="D110" s="99">
         <f t="shared" si="10"/>
         <v>-5.2689188449432045E-2</v>
       </c>
@@ -28139,7 +28537,7 @@
       <c r="C111" s="33">
         <v>73.069999999999993</v>
       </c>
-      <c r="D111" s="101">
+      <c r="D111" s="99">
         <f t="shared" si="10"/>
         <v>-7.7864691516019602E-2</v>
       </c>
@@ -28151,7 +28549,7 @@
       <c r="C112" s="33">
         <v>79.239998</v>
       </c>
-      <c r="D112" s="101">
+      <c r="D112" s="99">
         <f t="shared" si="10"/>
         <v>0.20425523384854549</v>
       </c>
@@ -28163,7 +28561,7 @@
       <c r="C113" s="33">
         <v>65.800003000000004</v>
       </c>
-      <c r="D113" s="101">
+      <c r="D113" s="99">
         <f t="shared" si="10"/>
         <v>-0.11308800072548864</v>
       </c>
@@ -28175,7 +28573,7 @@
       <c r="C114" s="33">
         <v>74.190002000000007</v>
       </c>
-      <c r="D114" s="101">
+      <c r="D114" s="99">
         <f t="shared" si="10"/>
         <v>-0.12076315906956003</v>
       </c>
@@ -28187,7 +28585,7 @@
       <c r="C115" s="33">
         <v>84.379997000000003</v>
       </c>
-      <c r="D115" s="101">
+      <c r="D115" s="99">
         <f t="shared" si="10"/>
         <v>3.9034577503196388E-2</v>
       </c>
@@ -28199,7 +28597,7 @@
       <c r="C116" s="33">
         <v>81.209998999999996</v>
       </c>
-      <c r="D116" s="101">
+      <c r="D116" s="99">
         <f t="shared" si="10"/>
         <v>-2.5441053031535987E-2</v>
       </c>
@@ -28211,7 +28609,7 @@
       <c r="C117" s="33">
         <v>83.330001999999993</v>
       </c>
-      <c r="D117" s="101">
+      <c r="D117" s="99">
         <f t="shared" si="10"/>
         <v>3.6185079238624018E-2</v>
       </c>
@@ -28223,7 +28621,7 @@
       <c r="C118" s="33">
         <v>80.419998000000007</v>
       </c>
-      <c r="D118" s="101">
+      <c r="D118" s="99">
         <f t="shared" si="10"/>
         <v>2.7862986397315659E-2</v>
       </c>
@@ -28235,7 +28633,7 @@
       <c r="C119" s="33">
         <v>78.239998</v>
       </c>
-      <c r="D119" s="101">
+      <c r="D119" s="99">
         <f t="shared" si="10"/>
         <v>-7.5395943911748642E-2</v>
       </c>
@@ -28247,7 +28645,7 @@
       <c r="C120" s="33">
         <v>84.620002999999997</v>
       </c>
-      <c r="D120" s="101">
+      <c r="D120" s="99">
         <f t="shared" si="10"/>
         <v>-7.3165386423919454E-2</v>
       </c>
@@ -28259,7 +28657,7 @@
       <c r="C121" s="33">
         <v>91.300003000000004</v>
       </c>
-      <c r="D121" s="101">
+      <c r="D121" s="99">
         <f t="shared" si="10"/>
         <v>9.4330612489512022E-2</v>
       </c>
@@ -28271,7 +28669,7 @@
       <c r="C122" s="33">
         <v>83.43</v>
       </c>
-      <c r="D122" s="101">
+      <c r="D122" s="99">
         <f t="shared" si="10"/>
         <v>-8.147089989054479E-2</v>
       </c>
@@ -28283,7 +28681,7 @@
       <c r="C123" s="33">
         <v>90.830001999999993</v>
       </c>
-      <c r="D123" s="101">
+      <c r="D123" s="99">
         <f t="shared" si="10"/>
         <v>-1.0889687228799128E-2</v>
       </c>
@@ -28295,7 +28693,7 @@
       <c r="C124" s="33">
         <v>91.830001999999993</v>
       </c>
-      <c r="D124" s="101">
+      <c r="D124" s="99">
         <f t="shared" si="10"/>
         <v>6.2970286641628404E-2</v>
       </c>
@@ -28307,7 +28705,7 @@
       <c r="C125" s="33">
         <v>86.389999000000003</v>
       </c>
-      <c r="D125" s="101">
+      <c r="D125" s="99">
         <f t="shared" si="10"/>
         <v>7.1112148182701507E-3</v>
       </c>
@@ -28319,7 +28717,7 @@
       <c r="C126" s="33">
         <v>85.779999000000004</v>
       </c>
-      <c r="D126" s="101">
+      <c r="D126" s="99">
         <f t="shared" si="10"/>
         <v>-2.5448739790345565E-2</v>
       </c>
@@ -28331,7 +28729,7 @@
       <c r="C127" s="33">
         <v>88.019997000000004</v>
       </c>
-      <c r="D127" s="101">
+      <c r="D127" s="99">
         <f t="shared" si="10"/>
         <v>-9.5932661298966049E-2</v>
       </c>
@@ -28343,7 +28741,7 @@
       <c r="C128" s="33">
         <v>97.360000999999997</v>
       </c>
-      <c r="D128" s="101">
+      <c r="D128" s="99">
         <f t="shared" si="10"/>
         <v>-3.6421218958618273E-2</v>
       </c>
@@ -28355,7 +28753,7 @@
       <c r="C129" s="33">
         <v>101.040001</v>
       </c>
-      <c r="D129" s="101">
+      <c r="D129" s="99">
         <f t="shared" si="10"/>
         <v>2.516236861124943E-2</v>
       </c>
@@ -28367,7 +28765,7 @@
       <c r="C130" s="33">
         <v>98.559997999999993</v>
       </c>
-      <c r="D130" s="101">
+      <c r="D130" s="99">
         <f t="shared" si="10"/>
         <v>5.4230400133284729E-2</v>
       </c>
@@ -28379,7 +28777,7 @@
       <c r="C131" s="33">
         <v>93.489998</v>
       </c>
-      <c r="D131" s="101">
+      <c r="D131" s="99">
         <f t="shared" ref="D131:D145" si="11">C131/C132-1</f>
         <v>5.2815257224709811E-2</v>
       </c>
@@ -28391,7 +28789,7 @@
       <c r="C132" s="33">
         <v>88.800003000000004</v>
       </c>
-      <c r="D132" s="101">
+      <c r="D132" s="99">
         <f t="shared" si="11"/>
         <v>3.5930960850082183E-2</v>
       </c>
@@ -28403,7 +28801,7 @@
       <c r="C133" s="33">
         <v>85.720000999999996</v>
       </c>
-      <c r="D133" s="101">
+      <c r="D133" s="99">
         <f t="shared" si="11"/>
         <v>3.1528316041596005E-2</v>
       </c>
@@ -28415,7 +28813,7 @@
       <c r="C134" s="33">
         <v>83.099997999999999</v>
       </c>
-      <c r="D134" s="101">
+      <c r="D134" s="99">
         <f t="shared" si="11"/>
         <v>0.10051643224694917</v>
       </c>
@@ -28427,7 +28825,7 @@
       <c r="C135" s="33">
         <v>75.510002</v>
       </c>
-      <c r="D135" s="101">
+      <c r="D135" s="99">
         <f t="shared" si="11"/>
         <v>-5.6478783662111565E-2</v>
       </c>
@@ -28439,7 +28837,7 @@
       <c r="C136" s="33">
         <v>80.029999000000004</v>
       </c>
-      <c r="D136" s="101">
+      <c r="D136" s="99">
         <f t="shared" si="11"/>
         <v>-1.7462767056574124E-3</v>
       </c>
@@ -28451,7 +28849,7 @@
       <c r="C137" s="33">
         <v>80.169998000000007</v>
       </c>
-      <c r="D137" s="101">
+      <c r="D137" s="99">
         <f t="shared" si="11"/>
         <v>-1.4141687161829619E-2</v>
       </c>
@@ -28463,7 +28861,7 @@
       <c r="C138" s="33">
         <v>81.319999999999993</v>
       </c>
-      <c r="D138" s="101">
+      <c r="D138" s="99">
         <f t="shared" si="11"/>
         <v>-1.6805694798763149E-2</v>
       </c>
@@ -28475,7 +28873,7 @@
       <c r="C139" s="33">
         <v>82.709998999999996</v>
       </c>
-      <c r="D139" s="101">
+      <c r="D139" s="99">
         <f t="shared" si="11"/>
         <v>-4.8982430160027235E-2</v>
       </c>
@@ -28487,7 +28885,7 @@
       <c r="C140" s="33">
         <v>86.970000999999996</v>
       </c>
-      <c r="D140" s="101">
+      <c r="D140" s="99">
         <f t="shared" si="11"/>
         <v>1.5648768503401911E-2</v>
       </c>
@@ -28499,7 +28897,7 @@
       <c r="C141" s="33">
         <v>85.629997000000003</v>
       </c>
-      <c r="D141" s="101">
+      <c r="D141" s="99">
         <f t="shared" si="11"/>
         <v>0.11135617996017477</v>
       </c>
@@ -28511,7 +28909,7 @@
       <c r="C142" s="33">
         <v>77.050003000000004</v>
       </c>
-      <c r="D142" s="101">
+      <c r="D142" s="99">
         <f t="shared" si="11"/>
         <v>-1.8096061958760457E-2</v>
       </c>
@@ -28523,7 +28921,7 @@
       <c r="C143" s="33">
         <v>78.470000999999996</v>
       </c>
-      <c r="D143" s="101">
+      <c r="D143" s="99">
         <f t="shared" si="11"/>
         <v>0.22609376562499994</v>
       </c>
@@ -28535,7 +28933,7 @@
       <c r="C144" s="33">
         <v>64</v>
       </c>
-      <c r="D144" s="101">
+      <c r="D144" s="99">
         <f t="shared" si="11"/>
         <v>0.10344827586206895</v>
       </c>
@@ -28547,7 +28945,7 @@
       <c r="C145" s="33">
         <v>58</v>
       </c>
-      <c r="D145" s="101">
+      <c r="D145" s="99">
         <f t="shared" si="11"/>
         <v>-3.3333333333333326E-2</v>
       </c>
